--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\b2b\b2b\33xls\pff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA65F16B-0F25-4C09-8836-07B4FD3C81E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AE104C-6C8A-4068-9ADA-8F37BD939E32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,6 +452,13 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <f>XIRR(C3:C11,B3:B11)</f>
+        <v>2.9792901873588563E-2</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
@@ -506,7 +513,7 @@
         <v>47331</v>
       </c>
       <c r="C10">
-        <f>F3*0.0339</f>
+        <f>$F$3*0.0339</f>
         <v>5085</v>
       </c>
       <c r="D10" t="s">
@@ -525,13 +532,139 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>47696</v>
+      </c>
+      <c r="C12">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <f>XIRR(C3:C11,B3:B11)</f>
-        <v>2.9792901873588563E-2</v>
+      <c r="B13" s="3">
+        <v>48061</v>
+      </c>
+      <c r="C13">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>48427</v>
+      </c>
+      <c r="C14">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>48792</v>
+      </c>
+      <c r="C15">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>49157</v>
+      </c>
+      <c r="C16">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>49522</v>
+      </c>
+      <c r="C17">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>49888</v>
+      </c>
+      <c r="C18">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>50253</v>
+      </c>
+      <c r="C19">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>50618</v>
+      </c>
+      <c r="C20">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>50983</v>
+      </c>
+      <c r="C21">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>51349</v>
+      </c>
+      <c r="C22">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>51714</v>
+      </c>
+      <c r="C23">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>52079</v>
+      </c>
+      <c r="C24">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>52444</v>
+      </c>
+      <c r="C25">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>52810</v>
+      </c>
+      <c r="C26">
+        <f>$F$3*0.0339</f>
+        <v>5085</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AE104C-6C8A-4068-9ADA-8F37BD939E32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF62BF76-6B29-4E38-A0D6-3488DD0435D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LTIS" sheetId="2" r:id="rId1"/>
     <sheet name="FLI2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>total prem</t>
   </si>
@@ -43,13 +43,40 @@
     <t>9% of 30k</t>
   </si>
   <si>
-    <t>first annual payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surrender </t>
-  </si>
-  <si>
     <t>first payout</t>
+  </si>
+  <si>
+    <t>total prem - FLI2</t>
+  </si>
+  <si>
+    <t>xirr</t>
+  </si>
+  <si>
+    <t>first payout FLI2</t>
+  </si>
+  <si>
+    <t>first payout LTIS</t>
+  </si>
+  <si>
+    <t>serrender FLI2</t>
+  </si>
+  <si>
+    <t>surrender LTIS</t>
+  </si>
+  <si>
+    <t>PnL</t>
+  </si>
+  <si>
+    <t>Fli2 upfront</t>
+  </si>
+  <si>
+    <t>total prem - Ltis</t>
+  </si>
+  <si>
+    <t>total outlay</t>
+  </si>
+  <si>
+    <t>golden handshake</t>
   </si>
 </sst>
 </file>
@@ -88,11 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,269 +436,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45170</v>
+      </c>
+      <c r="D3">
+        <f>-G3/3</f>
+        <v>-50065.666666666664</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>150197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>SUM($D$3:D4)</f>
+        <v>-43936.666666666664</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4">
+        <v>45261</v>
+      </c>
+      <c r="D4">
+        <v>6129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>SUM($D$3:D5)</f>
+        <v>-94002.333333333328</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4">
+        <v>45352</v>
+      </c>
+      <c r="D5">
+        <f>D3</f>
+        <v>-50065.666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>SUM($D$3:D6)</f>
+        <v>-124002.33333333333</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
         <v>45505</v>
       </c>
-      <c r="C3">
-        <f>-$F$3/5</f>
+      <c r="D6">
+        <f>-$G$6/5</f>
         <v>-30000</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>SUM($D$3:D7)</f>
+        <v>-121302.33333333333</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
         <v>45566</v>
       </c>
-      <c r="C4">
-        <f>1.8%*F3</f>
+      <c r="D7">
+        <f>1.8%*G6</f>
         <v>2700.0000000000005</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <f>XIRR(C3:C11,B3:B11)</f>
-        <v>2.9792901873588563E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>SUM($D$3:D8)</f>
+        <v>-171368</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4">
+        <v>45717</v>
+      </c>
+      <c r="D8">
+        <f>D3</f>
+        <v>-50065.666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>SUM($D$3:D9)</f>
+        <v>-201368</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
         <v>45870</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C9" si="0">-$F$3/5</f>
+      <c r="D9">
+        <f>-$G$6/5</f>
         <v>-30000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>SUM($D$3:D10)</f>
+        <v>-200243</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3">
         <v>45870</v>
       </c>
-      <c r="C6">
-        <f>(0.0425-0.035)*F3</f>
+      <c r="D10">
+        <f>(0.0425-0.035)*G6</f>
         <v>1125</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>SUM($D$3:D11)</f>
+        <v>-195770.13334</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4">
+        <v>46082</v>
+      </c>
+      <c r="D11">
+        <f>2.978%*G3</f>
+        <v>4472.8666599999997</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>SUM($D$3:D12)</f>
+        <v>-45573.13334</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4">
+        <v>46082</v>
+      </c>
+      <c r="D12">
+        <f>G3</f>
+        <v>150197</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5">
+        <f>A9</f>
+        <v>-201368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>SUM($D$3:D13)</f>
+        <v>-75573.13334</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3">
         <v>46235</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
+      <c r="D13">
+        <f>-$G$6/5</f>
         <v>-30000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>SUM($D$3:D14)</f>
+        <v>-105573.13334</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
         <v>46600</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
+      <c r="D14">
+        <f>-$G$6/5</f>
         <v>-30000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM($D$3:D15)</f>
+        <v>-135573.13334</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
         <v>46966</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
+      <c r="D15">
+        <f>-$G$6/5</f>
         <v>-30000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>SUM($D$3:D16)</f>
+        <v>-130488.13334</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3">
         <v>47331</v>
       </c>
-      <c r="C10">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="D16">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>SUM($D$3:D17)</f>
+        <v>-125988.13334</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
         <v>47331</v>
       </c>
-      <c r="C11">
-        <f>F3*1.03</f>
-        <v>154500</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="D17">
+        <f>G6*3%</f>
+        <v>4500</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>SUM($D$3:D18)</f>
+        <v>24011.86666</v>
+      </c>
+      <c r="B18" s="2">
+        <f>XIRR($D$3:D18,$C$3:C18)</f>
+        <v>3.3692464232444763E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D18">
+        <f>G6</f>
+        <v>150000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>SUM($D$3:D20)</f>
+        <v>29096.86666</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
         <v>47696</v>
       </c>
-      <c r="C12">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="D20">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>SUM($D$3:D21)</f>
+        <v>34181.86666</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
         <v>48061</v>
       </c>
-      <c r="C13">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="D21">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM($D$3:D22)</f>
+        <v>39266.86666</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
         <v>48427</v>
       </c>
-      <c r="C14">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="D22">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>SUM($D$3:D23)</f>
+        <v>44351.86666</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
         <v>48792</v>
       </c>
-      <c r="C15">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="D23">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>SUM($D$3:D24)</f>
+        <v>49436.86666</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3">
         <v>49157</v>
       </c>
-      <c r="C16">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="D24">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>SUM($D$3:D25)</f>
+        <v>54521.86666</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
         <v>49522</v>
       </c>
-      <c r="C17">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="D25">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM($D$3:D26)</f>
+        <v>59606.86666</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3">
         <v>49888</v>
       </c>
-      <c r="C18">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="D26">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f>SUM($D$3:D27)</f>
+        <v>64691.86666</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3">
         <v>50253</v>
       </c>
-      <c r="C19">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="D27">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f>SUM($D$3:D28)</f>
+        <v>69776.86666</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3">
         <v>50618</v>
       </c>
-      <c r="C20">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="D28">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f>SUM($D$3:D29)</f>
+        <v>74861.86666</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3">
         <v>50983</v>
       </c>
-      <c r="C21">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="D29">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f>SUM($D$3:D30)</f>
+        <v>79946.86666</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3">
         <v>51349</v>
       </c>
-      <c r="C22">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="D30">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f>SUM($D$3:D31)</f>
+        <v>85031.86666</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3">
         <v>51714</v>
       </c>
-      <c r="C23">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="D31">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <f>SUM($D$3:D32)</f>
+        <v>90116.86666</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3">
         <v>52079</v>
       </c>
-      <c r="C24">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="D32">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <f>SUM($D$3:D33)</f>
+        <v>95201.86666</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3">
         <v>52444</v>
       </c>
-      <c r="C25">
-        <f>$F$3*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="D33">
+        <f>$G$6*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f>SUM($D$3:D34)</f>
+        <v>100286.86666</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3">
         <v>52810</v>
       </c>
-      <c r="C26">
-        <f>$F$3*0.0339</f>
+      <c r="D34">
+        <f>$G$6*0.0339</f>
         <v>5085</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -678,7 +953,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B3" sqref="B3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +1019,7 @@
         <v>4472.8666599999997</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF62BF76-6B29-4E38-A0D6-3488DD0435D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF03E03F-B5E3-4379-8479-97CDB64FB0C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="LTIS" sheetId="2" r:id="rId1"/>
     <sheet name="FLI2" sheetId="1" r:id="rId2"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>total prem</t>
   </si>
@@ -37,9 +38,6 @@
     <t>cash in/out</t>
   </si>
   <si>
-    <t>12M TD excess return</t>
-  </si>
-  <si>
     <t>9% of 30k</t>
   </si>
   <si>
@@ -73,10 +71,13 @@
     <t>total prem - Ltis</t>
   </si>
   <si>
-    <t>total outlay</t>
-  </si>
-  <si>
     <t>golden handshake</t>
+  </si>
+  <si>
+    <t>high water mark of outlay</t>
+  </si>
+  <si>
+    <t>12M TD excess profit</t>
   </si>
 </sst>
 </file>
@@ -439,7 +440,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +449,7 @@
     <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -458,10 +459,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>45170</v>
@@ -471,7 +472,7 @@
         <v>-50065.666666666664</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>150197</v>
@@ -490,7 +491,7 @@
         <v>6129</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,7 +522,7 @@
         <v>-30000</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>150000</v>
@@ -541,7 +542,7 @@
         <v>2700.0000000000005</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -571,6 +572,13 @@
         <f>-$G$6/5</f>
         <v>-30000</v>
       </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <f>A9</f>
+        <v>-201368</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -586,7 +594,7 @@
         <v>1125</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,7 +611,7 @@
         <v>4472.8666599999997</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
@@ -622,14 +630,7 @@
         <v>150197</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="5">
-        <f>A9</f>
-        <v>-201368</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,7 +689,7 @@
         <v>5085</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,7 +706,7 @@
         <v>4500</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -725,7 +726,7 @@
         <v>150000</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -742,7 +743,7 @@
         <v>47696</v>
       </c>
       <c r="D20">
-        <f>$G$6*0.0339</f>
+        <f t="shared" ref="D20:D34" si="0">$G$6*0.0339</f>
         <v>5085</v>
       </c>
     </row>
@@ -756,7 +757,7 @@
         <v>48061</v>
       </c>
       <c r="D21">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -770,7 +771,7 @@
         <v>48427</v>
       </c>
       <c r="D22">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -784,7 +785,7 @@
         <v>48792</v>
       </c>
       <c r="D23">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -798,7 +799,7 @@
         <v>49157</v>
       </c>
       <c r="D24">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -812,7 +813,7 @@
         <v>49522</v>
       </c>
       <c r="D25">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -826,7 +827,7 @@
         <v>49888</v>
       </c>
       <c r="D26">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -840,7 +841,7 @@
         <v>50253</v>
       </c>
       <c r="D27">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -854,7 +855,7 @@
         <v>50618</v>
       </c>
       <c r="D28">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -868,7 +869,7 @@
         <v>50983</v>
       </c>
       <c r="D29">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -882,7 +883,7 @@
         <v>51349</v>
       </c>
       <c r="D30">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -896,7 +897,7 @@
         <v>51714</v>
       </c>
       <c r="D31">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -910,7 +911,7 @@
         <v>52079</v>
       </c>
       <c r="D32">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -924,7 +925,7 @@
         <v>52444</v>
       </c>
       <c r="D33">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -938,7 +939,7 @@
         <v>52810</v>
       </c>
       <c r="D34">
-        <f>$G$6*0.0339</f>
+        <f t="shared" si="0"/>
         <v>5085</v>
       </c>
     </row>
@@ -953,7 +954,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1020,7 @@
         <v>4472.8666599999997</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1038,6 +1039,83 @@
       <c r="C10" s="2">
         <f>XIRR(C3:C8,B3:B8)</f>
         <v>3.9722254872322102E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="D18:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>46082</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>46082</v>
+      </c>
+      <c r="C7">
+        <f>-C3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="e">
+        <f>XIRR(C3:E14D7,B3:B7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF03E03F-B5E3-4379-8479-97CDB64FB0C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BFB52D-8FCA-474D-BFDA-81786D9A1846}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="LTIS" sheetId="2" r:id="rId1"/>
-    <sheet name="FLI2" sheetId="1" r:id="rId2"/>
-    <sheet name="xirr test" sheetId="3" r:id="rId3"/>
+    <sheet name="overlap ptf" sheetId="4" r:id="rId2"/>
+    <sheet name="FLI2" sheetId="1" r:id="rId3"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>total prem</t>
   </si>
@@ -437,10 +438,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
+  <dimension ref="A2:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>150197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>SUM($D$3:D4)</f>
+        <v>-30000</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>45505</v>
+      </c>
+      <c r="D4">
+        <f>-$G$4/5</f>
+        <v>-30000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>SUM($D$3:D5)</f>
+        <v>-27300</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3">
+        <v>45566</v>
+      </c>
+      <c r="D5">
+        <f>1.8%*G4</f>
+        <v>2700.0000000000005</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>SUM($D$3:D6)</f>
+        <v>-57300</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>45870</v>
+      </c>
+      <c r="D6">
+        <f>-$G$4/5</f>
+        <v>-30000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5">
+        <f>A6</f>
+        <v>-57300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>SUM($D$3:D7)</f>
+        <v>-56175</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
+        <v>45870</v>
+      </c>
+      <c r="D7">
+        <f>(0.0425-0.035)*G4</f>
+        <v>1125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>SUM($D$3:D8)</f>
+        <v>-86175</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3">
+        <v>46235</v>
+      </c>
+      <c r="D8">
+        <f>-$G$4/5</f>
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>SUM($D$3:D9)</f>
+        <v>-116175</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>46600</v>
+      </c>
+      <c r="D9">
+        <f>-$G$4/5</f>
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>SUM($D$3:D10)</f>
+        <v>-146175</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3">
+        <v>46966</v>
+      </c>
+      <c r="D10">
+        <f>-$G$4/5</f>
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>SUM($D$3:D11)</f>
+        <v>-141090</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D11">
+        <f>$G$4*0.0339</f>
+        <v>5085</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>SUM($D$3:D12)</f>
+        <v>-136590</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D12">
+        <f>G4*3%</f>
+        <v>4500</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>SUM($D$3:D13)</f>
+        <v>13410</v>
+      </c>
+      <c r="B13" s="2">
+        <f>XIRR($D$4:D13,$C$4:C13)</f>
+        <v>2.9792901873588563E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D13">
+        <f>G4</f>
+        <v>150000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM($D$3:D15)</f>
+        <v>18495</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
+        <v>47696</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D29" si="0">$G$4*0.0339</f>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>SUM($D$3:D16)</f>
+        <v>23580</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3">
+        <v>48061</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>SUM($D$3:D17)</f>
+        <v>28665</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>48427</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>SUM($D$3:D18)</f>
+        <v>33750</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3">
+        <v>48792</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>SUM($D$3:D19)</f>
+        <v>38835</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>49157</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>SUM($D$3:D20)</f>
+        <v>43920</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>49522</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>SUM($D$3:D21)</f>
+        <v>49005</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>49888</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM($D$3:D22)</f>
+        <v>54090</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
+        <v>50253</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>SUM($D$3:D23)</f>
+        <v>59175</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <v>50618</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>SUM($D$3:D24)</f>
+        <v>64260</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3">
+        <v>50983</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>SUM($D$3:D25)</f>
+        <v>69345</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <v>51349</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM($D$3:D26)</f>
+        <v>74430</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3">
+        <v>51714</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f>SUM($D$3:D27)</f>
+        <v>79515</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3">
+        <v>52079</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f>SUM($D$3:D28)</f>
+        <v>84600</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3">
+        <v>52444</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f>SUM($D$3:D29)</f>
+        <v>89685</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>5085</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,8 +1005,8 @@
         <v>15</v>
       </c>
       <c r="G9" s="5">
-        <f>A9</f>
-        <v>-201368</v>
+        <f>A10</f>
+        <v>-200243</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,7 +1378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
   <dimension ref="B2:F10"/>
   <sheetViews>
@@ -1047,7 +1476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
   <dimension ref="B2:C9"/>
   <sheetViews>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BFB52D-8FCA-474D-BFDA-81786D9A1846}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343C08B2-B632-4B2C-B4DA-82C1E7084F4D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>total prem</t>
   </si>
@@ -57,9 +57,6 @@
     <t>first payout LTIS</t>
   </si>
   <si>
-    <t>serrender FLI2</t>
-  </si>
-  <si>
     <t>surrender LTIS</t>
   </si>
   <si>
@@ -79,6 +76,15 @@
   </si>
   <si>
     <t>12M TD excess profit</t>
+  </si>
+  <si>
+    <t>$4511 golden handshake</t>
+  </si>
+  <si>
+    <t>serrender FLI2. may get additional $200 golden handshake</t>
+  </si>
+  <si>
+    <t>net income</t>
   </si>
 </sst>
 </file>
@@ -460,7 +466,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -487,7 +493,7 @@
         <v>-30000</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>150000</v>
@@ -524,7 +530,7 @@
         <v>-30000</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5">
         <f>A6</f>
@@ -545,7 +551,7 @@
         <v>1125</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -621,7 +627,7 @@
         <v>4500</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,7 +647,7 @@
         <v>150000</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -869,16 +875,18 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,7 +896,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -920,7 +928,7 @@
         <v>6129</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,7 +948,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM($D$3:D6)</f>
-        <v>-124002.33333333333</v>
+        <v>-124081.28333333333</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -948,19 +956,20 @@
       </c>
       <c r="D6">
         <f>-$G$6/5</f>
-        <v>-30000</v>
+        <v>-30078.95</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>150000</v>
+        <f>150394.75</f>
+        <v>150394.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-121302.33333333333</v>
+        <v>-121374.17783333332</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
@@ -968,7 +977,7 @@
       </c>
       <c r="D7">
         <f>1.8%*G6</f>
-        <v>2700.0000000000005</v>
+        <v>2707.1055000000001</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -977,7 +986,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-171368</v>
+        <v>-171439.84449999998</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4">
@@ -991,7 +1000,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-201368</v>
+        <v>-201518.79449999999</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -999,20 +1008,13 @@
       </c>
       <c r="D9">
         <f>-$G$6/5</f>
-        <v>-30000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5">
-        <f>A10</f>
-        <v>-200243</v>
+        <v>-30078.95</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>-200243</v>
+        <v>-200390.83387499998</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -1020,16 +1022,23 @@
       </c>
       <c r="D10">
         <f>(0.0425-0.035)*G6</f>
-        <v>1125</v>
+        <v>1127.9606249999999</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5">
+        <f>A10</f>
+        <v>-200390.83387499998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>-195770.13334</v>
+        <v>-195917.96721499998</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="4">
@@ -1048,7 +1057,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-45573.13334</v>
+        <v>-45720.967214999982</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="4">
@@ -1059,13 +1068,13 @@
         <v>150197</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>-75573.13334</v>
+        <v>-75799.917214999979</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -1073,13 +1082,13 @@
       </c>
       <c r="D13">
         <f>-$G$6/5</f>
-        <v>-30000</v>
+        <v>-30078.95</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>-105573.13334</v>
+        <v>-105878.86721499998</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -1087,13 +1096,13 @@
       </c>
       <c r="D14">
         <f>-$G$6/5</f>
-        <v>-30000</v>
+        <v>-30078.95</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>-135573.13334</v>
+        <v>-135957.81721499999</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -1101,21 +1110,21 @@
       </c>
       <c r="D15">
         <f>-$G$6/5</f>
-        <v>-30000</v>
+        <v>-30078.95</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>-130488.13334</v>
+        <v>-130857.9312425</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
         <v>47331</v>
       </c>
       <c r="D16">
-        <f>$G$6*0.0339</f>
-        <v>5085</v>
+        <f>3.391%*$G$6</f>
+        <v>5099.8859725000002</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1124,38 +1133,38 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>-125988.13334</v>
+        <v>-126346.0887425</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
         <v>47331</v>
       </c>
       <c r="D17">
-        <f>G6*3%</f>
-        <v>4500</v>
+        <f>3%*G6</f>
+        <v>4511.8424999999997</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>24011.86666</v>
+        <v>24048.661257500004</v>
       </c>
       <c r="B18" s="2">
         <f>XIRR($D$3:D18,$C$3:C18)</f>
-        <v>3.3692464232444763E-2</v>
+        <v>3.3688154816627514E-2</v>
       </c>
       <c r="C18" s="3">
         <v>47331</v>
       </c>
       <c r="D18">
         <f>G6</f>
-        <v>150000</v>
+        <v>150394.75</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,35 +1174,35 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>29096.86666</v>
+        <v>29148.547230000004</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
         <v>47696</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D34" si="0">$G$6*0.0339</f>
-        <v>5085</v>
+        <f>3.391%*$G$6</f>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>34181.86666</v>
+        <v>34248.433202500004</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
         <v>48061</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>5085</v>
+        <f t="shared" ref="D21:D34" si="0">3.391%*$G$6</f>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>39266.86666</v>
+        <v>39348.319175000004</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -1201,13 +1210,13 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>44351.86666</v>
+        <v>44448.205147500004</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
@@ -1215,13 +1224,13 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>49436.86666</v>
+        <v>49548.091120000005</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
@@ -1229,13 +1238,13 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>54521.86666</v>
+        <v>54647.977092500005</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -1243,13 +1252,13 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>59606.86666</v>
+        <v>59747.863065000005</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
@@ -1257,13 +1266,13 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>64691.86666</v>
+        <v>64847.749037500005</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
@@ -1271,13 +1280,13 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>69776.86666</v>
+        <v>69947.635009999998</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3">
@@ -1285,13 +1294,13 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>SUM($D$3:D29)</f>
-        <v>74861.86666</v>
+        <v>75047.520982499991</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3">
@@ -1299,13 +1308,13 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>SUM($D$3:D30)</f>
-        <v>79946.86666</v>
+        <v>80147.406954999984</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3">
@@ -1313,13 +1322,13 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>SUM($D$3:D31)</f>
-        <v>85031.86666</v>
+        <v>85247.292927499977</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3">
@@ -1327,13 +1336,13 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>SUM($D$3:D32)</f>
-        <v>90116.86666</v>
+        <v>90347.17889999997</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3">
@@ -1341,13 +1350,13 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f>SUM($D$3:D33)</f>
-        <v>95201.86666</v>
+        <v>95447.064872499963</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3">
@@ -1355,13 +1364,13 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f>SUM($D$3:D34)</f>
-        <v>100286.86666</v>
+        <v>100546.95084499996</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3">
@@ -1369,7 +1378,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>5085</v>
+        <v>5099.8859725000002</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1392,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1490,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="D18:E30"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,9 +1551,9 @@
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="e">
-        <f>XIRR(C3:E14D7,B3:B7)</f>
-        <v>#NAME?</v>
+      <c r="C9" s="2">
+        <f>XIRR(C3:C7,B3:B7)</f>
+        <v>2.9971399903297419E-2</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343C08B2-B632-4B2C-B4DA-82C1E7084F4D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C57726-28DC-4DBF-924E-90A49EA2A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
-    <sheet name="LTIS" sheetId="2" r:id="rId1"/>
-    <sheet name="overlap ptf" sheetId="4" r:id="rId2"/>
-    <sheet name="FLI2" sheetId="1" r:id="rId3"/>
-    <sheet name="xirr test" sheetId="3" r:id="rId4"/>
+    <sheet name="Fli2pm" sheetId="5" r:id="rId1"/>
+    <sheet name="LTIS" sheetId="2" r:id="rId2"/>
+    <sheet name="overlap ptf" sheetId="4" r:id="rId3"/>
+    <sheet name="FLI2" sheetId="1" r:id="rId4"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>total prem</t>
   </si>
@@ -85,14 +95,42 @@
   </si>
   <si>
     <t>net income</t>
+  </si>
+  <si>
+    <t>total prem - FLI2PF</t>
+  </si>
+  <si>
+    <t>first payout Fli2pm</t>
+  </si>
+  <si>
+    <t>30M int cost</t>
+  </si>
+  <si>
+    <t>Fli2pm upfront</t>
+  </si>
+  <si>
+    <t>Fli2pm down payment</t>
+  </si>
+  <si>
+    <t>surrender Fli2pm #200k to wipe out $144k loan</t>
+  </si>
+  <si>
+    <t>long term LIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb26-Jan27 LIR </t>
+  </si>
+  <si>
+    <t>loan quantum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -123,13 +161,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,11 +485,440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <v>45505</v>
+      </c>
+      <c r="D3" s="5">
+        <f>-28%*G4</f>
+        <v>-56000.000000000007</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>SUM($D$3:D4)</f>
+        <v>-53260.000000000007</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>45566</v>
+      </c>
+      <c r="D4">
+        <v>2740</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>SUM($D$3:D5)</f>
+        <v>-53260.000000000007</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>SUM($D$3:D6)</f>
+        <v>-63082.000000000007</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>45962</v>
+      </c>
+      <c r="D6">
+        <f>-(5502+G6*G5)</f>
+        <v>-9822</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7">
+        <f>G4+D3</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>SUM($D$3:D7)</f>
+        <v>-63082.000000000007</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>SUM($D$3:D8)</f>
+        <v>-56662.000000000007</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3">
+        <v>46419</v>
+      </c>
+      <c r="D8">
+        <f>3.21%*$G$4</f>
+        <v>6419.9999999999991</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>SUM($D$3:D9)</f>
+        <v>-662</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>46419</v>
+      </c>
+      <c r="D9" s="5">
+        <f>-$D$3</f>
+        <v>56000.000000000007</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>SUM($D$3:D10)</f>
+        <v>2877.9999999999991</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3">
+        <v>46784</v>
+      </c>
+      <c r="D10">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>SUM($D$3:D11)</f>
+        <v>6417.9999999999982</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3">
+        <v>47150</v>
+      </c>
+      <c r="D11">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>SUM($D$3:D12)</f>
+        <v>9957.9999999999964</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3">
+        <v>47515</v>
+      </c>
+      <c r="D12">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>SUM($D$3:D13)</f>
+        <v>13497.999999999996</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3">
+        <v>47880</v>
+      </c>
+      <c r="D13">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>SUM($D$3:D14)</f>
+        <v>17037.999999999996</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
+        <v>48245</v>
+      </c>
+      <c r="D14">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM($D$3:D15)</f>
+        <v>20577.999999999996</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
+        <v>48611</v>
+      </c>
+      <c r="D15">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>SUM($D$3:D16)</f>
+        <v>24117.999999999996</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3">
+        <v>48976</v>
+      </c>
+      <c r="D16">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>SUM($D$3:D17)</f>
+        <v>27657.999999999996</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>49341</v>
+      </c>
+      <c r="D17">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>SUM($D$3:D18)</f>
+        <v>31197.999999999996</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3">
+        <v>49706</v>
+      </c>
+      <c r="D18">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>SUM($D$3:D19)</f>
+        <v>34737.999999999993</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>50072</v>
+      </c>
+      <c r="D19">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>SUM($D$3:D20)</f>
+        <v>38277.999999999993</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>50437</v>
+      </c>
+      <c r="D20">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>SUM($D$3:D21)</f>
+        <v>41817.999999999993</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>50802</v>
+      </c>
+      <c r="D21">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM($D$3:D22)</f>
+        <v>45357.999999999993</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
+        <v>51167</v>
+      </c>
+      <c r="D22">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>SUM($D$3:D23)</f>
+        <v>48897.999999999993</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <v>51533</v>
+      </c>
+      <c r="D23">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>SUM($D$3:D24)</f>
+        <v>52437.999999999993</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3">
+        <v>51898</v>
+      </c>
+      <c r="D24">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>SUM($D$3:D25)</f>
+        <v>55977.999999999993</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <v>52263</v>
+      </c>
+      <c r="D25">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM($D$3:D26)</f>
+        <v>59517.999999999993</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3">
+        <v>52628</v>
+      </c>
+      <c r="D26">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>3539.9999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f>SUM($D$3:D27)</f>
+        <v>59517.999999999993</v>
+      </c>
+      <c r="B27" s="2">
+        <f>XIRR(D3:D27,C3:C27)</f>
+        <v>0.13787479996681215</v>
+      </c>
+      <c r="C27" s="3">
+        <v>52628</v>
+      </c>
+      <c r="D27" s="5">
+        <f>-$D$3*0</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
-  <dimension ref="A2:G29"/>
+  <dimension ref="A3:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,11 +930,6 @@
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
@@ -472,11 +938,8 @@
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>150197</v>
+      <c r="D3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -515,6 +978,7 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -528,13 +992,6 @@
       <c r="D6">
         <f>-$G$4/5</f>
         <v>-30000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5">
-        <f>A6</f>
-        <v>-57300</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,11 +1327,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1387,7 +1844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
   <dimension ref="B2:F10"/>
   <sheetViews>
@@ -1485,7 +1942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
   <dimension ref="B2:C9"/>
   <sheetViews>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C57726-28DC-4DBF-924E-90A49EA2A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C467E5-F47E-4716-B3EB-0E42882D9D57}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -19,26 +19,17 @@
     <sheet name="FLI2" sheetId="1" r:id="rId4"/>
     <sheet name="xirr test" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>total prem</t>
   </si>
@@ -122,15 +113,25 @@
   </si>
   <si>
     <t>loan quantum</t>
+  </si>
+  <si>
+    <t>Need to watch out for financing cost, upfront</t>
+  </si>
+  <si>
+    <t>upfront rebate</t>
+  </si>
+  <si>
+    <t>3.21% is normal and sustainable payout rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmm/yy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -149,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -157,11 +158,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -172,6 +253,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,14 +578,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
-  <dimension ref="A2:G30"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -501,7 +594,7 @@
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -513,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
@@ -526,8 +619,19 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.75E-2</v>
+      </c>
+      <c r="L3" s="17">
+        <f>G6*J3*K3</f>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>SUM($D$3:D4)</f>
         <v>-53260.000000000007</v>
@@ -536,7 +640,8 @@
       <c r="C4" s="3">
         <v>45566</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="18">
+        <f>G8*G4</f>
         <v>2740</v>
       </c>
       <c r="E4" t="s">
@@ -548,8 +653,18 @@
       <c r="G4" s="7">
         <v>200000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="L4" s="17">
+        <f>G6*J4*K4</f>
+        <v>3671.9999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>SUM($D$3:D5)</f>
         <v>-53260.000000000007</v>
@@ -559,21 +674,25 @@
         <v>26</v>
       </c>
       <c r="G5" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+      <c r="L5">
+        <f>G6*(J3*K3+J4*K4)</f>
+        <v>5652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM($D$3:D6)</f>
-        <v>-63082.000000000007</v>
+        <v>-61792.000000000007</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
         <v>45962</v>
       </c>
       <c r="D6">
-        <f>-(5502+G6*G5)</f>
-        <v>-9822</v>
+        <f>-(5652+G6*G5)</f>
+        <v>-8532</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -586,10 +705,10 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-63082.000000000007</v>
+        <v>-61792.000000000007</v>
       </c>
       <c r="B7" s="2"/>
       <c r="F7" t="s">
@@ -599,305 +718,333 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-56662.000000000007</v>
+        <v>-61792.000000000007</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3">
-        <v>46419</v>
-      </c>
-      <c r="D8">
-        <f>3.21%*$G$4</f>
-        <v>6419.9999999999991</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.37E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-662</v>
+        <v>-55372.000000000007</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
         <v>46419</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
+        <f>3.21%*$G$4</f>
+        <v>6419.9999999999991</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>SUM($D$3:D10)</f>
+        <v>628</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3">
+        <v>46419</v>
+      </c>
+      <c r="D10" s="5">
         <f>-$D$3</f>
         <v>56000.000000000007</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f>SUM($D$3:D10)</f>
-        <v>2877.9999999999991</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3">
-        <v>46784</v>
-      </c>
-      <c r="D10">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
-        <v>3539.9999999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>6417.9999999999982</v>
+        <v>4167.9999999999991</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
-        <v>47150</v>
+        <v>46784</v>
       </c>
       <c r="D11">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" ref="D11:D27" si="0">3.21%*$G$4-$G$7*$G$6</f>
         <v>3539.9999999999991</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>9957.9999999999964</v>
+        <v>7707.9999999999982</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
-        <v>47515</v>
+        <v>47150</v>
       </c>
       <c r="D12">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>13497.999999999996</v>
+        <v>11247.999999999996</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
-        <v>47880</v>
+        <v>47515</v>
       </c>
       <c r="D13">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>17037.999999999996</v>
+        <v>14787.999999999996</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
-        <v>48245</v>
+        <v>47880</v>
       </c>
       <c r="D14">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>20577.999999999996</v>
+        <v>18327.999999999996</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
-        <v>48611</v>
+        <v>48245</v>
       </c>
       <c r="D15">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>24117.999999999996</v>
+        <v>21867.999999999996</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
-        <v>48976</v>
+        <v>48611</v>
       </c>
       <c r="D16">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>27657.999999999996</v>
+        <v>25407.999999999996</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
-        <v>49341</v>
+        <v>48976</v>
       </c>
       <c r="D17">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>31197.999999999996</v>
+        <v>28947.999999999996</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
-        <v>49706</v>
+        <v>49341</v>
       </c>
       <c r="D18">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>34737.999999999993</v>
+        <v>32487.999999999996</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
-        <v>50072</v>
+        <v>49706</v>
       </c>
       <c r="D19">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>38277.999999999993</v>
+        <v>36027.999999999993</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
-        <v>50437</v>
+        <v>50072</v>
       </c>
       <c r="D20">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>41817.999999999993</v>
+        <v>39567.999999999993</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
-        <v>50802</v>
+        <v>50437</v>
       </c>
       <c r="D21">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>45357.999999999993</v>
+        <v>43107.999999999993</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
-        <v>51167</v>
+        <v>50802</v>
       </c>
       <c r="D22">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>48897.999999999993</v>
+        <v>46647.999999999993</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
-        <v>51533</v>
+        <v>51167</v>
       </c>
       <c r="D23">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>52437.999999999993</v>
+        <v>50187.999999999993</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
-        <v>51898</v>
+        <v>51533</v>
       </c>
       <c r="D24">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>55977.999999999993</v>
+        <v>53727.999999999993</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
-        <v>52263</v>
+        <v>51898</v>
       </c>
       <c r="D25">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>59517.999999999993</v>
+        <v>57267.999999999993</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
-        <v>52628</v>
+        <v>52263</v>
       </c>
       <c r="D26">
-        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>59517.999999999993</v>
-      </c>
-      <c r="B27" s="2">
-        <f>XIRR(D3:D27,C3:C27)</f>
-        <v>0.13787479996681215</v>
-      </c>
+        <v>60807.999999999993</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="3">
         <v>52628</v>
       </c>
-      <c r="D27" s="5">
-        <f>-$D$3*0</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>24</v>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>3539.9999999999991</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="5">
+        <f>SUM($D$3:D28)</f>
+        <v>116808</v>
+      </c>
+      <c r="B28" s="2">
+        <f>XIRR(D3:D28,C3:C28)</f>
+        <v>0.15894837975502016</v>
+      </c>
+      <c r="C28" s="3">
+        <v>52628</v>
+      </c>
+      <c r="D28" s="5">
+        <f>-$D$3</f>
+        <v>56000.000000000007</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -906,6 +1053,10 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,35 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C467E5-F47E-4716-B3EB-0E42882D9D57}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDB27F7-DD83-488F-8B66-9491B65AD21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="3" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fli2pm" sheetId="5" r:id="rId1"/>
-    <sheet name="LTIS" sheetId="2" r:id="rId2"/>
-    <sheet name="overlap ptf" sheetId="4" r:id="rId3"/>
-    <sheet name="FLI2" sheetId="1" r:id="rId4"/>
-    <sheet name="xirr test" sheetId="3" r:id="rId5"/>
+    <sheet name="Fli2pm 200k" sheetId="6" r:id="rId1"/>
+    <sheet name="Fli2pm" sheetId="5" r:id="rId2"/>
+    <sheet name="LTIS" sheetId="2" r:id="rId3"/>
+    <sheet name="overlap ptf" sheetId="4" r:id="rId4"/>
+    <sheet name="FLI2" sheetId="1" r:id="rId5"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>total prem</t>
   </si>
@@ -61,30 +71,15 @@
     <t>surrender LTIS</t>
   </si>
   <si>
-    <t>PnL</t>
-  </si>
-  <si>
-    <t>Fli2 upfront</t>
-  </si>
-  <si>
     <t>total prem - Ltis</t>
   </si>
   <si>
     <t>golden handshake</t>
   </si>
   <si>
-    <t>high water mark of outlay</t>
-  </si>
-  <si>
     <t>12M TD excess profit</t>
   </si>
   <si>
-    <t>$4511 golden handshake</t>
-  </si>
-  <si>
-    <t>serrender FLI2. may get additional $200 golden handshake</t>
-  </si>
-  <si>
     <t>net income</t>
   </si>
   <si>
@@ -115,13 +110,89 @@
     <t>loan quantum</t>
   </si>
   <si>
-    <t>Need to watch out for financing cost, upfront</t>
-  </si>
-  <si>
     <t>upfront rebate</t>
   </si>
   <si>
-    <t>3.21% is normal and sustainable payout rate</t>
+    <t>Ltis 9% of 30k</t>
+  </si>
+  <si>
+    <t>serrender FLI2</t>
+  </si>
+  <si>
+    <t>FLI2PF upfront</t>
+  </si>
+  <si>
+    <t>first payout FLI2PF</t>
+  </si>
+  <si>
+    <t>surrender FLI2PF</t>
+  </si>
+  <si>
+    <t>surrender Fli2pm #250k to wipe out $190k loan</t>
+  </si>
+  <si>
+    <t>FLI2</t>
+  </si>
+  <si>
+    <t>FLI2PF</t>
+  </si>
+  <si>
+    <t>loan quantum #76%</t>
+  </si>
+  <si>
+    <t>sumOf3-&gt;</t>
+  </si>
+  <si>
+    <t>Feb26-Jan27 LIR#est</t>
+  </si>
+  <si>
+    <t>FLI2 upfront</t>
+  </si>
+  <si>
+    <t>end2end profix #cf other 3 tabs:</t>
+  </si>
+  <si>
+    <t>keep -0.01 to satisfy xirr</t>
+  </si>
+  <si>
+    <t>net payout rate</t>
+  </si>
+  <si>
+    <t>LTIS</t>
+  </si>
+  <si>
+    <t>XIRR 不适合FLI2PF</t>
+  </si>
+  <si>
+    <t>net inc</t>
+  </si>
+  <si>
+    <t>annual FCF, while keeping 210k liquid  in FLI2PF and LTIS</t>
+  </si>
+  <si>
+    <t>net inc end-to-end excluding 210k nest egg</t>
+  </si>
+  <si>
+    <t>$4512 bonus</t>
+  </si>
+  <si>
+    <t>30M int 
+#当作Nov26缴</t>
+  </si>
+  <si>
+    <t>FLI2PF 首付</t>
+  </si>
+  <si>
+    <t>12mTD excess profit</t>
+  </si>
+  <si>
+    <t>capital deployed</t>
+  </si>
+  <si>
+    <t>capital earmarked</t>
+  </si>
+  <si>
+    <t>watermark of outlay</t>
   </si>
 </sst>
 </file>
@@ -133,7 +204,14 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,42 +228,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -238,11 +285,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -253,20 +368,62 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -577,16 +734,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BD802-F9D4-40CD-9458-754DF046B7C7}">
   <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -596,7 +753,7 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -617,18 +774,19 @@
         <v>-56000.000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3">
-        <v>0.5</v>
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="K3" s="2">
         <v>2.75E-2</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="9">
         <f>G6*J3*K3</f>
-        <v>1980</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -640,15 +798,15 @@
       <c r="C4" s="3">
         <v>45566</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="10">
         <f>G8*G4</f>
         <v>2740</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7">
         <v>200000</v>
@@ -659,7 +817,7 @@
       <c r="K4" s="2">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="9">
         <f>G6*J4*K4</f>
         <v>3671.9999999999995</v>
       </c>
@@ -671,48 +829,58 @@
       </c>
       <c r="B5" s="2"/>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>0.02</v>
       </c>
       <c r="L5">
         <f>G6*(J3*K3+J4*K4)</f>
-        <v>5652</v>
+        <v>5321.9999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM($D$3:D6)</f>
-        <v>-61792.000000000007</v>
+        <v>-61462.000000000007</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
         <v>45962</v>
       </c>
       <c r="D6">
-        <f>-(5652+G6*G5)</f>
-        <v>-8532</v>
+        <f>-(5322+G6*G5)</f>
+        <v>-8202</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7">
         <f>G4+D3</f>
         <v>144000</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="L6" s="9">
+        <f>G6*J6*K6</f>
+        <v>2880</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-61792.000000000007</v>
+        <v>-61462.000000000007</v>
       </c>
       <c r="B7" s="2"/>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2">
         <v>0.02</v>
@@ -721,11 +889,11 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-61792.000000000007</v>
+        <v>-61462.000000000007</v>
       </c>
       <c r="B8" s="2"/>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2">
         <v>1.37E-2</v>
@@ -734,7 +902,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-55372.000000000007</v>
+        <v>-55042.000000000007</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -745,7 +913,7 @@
         <v>6419.9999999999991</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -753,7 +921,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>628</v>
+        <v>958</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -764,13 +932,13 @@
         <v>56000.000000000007</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>4167.9999999999991</v>
+        <v>4497.9999999999991</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -780,18 +948,16 @@
         <f t="shared" ref="D11:D27" si="0">3.21%*$G$4-$G$7*$G$6</f>
         <v>3539.9999999999991</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>7707.9999999999982</v>
+        <v>8037.9999999999982</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -801,18 +967,16 @@
         <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>11247.999999999996</v>
+        <v>11577.999999999996</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -822,16 +986,16 @@
         <f t="shared" si="0"/>
         <v>3539.9999999999991</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>14787.999999999996</v>
+        <v>15117.999999999996</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -845,7 +1009,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>18327.999999999996</v>
+        <v>18657.999999999996</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -859,7 +1023,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>21867.999999999996</v>
+        <v>22197.999999999996</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -873,7 +1037,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>25407.999999999996</v>
+        <v>25737.999999999996</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -887,7 +1051,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>28947.999999999996</v>
+        <v>29277.999999999996</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -901,7 +1065,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>32487.999999999996</v>
+        <v>32817.999999999993</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -915,7 +1079,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>36027.999999999993</v>
+        <v>36357.999999999993</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -929,7 +1093,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>39567.999999999993</v>
+        <v>39897.999999999993</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -943,7 +1107,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>43107.999999999993</v>
+        <v>43437.999999999993</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -957,7 +1121,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>46647.999999999993</v>
+        <v>46977.999999999993</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
@@ -971,7 +1135,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>50187.999999999993</v>
+        <v>50517.999999999993</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
@@ -985,7 +1149,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>53727.999999999993</v>
+        <v>54057.999999999993</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -999,7 +1163,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>57267.999999999993</v>
+        <v>57597.999999999993</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
@@ -1013,7 +1177,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>60807.999999999993</v>
+        <v>61137.999999999993</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
@@ -1029,11 +1193,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>116808</v>
+        <v>117138</v>
       </c>
       <c r="B28" s="2">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>0.15894837975502016</v>
+        <v>0.16009600758552556</v>
       </c>
       <c r="C28" s="3">
         <v>52628</v>
@@ -1043,7 +1207,7 @@
         <v>56000.000000000007</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,412 +1229,493 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
-  <dimension ref="A3:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
+  <dimension ref="A2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <v>45505</v>
+      </c>
+      <c r="D3" s="5">
+        <f>-24%*G4</f>
+        <v>-60000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3">
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="L3" s="9">
+        <f>G6*J3*K3</f>
+        <v>2026.666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>SUM($D$3:D4)</f>
-        <v>-30000</v>
+        <v>-56575</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
-        <v>45505</v>
-      </c>
-      <c r="D4">
-        <f>-$G$4/5</f>
-        <v>-30000</v>
+        <v>45566</v>
+      </c>
+      <c r="D4" s="10">
+        <f>G8*G4</f>
+        <v>3425</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7">
+        <v>250000</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <f>G6*J4*K4</f>
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>SUM($D$3:D5)</f>
-        <v>-27300</v>
+        <v>-56575</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="3">
-        <v>45566</v>
-      </c>
-      <c r="D5">
-        <f>1.8%*G4</f>
-        <v>2700.0000000000005</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="L5">
+        <f>G6*(J3*K3+J4*K4)</f>
+        <v>6510.666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM($D$3:D6)</f>
-        <v>-57300</v>
+        <v>-68785</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="D6">
-        <f>-$G$4/5</f>
-        <v>-30000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>-(6510+G6*G5)</f>
+        <v>-12210</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7">
+        <f>G4+D3</f>
+        <v>190000</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="L6" s="9">
+        <f>G6*J6*K6</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-56175</v>
+        <v>-68785</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3">
-        <v>45870</v>
-      </c>
-      <c r="D7">
-        <f>(0.0425-0.035)*G4</f>
-        <v>1125</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-86175</v>
+        <v>-68785</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3">
-        <v>46235</v>
-      </c>
-      <c r="D8">
-        <f>-$G$4/5</f>
-        <v>-30000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.37E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-116175</v>
+        <v>-60760</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
-        <v>46600</v>
+        <v>46419</v>
       </c>
       <c r="D9">
-        <f>-$G$4/5</f>
-        <v>-30000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>3.21%*$G$4</f>
+        <v>8024.9999999999991</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>-146175</v>
+        <v>-760</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
-        <v>46966</v>
-      </c>
-      <c r="D10">
-        <f>-$G$4/5</f>
-        <v>-30000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46419</v>
+      </c>
+      <c r="D10" s="5">
+        <f>-$D$3</f>
+        <v>60000</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>-141090</v>
+        <v>3464.9999999999991</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
-        <v>47331</v>
+        <v>46784</v>
       </c>
       <c r="D11">
-        <f>$G$4*0.0339</f>
-        <v>5085</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D11:D27" si="0">3.21%*$G$4-$G$7*$G$6</f>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-136590</v>
+        <v>7689.9999999999982</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
-        <v>47331</v>
+        <v>47150</v>
       </c>
       <c r="D12">
-        <f>G4*3%</f>
-        <v>4500</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>13410</v>
-      </c>
-      <c r="B13" s="2">
-        <f>XIRR($D$4:D13,$C$4:C13)</f>
-        <v>2.9792901873588563E-2</v>
-      </c>
+        <v>11914.999999999996</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="3">
-        <v>47331</v>
+        <v>47515</v>
       </c>
       <c r="D13">
-        <f>G4</f>
-        <v>150000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>SUM($D$3:D14)</f>
+        <v>16139.999999999996</v>
+      </c>
       <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>47880</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>18495</v>
+        <v>20364.999999999996</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
-        <v>47696</v>
+        <v>48245</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D29" si="0">$G$4*0.0339</f>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>23580</v>
+        <v>24589.999999999996</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
-        <v>48061</v>
+        <v>48611</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>28665</v>
+        <v>28814.999999999996</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
-        <v>48427</v>
+        <v>48976</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>33750</v>
+        <v>33039.999999999993</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
-        <v>48792</v>
+        <v>49341</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>38835</v>
+        <v>37264.999999999993</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
-        <v>49157</v>
+        <v>49706</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>43920</v>
+        <v>41489.999999999993</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
-        <v>49522</v>
+        <v>50072</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>49005</v>
+        <v>45714.999999999993</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
-        <v>49888</v>
+        <v>50437</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>54090</v>
+        <v>49939.999999999993</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
-        <v>50253</v>
+        <v>50802</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>59175</v>
+        <v>54164.999999999993</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
-        <v>50618</v>
+        <v>51167</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>64260</v>
+        <v>58389.999999999993</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
-        <v>50983</v>
+        <v>51533</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>69345</v>
+        <v>62614.999999999993</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
-        <v>51349</v>
+        <v>51898</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>74430</v>
+        <v>66839.999999999985</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
-        <v>51714</v>
+        <v>52263</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>79515</v>
+        <v>71064.999999999985</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
-        <v>52079</v>
+        <v>52628</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>84600</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>131064.99999999999</v>
+      </c>
+      <c r="B28" s="2">
+        <f>XIRR(D3:D28,C3:C28)</f>
+        <v>0.16061307787895202</v>
+      </c>
       <c r="C28" s="3">
-        <v>52444</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <f>SUM($D$3:D29)</f>
-        <v>89685</v>
-      </c>
+        <v>52628</v>
+      </c>
+      <c r="D28" s="5">
+        <f>-$D$3</f>
+        <v>60000</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="3">
-        <v>52810</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,514 +1724,413 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
-  <dimension ref="A2:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
+  <dimension ref="A3:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
-        <v>45170</v>
-      </c>
-      <c r="D3">
-        <f>-G3/3</f>
-        <v>-50065.666666666664</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>150197</v>
+      <c r="C3" s="4"/>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>SUM($D$3:D4)</f>
-        <v>-43936.666666666664</v>
+        <v>-30078.95</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="4">
-        <v>45261</v>
-      </c>
-      <c r="D4">
-        <v>6129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="C4" s="3">
+        <v>45505</v>
+      </c>
+      <c r="D4" s="20">
+        <f>-$G$4/5</f>
+        <v>-30078.95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f>150394.75</f>
+        <v>150394.75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>SUM($D$3:D5)</f>
-        <v>-94002.333333333328</v>
+        <v>-27371.844499999999</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="4">
-        <v>45352</v>
-      </c>
-      <c r="D5">
-        <f>D3</f>
-        <v>-50065.666666666664</v>
-      </c>
+      <c r="C5" s="3">
+        <v>45566</v>
+      </c>
+      <c r="D5" s="20">
+        <f>1.8%*G4</f>
+        <v>2707.1055000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM($D$3:D6)</f>
-        <v>-124081.28333333333</v>
+        <v>-57450.794500000004</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>45505</v>
-      </c>
-      <c r="D6">
-        <f>-$G$6/5</f>
+        <v>45870</v>
+      </c>
+      <c r="D6" s="20">
+        <f>-$G$4/5</f>
         <v>-30078.95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <f>150394.75</f>
-        <v>150394.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-121374.17783333332</v>
+        <v>-56322.833875000004</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>45566</v>
-      </c>
-      <c r="D7">
-        <f>1.8%*G6</f>
-        <v>2707.1055000000001</v>
+        <v>45870</v>
+      </c>
+      <c r="D7" s="20">
+        <f>(0.0425-0.035)*G4</f>
+        <v>1127.9606249999999</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-171439.84449999998</v>
+        <v>-86401.783875000008</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="4">
-        <v>45717</v>
-      </c>
-      <c r="D8">
-        <f>D3</f>
-        <v>-50065.666666666664</v>
+      <c r="C8" s="3">
+        <v>46235</v>
+      </c>
+      <c r="D8" s="20">
+        <f>-$G$4/5</f>
+        <v>-30078.95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-201518.79449999999</v>
+        <v>-116480.73387500001</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
-        <v>45870</v>
-      </c>
-      <c r="D9">
-        <f>-$G$6/5</f>
+        <v>46600</v>
+      </c>
+      <c r="D9" s="20">
+        <f>-$G$4/5</f>
         <v>-30078.95</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>-200390.83387499998</v>
+        <v>-146559.68387500002</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
-        <v>45870</v>
-      </c>
-      <c r="D10">
-        <f>(0.0425-0.035)*G6</f>
-        <v>1127.9606249999999</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="5">
-        <f>A10</f>
-        <v>-200390.83387499998</v>
+        <v>46966</v>
+      </c>
+      <c r="D10" s="20">
+        <f>-$G$4/5</f>
+        <v>-30078.95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>-195917.96721499998</v>
+        <v>-141459.79790250002</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="4">
-        <v>46082</v>
-      </c>
-      <c r="D11">
-        <f>2.978%*G3</f>
-        <v>4472.8666599999997</v>
+      <c r="C11" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D11" s="20">
+        <f>$G$4*0.03391</f>
+        <v>5099.8859725000002</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-45720.967214999982</v>
+        <v>-136947.95540250003</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="4">
-        <v>46082</v>
-      </c>
-      <c r="D12">
-        <f>G3</f>
-        <v>150197</v>
+      <c r="C12" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D12" s="20">
+        <f>G4*3%</f>
+        <v>4511.8424999999997</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>-75799.917214999979</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>13446.794597499975</v>
+      </c>
+      <c r="B13" s="2">
+        <f>XIRR($D$4:D13,$C$4:C13)</f>
+        <v>2.9796108603477478E-2</v>
+      </c>
       <c r="C13" s="3">
-        <v>46235</v>
-      </c>
-      <c r="D13">
-        <f>-$G$6/5</f>
-        <v>-30078.95</v>
+        <v>47331</v>
+      </c>
+      <c r="D13" s="20">
+        <f>G4</f>
+        <v>150394.75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f>SUM($D$3:D14)</f>
-        <v>-105878.86721499998</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3">
-        <v>46600</v>
-      </c>
-      <c r="D14">
-        <f>-$G$6/5</f>
-        <v>-30078.95</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>-135957.81721499999</v>
+        <v>18545.176622499974</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
-        <v>46966</v>
-      </c>
-      <c r="D15">
-        <f>-$G$6/5</f>
-        <v>-30078.95</v>
+        <v>47696</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" ref="D15:D29" si="0">$G$4*0.0339</f>
+        <v>5098.3820249999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>-130857.9312425</v>
+        <v>23643.558647499973</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
-        <v>47331</v>
-      </c>
-      <c r="D16">
-        <f>3.391%*$G$6</f>
-        <v>5099.8859725000002</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48061</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>-126346.0887425</v>
+        <v>28741.940672499972</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
-        <v>47331</v>
-      </c>
-      <c r="D17">
-        <f>3%*G6</f>
-        <v>4511.8424999999997</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48427</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>24048.661257500004</v>
-      </c>
-      <c r="B18" s="2">
-        <f>XIRR($D$3:D18,$C$3:C18)</f>
-        <v>3.3688154816627514E-2</v>
-      </c>
+        <v>33840.322697499971</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="3">
-        <v>47331</v>
-      </c>
-      <c r="D18">
-        <f>G6</f>
-        <v>150394.75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+        <v>48792</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>SUM($D$3:D19)</f>
+        <v>38938.70472249997</v>
+      </c>
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>49157</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>29148.547230000004</v>
+        <v>44037.086747499969</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
-        <v>47696</v>
-      </c>
-      <c r="D20">
-        <f>3.391%*$G$6</f>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49522</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>34248.433202500004</v>
+        <v>49135.468772499968</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
-        <v>48061</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21:D34" si="0">3.391%*$G$6</f>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49888</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>39348.319175000004</v>
+        <v>54233.850797499967</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
-        <v>48427</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50253</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>44448.205147500004</v>
+        <v>59332.232822499966</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
-        <v>48792</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50618</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>49548.091120000005</v>
+        <v>64430.614847499965</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
-        <v>49157</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50983</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>54647.977092500005</v>
+        <v>69528.996872499964</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
-        <v>49522</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51349</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>59747.863065000005</v>
+        <v>74627.378897499962</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
-        <v>49888</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51714</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>64847.749037500005</v>
+        <v>79725.760922499961</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
-        <v>50253</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52079</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>69947.635009999998</v>
+        <v>84824.14294749996</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3">
-        <v>50618</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52444</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>SUM($D$3:D29)</f>
-        <v>75047.520982499991</v>
+        <v>89922.524972499959</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3">
-        <v>50983</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <f>SUM($D$3:D30)</f>
-        <v>80147.406954999984</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3">
-        <v>51349</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <f>SUM($D$3:D31)</f>
-        <v>85247.292927499977</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3">
-        <v>51714</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <f>SUM($D$3:D32)</f>
-        <v>90347.17889999997</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3">
-        <v>52079</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <f>SUM($D$3:D33)</f>
-        <v>95447.064872499963</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3">
-        <v>52444</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <f>SUM($D$3:D34)</f>
-        <v>100546.95084499996</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3">
         <v>52810</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
+      <c r="D29" s="20">
+        <f t="shared" si="0"/>
+        <v>5098.3820249999999</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +2140,922 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
-  <dimension ref="B2:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
+  <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="15">
+        <v>45170</v>
+      </c>
+      <c r="D3" s="14">
+        <f>SUM(E3:G3)</f>
+        <v>-50065.676666666666</v>
+      </c>
+      <c r="E3" s="14">
+        <f>-K8/3</f>
+        <v>-50065.666666666664</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14">
+        <v>-0.01</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
+        <f>SUM($D$3:D4)</f>
+        <v>-43936.676666666666</v>
+      </c>
+      <c r="C4" s="15">
+        <v>45261</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" ref="D4:D38" si="0">SUM(E4:G4)</f>
+        <v>6129</v>
+      </c>
+      <c r="E4" s="14">
+        <v>6129</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <f>SUM($D$3:D5)</f>
+        <v>-94002.343333333323</v>
+      </c>
+      <c r="C5" s="15">
+        <v>45352</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>-50065.666666666664</v>
+      </c>
+      <c r="E5" s="14">
+        <f>E3</f>
+        <v>-50065.666666666664</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <f>SUM($D$3:D6)</f>
+        <v>-154002.34333333332</v>
+      </c>
+      <c r="C6" s="15">
+        <v>45505</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
+        <f>-24%*K9</f>
+        <v>-60000</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <f>SUM($D$3:D7)</f>
+        <v>-150577.34333333332</v>
+      </c>
+      <c r="C7" s="15">
+        <v>45566</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>3425</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14">
+        <f>1.37%*K9</f>
+        <v>3425</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="18">
+        <v>150394.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <f>SUM($D$3:D8)</f>
+        <v>-180656.29333333333</v>
+      </c>
+      <c r="C8" s="15">
+        <v>45505</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>-30078.95</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
+        <f>-$K$7/5</f>
+        <v>-30078.95</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="8"/>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>150197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
+        <f>SUM($D$3:D9)</f>
+        <v>-183363.39883333334</v>
+      </c>
+      <c r="C9" s="15">
+        <v>45566</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>-2707.1055000000001</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <f>9%*G8</f>
+        <v>-2707.1055000000001</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="5">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <f>SUM($D$3:D10)</f>
+        <v>-233429.0655</v>
+      </c>
+      <c r="C10" s="15">
+        <v>45717</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>-50065.666666666664</v>
+      </c>
+      <c r="E10" s="14">
+        <f>E3</f>
+        <v>-50065.666666666664</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="8"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="5">
+        <f>K9+F6</f>
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <f>SUM($D$3:D11)</f>
+        <v>-263508.01549999998</v>
+      </c>
+      <c r="C11" s="15">
+        <v>45870</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>-30078.95</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <f>G8</f>
+        <v>-30078.95</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="8"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <f>SUM($D$3:D12)</f>
+        <v>-262380.05487499997</v>
+      </c>
+      <c r="C12" s="15">
+        <v>45870</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>1127.9606249999999</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
+        <f>(0.0425-0.035)*K7</f>
+        <v>1127.9606249999999</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <f>SUM($D$3:D13)</f>
+        <v>-273640.05487499997</v>
+      </c>
+      <c r="C13" s="15">
+        <v>45962</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="0"/>
+        <v>-11260</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14">
+        <f>-(6510+K10*K11)</f>
+        <v>-11260</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="35">
+        <f>B13</f>
+        <v>-273640.05487499997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <f>SUM($D$3:D14)</f>
+        <v>-269167.18821499997</v>
+      </c>
+      <c r="C14" s="15">
+        <v>46082</v>
+      </c>
+      <c r="D14" s="14">
+        <f>SUM(E14:G14)</f>
+        <v>4472.8666599999997</v>
+      </c>
+      <c r="E14" s="14">
+        <f>2.978%*K8</f>
+        <v>4472.8666599999997</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="14">
+        <f>B5</f>
+        <v>-94002.343333333323</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <f>SUM($D$3:D15)</f>
+        <v>-118970.18821499997</v>
+      </c>
+      <c r="C15" s="15">
+        <v>46082</v>
+      </c>
+      <c r="D15" s="14">
+        <f>SUM(E15:G15)</f>
+        <v>150197</v>
+      </c>
+      <c r="E15" s="14">
+        <f>K8</f>
+        <v>150197</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="14">
+        <f>K13-K14</f>
+        <v>-179637.71154166665</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
+        <f>SUM($D$3:D16)</f>
+        <v>-149049.13821499998</v>
+      </c>
+      <c r="C16" s="15">
+        <v>46235</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="0"/>
+        <v>-30078.95</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
+        <f>G8</f>
+        <v>-30078.95</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <f>SUM($D$3:D17)</f>
+        <v>-141024.13821499998</v>
+      </c>
+      <c r="C17" s="15">
+        <v>46419</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="0"/>
+        <v>8024.9999999999991</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <f>3.21%*$K$9</f>
+        <v>8024.9999999999991</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
+        <f>SUM($D$3:D18)</f>
+        <v>-81024.138214999984</v>
+      </c>
+      <c r="C18" s="15">
+        <v>46419</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14">
+        <f>-F6</f>
+        <v>60000</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <f>SUM($D$3:D19)</f>
+        <v>-111103.08821499998</v>
+      </c>
+      <c r="C19" s="15">
+        <v>46600</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="0"/>
+        <v>-30078.95</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
+        <f>G8</f>
+        <v>-30078.95</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
+        <f>SUM($D$3:D20)</f>
+        <v>-141182.03821499998</v>
+      </c>
+      <c r="C20" s="15">
+        <v>46966</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="0"/>
+        <v>-30078.95</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
+        <f>G8</f>
+        <v>-30078.95</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <f>SUM($D$3:D21)</f>
+        <v>-136082.15224249999</v>
+      </c>
+      <c r="C21" s="15">
+        <v>47331</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
+        <f>3.391%*$K$7</f>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <f>SUM($D$3:D22)</f>
+        <v>-131570.30974249999</v>
+      </c>
+      <c r="C22" s="15">
+        <v>47331</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="0"/>
+        <v>4511.8424999999997</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <f>3%*K7</f>
+        <v>4511.8424999999997</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23">
+        <f>SUM($D$3:D23)</f>
+        <v>18824.440257500013</v>
+      </c>
+      <c r="C23" s="22">
+        <v>47331</v>
+      </c>
+      <c r="D23" s="23">
+        <f t="shared" si="0"/>
+        <v>150394.75</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23">
+        <f>K7</f>
+        <v>150394.75</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="21">
+        <f>SUM(E3:E23)</f>
+        <v>10601.86666</v>
+      </c>
+      <c r="F24" s="21">
+        <f>SUM(F3:F23)</f>
+        <v>190</v>
+      </c>
+      <c r="G24" s="21">
+        <f>SUM(G3:G23)</f>
+        <v>8032.5735974999843</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="16">
+        <f>XIRR(E3:E23,C3:C23)</f>
+        <v>3.9722254872322102E-2</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16">
+        <f>XIRR($G$3:G23,$C$3:C23)</f>
+        <v>1.7060789465904235E-2</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="14">
+        <f>SUM($D$3:D27)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-190982.26626999999</v>
+      </c>
+      <c r="C27" s="15">
+        <v>47696</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <f>3.391%*$K$7</f>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
+        <f>SUM($D$3:D28)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-185882.3802975</v>
+      </c>
+      <c r="C28" s="15">
+        <v>48061</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
+        <f>3.391%*$K$7</f>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <f>SUM($D$3:D29)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-180782.49432499998</v>
+      </c>
+      <c r="C29" s="15">
+        <v>48427</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
+        <f>3.391%*$K$7</f>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
+        <f>SUM($D$3:D30)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-175682.60835249998</v>
+      </c>
+      <c r="C30" s="15">
+        <v>48792</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
+        <f>3.391%*$K$7</f>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
+        <f>SUM($D$3:D31)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-170582.72237999999</v>
+      </c>
+      <c r="C31" s="15">
+        <v>49157</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
+        <f>3.391%*$K$7</f>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
+        <f>SUM($D$3:D32)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-166357.72237999999</v>
+      </c>
+      <c r="C32" s="13">
+        <v>46784</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="12">
+        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="8"/>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
+        <f>SUM($D$3:D33)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-162132.72237999999</v>
+      </c>
+      <c r="C33" s="13">
+        <v>47150</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="12">
+        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="8"/>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="30">
+        <f>-F32/F6</f>
+        <v>7.0416666666666655E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="14">
+        <f>SUM($D$3:D34)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-157907.72237999999</v>
+      </c>
+      <c r="C34" s="13">
+        <v>47515</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="12">
+        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="14">
+        <f>SUM($D$3:D35)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-153682.72237999999</v>
+      </c>
+      <c r="C35" s="13">
+        <v>47880</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="12">
+        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
+        <f>SUM($D$3:D36)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-149457.72237999999</v>
+      </c>
+      <c r="C36" s="13">
+        <v>48245</v>
+      </c>
+      <c r="D36" s="14">
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="12">
+        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="14">
+        <f>SUM($D$3:D37)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-145232.72237999999</v>
+      </c>
+      <c r="C37" s="13">
+        <v>48611</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="12">
+        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="14">
+        <f>SUM($D$3:D38)-$F$18-SUM($G$22:$G$23)</f>
+        <v>-141007.72237999999</v>
+      </c>
+      <c r="C38" s="13">
+        <v>48976</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" si="0"/>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12">
+        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <v>4224.9999999999991</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="H27:H38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
         <v>45170</v>
       </c>
       <c r="C3">
@@ -2031,16 +3069,16 @@
         <v>150197</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>45261</v>
       </c>
       <c r="C4">
         <v>6129</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>45352</v>
       </c>
       <c r="C5">
@@ -2048,8 +3086,8 @@
         <v>-50065.666666666664</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>45717</v>
       </c>
       <c r="C6">
@@ -2057,8 +3095,8 @@
         <v>-50065.666666666664</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>46082</v>
       </c>
       <c r="C7">
@@ -2069,8 +3107,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>SUM(C3:C8)</f>
+        <v>10601.86666</v>
+      </c>
+      <c r="B8" s="4">
         <v>46082</v>
       </c>
       <c r="C8">
@@ -2078,8 +3120,8 @@
         <v>150197</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2">
@@ -2089,11 +3131,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
   <dimension ref="B2:C9"/>
   <sheetViews>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDB27F7-DD83-488F-8B66-9491B65AD21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED2F72-F705-4E54-B2EA-3322C47A6A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="3" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>total prem</t>
   </si>
@@ -116,16 +116,10 @@
     <t>Ltis 9% of 30k</t>
   </si>
   <si>
-    <t>serrender FLI2</t>
-  </si>
-  <si>
     <t>FLI2PF upfront</t>
   </si>
   <si>
     <t>first payout FLI2PF</t>
-  </si>
-  <si>
-    <t>surrender FLI2PF</t>
   </si>
   <si>
     <t>surrender Fli2pm #250k to wipe out $190k loan</t>
@@ -189,10 +183,19 @@
     <t>capital deployed</t>
   </si>
   <si>
-    <t>capital earmarked</t>
-  </si>
-  <si>
     <t>watermark of outlay</t>
+  </si>
+  <si>
+    <t>capital 2b earmarked</t>
+  </si>
+  <si>
+    <t>redeem FLI2</t>
+  </si>
+  <si>
+    <t>redeem FLI2PF</t>
+  </si>
+  <si>
+    <t>redeem LTIS</t>
   </si>
 </sst>
 </file>
@@ -388,12 +391,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,10 +405,15 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -416,10 +423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,7 +1430,7 @@
         <v>60000</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1702,7 +1705,7 @@
         <v>60000</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1728,7 +1731,7 @@
   <dimension ref="A3:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,15 +1812,15 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-56322.833875000004</v>
+        <v>-55871.649625000005</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
         <v>45870</v>
       </c>
       <c r="D7" s="20">
-        <f>(0.0425-0.035)*G4</f>
-        <v>1127.9606249999999</v>
+        <f>(0.0425-0.032)*G4</f>
+        <v>1579.1448750000004</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1826,7 +1829,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-86401.783875000008</v>
+        <v>-85950.599625000003</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
@@ -1840,7 +1843,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-116480.73387500001</v>
+        <v>-116029.549625</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -1854,7 +1857,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>-146559.68387500002</v>
+        <v>-146108.499625</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -1868,7 +1871,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>-141459.79790250002</v>
+        <v>-141008.6136525</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -1885,7 +1888,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-136947.95540250003</v>
+        <v>-136496.7711525</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -1902,11 +1905,11 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>13446.794597499975</v>
+        <v>13897.978847499995</v>
       </c>
       <c r="B13" s="2">
         <f>XIRR($D$4:D13,$C$4:C13)</f>
-        <v>2.9796108603477478E-2</v>
+        <v>3.0880984663963319E-2</v>
       </c>
       <c r="C13" s="3">
         <v>47331</v>
@@ -1926,7 +1929,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>18545.176622499974</v>
+        <v>18996.360872499994</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -1940,7 +1943,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>23643.558647499973</v>
+        <v>24094.742897499993</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -1954,7 +1957,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>28741.940672499972</v>
+        <v>29193.124922499992</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -1968,7 +1971,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>33840.322697499971</v>
+        <v>34291.506947499991</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -1982,7 +1985,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>38938.70472249997</v>
+        <v>39389.88897249999</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -1996,7 +1999,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>44037.086747499969</v>
+        <v>44488.270997499989</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -2010,7 +2013,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>49135.468772499968</v>
+        <v>49586.653022499988</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -2024,7 +2027,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>54233.850797499967</v>
+        <v>54685.035047499987</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -2038,7 +2041,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>59332.232822499966</v>
+        <v>59783.417072499986</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
@@ -2052,7 +2055,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>64430.614847499965</v>
+        <v>64881.799097499985</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
@@ -2066,7 +2069,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>69528.996872499964</v>
+        <v>69980.181122499984</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -2080,7 +2083,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>74627.378897499962</v>
+        <v>75078.563147499983</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
@@ -2094,7 +2097,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>79725.760922499961</v>
+        <v>80176.945172499982</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
@@ -2108,7 +2111,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>84824.14294749996</v>
+        <v>85275.327197499981</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3">
@@ -2122,7 +2125,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>SUM($D$3:D29)</f>
-        <v>89922.524972499959</v>
+        <v>90373.70922249998</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3">
@@ -2144,7 +2147,7 @@
   <dimension ref="B1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,20 +2167,20 @@
     <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="8"/>
@@ -2200,7 +2203,7 @@
         <v>-0.01</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -2222,7 +2225,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -2266,7 +2269,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -2289,7 +2292,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" t="s">
@@ -2329,20 +2332,20 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f>SUM($D$3:D9)</f>
-        <v>-183363.39883333334</v>
+        <v>-177949.18783333333</v>
       </c>
       <c r="C9" s="15">
         <v>45566</v>
       </c>
       <c r="D9" s="14">
         <f t="shared" si="0"/>
-        <v>-2707.1055000000001</v>
+        <v>2707.1055000000001</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14">
-        <f>9%*G8</f>
-        <v>-2707.1055000000001</v>
+        <f>-9%*G8</f>
+        <v>2707.1055000000001</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>24</v>
@@ -2358,7 +2361,7 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f>SUM($D$3:D10)</f>
-        <v>-233429.0655</v>
+        <v>-228014.85449999999</v>
       </c>
       <c r="C10" s="15">
         <v>45717</v>
@@ -2376,7 +2379,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="8"/>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10" s="5">
         <f>K9+F6</f>
@@ -2386,7 +2389,7 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f>SUM($D$3:D11)</f>
-        <v>-263508.01549999998</v>
+        <v>-258093.8045</v>
       </c>
       <c r="C11" s="15">
         <v>45870</v>
@@ -2404,7 +2407,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="8"/>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11" s="2">
         <v>2.5000000000000001E-2</v>
@@ -2413,30 +2416,30 @@
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f>SUM($D$3:D12)</f>
-        <v>-262380.05487499997</v>
+        <v>-256514.659625</v>
       </c>
       <c r="C12" s="15">
         <v>45870</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>1127.9606249999999</v>
+        <v>1579.1448750000004</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
-        <f>(0.0425-0.035)*K7</f>
-        <v>1127.9606249999999</v>
+        <f>(0.0425-0.032)*K7</f>
+        <v>1579.1448750000004</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f>SUM($D$3:D13)</f>
-        <v>-273640.05487499997</v>
+        <v>-267774.65962499997</v>
       </c>
       <c r="C13" s="15">
         <v>45962</v>
@@ -2451,22 +2454,22 @@
         <v>-11260</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="34" t="s">
-        <v>45</v>
+      <c r="H13" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="35">
+      <c r="J13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="26">
         <f>B13</f>
-        <v>-273640.05487499997</v>
+        <v>-267774.65962499997</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f>SUM($D$3:D14)</f>
-        <v>-269167.18821499997</v>
+        <v>-263301.79296499997</v>
       </c>
       <c r="C14" s="15">
         <v>46082</v>
@@ -2486,7 +2489,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K14" s="14">
         <f>B5</f>
@@ -2496,7 +2499,7 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f>SUM($D$3:D15)</f>
-        <v>-118970.18821499997</v>
+        <v>-113104.79296499997</v>
       </c>
       <c r="C15" s="15">
         <v>46082</v>
@@ -2512,21 +2515,21 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="12" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="14">
         <f>K13-K14</f>
-        <v>-179637.71154166665</v>
+        <v>-173772.31629166665</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f>SUM($D$3:D16)</f>
-        <v>-149049.13821499998</v>
+        <v>-143183.74296499998</v>
       </c>
       <c r="C16" s="15">
         <v>46235</v>
@@ -2547,7 +2550,7 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f>SUM($D$3:D17)</f>
-        <v>-141024.13821499998</v>
+        <v>-135158.74296499998</v>
       </c>
       <c r="C17" s="15">
         <v>46419</v>
@@ -2563,14 +2566,14 @@
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f>SUM($D$3:D18)</f>
-        <v>-81024.138214999984</v>
+        <v>-75158.742964999983</v>
       </c>
       <c r="C18" s="15">
         <v>46419</v>
@@ -2586,14 +2589,14 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="17" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f>SUM($D$3:D19)</f>
-        <v>-111103.08821499998</v>
+        <v>-105237.69296499998</v>
       </c>
       <c r="C19" s="15">
         <v>46600</v>
@@ -2614,7 +2617,7 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <f>SUM($D$3:D20)</f>
-        <v>-141182.03821499998</v>
+        <v>-135316.64296499998</v>
       </c>
       <c r="C20" s="15">
         <v>46966</v>
@@ -2635,7 +2638,7 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <f>SUM($D$3:D21)</f>
-        <v>-136082.15224249999</v>
+        <v>-130216.75699249998</v>
       </c>
       <c r="C21" s="15">
         <v>47331</v>
@@ -2658,7 +2661,7 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <f>SUM($D$3:D22)</f>
-        <v>-131570.30974249999</v>
+        <v>-125704.91449249999</v>
       </c>
       <c r="C22" s="15">
         <v>47331</v>
@@ -2674,14 +2677,14 @@
         <v>4511.8424999999997</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23">
         <f>SUM($D$3:D23)</f>
-        <v>18824.440257500013</v>
+        <v>24689.835507500015</v>
       </c>
       <c r="C23" s="22">
         <v>47331</v>
@@ -2697,16 +2700,16 @@
         <v>150394.75</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="21">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2717,15 +2720,15 @@
       </c>
       <c r="G24" s="21">
         <f>SUM(G3:G23)</f>
-        <v>8032.5735974999843</v>
+        <v>13897.968847499986</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="16">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2733,16 +2736,16 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16">
         <f>XIRR($G$3:G23,$C$3:C23)</f>
-        <v>1.7060789465904235E-2</v>
+        <v>3.0880960822105407E-2</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="14"/>
@@ -2755,7 +2758,7 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <f>SUM($D$3:D27)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-190982.26626999999</v>
+        <v>-185116.87101999999</v>
       </c>
       <c r="C27" s="15">
         <v>47696</v>
@@ -2770,15 +2773,15 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H27" s="31" t="s">
-        <v>42</v>
+      <c r="H27" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <f>SUM($D$3:D28)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-185882.3802975</v>
+        <v>-180016.9850475</v>
       </c>
       <c r="C28" s="15">
         <v>48061</v>
@@ -2793,13 +2796,13 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H28" s="32"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <f>SUM($D$3:D29)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-180782.49432499998</v>
+        <v>-174917.09907499998</v>
       </c>
       <c r="C29" s="15">
         <v>48427</v>
@@ -2814,13 +2817,13 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="34"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <f>SUM($D$3:D30)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-175682.60835249998</v>
+        <v>-169817.21310249998</v>
       </c>
       <c r="C30" s="15">
         <v>48792</v>
@@ -2835,13 +2838,13 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H30" s="32"/>
+      <c r="H30" s="34"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <f>SUM($D$3:D31)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-170582.72237999999</v>
+        <v>-164717.32712999999</v>
       </c>
       <c r="C31" s="15">
         <v>49157</v>
@@ -2856,13 +2859,13 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H31" s="32"/>
+      <c r="H31" s="34"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <f>SUM($D$3:D32)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-166357.72237999999</v>
+        <v>-160492.32712999999</v>
       </c>
       <c r="C32" s="13">
         <v>46784</v>
@@ -2873,11 +2876,11 @@
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="12">
-        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <f t="shared" ref="F32:F38" si="1">3.21%*$K$9-$K$10*$K$32</f>
         <v>4224.9999999999991</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="32"/>
+      <c r="H32" s="34"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
         <v>20</v>
@@ -2889,7 +2892,7 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <f>SUM($D$3:D33)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-162132.72237999999</v>
+        <v>-156267.32712999999</v>
       </c>
       <c r="C33" s="13">
         <v>47150</v>
@@ -2900,16 +2903,16 @@
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="12">
-        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="32"/>
+      <c r="H33" s="34"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="30">
+        <v>36</v>
+      </c>
+      <c r="K33" s="24">
         <f>-F32/F6</f>
         <v>7.0416666666666655E-2</v>
       </c>
@@ -2917,7 +2920,7 @@
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <f>SUM($D$3:D34)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-157907.72237999999</v>
+        <v>-152042.32712999999</v>
       </c>
       <c r="C34" s="13">
         <v>47515</v>
@@ -2928,17 +2931,17 @@
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="12">
-        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="32"/>
+      <c r="H34" s="34"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <f>SUM($D$3:D35)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-153682.72237999999</v>
+        <v>-147817.32712999999</v>
       </c>
       <c r="C35" s="13">
         <v>47880</v>
@@ -2949,17 +2952,17 @@
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="12">
-        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="32"/>
+      <c r="H35" s="34"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <f>SUM($D$3:D36)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-149457.72237999999</v>
+        <v>-143592.32712999999</v>
       </c>
       <c r="C36" s="13">
         <v>48245</v>
@@ -2970,17 +2973,17 @@
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="12">
-        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="32"/>
+      <c r="H36" s="34"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <f>SUM($D$3:D37)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-145232.72237999999</v>
+        <v>-139367.32712999999</v>
       </c>
       <c r="C37" s="13">
         <v>48611</v>
@@ -2991,17 +2994,17 @@
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="12">
-        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="32"/>
+      <c r="H37" s="34"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <f>SUM($D$3:D38)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-141007.72237999999</v>
+        <v>-135142.32712999999</v>
       </c>
       <c r="C38" s="13">
         <v>48976</v>
@@ -3012,11 +3015,11 @@
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="12">
-        <f>3.21%*$K$9-$K$10*$K$32</f>
+        <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="33"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="8"/>
     </row>
   </sheetData>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED2F72-F705-4E54-B2EA-3322C47A6A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B4CE6-7B6C-403D-B8DA-C336530E65B0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="3" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" r:id="rId1"/>
@@ -20,26 +20,17 @@
     <sheet name="FLI2" sheetId="1" r:id="rId5"/>
     <sheet name="xirr test" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>total prem</t>
   </si>
@@ -196,16 +187,24 @@
   </si>
   <si>
     <t>redeem LTIS</t>
+  </si>
+  <si>
+    <t>^ I don't mind a loss witin $500 due to mkt risk</t>
+  </si>
+  <si>
+    <t>PnL#退保</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-409]mmm/yy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -360,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -423,6 +422,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BD802-F9D4-40CD-9458-754DF046B7C7}">
   <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -834,8 +835,9 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.02</v>
+      <c r="G5" s="37">
+        <f>0.5%+G7</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L5">
         <f>G6*(J3*K3+J4*K4)</f>
@@ -845,7 +847,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM($D$3:D6)</f>
-        <v>-61462.000000000007</v>
+        <v>-62182.000000000007</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -853,7 +855,7 @@
       </c>
       <c r="D6">
         <f>-(5322+G6*G5)</f>
-        <v>-8202</v>
+        <v>-8922</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -879,7 +881,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-61462.000000000007</v>
+        <v>-62182.000000000007</v>
       </c>
       <c r="B7" s="2"/>
       <c r="F7" t="s">
@@ -892,7 +894,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-61462.000000000007</v>
+        <v>-62182.000000000007</v>
       </c>
       <c r="B8" s="2"/>
       <c r="F8" t="s">
@@ -905,7 +907,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-55042.000000000007</v>
+        <v>-55762.000000000007</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -924,15 +926,15 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>958</v>
+        <v>-55762.000000000007</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
         <v>46419</v>
       </c>
       <c r="D10" s="5">
-        <f>-$D$3</f>
-        <v>56000.000000000007</v>
+        <f>-$D$3*0</f>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>19</v>
@@ -941,7 +943,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>4497.9999999999991</v>
+        <v>-52222.000000000007</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -960,7 +962,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>8037.9999999999982</v>
+        <v>-48682.000000000007</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -979,7 +981,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>11577.999999999996</v>
+        <v>-45142.000000000007</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -998,7 +1000,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>15117.999999999996</v>
+        <v>-41602.000000000007</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -1012,7 +1014,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>18657.999999999996</v>
+        <v>-38062.000000000007</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -1026,7 +1028,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>22197.999999999996</v>
+        <v>-34522.000000000007</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -1040,7 +1042,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>25737.999999999996</v>
+        <v>-30982.000000000007</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -1054,7 +1056,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>29277.999999999996</v>
+        <v>-27442.000000000007</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -1068,7 +1070,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>32817.999999999993</v>
+        <v>-23902.000000000007</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -1082,7 +1084,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>36357.999999999993</v>
+        <v>-20362.000000000007</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -1096,7 +1098,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>39897.999999999993</v>
+        <v>-16822.000000000007</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -1110,7 +1112,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>43437.999999999993</v>
+        <v>-13282.000000000007</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -1124,7 +1126,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>46977.999999999993</v>
+        <v>-9742.0000000000073</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
@@ -1138,7 +1140,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>50517.999999999993</v>
+        <v>-6202.0000000000082</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
@@ -1152,7 +1154,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>54057.999999999993</v>
+        <v>-2662.0000000000091</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -1166,7 +1168,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>57597.999999999993</v>
+        <v>877.99999999999</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
@@ -1180,7 +1182,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>61137.999999999993</v>
+        <v>4417.9999999999891</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
@@ -1196,11 +1198,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>117138</v>
+        <v>60418</v>
       </c>
       <c r="B28" s="2">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>0.16009600758552556</v>
+        <v>5.1243409514427185E-2</v>
       </c>
       <c r="C28" s="3">
         <v>52628</v>
@@ -1235,14 +1237,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
   <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
@@ -1329,8 +1331,9 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.03</v>
+      <c r="G5" s="37">
+        <f>G7+0.5%</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L5">
         <f>G6*(J3*K3+J4*K4)</f>
@@ -1340,7 +1343,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM($D$3:D6)</f>
-        <v>-68785</v>
+        <v>-67835</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -1348,7 +1351,7 @@
       </c>
       <c r="D6">
         <f>-(6510+G6*G5)</f>
-        <v>-12210</v>
+        <v>-11260</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1374,7 +1377,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-68785</v>
+        <v>-67835</v>
       </c>
       <c r="B7" s="2"/>
       <c r="F7" t="s">
@@ -1387,7 +1390,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-68785</v>
+        <v>-67835</v>
       </c>
       <c r="B8" s="2"/>
       <c r="F8" t="s">
@@ -1400,9 +1403,11 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-60760</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>-59810</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C9" s="3">
         <v>46419</v>
       </c>
@@ -1419,15 +1424,18 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>-760</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>-59810</v>
+      </c>
+      <c r="B10" s="5">
+        <f>A10-D3</f>
+        <v>190</v>
+      </c>
       <c r="C10" s="3">
         <v>46419</v>
       </c>
       <c r="D10" s="5">
-        <f>-$D$3</f>
-        <v>60000</v>
+        <f>-$D$3*0</f>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>27</v>
@@ -1436,7 +1444,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>3464.9999999999991</v>
+        <v>-55585</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -1445,6 +1453,9 @@
       <c r="D11">
         <f t="shared" ref="D11:D27" si="0">3.21%*$G$4-$G$7*$G$6</f>
         <v>4224.9999999999991</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1455,7 +1466,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>7689.9999999999982</v>
+        <v>-51360</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -1474,7 +1485,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>11914.999999999996</v>
+        <v>-47135</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -1493,7 +1504,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>16139.999999999996</v>
+        <v>-42910</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -1507,7 +1518,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>20364.999999999996</v>
+        <v>-38685</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -1521,7 +1532,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>24589.999999999996</v>
+        <v>-34460</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -1535,7 +1546,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>28814.999999999996</v>
+        <v>-30235</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -1549,7 +1560,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>33039.999999999993</v>
+        <v>-26010</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -1563,7 +1574,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>37264.999999999993</v>
+        <v>-21785</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -1577,7 +1588,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>41489.999999999993</v>
+        <v>-17560</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -1591,7 +1602,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>45714.999999999993</v>
+        <v>-13335</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -1605,7 +1616,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>49939.999999999993</v>
+        <v>-9110</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -1619,7 +1630,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>54164.999999999993</v>
+        <v>-4885.0000000000009</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
@@ -1633,7 +1644,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>58389.999999999993</v>
+        <v>-660.00000000000182</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
@@ -1647,7 +1658,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>62614.999999999993</v>
+        <v>3564.9999999999973</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -1661,7 +1672,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>66839.999999999985</v>
+        <v>7789.9999999999964</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
@@ -1675,9 +1686,11 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>71064.999999999985</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>12014.999999999996</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C27" s="3">
         <v>52628</v>
       </c>
@@ -1691,11 +1704,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>131064.99999999999</v>
+        <v>72015</v>
       </c>
       <c r="B28" s="2">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>0.16061307787895202</v>
+        <v>5.6442233920097354E-2</v>
       </c>
       <c r="C28" s="3">
         <v>52628</v>
@@ -2146,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,10 +3153,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3151,66 +3164,232 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="36">
+        <f>XIRR(C2:C27,B2:B27)</f>
+        <v>2.9978230595588677E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>36526</v>
+      </c>
+      <c r="C2">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>44986</v>
+        <v>36892</v>
       </c>
       <c r="C3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>45352</v>
+        <v>37257</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>45717</v>
+        <v>37622</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>46082</v>
+        <v>37987</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>46082</v>
+        <v>38353</v>
       </c>
       <c r="C7">
-        <f>-C3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>38718</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>39083</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>39448</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>39814</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>40179</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>40544</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>40909</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>41275</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>41640</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>42005</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>42370</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>42736</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>43101</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>43831</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>44562</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>44927</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C27">
+        <f>-C2</f>
         <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <f>XIRR(C3:C7,B3:B7)</f>
-        <v>2.9971399903297419E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B4CE6-7B6C-403D-B8DA-C336530E65B0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1736B404-AA54-4B5F-8A9B-86F27F46C0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="3" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <sheet name="FLI2" sheetId="1" r:id="rId5"/>
     <sheet name="xirr test" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>total prem</t>
   </si>
@@ -134,19 +143,10 @@
     <t>FLI2 upfront</t>
   </si>
   <si>
-    <t>end2end profix #cf other 3 tabs:</t>
-  </si>
-  <si>
     <t>keep -0.01 to satisfy xirr</t>
   </si>
   <si>
-    <t>net payout rate</t>
-  </si>
-  <si>
     <t>LTIS</t>
-  </si>
-  <si>
-    <t>XIRR 不适合FLI2PF</t>
   </si>
   <si>
     <t>net inc</t>
@@ -193,6 +193,25 @@
   </si>
   <si>
     <t>PnL#退保</t>
+  </si>
+  <si>
+    <t>This analysis has received lots of sunshine and become valuable</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>long term LIR est</t>
+  </si>
+  <si>
+    <t>end2end profit 
+#cf other 3 tabs:</t>
+  </si>
+  <si>
+    <t>net DYOC</t>
+  </si>
+  <si>
+    <t>DYOC</t>
   </si>
 </sst>
 </file>
@@ -359,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -395,9 +414,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,8 +440,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,7 +856,7 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="28">
         <f>0.5%+G7</f>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1237,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
   <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,9 +1352,9 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="28">
         <f>G7+0.5%</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="L5">
         <f>G6*(J3*K3+J4*K4)</f>
@@ -1343,7 +1364,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM($D$3:D6)</f>
-        <v>-67835</v>
+        <v>-68785</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -1351,7 +1372,7 @@
       </c>
       <c r="D6">
         <f>-(6510+G6*G5)</f>
-        <v>-11260</v>
+        <v>-12210</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1377,20 +1398,20 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-67835</v>
+        <v>-68785</v>
       </c>
       <c r="B7" s="2"/>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="2">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-67835</v>
+        <v>-68785</v>
       </c>
       <c r="B8" s="2"/>
       <c r="F8" t="s">
@@ -1403,10 +1424,10 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-59810</v>
+        <v>-60760</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3">
         <v>46419</v>
@@ -1424,11 +1445,11 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>-59810</v>
+        <v>-60760</v>
       </c>
       <c r="B10" s="5">
         <f>A10-D3</f>
-        <v>190</v>
+        <v>-760</v>
       </c>
       <c r="C10" s="3">
         <v>46419</v>
@@ -1444,7 +1465,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>-55585</v>
+        <v>-57485</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -1452,10 +1473,10 @@
       </c>
       <c r="D11">
         <f t="shared" ref="D11:D27" si="0">3.21%*$G$4-$G$7*$G$6</f>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1466,7 +1487,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-51360</v>
+        <v>-54210</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -1474,7 +1495,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1485,7 +1506,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>-47135</v>
+        <v>-50935</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -1493,10 +1514,8 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+        <v>3274.9999999999991</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1504,35 +1523,40 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>-42910</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>-47660</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="C14" s="3">
         <v>47880</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>-38685</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>-44385</v>
+      </c>
+      <c r="B15" s="39">
+        <f>-D15/D3</f>
+        <v>5.4583333333333317E-2</v>
+      </c>
       <c r="C15" s="3">
         <v>48245</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>-34460</v>
+        <v>-41110</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -1540,13 +1564,13 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>-30235</v>
+        <v>-37835</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -1554,13 +1578,13 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>-26010</v>
+        <v>-34560</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -1568,13 +1592,13 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>-21785</v>
+        <v>-31285</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -1582,13 +1606,13 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>-17560</v>
+        <v>-28010</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -1596,13 +1620,13 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>-13335</v>
+        <v>-24735</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -1610,13 +1634,13 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>-9110</v>
+        <v>-21460</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -1624,13 +1648,13 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>-4885.0000000000009</v>
+        <v>-18185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
@@ -1638,13 +1662,13 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>-660.00000000000182</v>
+        <v>-14910</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
@@ -1652,13 +1676,13 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>3564.9999999999973</v>
+        <v>-11635</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -1666,13 +1690,13 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>7789.9999999999964</v>
+        <v>-8360</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
@@ -1680,13 +1704,13 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>12014.999999999996</v>
+        <v>-5085.0000000000009</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
@@ -1696,7 +1720,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1704,11 +1728,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>72015</v>
+        <v>54915</v>
       </c>
       <c r="B28" s="2">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>5.6442233920097354E-2</v>
+        <v>4.3532499670982369E-2</v>
       </c>
       <c r="C28" s="3">
         <v>52628</v>
@@ -1724,10 +1748,6 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -1744,7 +1764,7 @@
   <dimension ref="A3:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,15 +1845,15 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-55871.649625000005</v>
+        <v>-55570.860125000007</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
         <v>45870</v>
       </c>
       <c r="D7" s="20">
-        <f>(0.0425-0.032)*G4</f>
-        <v>1579.1448750000004</v>
+        <f>(0.0425-0.03)*G4</f>
+        <v>1879.9343750000007</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1842,7 +1862,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-85950.599625000003</v>
+        <v>-85649.810125000004</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
@@ -1856,7 +1876,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-116029.549625</v>
+        <v>-115728.760125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -1870,7 +1890,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>-146108.499625</v>
+        <v>-145807.71012500001</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -1884,7 +1904,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>-141008.6136525</v>
+        <v>-140707.82415250002</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -1901,7 +1921,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-136496.7711525</v>
+        <v>-136195.98165250002</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -1918,11 +1938,11 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>13897.978847499995</v>
+        <v>14198.768347499979</v>
       </c>
       <c r="B13" s="2">
         <f>XIRR($D$4:D13,$C$4:C13)</f>
-        <v>3.0880984663963319E-2</v>
+        <v>3.1607630848884585E-2</v>
       </c>
       <c r="C13" s="3">
         <v>47331</v>
@@ -1942,7 +1962,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>18996.360872499994</v>
+        <v>19297.150372499978</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -1956,7 +1976,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>24094.742897499993</v>
+        <v>24395.532397499977</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -1970,7 +1990,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>29193.124922499992</v>
+        <v>29493.914422499976</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -1984,7 +2004,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>34291.506947499991</v>
+        <v>34592.296447499975</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -1998,7 +2018,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>39389.88897249999</v>
+        <v>39690.678472499974</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -2012,7 +2032,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>44488.270997499989</v>
+        <v>44789.060497499973</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -2026,7 +2046,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>49586.653022499988</v>
+        <v>49887.442522499972</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -2040,7 +2060,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>54685.035047499987</v>
+        <v>54985.824547499971</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -2054,7 +2074,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>59783.417072499986</v>
+        <v>60084.20657249997</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
@@ -2068,7 +2088,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>64881.799097499985</v>
+        <v>65182.588597499969</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
@@ -2082,7 +2102,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>69980.181122499984</v>
+        <v>70280.970622499968</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -2096,7 +2116,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>75078.563147499983</v>
+        <v>75379.352647499967</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
@@ -2110,7 +2130,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>80176.945172499982</v>
+        <v>80477.734672499966</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
@@ -2124,7 +2144,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>85275.327197499981</v>
+        <v>85576.116697499965</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3">
@@ -2138,7 +2158,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>SUM($D$3:D29)</f>
-        <v>90373.70922249998</v>
+        <v>90674.498722499964</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3">
@@ -2157,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
-  <dimension ref="B1:K38"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,14 +2193,14 @@
     <col min="7" max="7" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="1.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
@@ -2193,7 +2213,7 @@
         <v>29</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="8"/>
@@ -2216,7 +2236,7 @@
         <v>-0.01</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -2282,7 +2302,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -2423,36 +2443,37 @@
         <v>32</v>
       </c>
       <c r="K11" s="2">
+        <f>0.5%+K32</f>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f>SUM($D$3:D12)</f>
-        <v>-256514.659625</v>
+        <v>-256213.87012499999</v>
       </c>
       <c r="C12" s="15">
         <v>45870</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>1579.1448750000004</v>
+        <v>1879.9343750000007</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
-        <f>(0.0425-0.032)*K7</f>
-        <v>1579.1448750000004</v>
+        <f>(0.0425-0.03)*K7</f>
+        <v>1879.9343750000007</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f>SUM($D$3:D13)</f>
-        <v>-267774.65962499997</v>
+        <v>-267473.87012500002</v>
       </c>
       <c r="C13" s="15">
         <v>45962</v>
@@ -2468,21 +2489,21 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K13" s="26">
         <f>B13</f>
-        <v>-267774.65962499997</v>
+        <v>-267473.87012500002</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f>SUM($D$3:D14)</f>
-        <v>-263301.79296499997</v>
+        <v>-263001.00346500002</v>
       </c>
       <c r="C14" s="15">
         <v>46082</v>
@@ -2502,7 +2523,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K14" s="14">
         <f>B5</f>
@@ -2512,7 +2533,7 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f>SUM($D$3:D15)</f>
-        <v>-113104.79296499997</v>
+        <v>-112804.00346500002</v>
       </c>
       <c r="C15" s="15">
         <v>46082</v>
@@ -2528,21 +2549,21 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K15" s="14">
         <f>K13-K14</f>
-        <v>-173772.31629166665</v>
+        <v>-173471.52679166669</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f>SUM($D$3:D16)</f>
-        <v>-143183.74296499998</v>
+        <v>-142882.95346500003</v>
       </c>
       <c r="C16" s="15">
         <v>46235</v>
@@ -2563,7 +2584,7 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f>SUM($D$3:D17)</f>
-        <v>-135158.74296499998</v>
+        <v>-134857.95346500003</v>
       </c>
       <c r="C17" s="15">
         <v>46419</v>
@@ -2586,7 +2607,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f>SUM($D$3:D18)</f>
-        <v>-75158.742964999983</v>
+        <v>-74857.953465000028</v>
       </c>
       <c r="C18" s="15">
         <v>46419</v>
@@ -2602,14 +2623,14 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f>SUM($D$3:D19)</f>
-        <v>-105237.69296499998</v>
+        <v>-104936.90346500002</v>
       </c>
       <c r="C19" s="15">
         <v>46600</v>
@@ -2630,7 +2651,7 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <f>SUM($D$3:D20)</f>
-        <v>-135316.64296499998</v>
+        <v>-135015.85346500002</v>
       </c>
       <c r="C20" s="15">
         <v>46966</v>
@@ -2651,7 +2672,7 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <f>SUM($D$3:D21)</f>
-        <v>-130216.75699249998</v>
+        <v>-129915.96749250003</v>
       </c>
       <c r="C21" s="15">
         <v>47331</v>
@@ -2674,7 +2695,7 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <f>SUM($D$3:D22)</f>
-        <v>-125704.91449249999</v>
+        <v>-125404.12499250003</v>
       </c>
       <c r="C22" s="15">
         <v>47331</v>
@@ -2690,14 +2711,14 @@
         <v>4511.8424999999997</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23">
         <f>SUM($D$3:D23)</f>
-        <v>24689.835507500015</v>
+        <v>24990.62500749997</v>
       </c>
       <c r="C23" s="22">
         <v>47331</v>
@@ -2713,16 +2734,16 @@
         <v>150394.75</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="21">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2733,15 +2754,15 @@
       </c>
       <c r="G24" s="21">
         <f>SUM(G3:G23)</f>
-        <v>13897.968847499986</v>
+        <v>14198.758347499999</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="16">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2749,16 +2770,14 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16">
         <f>XIRR($G$3:G23,$C$3:C23)</f>
-        <v>3.0880960822105407E-2</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>3.1607601046562198E-2</v>
+      </c>
+      <c r="H25" s="12"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="14"/>
@@ -2771,7 +2790,7 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <f>SUM($D$3:D27)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-185116.87101999999</v>
+        <v>-184816.08152000004</v>
       </c>
       <c r="C27" s="15">
         <v>47696</v>
@@ -2786,15 +2805,15 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H27" s="33" t="s">
-        <v>40</v>
+      <c r="H27" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <f>SUM($D$3:D28)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-180016.9850475</v>
+        <v>-179716.19554750004</v>
       </c>
       <c r="C28" s="15">
         <v>48061</v>
@@ -2809,13 +2828,13 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H28" s="34"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <f>SUM($D$3:D29)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-174917.09907499998</v>
+        <v>-174616.30957500002</v>
       </c>
       <c r="C29" s="15">
         <v>48427</v>
@@ -2830,13 +2849,13 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <f>SUM($D$3:D30)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-169817.21310249998</v>
+        <v>-169516.42360250003</v>
       </c>
       <c r="C30" s="15">
         <v>48792</v>
@@ -2851,13 +2870,13 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H30" s="34"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <f>SUM($D$3:D31)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-164717.32712999999</v>
+        <v>-164416.53763000004</v>
       </c>
       <c r="C31" s="15">
         <v>49157</v>
@@ -2872,13 +2891,13 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H31" s="34"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <f>SUM($D$3:D32)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-160492.32712999999</v>
+        <v>-160191.53763000004</v>
       </c>
       <c r="C32" s="13">
         <v>46784</v>
@@ -2892,11 +2911,13 @@
         <f t="shared" ref="F32:F38" si="1">3.21%*$K$9-$K$10*$K$32</f>
         <v>4224.9999999999991</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="34"/>
+      <c r="G32" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="35"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K32" s="2">
         <v>0.02</v>
@@ -2905,7 +2926,7 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <f>SUM($D$3:D33)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-156267.32712999999</v>
+        <v>-155966.53763000004</v>
       </c>
       <c r="C33" s="13">
         <v>47150</v>
@@ -2920,10 +2941,10 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="34"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="K33" s="24">
         <f>-F32/F6</f>
@@ -2933,7 +2954,7 @@
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <f>SUM($D$3:D34)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-152042.32712999999</v>
+        <v>-151741.53763000004</v>
       </c>
       <c r="C34" s="13">
         <v>47515</v>
@@ -2948,13 +2969,13 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="34"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <f>SUM($D$3:D35)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-147817.32712999999</v>
+        <v>-147516.53763000004</v>
       </c>
       <c r="C35" s="13">
         <v>47880</v>
@@ -2969,13 +2990,13 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="34"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <f>SUM($D$3:D36)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-143592.32712999999</v>
+        <v>-143291.53763000004</v>
       </c>
       <c r="C36" s="13">
         <v>48245</v>
@@ -2990,13 +3011,13 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="34"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <f>SUM($D$3:D37)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-139367.32712999999</v>
+        <v>-139066.53763000004</v>
       </c>
       <c r="C37" s="13">
         <v>48611</v>
@@ -3011,13 +3032,13 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="34"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <f>SUM($D$3:D38)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-135142.32712999999</v>
+        <v>-134841.53763000004</v>
       </c>
       <c r="C38" s="13">
         <v>48976</v>
@@ -3032,8 +3053,13 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="35"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="8"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3174,7 +3200,7 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="36">
+      <c r="F1" s="27">
         <f>XIRR(C2:C27,B2:B27)</f>
         <v>2.9978230595588677E-2</v>
       </c>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1736B404-AA54-4B5F-8A9B-86F27F46C0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B487739-1037-4B39-9E70-4F7BE99F5B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="3" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fli2pm 200k" sheetId="6" r:id="rId1"/>
+    <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="Fli2pm" sheetId="5" r:id="rId2"/>
     <sheet name="LTIS" sheetId="2" r:id="rId3"/>
     <sheet name="overlap ptf" sheetId="4" r:id="rId4"/>
@@ -161,10 +161,6 @@
     <t>$4512 bonus</t>
   </si>
   <si>
-    <t>30M int 
-#当作Nov26缴</t>
-  </si>
-  <si>
     <t>FLI2PF 首付</t>
   </si>
   <si>
@@ -212,6 +208,10 @@
   </si>
   <si>
     <t>DYOC</t>
+  </si>
+  <si>
+    <t>30M int 
+#当作Nov25缴</t>
   </si>
 </sst>
 </file>
@@ -416,6 +416,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,11 +445,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BD802-F9D4-40CD-9458-754DF046B7C7}">
-  <dimension ref="A2:L31"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
@@ -801,20 +801,19 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3">
+      <c r="I3">
         <f>5/12</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="K3" s="2">
+      <c r="J3" s="2">
         <v>2.75E-2</v>
       </c>
-      <c r="L3" s="9">
-        <f>G6*J3*K3</f>
+      <c r="K3" s="9">
+        <f>G6*I3*J3</f>
         <v>1650</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>SUM($D$3:D4)</f>
         <v>-53260.000000000007</v>
@@ -836,18 +835,18 @@
       <c r="G4" s="7">
         <v>200000</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="J4" s="2">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="L4" s="9">
-        <f>G6*J4*K4</f>
+      <c r="K4" s="9">
+        <f>G6*I4*J4</f>
         <v>3671.9999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>SUM($D$3:D5)</f>
         <v>-53260.000000000007</v>
@@ -857,18 +856,17 @@
         <v>21</v>
       </c>
       <c r="G5" s="28">
-        <f>0.5%+G7</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L5">
-        <f>G6*(J3*K3+J4*K4)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K5">
+        <f>G6*(I3*J3+I4*J4)</f>
         <v>5321.9999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM($D$3:D6)</f>
-        <v>-62182.000000000007</v>
+        <v>-61462.000000000007</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -876,7 +874,7 @@
       </c>
       <c r="D6">
         <f>-(5322+G6*G5)</f>
-        <v>-8922</v>
+        <v>-8202</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -888,34 +886,34 @@
         <f>G4+D3</f>
         <v>144000</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="K6" s="11">
+      <c r="J6" s="11">
         <v>0.02</v>
       </c>
-      <c r="L6" s="9">
-        <f>G6*J6*K6</f>
+      <c r="K6" s="9">
+        <f>G6*I6*J6</f>
         <v>2880</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-62182.000000000007</v>
+        <v>-61462.000000000007</v>
       </c>
       <c r="B7" s="2"/>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-62182.000000000007</v>
+        <v>-61462.000000000007</v>
       </c>
       <c r="B8" s="2"/>
       <c r="F8" t="s">
@@ -925,10 +923,10 @@
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-55762.000000000007</v>
+        <v>-55042.000000000007</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -944,10 +942,10 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>-55762.000000000007</v>
+        <v>-55042.000000000007</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -961,48 +959,46 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>-52222.000000000007</v>
+        <v>-50782.000000000007</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
         <v>46784</v>
       </c>
-      <c r="D11">
-        <f t="shared" ref="D11:D27" si="0">3.21%*$G$4-$G$7*$G$6</f>
-        <v>3539.9999999999991</v>
+      <c r="D11" s="9">
+        <f>3.21%*$G$4-$G$7*$G$6</f>
+        <v>4259.9999999999991</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-48682.000000000007</v>
+        <v>-46522.000000000007</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
         <v>47150</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <f t="shared" ref="D11:D27" si="0">3.21%*$G$4-$G$7*$G$6</f>
+        <v>4259.9999999999991</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>-45142.000000000007</v>
+        <v>-42262.000000000007</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -1010,18 +1006,17 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>-41602.000000000007</v>
+        <v>-38002.000000000007</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -1029,13 +1024,13 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4259.9999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>-38062.000000000007</v>
+        <v>-33742.000000000007</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -1043,13 +1038,13 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4259.9999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>-34522.000000000007</v>
+        <v>-29482.000000000007</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -1057,13 +1052,13 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>-30982.000000000007</v>
+        <v>-25222.000000000007</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -1071,13 +1066,13 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>-27442.000000000007</v>
+        <v>-20962.000000000007</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -1085,13 +1080,13 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>-23902.000000000007</v>
+        <v>-16702.000000000007</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -1099,13 +1094,13 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>-20362.000000000007</v>
+        <v>-12442.000000000007</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -1113,13 +1108,13 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>-16822.000000000007</v>
+        <v>-8182.0000000000082</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -1127,13 +1122,13 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>-13282.000000000007</v>
+        <v>-3922.0000000000091</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -1141,13 +1136,13 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>-9742.0000000000073</v>
+        <v>337.99999999999</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
@@ -1155,13 +1150,13 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>-6202.0000000000082</v>
+        <v>4597.9999999999891</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
@@ -1169,13 +1164,13 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>-2662.0000000000091</v>
+        <v>8857.9999999999891</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -1183,13 +1178,13 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>877.99999999999</v>
+        <v>13117.999999999989</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
@@ -1197,13 +1192,13 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>4417.9999999999891</v>
+        <v>17377.999999999989</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
@@ -1211,7 +1206,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>3539.9999999999991</v>
+        <v>4259.9999999999991</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1219,11 +1214,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>60418</v>
+        <v>73378</v>
       </c>
       <c r="B28" s="2">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>5.1243409514427185E-2</v>
+        <v>6.1669102311134344E-2</v>
       </c>
       <c r="C28" s="3">
         <v>52628</v>
@@ -1258,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
   <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1422,7 @@
         <v>-60760</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3">
         <v>46419</v>
@@ -1476,7 +1471,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1526,7 +1521,7 @@
         <v>-47660</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3">
         <v>47880</v>
@@ -1541,7 +1536,7 @@
         <f>SUM($D$3:D15)</f>
         <v>-44385</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="30">
         <f>-D15/D3</f>
         <v>5.4583333333333317E-2</v>
       </c>
@@ -2179,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2297,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -2466,7 +2461,7 @@
         <v>1879.9343750000007</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -2489,11 +2484,11 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="25" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="26">
         <f>B13</f>
@@ -2523,7 +2518,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" s="14">
         <f>B5</f>
@@ -2549,11 +2544,11 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" s="14">
         <f>K13-K14</f>
@@ -2623,7 +2618,7 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="19"/>
     </row>
@@ -2734,16 +2729,16 @@
         <v>150394.75</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="21">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2760,9 +2755,9 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="16">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2805,7 +2800,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="37" t="s">
         <v>37</v>
       </c>
       <c r="I27" s="8"/>
@@ -2828,7 +2823,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H28" s="35"/>
+      <c r="H28" s="38"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2849,7 +2844,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H29" s="35"/>
+      <c r="H29" s="38"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2870,7 +2865,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H30" s="35"/>
+      <c r="H30" s="38"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2891,7 +2886,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H31" s="35"/>
+      <c r="H31" s="38"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2911,13 +2906,13 @@
         <f t="shared" ref="F32:F38" si="1">3.21%*$K$9-$K$10*$K$32</f>
         <v>4224.9999999999991</v>
       </c>
-      <c r="G32" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="35"/>
+      <c r="G32" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="38"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K32" s="2">
         <v>0.02</v>
@@ -2941,10 +2936,10 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="35"/>
+      <c r="H33" s="38"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="24">
         <f>-F32/F6</f>
@@ -2969,7 +2964,7 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="35"/>
+      <c r="H34" s="38"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2990,7 +2985,7 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="35"/>
+      <c r="H35" s="38"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -3011,7 +3006,7 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="35"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -3032,7 +3027,7 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="35"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -3053,12 +3048,12 @@
         <v>4224.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="36"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="8"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B487739-1037-4B39-9E70-4F7BE99F5B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B88A3-9648-4221-BE48-D4A8760FD18C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
@@ -20,26 +20,17 @@
     <sheet name="FLI2" sheetId="1" r:id="rId5"/>
     <sheet name="xirr test" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>total prem</t>
   </si>
@@ -75,9 +66,6 @@
   </si>
   <si>
     <t>golden handshake</t>
-  </si>
-  <si>
-    <t>12M TD excess profit</t>
   </si>
   <si>
     <t>net income</t>
@@ -212,6 +200,12 @@
   <si>
     <t>30M int 
 #当作Nov25缴</t>
+  </si>
+  <si>
+    <t>!!退保^</t>
+  </si>
+  <si>
+    <t>12M TD excess return</t>
   </si>
 </sst>
 </file>
@@ -778,7 +772,7 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -799,7 +793,7 @@
         <v>-56000.000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <f>5/12</f>
@@ -827,10 +821,10 @@
         <v>2740</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7">
         <v>200000</v>
@@ -853,7 +847,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="28">
         <v>0.02</v>
@@ -877,10 +871,10 @@
         <v>-8202</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7">
         <f>G4+D3</f>
@@ -904,7 +898,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2">
         <v>1.4999999999999999E-2</v>
@@ -917,7 +911,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2">
         <v>1.37E-2</v>
@@ -937,7 +931,7 @@
         <v>6419.9999999999991</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -956,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -987,7 +981,7 @@
         <v>47150</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D11:D27" si="0">3.21%*$G$4-$G$7*$G$6</f>
+        <f t="shared" ref="D12:D27" si="0">3.21%*$G$4-$G$7*$G$6</f>
         <v>4259.9999999999991</v>
       </c>
       <c r="F12" s="8"/>
@@ -1228,7 +1222,7 @@
         <v>56000.000000000007</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
-  <dimension ref="A2:L31"/>
+  <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1263,7 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1290,7 +1284,7 @@
         <v>-60000</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3">
@@ -1319,10 +1313,10 @@
         <v>3425</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7">
         <v>250000</v>
@@ -1345,7 +1339,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="28">
         <f>G7+0.5%</f>
@@ -1370,25 +1364,17 @@
         <v>-12210</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7">
         <f>G4+D3</f>
         <v>190000</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="L6" s="9">
-        <f>G6*J6*K6</f>
-        <v>3800</v>
-      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -1397,7 +1383,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2">
         <v>2.5000000000000001E-2</v>
@@ -1410,7 +1396,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2">
         <v>1.37E-2</v>
@@ -1422,7 +1408,7 @@
         <v>-60760</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3">
         <v>46419</v>
@@ -1432,7 +1418,7 @@
         <v>8024.9999999999991</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1454,43 +1440,32 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>SUM($D$3:D11)</f>
-        <v>-57485</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3">
-        <v>46784</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11:D27" si="0">3.21%*$G$4-$G$7*$G$6</f>
-        <v>3274.9999999999991</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-54210</v>
+        <v>-57485</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
-        <v>47150</v>
+        <v>46784</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D12:D28" si="0">3.21%*$G$4-$G$7*$G$6</f>
         <v>3274.9999999999991</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1501,16 +1476,18 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>-50935</v>
+        <v>-54210</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
-        <v>47515</v>
+        <v>47150</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1518,30 +1495,30 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>-47660</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>-50935</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="3">
-        <v>47880</v>
+        <v>47515</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>-44385</v>
-      </c>
-      <c r="B15" s="30">
-        <f>-D15/D3</f>
-        <v>5.4583333333333317E-2</v>
+        <v>-47660</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C15" s="3">
-        <v>48245</v>
+        <v>47880</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -1551,11 +1528,14 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>-41110</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>-44385</v>
+      </c>
+      <c r="B16" s="30">
+        <f>-D16/D3</f>
+        <v>5.4583333333333317E-2</v>
+      </c>
       <c r="C16" s="3">
-        <v>48611</v>
+        <v>48245</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -1565,11 +1545,11 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>-37835</v>
+        <v>-41110</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
-        <v>48976</v>
+        <v>48611</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -1579,11 +1559,11 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>-34560</v>
+        <v>-37835</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
-        <v>49341</v>
+        <v>48976</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -1593,11 +1573,11 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>-31285</v>
+        <v>-34560</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
-        <v>49706</v>
+        <v>49341</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -1607,11 +1587,11 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>-28010</v>
+        <v>-31285</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
-        <v>50072</v>
+        <v>49706</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -1621,11 +1601,11 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>-24735</v>
+        <v>-28010</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
-        <v>50437</v>
+        <v>50072</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -1635,11 +1615,11 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>-21460</v>
+        <v>-24735</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
-        <v>50802</v>
+        <v>50437</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -1649,11 +1629,11 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>-18185</v>
+        <v>-21460</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
-        <v>51167</v>
+        <v>50802</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -1663,11 +1643,11 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>-14910</v>
+        <v>-18185</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
-        <v>51533</v>
+        <v>51167</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -1677,11 +1657,11 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>-11635</v>
+        <v>-14910</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
-        <v>51898</v>
+        <v>51533</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -1691,11 +1671,11 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>-8360</v>
+        <v>-11635</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
-        <v>52263</v>
+        <v>51898</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -1705,48 +1685,62 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>-5085.0000000000009</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>-8360</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="3">
-        <v>52628</v>
+        <v>52263</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>54915</v>
-      </c>
-      <c r="B28" s="2">
-        <f>XIRR(D3:D28,C3:C28)</f>
-        <v>4.3532499670982369E-2</v>
+        <v>-5085.0000000000009</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C28" s="3">
         <v>52628</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>3274.9999999999991</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f>SUM($D$3:D29)</f>
+        <v>54915</v>
+      </c>
+      <c r="B29" s="2">
+        <f>XIRR(D3:D29,C3:C29)</f>
+        <v>4.3532499670982369E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>52628</v>
+      </c>
+      <c r="D29" s="5">
         <f>-$D$3</f>
         <v>60000</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2"/>
+      <c r="E29" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
-  <dimension ref="A3:G29"/>
+  <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,136 +1763,137 @@
     <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="20" t="s">
-        <v>2</v>
+      <c r="A3" s="5">
+        <f>SUM($D$2:D3)</f>
+        <v>-30078.95</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <v>45505</v>
+      </c>
+      <c r="D3" s="20">
+        <f>-$G$3/5</f>
+        <v>-30078.95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>150394.75</f>
+        <v>150394.75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f>SUM($D$3:D4)</f>
-        <v>-30078.95</v>
+        <f>SUM($D$2:D4)</f>
+        <v>-27371.844499999999</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="D4" s="20">
-        <f>-$G$4/5</f>
-        <v>-30078.95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <f>150394.75</f>
-        <v>150394.75</v>
-      </c>
+        <f>1.8%*G3</f>
+        <v>2707.1055000000001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f>SUM($D$3:D5)</f>
-        <v>-27371.844499999999</v>
+        <f>SUM($D$2:D5)</f>
+        <v>-57450.794500000004</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>45566</v>
+        <v>45870</v>
       </c>
       <c r="D5" s="20">
-        <f>1.8%*G4</f>
-        <v>2707.1055000000001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5"/>
+        <f>-$G$3/5</f>
+        <v>-30078.95</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f>SUM($D$3:D6)</f>
-        <v>-57450.794500000004</v>
+        <f>SUM($D$2:D6)</f>
+        <v>-55570.860125000007</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
         <v>45870</v>
       </c>
       <c r="D6" s="20">
-        <f>-$G$4/5</f>
-        <v>-30078.95</v>
+        <f>(0.0425-0.03)*G3</f>
+        <v>1879.9343750000007</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f>SUM($D$3:D7)</f>
-        <v>-55570.860125000007</v>
+        <f>SUM($D$2:D7)</f>
+        <v>-85649.810125000004</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>45870</v>
+        <v>46235</v>
       </c>
       <c r="D7" s="20">
-        <f>(0.0425-0.03)*G4</f>
-        <v>1879.9343750000007</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
+        <f>-$G$3/5</f>
+        <v>-30078.95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f>SUM($D$3:D8)</f>
-        <v>-85649.810125000004</v>
+        <f>SUM($D$2:D8)</f>
+        <v>-115728.760125</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
-        <v>46235</v>
+        <v>46600</v>
       </c>
       <c r="D8" s="20">
-        <f>-$G$4/5</f>
+        <f>-$G$3/5</f>
         <v>-30078.95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f>SUM($D$3:D9)</f>
-        <v>-115728.760125</v>
+        <f>SUM($D$2:D9)</f>
+        <v>-145807.71012500001</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
-        <v>46600</v>
+        <v>46966</v>
       </c>
       <c r="D9" s="20">
-        <f>-$G$4/5</f>
+        <f>-$G$3/5</f>
         <v>-30078.95</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f>SUM($D$3:D10)</f>
-        <v>-145807.71012500001</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="3">
-        <v>46966</v>
-      </c>
-      <c r="D10" s="20">
-        <f>-$G$4/5</f>
-        <v>-30078.95</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f>SUM($D$3:D11)</f>
+        <f>SUM($D$2:D11)</f>
         <v>-140707.82415250002</v>
       </c>
       <c r="B11" s="2"/>
@@ -1906,7 +1901,7 @@
         <v>47331</v>
       </c>
       <c r="D11" s="20">
-        <f>$G$4*0.03391</f>
+        <f>$G$3*0.03391</f>
         <v>5099.8859725000002</v>
       </c>
       <c r="E11" t="s">
@@ -1915,15 +1910,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f>SUM($D$3:D12)</f>
+        <f>SUM($D$2:D12)</f>
         <v>-136195.98165250002</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C12" s="3">
         <v>47331</v>
       </c>
       <c r="D12" s="20">
-        <f>G4*3%</f>
+        <f>$G$3*3%</f>
         <v>4511.8424999999997</v>
       </c>
       <c r="E12" t="s">
@@ -1932,18 +1929,18 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f>SUM($D$3:D13)</f>
+        <f>SUM($D$2:D13)</f>
         <v>14198.768347499979</v>
       </c>
       <c r="B13" s="2">
-        <f>XIRR($D$4:D13,$C$4:C13)</f>
+        <f>XIRR($D$3:D13,$C$3:C13)</f>
         <v>3.1607630848884585E-2</v>
       </c>
       <c r="C13" s="3">
         <v>47331</v>
       </c>
       <c r="D13" s="20">
-        <f>G4</f>
+        <f>$G$3</f>
         <v>150394.75</v>
       </c>
       <c r="E13" t="s">
@@ -1956,36 +1953,36 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f>SUM($D$3:D15)</f>
-        <v>19297.150372499978</v>
+        <f>SUM($D$2:D15)</f>
+        <v>19298.65431999998</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
         <v>47696</v>
       </c>
       <c r="D15" s="20">
-        <f t="shared" ref="D15:D29" si="0">$G$4*0.0339</f>
-        <v>5098.3820249999999</v>
+        <f>$G$3*0.03391</f>
+        <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f>SUM($D$3:D16)</f>
-        <v>24395.532397499977</v>
+        <f>SUM($D$2:D16)</f>
+        <v>24398.54029249998</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
         <v>48061</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D16:D29" si="0">$G$3*0.03391</f>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f>SUM($D$3:D17)</f>
-        <v>29493.914422499976</v>
+        <f>SUM($D$2:D17)</f>
+        <v>29498.42626499998</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -1993,13 +1990,13 @@
       </c>
       <c r="D17" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f>SUM($D$3:D18)</f>
-        <v>34592.296447499975</v>
+        <f>SUM($D$2:D18)</f>
+        <v>34598.31223749998</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -2007,13 +2004,13 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f>SUM($D$3:D19)</f>
-        <v>39690.678472499974</v>
+        <f>SUM($D$2:D19)</f>
+        <v>39698.19820999998</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -2021,13 +2018,13 @@
       </c>
       <c r="D19" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f>SUM($D$3:D20)</f>
-        <v>44789.060497499973</v>
+        <f>SUM($D$2:D20)</f>
+        <v>44798.084182499981</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -2035,13 +2032,13 @@
       </c>
       <c r="D20" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f>SUM($D$3:D21)</f>
-        <v>49887.442522499972</v>
+        <f>SUM($D$2:D21)</f>
+        <v>49897.970154999981</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -2049,13 +2046,13 @@
       </c>
       <c r="D21" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f>SUM($D$3:D22)</f>
-        <v>54985.824547499971</v>
+        <f>SUM($D$2:D22)</f>
+        <v>54997.856127499981</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -2063,13 +2060,13 @@
       </c>
       <c r="D22" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f>SUM($D$3:D23)</f>
-        <v>60084.20657249997</v>
+        <f>SUM($D$2:D23)</f>
+        <v>60097.742099999981</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
@@ -2077,13 +2074,13 @@
       </c>
       <c r="D23" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f>SUM($D$3:D24)</f>
-        <v>65182.588597499969</v>
+        <f>SUM($D$2:D24)</f>
+        <v>65197.628072499981</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
@@ -2091,13 +2088,13 @@
       </c>
       <c r="D24" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f>SUM($D$3:D25)</f>
-        <v>70280.970622499968</v>
+        <f>SUM($D$2:D25)</f>
+        <v>70297.514044999989</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -2105,13 +2102,13 @@
       </c>
       <c r="D25" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f>SUM($D$3:D26)</f>
-        <v>75379.352647499967</v>
+        <f>SUM($D$2:D26)</f>
+        <v>75397.400017499982</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
@@ -2119,13 +2116,13 @@
       </c>
       <c r="D26" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f>SUM($D$3:D27)</f>
-        <v>80477.734672499966</v>
+        <f>SUM($D$2:D27)</f>
+        <v>80497.285989999975</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
@@ -2133,13 +2130,13 @@
       </c>
       <c r="D27" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <f>SUM($D$3:D28)</f>
-        <v>85576.116697499965</v>
+        <f>SUM($D$2:D28)</f>
+        <v>85597.171962499968</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3">
@@ -2147,13 +2144,13 @@
       </c>
       <c r="D28" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <f>SUM($D$3:D29)</f>
-        <v>90674.498722499964</v>
+        <f>SUM($D$2:D29)</f>
+        <v>90697.057934999961</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3">
@@ -2161,12 +2158,51 @@
       </c>
       <c r="D29" s="20">
         <f t="shared" si="0"/>
-        <v>5098.3820249999999</v>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f>SUM($D$2:D30)</f>
+        <v>95208.90043499996</v>
+      </c>
+      <c r="C30" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D30" s="20">
+        <f>$G$3*3%</f>
+        <v>4511.8424999999997</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f>SUM($D$2:D31)</f>
+        <v>245603.65043499996</v>
+      </c>
+      <c r="B31" s="24">
+        <f>XIRR(D3:D31,C3:C31)</f>
+        <v>0.13488324284553532</v>
+      </c>
+      <c r="C31" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D31" s="20">
+        <f>$G$3</f>
+        <v>150394.75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D6 D4" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2174,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,20 +2231,20 @@
     <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="8"/>
@@ -2231,7 +2267,7 @@
         <v>-0.01</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -2253,7 +2289,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -2297,7 +2333,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -2320,7 +2356,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" t="s">
@@ -2376,11 +2412,11 @@
         <v>2707.1055000000001</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="5">
         <v>250000</v>
@@ -2407,7 +2443,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="8"/>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="5">
         <f>K9+F6</f>
@@ -2435,11 +2471,11 @@
       <c r="H11" s="12"/>
       <c r="I11" s="8"/>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2">
         <f>0.5%+K32</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.0000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -2461,44 +2497,44 @@
         <v>1879.9343750000007</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f>SUM($D$3:D13)</f>
-        <v>-267473.87012500002</v>
+        <v>-268423.87012500002</v>
       </c>
       <c r="C13" s="15">
         <v>45962</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="0"/>
-        <v>-11260</v>
+        <v>-12210</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14">
         <f>-(6510+K10*K11)</f>
-        <v>-11260</v>
+        <v>-12210</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="26">
         <f>B13</f>
-        <v>-267473.87012500002</v>
+        <v>-268423.87012500002</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f>SUM($D$3:D14)</f>
-        <v>-263001.00346500002</v>
+        <v>-263951.00346500002</v>
       </c>
       <c r="C14" s="15">
         <v>46082</v>
@@ -2518,7 +2554,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" s="14">
         <f>B5</f>
@@ -2528,7 +2564,7 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f>SUM($D$3:D15)</f>
-        <v>-112804.00346500002</v>
+        <v>-113754.00346500002</v>
       </c>
       <c r="C15" s="15">
         <v>46082</v>
@@ -2544,21 +2580,21 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="14">
         <f>K13-K14</f>
-        <v>-173471.52679166669</v>
+        <v>-174421.52679166669</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f>SUM($D$3:D16)</f>
-        <v>-142882.95346500003</v>
+        <v>-143832.95346500003</v>
       </c>
       <c r="C16" s="15">
         <v>46235</v>
@@ -2579,7 +2615,7 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f>SUM($D$3:D17)</f>
-        <v>-134857.95346500003</v>
+        <v>-135807.95346500003</v>
       </c>
       <c r="C17" s="15">
         <v>46419</v>
@@ -2595,14 +2631,14 @@
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f>SUM($D$3:D18)</f>
-        <v>-74857.953465000028</v>
+        <v>-75807.953465000028</v>
       </c>
       <c r="C18" s="15">
         <v>46419</v>
@@ -2618,14 +2654,14 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f>SUM($D$3:D19)</f>
-        <v>-104936.90346500002</v>
+        <v>-105886.90346500002</v>
       </c>
       <c r="C19" s="15">
         <v>46600</v>
@@ -2646,7 +2682,7 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <f>SUM($D$3:D20)</f>
-        <v>-135015.85346500002</v>
+        <v>-135965.85346500002</v>
       </c>
       <c r="C20" s="15">
         <v>46966</v>
@@ -2667,7 +2703,7 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <f>SUM($D$3:D21)</f>
-        <v>-129915.96749250003</v>
+        <v>-130865.96749250003</v>
       </c>
       <c r="C21" s="15">
         <v>47331</v>
@@ -2690,7 +2726,7 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <f>SUM($D$3:D22)</f>
-        <v>-125404.12499250003</v>
+        <v>-126354.12499250003</v>
       </c>
       <c r="C22" s="15">
         <v>47331</v>
@@ -2706,14 +2742,14 @@
         <v>4511.8424999999997</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23">
         <f>SUM($D$3:D23)</f>
-        <v>24990.62500749997</v>
+        <v>24040.62500749997</v>
       </c>
       <c r="C23" s="22">
         <v>47331</v>
@@ -2729,13 +2765,13 @@
         <v>150394.75</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
@@ -2745,7 +2781,7 @@
       </c>
       <c r="F24" s="21">
         <f>SUM(F3:F23)</f>
-        <v>190</v>
+        <v>-760</v>
       </c>
       <c r="G24" s="21">
         <f>SUM(G3:G23)</f>
@@ -2772,7 +2808,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="14"/>
@@ -2785,7 +2821,7 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <f>SUM($D$3:D27)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-184816.08152000004</v>
+        <v>-185766.08152000004</v>
       </c>
       <c r="C27" s="15">
         <v>47696</v>
@@ -2801,14 +2837,14 @@
         <v>5099.8859725000002</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <f>SUM($D$3:D28)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-179716.19554750004</v>
+        <v>-180666.19554750004</v>
       </c>
       <c r="C28" s="15">
         <v>48061</v>
@@ -2829,7 +2865,7 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <f>SUM($D$3:D29)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-174616.30957500002</v>
+        <v>-175566.30957500002</v>
       </c>
       <c r="C29" s="15">
         <v>48427</v>
@@ -2850,7 +2886,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <f>SUM($D$3:D30)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-169516.42360250003</v>
+        <v>-170466.42360250003</v>
       </c>
       <c r="C30" s="15">
         <v>48792</v>
@@ -2871,7 +2907,7 @@
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <f>SUM($D$3:D31)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-164416.53763000004</v>
+        <v>-165366.53763000004</v>
       </c>
       <c r="C31" s="15">
         <v>49157</v>
@@ -2892,76 +2928,76 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <f>SUM($D$3:D32)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-160191.53763000004</v>
+        <v>-162091.53763000004</v>
       </c>
       <c r="C32" s="13">
         <v>46784</v>
       </c>
       <c r="D32" s="14">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="12">
         <f t="shared" ref="F32:F38" si="1">3.21%*$K$9-$K$10*$K$32</f>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="38"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32" s="2">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <f>SUM($D$3:D33)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-155966.53763000004</v>
+        <v>-158816.53763000004</v>
       </c>
       <c r="C33" s="13">
         <v>47150</v>
       </c>
       <c r="D33" s="14">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="12">
         <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="38"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33" s="24">
         <f>-F32/F6</f>
-        <v>7.0416666666666655E-2</v>
+        <v>5.4583333333333317E-2</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <f>SUM($D$3:D34)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-151741.53763000004</v>
+        <v>-155541.53763000004</v>
       </c>
       <c r="C34" s="13">
         <v>47515</v>
       </c>
       <c r="D34" s="14">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="12">
         <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="38"/>
@@ -2970,19 +3006,19 @@
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <f>SUM($D$3:D35)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-147516.53763000004</v>
+        <v>-152266.53763000004</v>
       </c>
       <c r="C35" s="13">
         <v>47880</v>
       </c>
       <c r="D35" s="14">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="12">
         <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="38"/>
@@ -2991,19 +3027,19 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <f>SUM($D$3:D36)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-143291.53763000004</v>
+        <v>-148991.53763000004</v>
       </c>
       <c r="C36" s="13">
         <v>48245</v>
       </c>
       <c r="D36" s="14">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="12">
         <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="38"/>
@@ -3012,19 +3048,19 @@
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <f>SUM($D$3:D37)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-139066.53763000004</v>
+        <v>-145716.53763000004</v>
       </c>
       <c r="C37" s="13">
         <v>48611</v>
       </c>
       <c r="D37" s="14">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="12">
         <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="38"/>
@@ -3033,19 +3069,19 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <f>SUM($D$3:D38)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-134841.53763000004</v>
+        <v>-142441.53763000004</v>
       </c>
       <c r="C38" s="13">
         <v>48976</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="0"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="12">
         <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
+        <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="39"/>
@@ -3053,7 +3089,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3107,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3121,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -3123,46 +3159,44 @@
         <v>-50065.666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>45717</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f>C3</f>
         <v>-50065.666666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>46082</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="20">
         <f>2.978%*F3</f>
         <v>4472.8666599999997</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f>SUM(C3:C8)</f>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>SUM(C3:C10)</f>
         <v>10601.86666</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B10" s="4">
         <v>46082</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <f>F3</f>
         <v>150197</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <f>XIRR(C3:C8,B3:B8)</f>
+      <c r="F10" s="2">
+        <f>XIRR(C3:C10,B3:B10)</f>
         <v>3.9722254872322102E-2</v>
       </c>
     </row>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B88A3-9648-4221-BE48-D4A8760FD18C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852849FB-C121-42F5-81B3-86BB2B865498}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="3" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>total prem</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>12M TD excess return</t>
+  </si>
+  <si>
+    <t>&lt;XIRR&gt;</t>
   </si>
 </sst>
 </file>
@@ -1750,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1899,9 @@
         <f>SUM($D$2:D11)</f>
         <v>-140707.82415250002</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C11" s="3">
         <v>47331</v>
       </c>
@@ -1911,82 +1916,77 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$2:D12)</f>
-        <v>-136195.98165250002</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>14198.768347499979</v>
+      </c>
+      <c r="B12" s="2">
+        <f>XIRR($D$3:D12,$C$3:C12)</f>
+        <v>3.1607630848884585E-2</v>
       </c>
       <c r="C12" s="3">
         <v>47331</v>
       </c>
       <c r="D12" s="20">
-        <f>$G$3*3%</f>
-        <v>4511.8424999999997</v>
+        <f>$G$3*1.03</f>
+        <v>154906.5925</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f>SUM($D$2:D13)</f>
-        <v>14198.768347499979</v>
-      </c>
-      <c r="B13" s="2">
-        <f>XIRR($D$3:D13,$C$3:C13)</f>
-        <v>3.1607630848884585E-2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>47331</v>
-      </c>
-      <c r="D13" s="20">
-        <f>$G$3</f>
-        <v>150394.75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5">
+        <f>SUM($D$2:D14)</f>
+        <v>19298.65431999998</v>
+      </c>
       <c r="B14" s="2"/>
+      <c r="C14" s="3">
+        <v>47696</v>
+      </c>
+      <c r="D14" s="20">
+        <f>$G$3*0.03391</f>
+        <v>5099.8859725000002</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$2:D15)</f>
-        <v>19298.65431999998</v>
+        <v>24398.54029249998</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
-        <v>47696</v>
+        <v>48061</v>
       </c>
       <c r="D15" s="20">
-        <f>$G$3*0.03391</f>
+        <f t="shared" ref="D15:D28" si="0">$G$3*0.03391</f>
         <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$2:D16)</f>
-        <v>24398.54029249998</v>
+        <v>29498.42626499998</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
-        <v>48061</v>
+        <v>48427</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" ref="D16:D29" si="0">$G$3*0.03391</f>
+        <f t="shared" si="0"/>
         <v>5099.8859725000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$2:D17)</f>
-        <v>29498.42626499998</v>
+        <v>34598.31223749998</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
-        <v>48427</v>
+        <v>48792</v>
       </c>
       <c r="D17" s="20">
         <f t="shared" si="0"/>
@@ -1996,11 +1996,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$2:D18)</f>
-        <v>34598.31223749998</v>
+        <v>39698.19820999998</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
-        <v>48792</v>
+        <v>49157</v>
       </c>
       <c r="D18" s="20">
         <f t="shared" si="0"/>
@@ -2010,11 +2010,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$2:D19)</f>
-        <v>39698.19820999998</v>
+        <v>44798.084182499981</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
-        <v>49157</v>
+        <v>49522</v>
       </c>
       <c r="D19" s="20">
         <f t="shared" si="0"/>
@@ -2024,11 +2024,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$2:D20)</f>
-        <v>44798.084182499981</v>
+        <v>49897.970154999981</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
-        <v>49522</v>
+        <v>49888</v>
       </c>
       <c r="D20" s="20">
         <f t="shared" si="0"/>
@@ -2038,11 +2038,11 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$2:D21)</f>
-        <v>49897.970154999981</v>
+        <v>54997.856127499981</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
-        <v>49888</v>
+        <v>50253</v>
       </c>
       <c r="D21" s="20">
         <f t="shared" si="0"/>
@@ -2052,11 +2052,11 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$2:D22)</f>
-        <v>54997.856127499981</v>
+        <v>60097.742099999981</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
-        <v>50253</v>
+        <v>50618</v>
       </c>
       <c r="D22" s="20">
         <f t="shared" si="0"/>
@@ -2066,11 +2066,11 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$2:D23)</f>
-        <v>60097.742099999981</v>
+        <v>65197.628072499981</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
-        <v>50618</v>
+        <v>50983</v>
       </c>
       <c r="D23" s="20">
         <f t="shared" si="0"/>
@@ -2080,11 +2080,11 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$2:D24)</f>
-        <v>65197.628072499981</v>
+        <v>70297.514044999989</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
-        <v>50983</v>
+        <v>51349</v>
       </c>
       <c r="D24" s="20">
         <f t="shared" si="0"/>
@@ -2094,11 +2094,11 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$2:D25)</f>
-        <v>70297.514044999989</v>
+        <v>75397.400017499982</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
-        <v>51349</v>
+        <v>51714</v>
       </c>
       <c r="D25" s="20">
         <f t="shared" si="0"/>
@@ -2108,11 +2108,11 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$2:D26)</f>
-        <v>75397.400017499982</v>
+        <v>80497.285989999975</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
-        <v>51714</v>
+        <v>52079</v>
       </c>
       <c r="D26" s="20">
         <f t="shared" si="0"/>
@@ -2122,11 +2122,11 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$2:D27)</f>
-        <v>80497.285989999975</v>
+        <v>85597.171962499968</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
-        <v>52079</v>
+        <v>52444</v>
       </c>
       <c r="D27" s="20">
         <f t="shared" si="0"/>
@@ -2136,11 +2136,11 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$2:D28)</f>
-        <v>85597.171962499968</v>
+        <v>90697.057934999961</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3">
-        <v>52444</v>
+        <v>52810</v>
       </c>
       <c r="D28" s="20">
         <f t="shared" si="0"/>
@@ -2150,50 +2150,36 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>SUM($D$2:D29)</f>
-        <v>90697.057934999961</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>95208.90043499996</v>
+      </c>
       <c r="C29" s="3">
         <v>52810</v>
       </c>
       <c r="D29" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
+        <f>$G$3*3%</f>
+        <v>4511.8424999999997</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>SUM($D$2:D30)</f>
-        <v>95208.90043499996</v>
+        <v>245603.65043499996</v>
+      </c>
+      <c r="B30" s="24">
+        <f>IF(0=D12,XIRR(D3:D30,C3:C30),0)</f>
+        <v>0</v>
       </c>
       <c r="C30" s="3">
         <v>52810</v>
       </c>
       <c r="D30" s="20">
-        <f>$G$3*3%</f>
-        <v>4511.8424999999997</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <f>SUM($D$2:D31)</f>
-        <v>245603.65043499996</v>
-      </c>
-      <c r="B31" s="24">
-        <f>XIRR(D3:D31,C3:C31)</f>
-        <v>0.13488324284553532</v>
-      </c>
-      <c r="C31" s="3">
-        <v>52810</v>
-      </c>
-      <c r="D31" s="20">
         <f>$G$3</f>
         <v>150394.75</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2210,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,7 +2784,9 @@
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="G25" s="16">
         <f>XIRR($G$3:G23,$C$3:C23)</f>
         <v>3.1607601046562198E-2</v>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852849FB-C121-42F5-81B3-86BB2B865498}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E8122-20E3-46B7-8ADE-9D0AAA65052A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="3" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="overlap ptf" sheetId="4" r:id="rId4"/>
     <sheet name="FLI2" sheetId="1" r:id="rId5"/>
     <sheet name="xirr test" sheetId="3" r:id="rId6"/>
+    <sheet name="Taiping" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>total prem</t>
   </si>
@@ -205,10 +206,13 @@
     <t>!!退保^</t>
   </si>
   <si>
-    <t>12M TD excess return</t>
-  </si>
-  <si>
     <t>&lt;XIRR&gt;</t>
+  </si>
+  <si>
+    <t>ICBC 12M TD excess return (or 2.4 ppa on 100k)</t>
+  </si>
+  <si>
+    <t>excess profit over 12M</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1849,7 @@
         <v>1879.9343750000007</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2187,7 +2191,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D6 D4" formula="1"/>
+    <ignoredError sqref="D4" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2196,7 +2200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -2785,7 +2789,7 @@
         <v>3.9722254872322102E-2</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="16">
         <f>XIRR($G$3:G23,$C$3:C23)</f>
@@ -3435,4 +3439,437 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B0C8CF-8E7A-4ADA-A831-33688E2F8CF5}">
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>SUM($D$2:D3)</f>
+        <v>-24000</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <v>45505</v>
+      </c>
+      <c r="D3" s="20">
+        <f>-$G$3/5</f>
+        <v>-24000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>SUM($D$2:D4)</f>
+        <v>-23640</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>45566</v>
+      </c>
+      <c r="D4" s="20">
+        <v>360</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>SUM($D$2:D5)</f>
+        <v>-47640</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3">
+        <v>45870</v>
+      </c>
+      <c r="D5" s="20">
+        <f>-$G$3/5</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>SUM($D$2:D6)</f>
+        <v>-45240</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>45689</v>
+      </c>
+      <c r="D6" s="20">
+        <f>2.4%*100000</f>
+        <v>2400</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>SUM($D$2:D7)</f>
+        <v>-69240</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
+        <v>46235</v>
+      </c>
+      <c r="D7" s="20">
+        <f>-$G$3/5</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>SUM($D$2:D8)</f>
+        <v>-93240</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3">
+        <v>46600</v>
+      </c>
+      <c r="D8" s="20">
+        <f>-$G$3/5</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>SUM($D$2:D9)</f>
+        <v>-117240</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>46966</v>
+      </c>
+      <c r="D9" s="20">
+        <f>-$G$3/5</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>SUM($D$2:D11)</f>
+        <v>-113160</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D11" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>SUM($D$2:D12)</f>
+        <v>7440</v>
+      </c>
+      <c r="B12" s="2">
+        <f>XIRR($D$3:D12,$C$3:C12)</f>
+        <v>2.0815828442573552E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D12" s="20">
+        <f>$G$3+600</f>
+        <v>120600</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>SUM($D$2:D14)</f>
+        <v>11520</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
+        <v>47696</v>
+      </c>
+      <c r="D14" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM($D$2:D15)</f>
+        <v>15600</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
+        <v>48061</v>
+      </c>
+      <c r="D15" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>SUM($D$2:D16)</f>
+        <v>19680</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3">
+        <v>48427</v>
+      </c>
+      <c r="D16" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>SUM($D$2:D17)</f>
+        <v>23760</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>48792</v>
+      </c>
+      <c r="D17" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>SUM($D$2:D18)</f>
+        <v>27840</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3">
+        <v>49157</v>
+      </c>
+      <c r="D18" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>SUM($D$2:D19)</f>
+        <v>31920</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>49522</v>
+      </c>
+      <c r="D19" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>SUM($D$2:D20)</f>
+        <v>36000</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>49888</v>
+      </c>
+      <c r="D20" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>SUM($D$2:D21)</f>
+        <v>40080</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>50253</v>
+      </c>
+      <c r="D21" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM($D$2:D22)</f>
+        <v>44160</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
+        <v>50618</v>
+      </c>
+      <c r="D22" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>SUM($D$2:D23)</f>
+        <v>48240</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <v>50983</v>
+      </c>
+      <c r="D23" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>SUM($D$2:D24)</f>
+        <v>52320</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3">
+        <v>51349</v>
+      </c>
+      <c r="D24" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>SUM($D$2:D25)</f>
+        <v>56400</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <v>51714</v>
+      </c>
+      <c r="D25" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM($D$2:D26)</f>
+        <v>60480</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3">
+        <v>52079</v>
+      </c>
+      <c r="D26" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f>SUM($D$2:D27)</f>
+        <v>64560</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3">
+        <v>52444</v>
+      </c>
+      <c r="D27" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f>SUM($D$2:D28)</f>
+        <v>68640</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D28" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f>SUM($D$2:D29)</f>
+        <v>72240</v>
+      </c>
+      <c r="C29" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D29" s="20">
+        <f>$G$3*3%</f>
+        <v>3600</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f>SUM($D$2:D30)</f>
+        <v>192240</v>
+      </c>
+      <c r="B30" s="24">
+        <f>IF(0=D12,XIRR(D3:D30,C3:C30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D30" s="20">
+        <f>$G$3</f>
+        <v>120000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E8122-20E3-46B7-8ADE-9D0AAA65052A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E97BCDF-CE55-48BC-BE63-B9A5ACEE409F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
-    <sheet name="Fli2pm" sheetId="5" r:id="rId2"/>
+    <sheet name="FLI2PF" sheetId="5" r:id="rId2"/>
     <sheet name="LTIS" sheetId="2" r:id="rId3"/>
     <sheet name="overlap ptf" sheetId="4" r:id="rId4"/>
     <sheet name="FLI2" sheetId="1" r:id="rId5"/>
     <sheet name="xirr test" sheetId="3" r:id="rId6"/>
     <sheet name="Taiping" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,9 +141,6 @@
     <t>net inc</t>
   </si>
   <si>
-    <t>annual FCF, while keeping 210k liquid  in FLI2PF and LTIS</t>
-  </si>
-  <si>
     <t>net inc end-to-end excluding 210k nest egg</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
   </si>
   <si>
     <t>capital deployed</t>
-  </si>
-  <si>
-    <t>watermark of outlay</t>
   </si>
   <si>
     <t>capital 2b earmarked</t>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>excess profit over 12M</t>
+  </si>
+  <si>
+    <t>annual FCF received, while keeping 210k liquid  in FLI2PF and LTIS</t>
+  </si>
+  <si>
+    <t>watermark of cum outlay since Aug24</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1415,7 @@
         <v>-60760</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3">
         <v>46419</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
@@ -1472,7 +1472,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1522,7 +1522,7 @@
         <v>-47660</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3">
         <v>47880</v>
@@ -1759,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1849,7 +1849,7 @@
         <v>1879.9343750000007</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,10 +2262,7 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
-        <f>SUM($D$3:D4)</f>
-        <v>-43936.676666666666</v>
-      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="15">
         <v>45261</v>
       </c>
@@ -2284,10 +2281,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
-        <f>SUM($D$3:D5)</f>
-        <v>-94002.343333333323</v>
-      </c>
+      <c r="B5" s="14"/>
       <c r="C5" s="15">
         <v>45352</v>
       </c>
@@ -2306,8 +2300,8 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
-        <f>SUM($D$3:D6)</f>
-        <v>-154002.34333333332</v>
+        <f>SUM($D$6:D6)</f>
+        <v>-60000</v>
       </c>
       <c r="C6" s="15">
         <v>45505</v>
@@ -2323,14 +2317,14 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
-        <f>SUM($D$3:D7)</f>
-        <v>-150577.34333333332</v>
+        <f>SUM($D$6:D7)</f>
+        <v>-56575</v>
       </c>
       <c r="C7" s="15">
         <v>45566</v>
@@ -2358,8 +2352,8 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
-        <f>SUM($D$3:D8)</f>
-        <v>-180656.29333333333</v>
+        <f>SUM($D$6:D8)</f>
+        <v>-86653.95</v>
       </c>
       <c r="C8" s="15">
         <v>45505</v>
@@ -2385,8 +2379,8 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
-        <f>SUM($D$3:D9)</f>
-        <v>-177949.18783333333</v>
+        <f>SUM($D$6:D9)</f>
+        <v>-83946.844499999992</v>
       </c>
       <c r="C9" s="15">
         <v>45566</v>
@@ -2414,8 +2408,8 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
-        <f>SUM($D$3:D10)</f>
-        <v>-228014.85449999999</v>
+        <f>SUM($D$6:D10)</f>
+        <v>-134012.51116666666</v>
       </c>
       <c r="C10" s="15">
         <v>45717</v>
@@ -2442,8 +2436,8 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
-        <f>SUM($D$3:D11)</f>
-        <v>-258093.8045</v>
+        <f>SUM($D$6:D11)</f>
+        <v>-164091.46116666668</v>
       </c>
       <c r="C11" s="15">
         <v>45870</v>
@@ -2470,8 +2464,8 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
-        <f>SUM($D$3:D12)</f>
-        <v>-256213.87012499999</v>
+        <f>SUM($D$6:D12)</f>
+        <v>-162211.52679166666</v>
       </c>
       <c r="C12" s="15">
         <v>45870</v>
@@ -2487,14 +2481,14 @@
         <v>1879.9343750000007</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
-        <f>SUM($D$3:D13)</f>
-        <v>-268423.87012500002</v>
+        <f>SUM($D$6:D13)</f>
+        <v>-174421.52679166666</v>
       </c>
       <c r="C13" s="15">
         <v>45962</v>
@@ -2510,21 +2504,21 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="25" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K13" s="26">
         <f>B13</f>
-        <v>-268423.87012500002</v>
+        <v>-174421.52679166666</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
-        <f>SUM($D$3:D14)</f>
-        <v>-263951.00346500002</v>
+        <f>SUM($D$6:D14)</f>
+        <v>-169948.66013166666</v>
       </c>
       <c r="C14" s="15">
         <v>46082</v>
@@ -2544,17 +2538,17 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="14">
         <f>B5</f>
-        <v>-94002.343333333323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
-        <f>SUM($D$3:D15)</f>
-        <v>-113754.00346500002</v>
+        <f>SUM($D$6:D15)</f>
+        <v>-19751.660131666664</v>
       </c>
       <c r="C15" s="15">
         <v>46082</v>
@@ -2570,21 +2564,21 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15" s="14">
         <f>K13-K14</f>
-        <v>-174421.52679166669</v>
+        <v>-174421.52679166666</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
-        <f>SUM($D$3:D16)</f>
-        <v>-143832.95346500003</v>
+        <f>SUM($D$6:D16)</f>
+        <v>-49830.610131666661</v>
       </c>
       <c r="C16" s="15">
         <v>46235</v>
@@ -2604,8 +2598,8 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
-        <f>SUM($D$3:D17)</f>
-        <v>-135807.95346500003</v>
+        <f>SUM($D$6:D17)</f>
+        <v>-41805.610131666661</v>
       </c>
       <c r="C17" s="15">
         <v>46419</v>
@@ -2627,8 +2621,8 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
-        <f>SUM($D$3:D18)</f>
-        <v>-75807.953465000028</v>
+        <f>SUM($D$6:D18)</f>
+        <v>18194.389868333339</v>
       </c>
       <c r="C18" s="15">
         <v>46419</v>
@@ -2644,14 +2638,14 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
-        <f>SUM($D$3:D19)</f>
-        <v>-105886.90346500002</v>
+        <f>SUM($D$6:D19)</f>
+        <v>-11884.560131666662</v>
       </c>
       <c r="C19" s="15">
         <v>46600</v>
@@ -2671,8 +2665,8 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
-        <f>SUM($D$3:D20)</f>
-        <v>-135965.85346500002</v>
+        <f>SUM($D$6:D20)</f>
+        <v>-41963.510131666662</v>
       </c>
       <c r="C20" s="15">
         <v>46966</v>
@@ -2692,8 +2686,8 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
-        <f>SUM($D$3:D21)</f>
-        <v>-130865.96749250003</v>
+        <f>SUM($D$6:D21)</f>
+        <v>-36863.624159166662</v>
       </c>
       <c r="C21" s="15">
         <v>47331</v>
@@ -2715,8 +2709,8 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
-        <f>SUM($D$3:D22)</f>
-        <v>-126354.12499250003</v>
+        <f>SUM($D$6:D22)</f>
+        <v>-32351.781659166663</v>
       </c>
       <c r="C22" s="15">
         <v>47331</v>
@@ -2732,14 +2726,14 @@
         <v>4511.8424999999997</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23">
-        <f>SUM($D$3:D23)</f>
-        <v>24040.62500749997</v>
+      <c r="B23" s="14">
+        <f>SUM($D$6:D23)</f>
+        <v>118042.96834083334</v>
       </c>
       <c r="C23" s="22">
         <v>47331</v>
@@ -2755,13 +2749,13 @@
         <v>150394.75</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
@@ -2789,7 +2783,7 @@
         <v>3.9722254872322102E-2</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" s="16">
         <f>XIRR($G$3:G23,$C$3:C23)</f>
@@ -2800,7 +2794,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="14"/>
@@ -2812,8 +2806,8 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
-        <f>SUM($D$3:D27)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-185766.08152000004</v>
+        <f>SUM($D$6:D27)</f>
+        <v>123142.85431333334</v>
       </c>
       <c r="C27" s="15">
         <v>47696</v>
@@ -2829,14 +2823,14 @@
         <v>5099.8859725000002</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
-        <f>SUM($D$3:D28)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-180666.19554750004</v>
+        <f>SUM($D$6:D28)</f>
+        <v>128242.74028583334</v>
       </c>
       <c r="C28" s="15">
         <v>48061</v>
@@ -2856,8 +2850,8 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
-        <f>SUM($D$3:D29)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-175566.30957500002</v>
+        <f>SUM($D$6:D29)</f>
+        <v>133342.62625833333</v>
       </c>
       <c r="C29" s="15">
         <v>48427</v>
@@ -2877,8 +2871,8 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
-        <f>SUM($D$3:D30)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-170466.42360250003</v>
+        <f>SUM($D$6:D30)</f>
+        <v>138442.51223083332</v>
       </c>
       <c r="C30" s="15">
         <v>48792</v>
@@ -2898,8 +2892,8 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
-        <f>SUM($D$3:D31)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-165366.53763000004</v>
+        <f>SUM($D$6:D31)</f>
+        <v>143542.39820333332</v>
       </c>
       <c r="C31" s="15">
         <v>49157</v>
@@ -2919,8 +2913,8 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
-        <f>SUM($D$3:D32)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-162091.53763000004</v>
+        <f>SUM($D$6:D32)</f>
+        <v>146817.39820333332</v>
       </c>
       <c r="C32" s="13">
         <v>46784</v>
@@ -2931,16 +2925,16 @@
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="12">
-        <f t="shared" ref="F32:F38" si="1">3.21%*$K$9-$K$10*$K$32</f>
+        <f>3.21%*$K$9-$K$10*$K$32</f>
         <v>3274.9999999999991</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H32" s="38"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K32" s="2">
         <v>2.5000000000000001E-2</v>
@@ -2948,8 +2942,8 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
-        <f>SUM($D$3:D33)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-158816.53763000004</v>
+        <f>SUM($D$6:D33)</f>
+        <v>150092.39820333332</v>
       </c>
       <c r="C33" s="13">
         <v>47150</v>
@@ -2960,14 +2954,14 @@
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F32:F38" si="1">3.21%*$K$9-$K$10*$K$32</f>
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="38"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K33" s="24">
         <f>-F32/F6</f>
@@ -2976,8 +2970,8 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
-        <f>SUM($D$3:D34)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-155541.53763000004</v>
+        <f>SUM($D$6:D34)</f>
+        <v>153367.39820333332</v>
       </c>
       <c r="C34" s="13">
         <v>47515</v>
@@ -2997,8 +2991,8 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
-        <f>SUM($D$3:D35)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-152266.53763000004</v>
+        <f>SUM($D$6:D35)</f>
+        <v>156642.39820333332</v>
       </c>
       <c r="C35" s="13">
         <v>47880</v>
@@ -3018,8 +3012,8 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
-        <f>SUM($D$3:D36)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-148991.53763000004</v>
+        <f>SUM($D$6:D36)</f>
+        <v>159917.39820333332</v>
       </c>
       <c r="C36" s="13">
         <v>48245</v>
@@ -3039,8 +3033,8 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
-        <f>SUM($D$3:D37)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-145716.53763000004</v>
+        <f>SUM($D$6:D37)</f>
+        <v>163192.39820333332</v>
       </c>
       <c r="C37" s="13">
         <v>48611</v>
@@ -3060,8 +3054,8 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
-        <f>SUM($D$3:D38)-$F$18-SUM($G$22:$G$23)</f>
-        <v>-142441.53763000004</v>
+        <f>SUM($D$6:D38)</f>
+        <v>166467.39820333332</v>
       </c>
       <c r="C38" s="13">
         <v>48976</v>
@@ -3081,7 +3075,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3524,7 @@
         <v>2400</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3632,7 +3626,7 @@
         <v>47696</v>
       </c>
       <c r="D14" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" ref="D14:D28" si="0">$G$3*0.034</f>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3646,7 +3640,7 @@
         <v>48061</v>
       </c>
       <c r="D15" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3660,7 +3654,7 @@
         <v>48427</v>
       </c>
       <c r="D16" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3674,7 +3668,7 @@
         <v>48792</v>
       </c>
       <c r="D17" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3688,7 +3682,7 @@
         <v>49157</v>
       </c>
       <c r="D18" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3702,7 +3696,7 @@
         <v>49522</v>
       </c>
       <c r="D19" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3716,7 +3710,7 @@
         <v>49888</v>
       </c>
       <c r="D20" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3730,7 +3724,7 @@
         <v>50253</v>
       </c>
       <c r="D21" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3744,7 +3738,7 @@
         <v>50618</v>
       </c>
       <c r="D22" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3758,7 +3752,7 @@
         <v>50983</v>
       </c>
       <c r="D23" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3772,7 +3766,7 @@
         <v>51349</v>
       </c>
       <c r="D24" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3786,7 +3780,7 @@
         <v>51714</v>
       </c>
       <c r="D25" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3800,7 +3794,7 @@
         <v>52079</v>
       </c>
       <c r="D26" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3814,7 +3808,7 @@
         <v>52444</v>
       </c>
       <c r="D27" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>
@@ -3828,7 +3822,7 @@
         <v>52810</v>
       </c>
       <c r="D28" s="20">
-        <f>$G$3*0.034</f>
+        <f t="shared" si="0"/>
         <v>4080.0000000000005</v>
       </c>
     </row>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E97BCDF-CE55-48BC-BE63-B9A5ACEE409F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15572796-33ED-4CA0-9013-F6E3C6D0205F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" firstSheet="1" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="FLI2PF" sheetId="5" r:id="rId2"/>
-    <sheet name="LTIS" sheetId="2" r:id="rId3"/>
-    <sheet name="overlap ptf" sheetId="4" r:id="rId4"/>
-    <sheet name="FLI2" sheetId="1" r:id="rId5"/>
-    <sheet name="xirr test" sheetId="3" r:id="rId6"/>
-    <sheet name="Taiping" sheetId="7" r:id="rId7"/>
+    <sheet name="FWD" sheetId="8" r:id="rId3"/>
+    <sheet name="LTIS" sheetId="2" r:id="rId4"/>
+    <sheet name="overlap ptf" sheetId="4" r:id="rId5"/>
+    <sheet name="FLI2" sheetId="1" r:id="rId6"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId7"/>
+    <sheet name="Taiping" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>total prem</t>
   </si>
@@ -190,9 +191,6 @@
     <t>net DYOC</t>
   </si>
   <si>
-    <t>DYOC</t>
-  </si>
-  <si>
     <t>30M int 
 #当作Nov25缴</t>
   </si>
@@ -213,6 +211,39 @@
   </si>
   <si>
     <t>watermark of cum outlay since Aug24</t>
+  </si>
+  <si>
+    <t>FWD down payment</t>
+  </si>
+  <si>
+    <t>FWD upfront</t>
+  </si>
+  <si>
+    <t>first payout FWD</t>
+  </si>
+  <si>
+    <t>surrender FWD #251k to wipe out $190k loan</t>
+  </si>
+  <si>
+    <t>36M int cost</t>
+  </si>
+  <si>
+    <t>total prem - FWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct26-Sep27 LIR </t>
+  </si>
+  <si>
+    <t>FWD DYOC</t>
+  </si>
+  <si>
+    <t>FWD xirr</t>
+  </si>
+  <si>
+    <t>FLI2 DYOC</t>
+  </si>
+  <si>
+    <t>FLI2 xirr</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
-  <dimension ref="A2:L32"/>
+  <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1299,7 @@
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
@@ -1293,20 +1324,20 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3">
+      <c r="H3" s="2"/>
+      <c r="I3">
         <f>5/12</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="K3" s="2">
+      <c r="J3" s="2">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="L3" s="9">
-        <f>G6*J3*K3</f>
+      <c r="K3" s="9">
+        <f>$G$6*I3*J3</f>
         <v>2026.666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>SUM($D$3:D4)</f>
         <v>-56575</v>
@@ -1328,18 +1359,18 @@
       <c r="G4" s="7">
         <v>250000</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="J4" s="2">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="L4" s="9">
-        <f>G6*J4*K4</f>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K5" si="0">$G$6*I4*J4</f>
         <v>4484</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>SUM($D$3:D5)</f>
         <v>-56575</v>
@@ -1348,27 +1379,33 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="28">
-        <f>G7+0.5%</f>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="L5">
-        <f>G6*(J3*K3+J4*K4)</f>
-        <v>6510.666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <f>G5</f>
+        <v>0.03</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM($D$3:D6)</f>
-        <v>-68785</v>
+        <v>-68785.666666666672</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
         <v>45962</v>
       </c>
-      <c r="D6">
-        <f>-(6510+G6*G5)</f>
-        <v>-12210</v>
+      <c r="D6" s="5">
+        <f>-SUM(K3:K5)</f>
+        <v>-12210.666666666668</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1380,26 +1417,26 @@
         <f>G4+D3</f>
         <v>190000</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="11"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>SUM($D$3:D7)</f>
-        <v>-68785</v>
+        <v>-68785.666666666672</v>
       </c>
       <c r="B7" s="2"/>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>SUM($D$3:D8)</f>
-        <v>-68785</v>
+        <v>-68785.666666666672</v>
       </c>
       <c r="B8" s="2"/>
       <c r="F8" t="s">
@@ -1409,10 +1446,10 @@
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-60760</v>
+        <v>-60760.666666666672</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>46</v>
@@ -1430,14 +1467,14 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>SUM($D$3:D10)</f>
-        <v>-60760</v>
+        <v>-60760.666666666672</v>
       </c>
       <c r="B10" s="5">
         <f>A10-D3</f>
-        <v>-760</v>
+        <v>-760.66666666667152</v>
       </c>
       <c r="C10" s="3">
         <v>46419</v>
@@ -1450,26 +1487,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-57485</v>
+        <v>-56535.666666666672</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
         <v>46784</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D28" si="0">3.21%*$G$4-$G$7*$G$6</f>
-        <v>3274.9999999999991</v>
+        <f t="shared" ref="D12:D28" si="1">3.21%*$G$4-$G$7*$G$6</f>
+        <v>4224.9999999999991</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -1478,245 +1515,242 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>-54210</v>
+        <v>-52310.666666666672</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
         <v>47150</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>-50935</v>
+        <v>-48085.666666666672</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
         <v>47515</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>-47660</v>
+        <v>-43860.666666666672</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3">
         <v>47880</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>-44385</v>
+        <v>-39635.666666666672</v>
       </c>
       <c r="B16" s="30">
         <f>-D16/D3</f>
-        <v>5.4583333333333317E-2</v>
+        <v>7.0416666666666655E-2</v>
       </c>
       <c r="C16" s="3">
         <v>48245</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>-41110</v>
+        <v>-35410.666666666672</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
         <v>48611</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>-37835</v>
+        <v>-31185.666666666672</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
         <v>48976</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>-34560</v>
+        <v>-26960.666666666672</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
         <v>49341</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>-31285</v>
+        <v>-22735.666666666672</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
         <v>49706</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>-28010</v>
+        <v>-18510.666666666672</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
         <v>50072</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>-24735</v>
+        <v>-14285.666666666672</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
         <v>50437</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>-21460</v>
+        <v>-10060.666666666672</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
         <v>50802</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>-18185</v>
+        <v>-5835.6666666666724</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">
         <v>51167</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>-14910</v>
+        <v>-1610.6666666666733</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
         <v>51533</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>-11635</v>
+        <v>2614.3333333333258</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
         <v>51898</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>-8360</v>
+        <v>6839.3333333333248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
         <v>52263</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>-5085.0000000000009</v>
+        <v>11064.333333333325</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3">
         <v>52628</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>3274.9999999999991</v>
+        <f t="shared" si="1"/>
+        <v>4224.9999999999991</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1724,11 +1758,11 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>SUM($D$3:D29)</f>
-        <v>54915</v>
+        <v>71064.333333333328</v>
       </c>
       <c r="B29" s="2">
         <f>XIRR(D3:D29,C3:C29)</f>
-        <v>4.3532499670982369E-2</v>
+        <v>5.5293753743171678E-2</v>
       </c>
       <c r="C29" s="3">
         <v>52628</v>
@@ -1756,6 +1790,519 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7850-337E-4794-9D5F-A7B4C9250F19}">
+  <dimension ref="A2:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <v>45536</v>
+      </c>
+      <c r="D3" s="5">
+        <f>-24%*G4</f>
+        <v>-60240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="K3" s="20">
+        <f>$G$6*I3*J3</f>
+        <v>1621.4599999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>SUM($D$3:D4)</f>
+        <v>-55546.3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>45597</v>
+      </c>
+      <c r="D4" s="10">
+        <f>G8*G4</f>
+        <v>4693.7000000000007</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="7">
+        <v>251000</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="K4" s="20">
+        <f>$G$6*I4*J4</f>
+        <v>4501.9359999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>SUM($D$3:D5)</f>
+        <v>-55546.3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="I5">
+        <f>19/12</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="J5" s="2">
+        <f>G5</f>
+        <v>0.03</v>
+      </c>
+      <c r="K5" s="20">
+        <f>$G$6*I5*J5</f>
+        <v>9061.0999999999985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>SUM($D$3:D6)</f>
+        <v>-70730.796000000002</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>46082</v>
+      </c>
+      <c r="D6" s="20">
+        <f>-K6</f>
+        <v>-15184.495999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7">
+        <f>G4+D3</f>
+        <v>190760</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="20">
+        <f>SUM(K3:K5)</f>
+        <v>15184.495999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>SUM($D$3:D7)</f>
+        <v>-70730.796000000002</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>SUM($D$3:D8)</f>
+        <v>-70730.796000000002</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>SUM($D$3:D9)</f>
+        <v>-62246.995999999999</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3">
+        <v>46661</v>
+      </c>
+      <c r="D9" s="20">
+        <f>3.38%*$G$4</f>
+        <v>8483.7999999999993</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>SUM($D$3:D10)</f>
+        <v>-62246.995999999999</v>
+      </c>
+      <c r="B10" s="5">
+        <f>A10-D3</f>
+        <v>-2006.9959999999992</v>
+      </c>
+      <c r="C10" s="3">
+        <v>46661</v>
+      </c>
+      <c r="D10" s="20">
+        <f>-$D$3*0</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>SUM($D$3:D12)</f>
+        <v>-57578.396000000001</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3">
+        <v>47027</v>
+      </c>
+      <c r="D12" s="20">
+        <f>3.38%*$G$4-$G$7*$G$6</f>
+        <v>4668.5999999999985</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>SUM($D$3:D13)</f>
+        <v>-52909.796000000002</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3">
+        <v>47392</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" ref="D13:D28" si="0">3.38%*$G$4-$G$7*$G$6</f>
+        <v>4668.5999999999985</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>SUM($D$3:D14)</f>
+        <v>-48241.196000000004</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
+        <v>47757</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM($D$3:D15)</f>
+        <v>-43572.596000000005</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3">
+        <v>48122</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>SUM($D$3:D16)</f>
+        <v>-38903.996000000006</v>
+      </c>
+      <c r="B16" s="30">
+        <f>-D16/D3</f>
+        <v>7.7499999999999972E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>48488</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>SUM($D$3:D17)</f>
+        <v>-34235.396000000008</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>48853</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>SUM($D$3:D18)</f>
+        <v>-29566.796000000009</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3">
+        <v>49218</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>SUM($D$3:D19)</f>
+        <v>-24898.196000000011</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>49583</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>SUM($D$3:D20)</f>
+        <v>-20229.596000000012</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>49949</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>SUM($D$3:D21)</f>
+        <v>-15560.996000000014</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>50314</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM($D$3:D22)</f>
+        <v>-10892.396000000015</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
+        <v>50679</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>SUM($D$3:D23)</f>
+        <v>-6223.7960000000166</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <v>51044</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>SUM($D$3:D24)</f>
+        <v>-1555.1960000000181</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3">
+        <v>51410</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>SUM($D$3:D25)</f>
+        <v>3113.4039999999804</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <v>51775</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM($D$3:D26)</f>
+        <v>7782.003999999979</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3">
+        <v>52140</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f>SUM($D$3:D27)</f>
+        <v>12450.603999999978</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3">
+        <v>52505</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f>SUM($D$3:D28)</f>
+        <v>17119.203999999976</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3">
+        <v>52871</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.5999999999985</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f>SUM($D$3:D29)</f>
+        <v>77359.203999999969</v>
+      </c>
+      <c r="B29" s="2">
+        <f>XIRR(D3:D29,C3:C29)</f>
+        <v>5.635922253131867E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>52871</v>
+      </c>
+      <c r="D29" s="20">
+        <f>-D3</f>
+        <v>60240</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
   <dimension ref="A2:G30"/>
   <sheetViews>
@@ -1849,7 +2396,7 @@
         <v>1879.9343750000007</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2196,11 +2743,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -2504,11 +3051,11 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="26">
         <f>B13</f>
@@ -2783,7 +3330,7 @@
         <v>3.9722254872322102E-2</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="16">
         <f>XIRR($G$3:G23,$C$3:C23)</f>
@@ -2823,7 +3370,7 @@
         <v>5099.8859725000002</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -2954,7 +3501,7 @@
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="12">
-        <f t="shared" ref="F32:F38" si="1">3.21%*$K$9-$K$10*$K$32</f>
+        <f t="shared" ref="F33:F38" si="1">3.21%*$K$9-$K$10*$K$32</f>
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
@@ -3088,7 +3635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -3192,7 +3739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
   <dimension ref="B1:F27"/>
   <sheetViews>
@@ -3435,7 +3982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B0C8CF-8E7A-4ADA-A831-33688E2F8CF5}">
   <dimension ref="A2:G30"/>
   <sheetViews>
@@ -3524,7 +4071,7 @@
         <v>2400</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15572796-33ED-4CA0-9013-F6E3C6D0205F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1910931-AEB8-49B5-8786-3B3920958224}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" firstSheet="1" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -273,12 +273,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -410,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -477,6 +483,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1286,502 +1306,503 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44">
         <v>45505</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="42">
         <f>-24%*G4</f>
         <v>-60000</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3">
+      <c r="H3" s="43"/>
+      <c r="I3" s="40">
         <f>5/12</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="43">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="45">
         <f>$G$6*I3*J3</f>
         <v>2026.666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="42">
         <f>SUM($D$3:D4)</f>
         <v>-56575</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44">
         <v>45566</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="46">
         <f>G8*G4</f>
         <v>3425</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="47">
         <v>250000</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="40">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="43">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="45">
         <f t="shared" ref="K4:K5" si="0">$G$6*I4*J4</f>
         <v>4484</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="42">
         <f>SUM($D$3:D5)</f>
         <v>-56575</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="F5" t="s">
+      <c r="B5" s="43"/>
+      <c r="F5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="43">
         <v>0.03</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="40">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="43">
         <f>G5</f>
         <v>0.03</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="45">
         <f t="shared" si="0"/>
         <v>5700</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="42">
         <f>SUM($D$3:D6)</f>
         <v>-68785.666666666672</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44">
         <v>45962</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="42">
         <f>-SUM(K3:K5)</f>
         <v>-12210.666666666668</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="47">
         <f>G4+D3</f>
         <v>190000</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="42">
         <f>SUM($D$3:D7)</f>
         <v>-68785.666666666672</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="F7" t="s">
+      <c r="B7" s="43"/>
+      <c r="F7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="43">
         <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="42">
         <f>SUM($D$3:D8)</f>
         <v>-68785.666666666672</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="F8" t="s">
+      <c r="B8" s="43"/>
+      <c r="F8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="43">
         <v>1.37E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="42">
         <f>SUM($D$3:D9)</f>
         <v>-60760.666666666672</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="44">
         <v>46419</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="40">
         <f>3.21%*$G$4</f>
         <v>8024.9999999999991</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="42">
         <f>SUM($D$3:D10)</f>
         <v>-60760.666666666672</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="42">
         <f>A10-D3</f>
         <v>-760.66666666667152</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="44">
         <v>46419</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="42">
         <f>-$D$3*0</f>
         <v>0</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="42">
         <f>SUM($D$3:D12)</f>
         <v>-56535.666666666672</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44">
         <v>46784</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="40">
         <f t="shared" ref="D12:D28" si="1">3.21%*$G$4-$G$7*$G$6</f>
         <v>4224.9999999999991</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="42">
         <f>SUM($D$3:D13)</f>
         <v>-52310.666666666672</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44">
         <v>47150</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="42">
         <f>SUM($D$3:D14)</f>
         <v>-48085.666666666672</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44">
         <v>47515</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="42">
         <f>SUM($D$3:D15)</f>
         <v>-43860.666666666672</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="44">
         <v>47880</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="42">
         <f>SUM($D$3:D16)</f>
         <v>-39635.666666666672</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="51">
         <f>-D16/D3</f>
         <v>7.0416666666666655E-2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="44">
         <v>48245</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="42">
         <f>SUM($D$3:D17)</f>
         <v>-35410.666666666672</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44">
         <v>48611</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="42">
         <f>SUM($D$3:D18)</f>
         <v>-31185.666666666672</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44">
         <v>48976</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="42">
         <f>SUM($D$3:D19)</f>
         <v>-26960.666666666672</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44">
         <v>49341</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="42">
         <f>SUM($D$3:D20)</f>
         <v>-22735.666666666672</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44">
         <v>49706</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="42">
         <f>SUM($D$3:D21)</f>
         <v>-18510.666666666672</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <v>50072</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="42">
         <f>SUM($D$3:D22)</f>
         <v>-14285.666666666672</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <v>50437</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="42">
         <f>SUM($D$3:D23)</f>
         <v>-10060.666666666672</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44">
         <v>50802</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="42">
         <f>SUM($D$3:D24)</f>
         <v>-5835.6666666666724</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44">
         <v>51167</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="42">
         <f>SUM($D$3:D25)</f>
         <v>-1610.6666666666733</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44">
         <v>51533</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="42">
         <f>SUM($D$3:D26)</f>
         <v>2614.3333333333258</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44">
         <v>51898</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="42">
         <f>SUM($D$3:D27)</f>
         <v>6839.3333333333248</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44">
         <v>52263</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="42">
         <f>SUM($D$3:D28)</f>
         <v>11064.333333333325</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="44">
         <v>52628</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="40">
         <f t="shared" si="1"/>
         <v>4224.9999999999991</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="42">
         <f>SUM($D$3:D29)</f>
         <v>71064.333333333328</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="43">
         <f>XIRR(D3:D29,C3:C29)</f>
         <v>5.5293753743171678E-2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="44">
         <v>52628</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="42">
         <f>-$D$3</f>
         <v>60000</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1794,7 +1815,7 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1910931-AEB8-49B5-8786-3B3920958224}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F77C3-752B-4C7B-8215-56221C260D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" firstSheet="1" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="FLI2PF" sheetId="5" r:id="rId2"/>
     <sheet name="FWD" sheetId="8" r:id="rId3"/>
-    <sheet name="LTIS" sheetId="2" r:id="rId4"/>
-    <sheet name="overlap ptf" sheetId="4" r:id="rId5"/>
-    <sheet name="FLI2" sheetId="1" r:id="rId6"/>
-    <sheet name="xirr test" sheetId="3" r:id="rId7"/>
-    <sheet name="Taiping" sheetId="7" r:id="rId8"/>
+    <sheet name="overlap ptf" sheetId="4" r:id="rId4"/>
+    <sheet name="FLI2" sheetId="1" r:id="rId5"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId6"/>
+    <sheet name="LTIS" sheetId="2" state="hidden" r:id="rId7"/>
+    <sheet name="Taiping" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -273,18 +282,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -483,20 +486,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
   <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7850-337E-4794-9D5F-A7B4C9250F19}">
   <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -2324,447 +2327,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
-  <dimension ref="A2:G30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <f>SUM($D$2:D3)</f>
-        <v>-30078.95</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3">
-        <v>45505</v>
-      </c>
-      <c r="D3" s="20">
-        <f>-$G$3/5</f>
-        <v>-30078.95</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f>150394.75</f>
-        <v>150394.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f>SUM($D$2:D4)</f>
-        <v>-27371.844499999999</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
-        <v>45566</v>
-      </c>
-      <c r="D4" s="20">
-        <f>1.8%*G3</f>
-        <v>2707.1055000000001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <f>SUM($D$2:D5)</f>
-        <v>-57450.794500000004</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3">
-        <v>45870</v>
-      </c>
-      <c r="D5" s="20">
-        <f>-$G$3/5</f>
-        <v>-30078.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <f>SUM($D$2:D6)</f>
-        <v>-55570.860125000007</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3">
-        <v>45870</v>
-      </c>
-      <c r="D6" s="20">
-        <f>(0.0425-0.03)*G3</f>
-        <v>1879.9343750000007</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <f>SUM($D$2:D7)</f>
-        <v>-85649.810125000004</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3">
-        <v>46235</v>
-      </c>
-      <c r="D7" s="20">
-        <f>-$G$3/5</f>
-        <v>-30078.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f>SUM($D$2:D8)</f>
-        <v>-115728.760125</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3">
-        <v>46600</v>
-      </c>
-      <c r="D8" s="20">
-        <f>-$G$3/5</f>
-        <v>-30078.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f>SUM($D$2:D9)</f>
-        <v>-145807.71012500001</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3">
-        <v>46966</v>
-      </c>
-      <c r="D9" s="20">
-        <f>-$G$3/5</f>
-        <v>-30078.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>SUM($D$2:D11)</f>
-        <v>-140707.82415250002</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>47331</v>
-      </c>
-      <c r="D11" s="20">
-        <f>$G$3*0.03391</f>
-        <v>5099.8859725000002</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f>SUM($D$2:D12)</f>
-        <v>14198.768347499979</v>
-      </c>
-      <c r="B12" s="2">
-        <f>XIRR($D$3:D12,$C$3:C12)</f>
-        <v>3.1607630848884585E-2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>47331</v>
-      </c>
-      <c r="D12" s="20">
-        <f>$G$3*1.03</f>
-        <v>154906.5925</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f>SUM($D$2:D14)</f>
-        <v>19298.65431999998</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3">
-        <v>47696</v>
-      </c>
-      <c r="D14" s="20">
-        <f>$G$3*0.03391</f>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f>SUM($D$2:D15)</f>
-        <v>24398.54029249998</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3">
-        <v>48061</v>
-      </c>
-      <c r="D15" s="20">
-        <f t="shared" ref="D15:D28" si="0">$G$3*0.03391</f>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f>SUM($D$2:D16)</f>
-        <v>29498.42626499998</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3">
-        <v>48427</v>
-      </c>
-      <c r="D16" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f>SUM($D$2:D17)</f>
-        <v>34598.31223749998</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3">
-        <v>48792</v>
-      </c>
-      <c r="D17" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f>SUM($D$2:D18)</f>
-        <v>39698.19820999998</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3">
-        <v>49157</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f>SUM($D$2:D19)</f>
-        <v>44798.084182499981</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3">
-        <v>49522</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f>SUM($D$2:D20)</f>
-        <v>49897.970154999981</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3">
-        <v>49888</v>
-      </c>
-      <c r="D20" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f>SUM($D$2:D21)</f>
-        <v>54997.856127499981</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3">
-        <v>50253</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f>SUM($D$2:D22)</f>
-        <v>60097.742099999981</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3">
-        <v>50618</v>
-      </c>
-      <c r="D22" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f>SUM($D$2:D23)</f>
-        <v>65197.628072499981</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3">
-        <v>50983</v>
-      </c>
-      <c r="D23" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <f>SUM($D$2:D24)</f>
-        <v>70297.514044999989</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3">
-        <v>51349</v>
-      </c>
-      <c r="D24" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <f>SUM($D$2:D25)</f>
-        <v>75397.400017499982</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3">
-        <v>51714</v>
-      </c>
-      <c r="D25" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <f>SUM($D$2:D26)</f>
-        <v>80497.285989999975</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3">
-        <v>52079</v>
-      </c>
-      <c r="D26" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <f>SUM($D$2:D27)</f>
-        <v>85597.171962499968</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3">
-        <v>52444</v>
-      </c>
-      <c r="D27" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <f>SUM($D$2:D28)</f>
-        <v>90697.057934999961</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3">
-        <v>52810</v>
-      </c>
-      <c r="D28" s="20">
-        <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <f>SUM($D$2:D29)</f>
-        <v>95208.90043499996</v>
-      </c>
-      <c r="C29" s="3">
-        <v>52810</v>
-      </c>
-      <c r="D29" s="20">
-        <f>$G$3*3%</f>
-        <v>4511.8424999999997</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <f>SUM($D$2:D30)</f>
-        <v>245603.65043499996</v>
-      </c>
-      <c r="B30" s="24">
-        <f>IF(0=D12,XIRR(D3:D30,C3:C30),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>52810</v>
-      </c>
-      <c r="D30" s="20">
-        <f>$G$3</f>
-        <v>150394.75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D4" formula="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
@@ -3656,7 +3218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -3760,7 +3322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
   <dimension ref="B1:F27"/>
   <sheetViews>
@@ -4000,6 +3562,447 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>SUM($D$2:D3)</f>
+        <v>-30078.95</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <v>45505</v>
+      </c>
+      <c r="D3" s="20">
+        <f>-$G$3/5</f>
+        <v>-30078.95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>150394.75</f>
+        <v>150394.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>SUM($D$2:D4)</f>
+        <v>-27371.844499999999</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>45566</v>
+      </c>
+      <c r="D4" s="20">
+        <f>1.8%*G3</f>
+        <v>2707.1055000000001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>SUM($D$2:D5)</f>
+        <v>-57450.794500000004</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3">
+        <v>45870</v>
+      </c>
+      <c r="D5" s="20">
+        <f>-$G$3/5</f>
+        <v>-30078.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>SUM($D$2:D6)</f>
+        <v>-55570.860125000007</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>45870</v>
+      </c>
+      <c r="D6" s="20">
+        <f>(0.0425-0.03)*G3</f>
+        <v>1879.9343750000007</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>SUM($D$2:D7)</f>
+        <v>-85649.810125000004</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
+        <v>46235</v>
+      </c>
+      <c r="D7" s="20">
+        <f>-$G$3/5</f>
+        <v>-30078.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>SUM($D$2:D8)</f>
+        <v>-115728.760125</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3">
+        <v>46600</v>
+      </c>
+      <c r="D8" s="20">
+        <f>-$G$3/5</f>
+        <v>-30078.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>SUM($D$2:D9)</f>
+        <v>-145807.71012500001</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>46966</v>
+      </c>
+      <c r="D9" s="20">
+        <f>-$G$3/5</f>
+        <v>-30078.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>SUM($D$2:D11)</f>
+        <v>-140707.82415250002</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D11" s="20">
+        <f>$G$3*0.03391</f>
+        <v>5099.8859725000002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>SUM($D$2:D12)</f>
+        <v>14198.768347499979</v>
+      </c>
+      <c r="B12" s="2">
+        <f>XIRR($D$3:D12,$C$3:C12)</f>
+        <v>3.1607630848884585E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D12" s="20">
+        <f>$G$3*1.03</f>
+        <v>154906.5925</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>SUM($D$2:D14)</f>
+        <v>19298.65431999998</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
+        <v>47696</v>
+      </c>
+      <c r="D14" s="20">
+        <f>$G$3*0.03391</f>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM($D$2:D15)</f>
+        <v>24398.54029249998</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
+        <v>48061</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" ref="D15:D28" si="0">$G$3*0.03391</f>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>SUM($D$2:D16)</f>
+        <v>29498.42626499998</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3">
+        <v>48427</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>SUM($D$2:D17)</f>
+        <v>34598.31223749998</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>48792</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>SUM($D$2:D18)</f>
+        <v>39698.19820999998</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3">
+        <v>49157</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>SUM($D$2:D19)</f>
+        <v>44798.084182499981</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>49522</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>SUM($D$2:D20)</f>
+        <v>49897.970154999981</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>49888</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>SUM($D$2:D21)</f>
+        <v>54997.856127499981</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>50253</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM($D$2:D22)</f>
+        <v>60097.742099999981</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
+        <v>50618</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>SUM($D$2:D23)</f>
+        <v>65197.628072499981</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <v>50983</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>SUM($D$2:D24)</f>
+        <v>70297.514044999989</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3">
+        <v>51349</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>SUM($D$2:D25)</f>
+        <v>75397.400017499982</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <v>51714</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM($D$2:D26)</f>
+        <v>80497.285989999975</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3">
+        <v>52079</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f>SUM($D$2:D27)</f>
+        <v>85597.171962499968</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3">
+        <v>52444</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f>SUM($D$2:D28)</f>
+        <v>90697.057934999961</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="0"/>
+        <v>5099.8859725000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f>SUM($D$2:D29)</f>
+        <v>95208.90043499996</v>
+      </c>
+      <c r="C29" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D29" s="20">
+        <f>$G$3*3%</f>
+        <v>4511.8424999999997</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f>SUM($D$2:D30)</f>
+        <v>245603.65043499996</v>
+      </c>
+      <c r="B30" s="24">
+        <f>IF(0=D12,XIRR(D3:D30,C3:C30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D30" s="20">
+        <f>$G$3</f>
+        <v>150394.75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F77C3-752B-4C7B-8215-56221C260D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C53E8-9D5E-45AC-A558-240186DDC134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>total prem</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>first payout FLI2PF</t>
-  </si>
-  <si>
-    <t>surrender Fli2pm #250k to wipe out $190k loan</t>
   </si>
   <si>
     <t>FLI2</t>
@@ -253,6 +250,18 @@
   </si>
   <si>
     <t>FLI2 xirr</t>
+  </si>
+  <si>
+    <t>payout rate</t>
+  </si>
+  <si>
+    <t>29M int cost</t>
+  </si>
+  <si>
+    <t>surrender FLI2PF #317k to wipe out loan</t>
+  </si>
+  <si>
+    <t>FLI2PF down payment</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -459,6 +468,23 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -486,20 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,503 +1321,502 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="1" width="11" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44">
-        <v>45505</v>
-      </c>
-      <c r="D3" s="42">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35">
+        <v>45536</v>
+      </c>
+      <c r="D3" s="37">
         <f>-24%*G4</f>
-        <v>-60000</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="40">
+        <v>-76080</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="31">
         <f>5/12</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="34">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="36">
         <f>$G$6*I3*J3</f>
-        <v>2026.666666666667</v>
+        <v>2569.8133333333335</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="33">
         <f>SUM($D$3:D4)</f>
-        <v>-56575</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44">
-        <v>45566</v>
-      </c>
-      <c r="D4" s="46">
+        <v>-71737.100000000006</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35">
+        <v>45597</v>
+      </c>
+      <c r="D4" s="37">
         <f>G8*G4</f>
-        <v>3425</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="40" t="s">
+        <v>4342.9000000000005</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="47">
-        <v>250000</v>
-      </c>
-      <c r="I4" s="40">
+      <c r="G4" s="38">
+        <v>317000</v>
+      </c>
+      <c r="I4" s="31">
         <v>1</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="34">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="36">
         <f t="shared" ref="K4:K5" si="0">$G$6*I4*J4</f>
-        <v>4484</v>
+        <v>5685.7119999999995</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="33">
         <f>SUM($D$3:D5)</f>
-        <v>-56575</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="F5" s="40" t="s">
+        <v>-71737.100000000006</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="F5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="34">
         <v>0.03</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="31">
         <v>1</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="34">
         <f>G5</f>
         <v>0.03</v>
       </c>
-      <c r="K5" s="45">
-        <f t="shared" si="0"/>
-        <v>5700</v>
+      <c r="K5" s="36">
+        <f t="shared" si="0"/>
+        <v>7227.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="A6" s="33">
         <f>SUM($D$3:D6)</f>
-        <v>-68785.666666666672</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44">
-        <v>45962</v>
-      </c>
-      <c r="D6" s="42">
+        <v>-87220.225333333336</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35">
+        <v>45992</v>
+      </c>
+      <c r="D6" s="37">
         <f>-SUM(K3:K5)</f>
-        <v>-12210.666666666668</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="40" t="s">
+        <v>-15483.125333333333</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="38">
         <f>G4+D3</f>
-        <v>190000</v>
-      </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="45"/>
+        <v>240920</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="A7" s="33">
         <f>SUM($D$3:D7)</f>
-        <v>-68785.666666666672</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="F7" s="40" t="s">
+        <v>-87220.225333333336</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="F7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="34">
         <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="33">
         <f>SUM($D$3:D8)</f>
-        <v>-68785.666666666672</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="F8" s="40" t="s">
+        <v>-87220.225333333336</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="F8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="34">
         <v>1.37E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+      <c r="A9" s="33">
         <f>SUM($D$3:D9)</f>
-        <v>-60760.666666666672</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="44">
-        <v>46419</v>
-      </c>
-      <c r="D9" s="40">
-        <f>3.21%*$G$4</f>
-        <v>8024.9999999999991</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+        <v>-76835.305333333337</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="35">
+        <v>46447</v>
+      </c>
+      <c r="D9" s="37">
+        <f>G9*$G$4</f>
+        <v>10384.92</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="43">
+        <v>3.2759999999999997E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="A10" s="33">
         <f>SUM($D$3:D10)</f>
-        <v>-60760.666666666672</v>
-      </c>
-      <c r="B10" s="42">
+        <v>-76835.305333333337</v>
+      </c>
+      <c r="B10" s="33">
         <f>A10-D3</f>
-        <v>-760.66666666667152</v>
-      </c>
-      <c r="C10" s="44">
-        <v>46419</v>
-      </c>
-      <c r="D10" s="42">
+        <v>-755.30533333333733</v>
+      </c>
+      <c r="C10" s="35">
+        <v>46447</v>
+      </c>
+      <c r="D10" s="37">
         <f>-$D$3*0</f>
         <v>0</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>26</v>
+      <c r="E10" s="40" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="49"/>
+      <c r="A11" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="A12" s="33">
         <f>SUM($D$3:D12)</f>
-        <v>-56535.666666666672</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44">
-        <v>46784</v>
-      </c>
-      <c r="D12" s="40">
-        <f t="shared" ref="D12:D28" si="1">3.21%*$G$4-$G$7*$G$6</f>
-        <v>4224.9999999999991</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+        <v>-71268.785333333333</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35">
+        <v>46813</v>
+      </c>
+      <c r="D12" s="37">
+        <f>$G$9*$G$4-$G$7*$G$6</f>
+        <v>5566.5199999999995</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
+      <c r="A13" s="33">
         <f>SUM($D$3:D13)</f>
-        <v>-52310.666666666672</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44">
-        <v>47150</v>
-      </c>
-      <c r="D13" s="40">
+        <v>-65702.265333333329</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35">
+        <v>47178</v>
+      </c>
+      <c r="D13" s="37">
+        <f t="shared" ref="D13:D28" si="1">$G$9*$G$4-$G$7*$G$6</f>
+        <v>5566.5199999999995</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <f>SUM($D$3:D14)</f>
+        <v>-60135.745333333332</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35">
+        <v>47543</v>
+      </c>
+      <c r="D14" s="37">
         <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
-        <f>SUM($D$3:D14)</f>
-        <v>-48085.666666666672</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44">
-        <v>47515</v>
-      </c>
-      <c r="D14" s="40">
+        <v>5566.5199999999995</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <f>SUM($D$3:D15)</f>
+        <v>-54569.225333333336</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="35">
+        <v>47908</v>
+      </c>
+      <c r="D15" s="37">
         <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
-        <f>SUM($D$3:D15)</f>
-        <v>-43860.666666666672</v>
-      </c>
-      <c r="B15" s="50" t="s">
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <f>SUM($D$3:D16)</f>
+        <v>-49002.705333333339</v>
+      </c>
+      <c r="B16" s="42">
+        <f>-D16/D3</f>
+        <v>7.3166666666666658E-2</v>
+      </c>
+      <c r="C16" s="35">
+        <v>48274</v>
+      </c>
+      <c r="D16" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <f>SUM($D$3:D17)</f>
+        <v>-43436.185333333342</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35">
+        <v>48639</v>
+      </c>
+      <c r="D17" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <f>SUM($D$3:D18)</f>
+        <v>-37869.665333333345</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35">
+        <v>49004</v>
+      </c>
+      <c r="D18" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <f>SUM($D$3:D19)</f>
+        <v>-32303.145333333345</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35">
+        <v>49369</v>
+      </c>
+      <c r="D19" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <f>SUM($D$3:D20)</f>
+        <v>-26736.625333333344</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35">
+        <v>49735</v>
+      </c>
+      <c r="D20" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <f>SUM($D$3:D21)</f>
+        <v>-21170.105333333344</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35">
+        <v>50100</v>
+      </c>
+      <c r="D21" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <f>SUM($D$3:D22)</f>
+        <v>-15603.585333333343</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35">
+        <v>50465</v>
+      </c>
+      <c r="D22" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <f>SUM($D$3:D23)</f>
+        <v>-10037.065333333343</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35">
+        <v>50830</v>
+      </c>
+      <c r="D23" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <f>SUM($D$3:D24)</f>
+        <v>-4470.5453333333435</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35">
+        <v>51196</v>
+      </c>
+      <c r="D24" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <f>SUM($D$3:D25)</f>
+        <v>1095.974666666656</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35">
+        <v>51561</v>
+      </c>
+      <c r="D25" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <f>SUM($D$3:D26)</f>
+        <v>6662.4946666666556</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35">
+        <v>51926</v>
+      </c>
+      <c r="D26" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <f>SUM($D$3:D27)</f>
+        <v>12229.014666666655</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35">
+        <v>52291</v>
+      </c>
+      <c r="D27" s="37">
+        <f t="shared" si="1"/>
+        <v>5566.5199999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <f>SUM($D$3:D28)</f>
+        <v>17795.534666666656</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="44">
-        <v>47880</v>
-      </c>
-      <c r="D15" s="40">
+      <c r="C28" s="35">
+        <v>52657</v>
+      </c>
+      <c r="D28" s="37">
         <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
-        <f>SUM($D$3:D16)</f>
-        <v>-39635.666666666672</v>
-      </c>
-      <c r="B16" s="51">
-        <f>-D16/D3</f>
-        <v>7.0416666666666655E-2</v>
-      </c>
-      <c r="C16" s="44">
-        <v>48245</v>
-      </c>
-      <c r="D16" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
-        <f>SUM($D$3:D17)</f>
-        <v>-35410.666666666672</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44">
-        <v>48611</v>
-      </c>
-      <c r="D17" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
-        <f>SUM($D$3:D18)</f>
-        <v>-31185.666666666672</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44">
-        <v>48976</v>
-      </c>
-      <c r="D18" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
-        <f>SUM($D$3:D19)</f>
-        <v>-26960.666666666672</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44">
-        <v>49341</v>
-      </c>
-      <c r="D19" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42">
-        <f>SUM($D$3:D20)</f>
-        <v>-22735.666666666672</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44">
-        <v>49706</v>
-      </c>
-      <c r="D20" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
-        <f>SUM($D$3:D21)</f>
-        <v>-18510.666666666672</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
-        <v>50072</v>
-      </c>
-      <c r="D21" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
-        <f>SUM($D$3:D22)</f>
-        <v>-14285.666666666672</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44">
-        <v>50437</v>
-      </c>
-      <c r="D22" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="42">
-        <f>SUM($D$3:D23)</f>
-        <v>-10060.666666666672</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44">
-        <v>50802</v>
-      </c>
-      <c r="D23" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
-        <f>SUM($D$3:D24)</f>
-        <v>-5835.6666666666724</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44">
-        <v>51167</v>
-      </c>
-      <c r="D24" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="42">
-        <f>SUM($D$3:D25)</f>
-        <v>-1610.6666666666733</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44">
-        <v>51533</v>
-      </c>
-      <c r="D25" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
-        <f>SUM($D$3:D26)</f>
-        <v>2614.3333333333258</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44">
-        <v>51898</v>
-      </c>
-      <c r="D26" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="42">
-        <f>SUM($D$3:D27)</f>
-        <v>6839.3333333333248</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44">
-        <v>52263</v>
-      </c>
-      <c r="D27" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="42">
-        <f>SUM($D$3:D28)</f>
-        <v>11064.333333333325</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="44">
-        <v>52628</v>
-      </c>
-      <c r="D28" s="40">
-        <f t="shared" si="1"/>
-        <v>4224.9999999999991</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+        <v>5566.5199999999995</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
+      <c r="A29" s="33">
         <f>SUM($D$3:D29)</f>
-        <v>71064.333333333328</v>
-      </c>
-      <c r="B29" s="43">
+        <v>111875.53466666666</v>
+      </c>
+      <c r="B29" s="34">
         <f>XIRR(D3:D29,C3:C29)</f>
-        <v>5.5293753743171678E-2</v>
-      </c>
-      <c r="C29" s="44">
-        <v>52628</v>
-      </c>
-      <c r="D29" s="42">
-        <f>-$D$3</f>
-        <v>60000</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>26</v>
+        <v>6.3350525498390209E-2</v>
+      </c>
+      <c r="C29" s="35">
+        <v>52657</v>
+      </c>
+      <c r="D29" s="37">
+        <v>94080</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1856,7 +1867,7 @@
         <v>-60240</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3">
         <f>4/12</f>
@@ -1884,10 +1895,10 @@
         <v>4693.7000000000007</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7">
         <v>251000</v>
@@ -1910,7 +1921,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2">
         <v>0.03</v>
@@ -1942,7 +1953,7 @@
         <v>-15184.495999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -1989,7 +2000,7 @@
         <v>-62246.995999999999</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3">
         <v>46661</v>
@@ -1999,7 +2010,7 @@
         <v>8483.7999999999993</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2021,12 +2032,12 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="20"/>
@@ -2046,7 +2057,7 @@
         <v>4668.5999999999985</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -2093,7 +2104,7 @@
         <v>-43572.596000000005</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3">
         <v>48122</v>
@@ -2280,7 +2291,7 @@
         <v>17119.203999999976</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3">
         <v>52871</v>
@@ -2309,7 +2320,7 @@
         <v>60240</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2351,20 +2362,20 @@
     <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="8"/>
@@ -2387,7 +2398,7 @@
         <v>-0.01</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -2406,7 +2417,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -2447,7 +2458,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -2557,7 +2568,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="8"/>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="5">
         <f>K9+F6</f>
@@ -2585,7 +2596,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="8"/>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" s="2">
         <f>0.5%+K32</f>
@@ -2611,7 +2622,7 @@
         <v>1879.9343750000007</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -2634,11 +2645,11 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="26">
         <f>B13</f>
@@ -2668,7 +2679,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="14">
         <f>B5</f>
@@ -2694,11 +2705,11 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="14">
         <f>K13-K14</f>
@@ -2768,7 +2779,7 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="19"/>
     </row>
@@ -2856,7 +2867,7 @@
         <v>4511.8424999999997</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="8"/>
     </row>
@@ -2879,16 +2890,16 @@
         <v>150394.75</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="B24" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="21">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2905,15 +2916,15 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="16">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="16">
         <f>XIRR($G$3:G23,$C$3:C23)</f>
@@ -2924,7 +2935,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="14"/>
@@ -2952,8 +2963,8 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H27" s="37" t="s">
-        <v>57</v>
+      <c r="H27" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -2975,7 +2986,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H28" s="38"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2996,7 +3007,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H29" s="38"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -3017,7 +3028,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H30" s="38"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -3038,7 +3049,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H31" s="38"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -3059,12 +3070,12 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="38"/>
+        <v>47</v>
+      </c>
+      <c r="H32" s="51"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32" s="2">
         <v>2.5000000000000001E-2</v>
@@ -3088,10 +3099,10 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="38"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="24">
         <f>-F32/F6</f>
@@ -3116,7 +3127,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -3137,7 +3148,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="38"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -3158,7 +3169,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="38"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -3179,7 +3190,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="38"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -3200,12 +3211,12 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="8"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3659,7 +3670,7 @@
         <v>1879.9343750000007</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4095,7 +4106,7 @@
         <v>2400</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C53E8-9D5E-45AC-A558-240186DDC134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30A7A14-F00C-4845-ADDC-9A5AA06A5ED6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
@@ -27,21 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>total prem</t>
   </si>
@@ -246,15 +237,6 @@
     <t>FWD xirr</t>
   </si>
   <si>
-    <t>FLI2 DYOC</t>
-  </si>
-  <si>
-    <t>FLI2 xirr</t>
-  </si>
-  <si>
-    <t>payout rate</t>
-  </si>
-  <si>
     <t>29M int cost</t>
   </si>
   <si>
@@ -262,6 +244,30 @@
   </si>
   <si>
     <t>FLI2PF down payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Mar27 LIR </t>
+  </si>
+  <si>
+    <t>annual payout</t>
+  </si>
+  <si>
+    <t>DYOC</t>
+  </si>
+  <si>
+    <t>FLI2pf xirr</t>
+  </si>
+  <si>
+    <t>PnL</t>
+  </si>
+  <si>
+    <t>net outlay</t>
+  </si>
+  <si>
+    <t>ditto</t>
+  </si>
+  <si>
+    <t>-- if 退保 --</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -475,16 +481,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -511,6 +513,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1318,16 +1341,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
-  <dimension ref="A2:K32"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="31" customWidth="1"/>
@@ -1336,12 +1359,6 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="32"/>
       <c r="D2" s="37" t="s">
         <v>2</v>
@@ -1354,11 +1371,11 @@
         <v>45536</v>
       </c>
       <c r="D3" s="37">
-        <f>-24%*G4</f>
+        <f>-24%*G6</f>
         <v>-76080</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="31">
@@ -1369,31 +1386,28 @@
         <v>2.5600000000000001E-2</v>
       </c>
       <c r="K3" s="36">
-        <f>$G$6*I3*J3</f>
+        <f>$G$9*I3*J3</f>
         <v>2569.8133333333335</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
-        <f>SUM($D$3:D4)</f>
-        <v>-71737.100000000006</v>
-      </c>
+      <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="35">
         <v>45597</v>
       </c>
       <c r="D4" s="37">
-        <f>G8*G4</f>
+        <f>G4*G6</f>
         <v>4342.9000000000005</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="38">
-        <v>317000</v>
+      <c r="F4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="53">
+        <v>1.37E-2</v>
       </c>
       <c r="I4" s="31">
         <v>1</v>
@@ -1402,27 +1416,24 @@
         <v>2.3599999999999999E-2</v>
       </c>
       <c r="K4" s="36">
-        <f t="shared" ref="K4:K5" si="0">$G$6*I4*J4</f>
+        <f t="shared" ref="K4:K5" si="0">$G$9*I4*J4</f>
         <v>5685.7119999999995</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <f>SUM($D$3:D5)</f>
-        <v>-71737.100000000006</v>
-      </c>
+      <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="F5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0.03</v>
+      <c r="F5" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="55">
+        <v>3.2759999999999997E-2</v>
       </c>
       <c r="I5" s="31">
         <v>1</v>
       </c>
       <c r="J5" s="34">
-        <f>G5</f>
+        <f>G8</f>
         <v>0.03</v>
       </c>
       <c r="K5" s="36">
@@ -1431,10 +1442,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
-        <f>SUM($D$3:D6)</f>
-        <v>-87220.225333333336</v>
-      </c>
+      <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="35">
         <v>45992</v>
@@ -1444,381 +1452,315 @@
         <v>-15483.125333333333</v>
       </c>
       <c r="E6" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="52">
+        <v>317000</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="38">
-        <f>G4+D3</f>
-        <v>240920</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <f>SUM($D$3:D7)</f>
-        <v>-87220.225333333336</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="F7" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="34">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <f>SUM($D$3:D8)</f>
-        <v>-87220.225333333336</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="F8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="34">
-        <v>1.37E-2</v>
+      <c r="G8" s="53">
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
+        <f>B9-D3</f>
+        <v>-755.30533333333733</v>
+      </c>
+      <c r="B9" s="33">
         <f>SUM($D$3:D9)</f>
         <v>-76835.305333333337</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>45</v>
-      </c>
       <c r="C9" s="35">
         <v>46447</v>
       </c>
       <c r="D9" s="37">
-        <f>G9*$G$4</f>
+        <f>G5*$G$6</f>
         <v>10384.92</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="43">
-        <v>3.2759999999999997E-2</v>
+      <c r="F9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="52">
+        <f>G6+D3</f>
+        <v>240920</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
-        <f>SUM($D$3:D10)</f>
-        <v>-76835.305333333337</v>
-      </c>
-      <c r="B10" s="33">
-        <f>A10-D3</f>
-        <v>-755.30533333333733</v>
-      </c>
-      <c r="C10" s="35">
-        <v>46447</v>
-      </c>
-      <c r="D10" s="37">
-        <f>-$D$3*0</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>71</v>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="E11" s="40"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="35">
+        <v>46813</v>
+      </c>
+      <c r="D11" s="37">
+        <f>$G$5*$G$6-$G$10*$G$9</f>
+        <v>5566.5199999999995</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
-        <f>SUM($D$3:D12)</f>
-        <v>-71268.785333333333</v>
-      </c>
-      <c r="B12" s="34"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="41">
+        <f>-D12/$D$3</f>
+        <v>7.3166666666666658E-2</v>
+      </c>
       <c r="C12" s="35">
-        <v>46813</v>
+        <v>47178</v>
       </c>
       <c r="D12" s="37">
-        <f>$G$9*$G$4-$G$7*$G$6</f>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
-        <f>SUM($D$3:D13)</f>
-        <v>-65702.265333333329</v>
-      </c>
-      <c r="B13" s="34"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="41">
+        <f>-D13/$D$3</f>
+        <v>7.3166666666666658E-2</v>
+      </c>
       <c r="C13" s="35">
-        <v>47178</v>
+        <v>47543</v>
       </c>
       <c r="D13" s="37">
-        <f t="shared" ref="D13:D28" si="1">$G$9*$G$4-$G$7*$G$6</f>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
-        <f>SUM($D$3:D14)</f>
-        <v>-60135.745333333332</v>
-      </c>
-      <c r="B14" s="34"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="57" t="s">
+        <v>76</v>
+      </c>
       <c r="C14" s="35">
-        <v>47543</v>
+        <v>47908</v>
       </c>
       <c r="D14" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <f>SUM($D$3:D15)</f>
-        <v>-54569.225333333336</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>67</v>
-      </c>
+      <c r="A15" s="33"/>
       <c r="C15" s="35">
-        <v>47908</v>
+        <v>48274</v>
       </c>
       <c r="D15" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
-        <f>SUM($D$3:D16)</f>
-        <v>-49002.705333333339</v>
-      </c>
-      <c r="B16" s="42">
-        <f>-D16/D3</f>
-        <v>7.3166666666666658E-2</v>
-      </c>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="35">
-        <v>48274</v>
+        <v>48639</v>
       </c>
       <c r="D16" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
-        <f>SUM($D$3:D17)</f>
-        <v>-43436.185333333342</v>
-      </c>
+      <c r="A17" s="33"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35">
-        <v>48639</v>
+        <v>49004</v>
       </c>
       <c r="D17" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <f>SUM($D$3:D18)</f>
-        <v>-37869.665333333345</v>
-      </c>
+      <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35">
-        <v>49004</v>
+        <v>49369</v>
       </c>
       <c r="D18" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
-        <f>SUM($D$3:D19)</f>
-        <v>-32303.145333333345</v>
-      </c>
+      <c r="A19" s="33"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35">
-        <v>49369</v>
+        <v>49735</v>
       </c>
       <c r="D19" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
-        <f>SUM($D$3:D20)</f>
-        <v>-26736.625333333344</v>
-      </c>
+      <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="35">
-        <v>49735</v>
+        <v>50100</v>
       </c>
       <c r="D20" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
-        <f>SUM($D$3:D21)</f>
-        <v>-21170.105333333344</v>
-      </c>
+      <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35">
-        <v>50100</v>
+        <v>50465</v>
       </c>
       <c r="D21" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
-        <f>SUM($D$3:D22)</f>
-        <v>-15603.585333333343</v>
-      </c>
+      <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="35">
-        <v>50465</v>
+        <v>50830</v>
       </c>
       <c r="D22" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <f>SUM($D$3:D23)</f>
-        <v>-10037.065333333343</v>
-      </c>
+      <c r="A23" s="33"/>
       <c r="B23" s="34"/>
       <c r="C23" s="35">
-        <v>50830</v>
+        <v>51196</v>
       </c>
       <c r="D23" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
-        <f>SUM($D$3:D24)</f>
-        <v>-4470.5453333333435</v>
-      </c>
+      <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="35">
-        <v>51196</v>
+        <v>51561</v>
       </c>
       <c r="D24" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
-        <f>SUM($D$3:D25)</f>
-        <v>1095.974666666656</v>
-      </c>
+      <c r="A25" s="33"/>
       <c r="B25" s="34"/>
       <c r="C25" s="35">
-        <v>51561</v>
+        <v>51926</v>
       </c>
       <c r="D25" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
-        <f>SUM($D$3:D26)</f>
-        <v>6662.4946666666556</v>
-      </c>
+      <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="35">
-        <v>51926</v>
+        <v>52291</v>
       </c>
       <c r="D26" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
-        <f>SUM($D$3:D27)</f>
-        <v>12229.014666666655</v>
-      </c>
-      <c r="B27" s="34"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="C27" s="35">
-        <v>52291</v>
+        <v>52657</v>
       </c>
       <c r="D27" s="37">
-        <f t="shared" si="1"/>
+        <f>$G$5*$G$6-$G$10*$G$9</f>
         <v>5566.5199999999995</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
-        <f>SUM($D$3:D28)</f>
-        <v>17795.534666666656</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>68</v>
+      <c r="A28" s="33"/>
+      <c r="B28" s="34">
+        <f>XIRR(D3:D28,C3:C28)</f>
+        <v>6.3350525498390209E-2</v>
       </c>
       <c r="C28" s="35">
         <v>52657</v>
       </c>
       <c r="D28" s="37">
-        <f t="shared" si="1"/>
-        <v>5566.5199999999995</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+        <v>94080</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
-        <f>SUM($D$3:D29)</f>
-        <v>111875.53466666666</v>
-      </c>
-      <c r="B29" s="34">
-        <f>XIRR(D3:D29,C3:C29)</f>
-        <v>6.3350525498390209E-2</v>
-      </c>
-      <c r="C29" s="35">
-        <v>52657</v>
-      </c>
-      <c r="D29" s="37">
-        <v>94080</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -2895,11 +2837,11 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="21">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2916,9 +2858,9 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="16">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2963,7 +2905,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="48" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="8"/>
@@ -2986,7 +2928,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H28" s="51"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -3007,7 +2949,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H29" s="51"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -3028,7 +2970,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H30" s="51"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -3049,7 +2991,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H31" s="51"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -3072,7 +3014,7 @@
       <c r="G32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="51"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
         <v>48</v>
@@ -3099,7 +3041,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
         <v>50</v>
@@ -3127,7 +3069,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="51"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -3148,7 +3090,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -3169,7 +3111,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="51"/>
+      <c r="H36" s="49"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -3190,7 +3132,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -3211,7 +3153,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="52"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="8"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30A7A14-F00C-4845-ADDC-9A5AA06A5ED6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060A2584-0611-404B-893E-3021A7237839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
@@ -27,12 +27,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>total prem</t>
   </si>
@@ -268,6 +277,9 @@
   </si>
   <si>
     <t>-- if 退保 --</t>
+  </si>
+  <si>
+    <t>Surrender bonus 17k+ after 20Y</t>
   </si>
 </sst>
 </file>
@@ -487,6 +499,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,27 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1344,7 +1356,7 @@
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1384,7 @@
       </c>
       <c r="D3" s="37">
         <f>-24%*G6</f>
-        <v>-76080</v>
+        <v>-76189.919999999998</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>69</v>
@@ -1387,7 +1399,7 @@
       </c>
       <c r="K3" s="36">
         <f>$G$9*I3*J3</f>
-        <v>2569.8133333333335</v>
+        <v>2573.5261866666674</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1398,15 +1410,15 @@
       </c>
       <c r="D4" s="37">
         <f>G4*G6</f>
-        <v>4342.9000000000005</v>
+        <v>4349.1746000000003</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="44">
         <v>1.37E-2</v>
       </c>
       <c r="I4" s="31">
@@ -1417,16 +1429,16 @@
       </c>
       <c r="K4" s="36">
         <f t="shared" ref="K4:K5" si="0">$G$9*I4*J4</f>
-        <v>5685.7119999999995</v>
+        <v>5693.9266880000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="46">
         <v>3.2759999999999997E-2</v>
       </c>
       <c r="I5" s="31">
@@ -1438,7 +1450,7 @@
       </c>
       <c r="K5" s="36">
         <f t="shared" si="0"/>
-        <v>7227.5999999999995</v>
+        <v>7238.0424000000003</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1449,77 +1461,77 @@
       </c>
       <c r="D6" s="37">
         <f>-SUM(K3:K5)</f>
-        <v>-15483.125333333333</v>
+        <v>-15505.495274666668</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="52">
-        <v>317000</v>
+      <c r="G6" s="43">
+        <v>317458</v>
       </c>
       <c r="J6" s="38"/>
       <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
+      <c r="B7" s="50"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="48" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="44">
         <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <f>B9-D3</f>
-        <v>-755.30533333333733</v>
+        <v>-756.39659466667217</v>
       </c>
       <c r="B9" s="33">
         <f>SUM($D$3:D9)</f>
-        <v>-76835.305333333337</v>
+        <v>-76946.31659466667</v>
       </c>
       <c r="C9" s="35">
         <v>46447</v>
       </c>
       <c r="D9" s="37">
         <f>G5*$G$6</f>
-        <v>10384.92</v>
+        <v>10399.924079999999</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="43">
         <f>G6+D3</f>
-        <v>240920</v>
+        <v>241268.08000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="44">
         <v>0.02</v>
       </c>
     </row>
@@ -1532,8 +1544,8 @@
         <v>46813</v>
       </c>
       <c r="D11" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" ref="D11:D27" si="1">$G$5*$G$6-$G$10*$G$9</f>
+        <v>5574.5624799999987</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
@@ -1548,8 +1560,8 @@
         <v>47178</v>
       </c>
       <c r="D12" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -1566,8 +1578,8 @@
         <v>47543</v>
       </c>
       <c r="D13" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -1576,15 +1588,15 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="47" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="35">
         <v>47908</v>
       </c>
       <c r="D14" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1593,8 +1605,8 @@
         <v>48274</v>
       </c>
       <c r="D15" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1604,8 +1616,8 @@
         <v>48639</v>
       </c>
       <c r="D16" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1615,8 +1627,8 @@
         <v>49004</v>
       </c>
       <c r="D17" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1626,8 +1638,8 @@
         <v>49369</v>
       </c>
       <c r="D18" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,8 +1649,8 @@
         <v>49735</v>
       </c>
       <c r="D19" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1648,8 +1660,8 @@
         <v>50100</v>
       </c>
       <c r="D20" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1659,8 +1671,8 @@
         <v>50465</v>
       </c>
       <c r="D21" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1670,8 +1682,8 @@
         <v>50830</v>
       </c>
       <c r="D22" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1681,8 +1693,8 @@
         <v>51196</v>
       </c>
       <c r="D23" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,8 +1704,8 @@
         <v>51561</v>
       </c>
       <c r="D24" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1703,8 +1715,8 @@
         <v>51926</v>
       </c>
       <c r="D25" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1714,8 +1726,8 @@
         <v>52291</v>
       </c>
       <c r="D26" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1727,15 +1739,15 @@
         <v>52657</v>
       </c>
       <c r="D27" s="37">
-        <f>$G$5*$G$6-$G$10*$G$9</f>
-        <v>5566.5199999999995</v>
+        <f t="shared" si="1"/>
+        <v>5574.5624799999987</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="34">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>6.3350525498390209E-2</v>
+        <v>6.3309028744697557E-2</v>
       </c>
       <c r="C28" s="35">
         <v>52657</v>
@@ -1752,6 +1764,9 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="34"/>
+      <c r="E29" s="31" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
@@ -2837,11 +2852,11 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="21">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2858,9 +2873,9 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="16">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2905,7 +2920,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="57" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="8"/>
@@ -2928,7 +2943,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H28" s="49"/>
+      <c r="H28" s="58"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2949,7 +2964,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H29" s="49"/>
+      <c r="H29" s="58"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2970,7 +2985,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H30" s="49"/>
+      <c r="H30" s="58"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2991,7 +3006,7 @@
         <f>3.391%*$K$7</f>
         <v>5099.8859725000002</v>
       </c>
-      <c r="H31" s="49"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -3014,7 +3029,7 @@
       <c r="G32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="49"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
         <v>48</v>
@@ -3041,7 +3056,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="49"/>
+      <c r="H33" s="58"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
         <v>50</v>
@@ -3069,7 +3084,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="58"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -3090,7 +3105,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="49"/>
+      <c r="H35" s="58"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -3111,7 +3126,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="49"/>
+      <c r="H36" s="58"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -3132,7 +3147,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="49"/>
+      <c r="H37" s="58"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -3153,7 +3168,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="50"/>
+      <c r="H38" s="59"/>
       <c r="I38" s="8"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060A2584-0611-404B-893E-3021A7237839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C2A5EC-4C04-42A4-88CC-4932705186DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
@@ -27,21 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>total prem</t>
   </si>
@@ -258,12 +249,6 @@
     <t xml:space="preserve">~Mar27 LIR </t>
   </si>
   <si>
-    <t>annual payout</t>
-  </si>
-  <si>
-    <t>DYOC</t>
-  </si>
-  <si>
     <t>FLI2pf xirr</t>
   </si>
   <si>
@@ -279,7 +264,19 @@
     <t>-- if 退保 --</t>
   </si>
   <si>
-    <t>Surrender bonus 17k+ after 20Y</t>
+    <t>Surrender bonus=17k+ after 20Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYOC </t>
+  </si>
+  <si>
+    <t>annual payout proj</t>
+  </si>
+  <si>
+    <t>DYOC is simpler, more direct but less unbiased than XIRR</t>
+  </si>
+  <si>
+    <t>DYOC "cost" is arbitrary.. includes down payment, assumes $0 upfront payout</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -487,12 +484,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -514,6 +509,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,424 +1355,454 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="51" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="31"/>
+    <col min="6" max="6" width="1.5703125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="32"/>
-      <c r="D2" s="37" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="47"/>
+      <c r="D2" s="50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="48">
         <v>45536</v>
       </c>
-      <c r="D3" s="37">
-        <f>-24%*G6</f>
+      <c r="D3" s="50">
+        <f>-24%*H6</f>
         <v>-76189.919999999998</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="31">
+      <c r="I3" s="33"/>
+      <c r="J3" s="31">
         <f>5/12</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="J3" s="34">
+      <c r="K3" s="33">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="K3" s="36">
-        <f>$G$9*I3*J3</f>
+      <c r="L3" s="35">
+        <f>$H$9*J3*K3</f>
         <v>2573.5261866666674</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="48">
         <v>45597</v>
       </c>
-      <c r="D4" s="37">
-        <f>G4*G6</f>
+      <c r="D4" s="50">
+        <f>H4*H6</f>
         <v>4349.1746000000003</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="G4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="44">
+      <c r="H4" s="42">
         <v>1.37E-2</v>
       </c>
-      <c r="I4" s="31">
+      <c r="J4" s="31">
         <v>1</v>
       </c>
-      <c r="J4" s="34">
+      <c r="K4" s="33">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="K4" s="36">
-        <f t="shared" ref="K4:K5" si="0">$G$9*I4*J4</f>
+      <c r="L4" s="35">
+        <f t="shared" ref="L4:L5" si="0">$H$9*J4*K4</f>
         <v>5693.9266880000005</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="F5" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="46">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="50"/>
+      <c r="G5" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="44">
         <v>3.2759999999999997E-2</v>
       </c>
-      <c r="I5" s="31">
+      <c r="J5" s="31">
         <v>1</v>
       </c>
-      <c r="J5" s="34">
-        <f>G8</f>
+      <c r="K5" s="33">
+        <f>H8</f>
         <v>0.03</v>
       </c>
-      <c r="K5" s="36">
+      <c r="L5" s="35">
         <f t="shared" si="0"/>
         <v>7238.0424000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="48">
         <v>45992</v>
       </c>
-      <c r="D6" s="37">
-        <f>-SUM(K3:K5)</f>
+      <c r="D6" s="50">
+        <f>-SUM(L3:L5)</f>
         <v>-15505.495274666668</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="G6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="43">
+      <c r="H6" s="41">
         <v>317458</v>
       </c>
-      <c r="J6" s="38"/>
       <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>74</v>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="50"/>
+      <c r="G8" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="44">
+      <c r="H8" s="42">
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
         <f>B9-D3</f>
         <v>-756.39659466667217</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <f>SUM($D$3:D9)</f>
         <v>-76946.31659466667</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="48">
         <v>46447</v>
       </c>
-      <c r="D9" s="37">
-        <f>G5*$G$6</f>
+      <c r="D9" s="50">
+        <f>H5*$H$6</f>
         <v>10399.924079999999</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="G9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="43">
-        <f>G6+D3</f>
+      <c r="H9" s="41">
+        <f>H6+D3</f>
         <v>241268.08000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="42" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="44">
+      <c r="H10" s="42">
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="39">
+        <f>-D11/$D$3</f>
+        <v>7.3166666666666658E-2</v>
+      </c>
+      <c r="C11" s="48">
         <v>46813</v>
       </c>
-      <c r="D11" s="37">
-        <f t="shared" ref="D11:D27" si="1">$G$5*$G$6-$G$10*$G$9</f>
+      <c r="D11" s="50">
+        <f t="shared" ref="D11:D27" si="1">$H$5*$H$6-$H$10*$H$9</f>
         <v>5574.5624799999987</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="41">
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="39">
         <f>-D12/$D$3</f>
         <v>7.3166666666666658E-2</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="48">
         <v>47178</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="41">
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="39">
         <f>-D13/$D$3</f>
         <v>7.3166666666666658E-2</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="48">
         <v>47543</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="35">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="39">
+        <f t="shared" ref="B14:B15" si="2">-D14/$D$3</f>
+        <v>7.3166666666666658E-2</v>
+      </c>
+      <c r="C14" s="48">
         <v>47908</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="C15" s="35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="39">
+        <f t="shared" si="2"/>
+        <v>7.3166666666666658E-2</v>
+      </c>
+      <c r="C15" s="48">
         <v>48274</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="48">
         <v>48639</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="48">
         <v>49004</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="48">
         <v>49369</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="48">
         <v>49735</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="48">
         <v>50100</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="48">
         <v>50465</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="48">
         <v>50830</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="48">
         <v>51196</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="48">
         <v>51561</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="48">
         <v>51926</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="48">
         <v>52291</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="48">
         <v>52657</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="50">
         <f t="shared" si="1"/>
         <v>5574.5624799999987</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33">
         <f>XIRR(D3:D28,C3:C28)</f>
         <v>6.3309028744697557E-2</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="48">
         <v>52657</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="50">
         <v>94080</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="E29" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2299,7 +2331,7 @@
   <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,26 +2477,27 @@
         <v>10</v>
       </c>
       <c r="K7" s="18">
-        <v>150394.75</v>
+        <f>150394.75*0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f>SUM($D$6:D8)</f>
-        <v>-86653.95</v>
+        <v>-56575</v>
       </c>
       <c r="C8" s="15">
         <v>45505</v>
       </c>
       <c r="D8" s="14">
         <f t="shared" si="0"/>
-        <v>-30078.95</v>
+        <v>0</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14">
         <f>-$K$7/5</f>
-        <v>-30078.95</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="8"/>
@@ -2478,20 +2511,20 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f>SUM($D$6:D9)</f>
-        <v>-83946.844499999992</v>
+        <v>-56575</v>
       </c>
       <c r="C9" s="15">
         <v>45566</v>
       </c>
       <c r="D9" s="14">
         <f t="shared" si="0"/>
-        <v>2707.1055000000001</v>
+        <v>0</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14">
         <f>-9%*G8</f>
-        <v>2707.1055000000001</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>23</v>
@@ -2507,7 +2540,7 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f>SUM($D$6:D10)</f>
-        <v>-134012.51116666666</v>
+        <v>-106640.66666666666</v>
       </c>
       <c r="C10" s="15">
         <v>45717</v>
@@ -2535,20 +2568,20 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f>SUM($D$6:D11)</f>
-        <v>-164091.46116666668</v>
+        <v>-106640.66666666666</v>
       </c>
       <c r="C11" s="15">
         <v>45870</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" si="0"/>
-        <v>-30078.95</v>
+        <v>0</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14">
         <f>G8</f>
-        <v>-30078.95</v>
+        <v>0</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="8"/>
@@ -2563,20 +2596,20 @@
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f>SUM($D$6:D12)</f>
-        <v>-162211.52679166666</v>
+        <v>-106640.66666666666</v>
       </c>
       <c r="C12" s="15">
         <v>45870</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>1879.9343750000007</v>
+        <v>0</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>(0.0425-0.03)*K7</f>
-        <v>1879.9343750000007</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>38</v>
@@ -2586,7 +2619,7 @@
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f>SUM($D$6:D13)</f>
-        <v>-174421.52679166666</v>
+        <v>-118850.66666666666</v>
       </c>
       <c r="C13" s="15">
         <v>45962</v>
@@ -2610,13 +2643,13 @@
       </c>
       <c r="K13" s="26">
         <f>B13</f>
-        <v>-174421.52679166666</v>
+        <v>-118850.66666666666</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f>SUM($D$6:D14)</f>
-        <v>-169948.66013166666</v>
+        <v>-114377.80000666666</v>
       </c>
       <c r="C14" s="15">
         <v>46082</v>
@@ -2646,7 +2679,7 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f>SUM($D$6:D15)</f>
-        <v>-19751.660131666664</v>
+        <v>35819.199993333343</v>
       </c>
       <c r="C15" s="15">
         <v>46082</v>
@@ -2670,26 +2703,26 @@
       </c>
       <c r="K15" s="14">
         <f>K13-K14</f>
-        <v>-174421.52679166666</v>
+        <v>-118850.66666666666</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f>SUM($D$6:D16)</f>
-        <v>-49830.610131666661</v>
+        <v>35819.199993333343</v>
       </c>
       <c r="C16" s="15">
         <v>46235</v>
       </c>
       <c r="D16" s="14">
         <f t="shared" si="0"/>
-        <v>-30078.95</v>
+        <v>0</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14">
         <f>G8</f>
-        <v>-30078.95</v>
+        <v>0</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="8"/>
@@ -2697,7 +2730,7 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f>SUM($D$6:D17)</f>
-        <v>-41805.610131666661</v>
+        <v>43844.199993333343</v>
       </c>
       <c r="C17" s="15">
         <v>46419</v>
@@ -2720,7 +2753,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f>SUM($D$6:D18)</f>
-        <v>18194.389868333339</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C18" s="15">
         <v>46419</v>
@@ -2743,20 +2776,20 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f>SUM($D$6:D19)</f>
-        <v>-11884.560131666662</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C19" s="15">
         <v>46600</v>
       </c>
       <c r="D19" s="14">
         <f t="shared" si="0"/>
-        <v>-30078.95</v>
+        <v>0</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14">
         <f>G8</f>
-        <v>-30078.95</v>
+        <v>0</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="8"/>
@@ -2764,20 +2797,20 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <f>SUM($D$6:D20)</f>
-        <v>-41963.510131666662</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C20" s="15">
         <v>46966</v>
       </c>
       <c r="D20" s="14">
         <f t="shared" si="0"/>
-        <v>-30078.95</v>
+        <v>0</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14">
         <f>G8</f>
-        <v>-30078.95</v>
+        <v>0</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="8"/>
@@ -2785,20 +2818,20 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <f>SUM($D$6:D21)</f>
-        <v>-36863.624159166662</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C21" s="15">
         <v>47331</v>
       </c>
       <c r="D21" s="14">
         <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
+        <v>0</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14">
         <f>3.391%*$K$7</f>
-        <v>5099.8859725000002</v>
+        <v>0</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>8</v>
@@ -2808,20 +2841,20 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <f>SUM($D$6:D22)</f>
-        <v>-32351.781659166663</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C22" s="15">
         <v>47331</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="0"/>
-        <v>4511.8424999999997</v>
+        <v>0</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14">
         <f>3%*K7</f>
-        <v>4511.8424999999997</v>
+        <v>0</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>36</v>
@@ -2831,20 +2864,20 @@
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="14">
         <f>SUM($D$6:D23)</f>
-        <v>118042.96834083334</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C23" s="22">
         <v>47331</v>
       </c>
       <c r="D23" s="23">
         <f t="shared" si="0"/>
-        <v>150394.75</v>
+        <v>0</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23">
         <f>K7</f>
-        <v>150394.75</v>
+        <v>0</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>43</v>
@@ -2852,11 +2885,11 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="21">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2867,15 +2900,15 @@
       </c>
       <c r="G24" s="21">
         <f>SUM(G3:G23)</f>
-        <v>14198.758347499999</v>
+        <v>-0.01</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="16">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2883,10 +2916,7 @@
       <c r="F25" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="16">
-        <f>XIRR($G$3:G23,$C$3:C23)</f>
-        <v>3.1607601046562198E-2</v>
-      </c>
+      <c r="G25" s="16"/>
       <c r="H25" s="12"/>
       <c r="I25" s="8"/>
     </row>
@@ -2905,22 +2935,22 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <f>SUM($D$6:D27)</f>
-        <v>123142.85431333334</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C27" s="15">
         <v>47696</v>
       </c>
       <c r="D27" s="14">
         <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
+        <v>0</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14">
         <f>3.391%*$K$7</f>
-        <v>5099.8859725000002</v>
-      </c>
-      <c r="H27" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="60" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="8"/>
@@ -2928,91 +2958,91 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <f>SUM($D$6:D28)</f>
-        <v>128242.74028583334</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C28" s="15">
         <v>48061</v>
       </c>
       <c r="D28" s="14">
         <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
+        <v>0</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14">
         <f>3.391%*$K$7</f>
-        <v>5099.8859725000002</v>
-      </c>
-      <c r="H28" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="61"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <f>SUM($D$6:D29)</f>
-        <v>133342.62625833333</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C29" s="15">
         <v>48427</v>
       </c>
       <c r="D29" s="14">
         <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
+        <v>0</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
         <f>3.391%*$K$7</f>
-        <v>5099.8859725000002</v>
-      </c>
-      <c r="H29" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="61"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <f>SUM($D$6:D30)</f>
-        <v>138442.51223083332</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C30" s="15">
         <v>48792</v>
       </c>
       <c r="D30" s="14">
         <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
+        <v>0</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14">
         <f>3.391%*$K$7</f>
-        <v>5099.8859725000002</v>
-      </c>
-      <c r="H30" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="61"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <f>SUM($D$6:D31)</f>
-        <v>143542.39820333332</v>
+        <v>103844.19999333334</v>
       </c>
       <c r="C31" s="15">
         <v>49157</v>
       </c>
       <c r="D31" s="14">
         <f t="shared" si="0"/>
-        <v>5099.8859725000002</v>
+        <v>0</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14">
         <f>3.391%*$K$7</f>
-        <v>5099.8859725000002</v>
-      </c>
-      <c r="H31" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="61"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <f>SUM($D$6:D32)</f>
-        <v>146817.39820333332</v>
+        <v>107119.19999333334</v>
       </c>
       <c r="C32" s="13">
         <v>46784</v>
@@ -3029,7 +3059,7 @@
       <c r="G32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="58"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
         <v>48</v>
@@ -3041,7 +3071,7 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <f>SUM($D$6:D33)</f>
-        <v>150092.39820333332</v>
+        <v>110394.19999333334</v>
       </c>
       <c r="C33" s="13">
         <v>47150</v>
@@ -3056,7 +3086,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="58"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
         <v>50</v>
@@ -3069,7 +3099,7 @@
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <f>SUM($D$6:D34)</f>
-        <v>153367.39820333332</v>
+        <v>113669.19999333334</v>
       </c>
       <c r="C34" s="13">
         <v>47515</v>
@@ -3084,13 +3114,13 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="58"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <f>SUM($D$6:D35)</f>
-        <v>156642.39820333332</v>
+        <v>116944.19999333334</v>
       </c>
       <c r="C35" s="13">
         <v>47880</v>
@@ -3105,13 +3135,13 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="58"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <f>SUM($D$6:D36)</f>
-        <v>159917.39820333332</v>
+        <v>120219.19999333334</v>
       </c>
       <c r="C36" s="13">
         <v>48245</v>
@@ -3126,13 +3156,13 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="58"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <f>SUM($D$6:D37)</f>
-        <v>163192.39820333332</v>
+        <v>123494.19999333334</v>
       </c>
       <c r="C37" s="13">
         <v>48611</v>
@@ -3147,13 +3177,13 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="58"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <f>SUM($D$6:D38)</f>
-        <v>166467.39820333332</v>
+        <v>126769.19999333334</v>
       </c>
       <c r="C38" s="13">
         <v>48976</v>
@@ -3168,7 +3198,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="59"/>
+      <c r="H38" s="62"/>
       <c r="I38" s="8"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C2A5EC-4C04-42A4-88CC-4932705186DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08F8DB-6D97-4F91-A1CC-D9D4726BD860}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="2610" yWindow="3735" windowWidth="16185" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>FLI2PF down payment</t>
   </si>
   <si>
-    <t xml:space="preserve">~Mar27 LIR </t>
-  </si>
-  <si>
     <t>FLI2pf xirr</t>
   </si>
   <si>
@@ -276,7 +273,10 @@
     <t>DYOC is simpler, more direct but less unbiased than XIRR</t>
   </si>
   <si>
-    <t>DYOC "cost" is arbitrary.. includes down payment, assumes $0 upfront payout</t>
+    <t>final 6M COF+45bp</t>
+  </si>
+  <si>
+    <t>DYOC "cost" calc is arbitrary.. includes down payment, assumes $0 upfront payout</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1358,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,15 +1394,15 @@
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="31">
-        <f>5/12</f>
-        <v>0.41666666666666669</v>
+        <f>11/12</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="K3" s="33">
-        <v>2.5600000000000001E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="L3" s="35">
         <f>$H$9*J3*K3</f>
-        <v>2573.5261866666674</v>
+        <v>5595.4088886666668</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1428,11 +1428,11 @@
         <v>1</v>
       </c>
       <c r="K4" s="33">
-        <v>2.3599999999999999E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="L4" s="35">
         <f t="shared" ref="L4:L5" si="0">$H$9*J4*K4</f>
-        <v>5693.9266880000005</v>
+        <v>5621.5462640000005</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1441,13 +1441,14 @@
       <c r="C5" s="48"/>
       <c r="D5" s="50"/>
       <c r="G5" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="44">
         <v>3.2759999999999997E-2</v>
       </c>
       <c r="J5" s="31">
-        <v>1</v>
+        <f>6/12</f>
+        <v>0.5</v>
       </c>
       <c r="K5" s="33">
         <f>H8</f>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="L5" s="35">
         <f t="shared" si="0"/>
-        <v>7238.0424000000003</v>
+        <v>3619.0212000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1466,7 +1467,7 @@
       </c>
       <c r="D6" s="50">
         <f>-SUM(L3:L5)</f>
-        <v>-15505.495274666668</v>
+        <v>-14835.976352666668</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>67</v>
@@ -1482,7 +1483,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="48"/>
@@ -1492,15 +1493,15 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>73</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="50"/>
       <c r="G8" s="40" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H8" s="42">
         <v>0.03</v>
@@ -1509,11 +1510,11 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <f>B9-D3</f>
-        <v>-756.39659466667217</v>
+        <v>-86.877672666669241</v>
       </c>
       <c r="B9" s="32">
         <f>SUM($D$3:D9)</f>
-        <v>-76946.31659466667</v>
+        <v>-76276.797672666667</v>
       </c>
       <c r="C9" s="48">
         <v>46447</v>
@@ -1536,7 +1537,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="50"/>
@@ -1632,7 +1633,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="48">
         <v>48639</v>
@@ -1755,7 +1756,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="48">
         <v>52657</v>
@@ -1769,7 +1770,7 @@
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>6.3309028744697557E-2</v>
+        <v>6.3939067721366857E-2</v>
       </c>
       <c r="C28" s="48">
         <v>52657</v>
@@ -1778,7 +1779,7 @@
         <v>94080</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -1796,7 +1797,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08F8DB-6D97-4F91-A1CC-D9D4726BD860}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAE6B36-DF87-4787-A419-D951485EFD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="3735" windowWidth="16185" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
@@ -27,6 +27,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -237,9 +246,6 @@
     <t>FWD xirr</t>
   </si>
   <si>
-    <t>29M int cost</t>
-  </si>
-  <si>
     <t>surrender FLI2PF #317k to wipe out loan</t>
   </si>
   <si>
@@ -277,6 +283,9 @@
   </si>
   <si>
     <t>DYOC "cost" calc is arbitrary.. includes down payment, assumes $0 upfront payout</t>
+  </si>
+  <si>
+    <t>27M int cost</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1367,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,33 +1392,33 @@
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="48">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="D3" s="50">
         <f>-24%*H6</f>
         <v>-76189.919999999998</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="31">
-        <f>11/12</f>
-        <v>0.91666666666666663</v>
+        <f>9/12</f>
+        <v>0.75</v>
       </c>
       <c r="K3" s="33">
         <v>2.53E-2</v>
       </c>
       <c r="L3" s="35">
         <f>$H$9*J3*K3</f>
-        <v>5595.4088886666668</v>
+        <v>4578.0618180000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="48">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="D4" s="50">
         <f>H4*H6</f>
@@ -1441,7 +1450,7 @@
       <c r="C5" s="48"/>
       <c r="D5" s="50"/>
       <c r="G5" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="44">
         <v>3.2759999999999997E-2</v>
@@ -1463,14 +1472,14 @@
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="48">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="D6" s="50">
         <f>-SUM(L3:L5)</f>
-        <v>-14835.976352666668</v>
+        <v>-13818.629282000002</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>13</v>
@@ -1483,7 +1492,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="48"/>
@@ -1493,15 +1502,15 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>71</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>72</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="50"/>
       <c r="G8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" s="42">
         <v>0.03</v>
@@ -1510,11 +1519,11 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <f>B9-D3</f>
-        <v>-86.877672666669241</v>
+        <v>930.46939800000109</v>
       </c>
       <c r="B9" s="32">
         <f>SUM($D$3:D9)</f>
-        <v>-76276.797672666667</v>
+        <v>-75259.450601999997</v>
       </c>
       <c r="C9" s="48">
         <v>46447</v>
@@ -1537,7 +1546,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="50"/>
@@ -1633,7 +1642,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="48">
         <v>48639</v>
@@ -1756,7 +1765,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="48">
         <v>52657</v>
@@ -1770,7 +1779,7 @@
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>6.3939067721366857E-2</v>
+        <v>6.5772846341133132E-2</v>
       </c>
       <c r="C28" s="48">
         <v>52657</v>
@@ -1779,7 +1788,7 @@
         <v>94080</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -1791,18 +1800,18 @@
       <c r="C29" s="48"/>
       <c r="D29" s="50"/>
       <c r="E29" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAE6B36-DF87-4787-A419-D951485EFD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D405AAAD-DF27-48C9-8428-8BAD22DD3751}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
@@ -27,21 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>total prem</t>
   </si>
@@ -286,6 +277,9 @@
   </si>
   <si>
     <t>27M int cost</t>
+  </si>
+  <si>
+    <t>total prem#portal</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1361,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1476,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="H6" s="41">
         <v>317458</v>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D405AAAD-DF27-48C9-8428-8BAD22DD3751}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B30C2F-768B-42D6-AF09-29F0D10C4F99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>total prem</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>total prem#portal</t>
+  </si>
+  <si>
+    <t>first payout #illustration</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1364,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1373,7 @@
     <col min="2" max="2" width="10" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.5703125" style="31" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="31"/>
@@ -1447,7 +1450,8 @@
         <v>76</v>
       </c>
       <c r="H5" s="44">
-        <v>3.2759999999999997E-2</v>
+        <f>D9/H6</f>
+        <v>3.2760239149745796E-2</v>
       </c>
       <c r="J5" s="31">
         <f>6/12</f>
@@ -1513,21 +1517,20 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <f>B9-D3</f>
-        <v>930.46939800000109</v>
+        <v>930.54531800000404</v>
       </c>
       <c r="B9" s="32">
         <f>SUM($D$3:D9)</f>
-        <v>-75259.450601999997</v>
+        <v>-75259.374681999994</v>
       </c>
       <c r="C9" s="48">
         <v>46447</v>
       </c>
       <c r="D9" s="50">
-        <f>H5*$H$6</f>
-        <v>10399.924079999999</v>
+        <v>10400</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>21</v>
@@ -1557,14 +1560,14 @@
       <c r="A11" s="32"/>
       <c r="B11" s="39">
         <f>-D11/$D$3</f>
-        <v>7.3166666666666658E-2</v>
+        <v>7.316766312394081E-2</v>
       </c>
       <c r="C11" s="48">
         <v>46813</v>
       </c>
       <c r="D11" s="50">
-        <f t="shared" ref="D11:D27" si="1">$H$5*$H$6-$H$10*$H$9</f>
-        <v>5574.5624799999987</v>
+        <f>10400-$H$10*$H$9</f>
+        <v>5574.6383999999998</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -1573,14 +1576,14 @@
       <c r="A12" s="32"/>
       <c r="B12" s="39">
         <f>-D12/$D$3</f>
-        <v>7.3166666666666658E-2</v>
+        <v>7.316766312394081E-2</v>
       </c>
       <c r="C12" s="48">
         <v>47178</v>
       </c>
       <c r="D12" s="50">
-        <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <f t="shared" ref="D12:D27" si="1">10400-$H$10*$H$9</f>
+        <v>5574.6383999999998</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
@@ -1591,14 +1594,14 @@
       <c r="A13" s="32"/>
       <c r="B13" s="39">
         <f>-D13/$D$3</f>
-        <v>7.3166666666666658E-2</v>
+        <v>7.316766312394081E-2</v>
       </c>
       <c r="C13" s="48">
         <v>47543</v>
       </c>
       <c r="D13" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -1609,28 +1612,28 @@
       <c r="A14" s="32"/>
       <c r="B14" s="39">
         <f t="shared" ref="B14:B15" si="2">-D14/$D$3</f>
-        <v>7.3166666666666658E-2</v>
+        <v>7.316766312394081E-2</v>
       </c>
       <c r="C14" s="48">
         <v>47908</v>
       </c>
       <c r="D14" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="39">
         <f t="shared" si="2"/>
-        <v>7.3166666666666658E-2</v>
+        <v>7.316766312394081E-2</v>
       </c>
       <c r="C15" s="48">
         <v>48274</v>
       </c>
       <c r="D15" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1643,7 +1646,7 @@
       </c>
       <c r="D16" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,7 +1657,7 @@
       </c>
       <c r="D17" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1665,7 +1668,7 @@
       </c>
       <c r="D18" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1676,7 +1679,7 @@
       </c>
       <c r="D19" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1687,7 +1690,7 @@
       </c>
       <c r="D20" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1698,7 +1701,7 @@
       </c>
       <c r="D21" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,7 +1712,7 @@
       </c>
       <c r="D22" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1720,7 +1723,7 @@
       </c>
       <c r="D23" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1731,7 +1734,7 @@
       </c>
       <c r="D24" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1742,7 +1745,7 @@
       </c>
       <c r="D25" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1753,7 +1756,7 @@
       </c>
       <c r="D26" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1766,14 +1769,14 @@
       </c>
       <c r="D27" s="50">
         <f t="shared" si="1"/>
-        <v>5574.5624799999987</v>
+        <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>6.5772846341133132E-2</v>
+        <v>6.5773609280586245E-2</v>
       </c>
       <c r="C28" s="48">
         <v>52657</v>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B79350-C3C3-412E-BAF0-B7DABBBDAF01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D51EF8-2363-47B4-828D-2D12B606A09D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fli2pm 200k" sheetId="6" state="hidden" r:id="rId1"/>
-    <sheet name="FWD" sheetId="8" r:id="rId2"/>
-    <sheet name="overlap ptf" sheetId="4" r:id="rId3"/>
-    <sheet name="FLI2" sheetId="1" r:id="rId4"/>
-    <sheet name="FLI2PF" sheetId="5" r:id="rId5"/>
-    <sheet name="xirr test" sheetId="3" r:id="rId6"/>
-    <sheet name="LTIS" sheetId="2" state="hidden" r:id="rId7"/>
-    <sheet name="Taiping" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="Fli2pf 200k" sheetId="6" state="hidden" r:id="rId1"/>
+    <sheet name="FWD41" sheetId="10" r:id="rId2"/>
+    <sheet name="FWD300" sheetId="9" r:id="rId3"/>
+    <sheet name="FWD317" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="FLI2" sheetId="1" r:id="rId6"/>
+    <sheet name="FLI2PF" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId8"/>
+    <sheet name="LTIS" sheetId="2" state="hidden" r:id="rId9"/>
+    <sheet name="Taiping" sheetId="7" state="hidden" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>total prem</t>
   </si>
@@ -270,10 +272,28 @@
     <t>first payout #illustration</t>
   </si>
   <si>
-    <t>surrender FWD #xxx to wipe out loan</t>
-  </si>
-  <si>
     <t xml:space="preserve">final 1Y+  LIR </t>
+  </si>
+  <si>
+    <t>&lt; COF+0.4% spread</t>
+  </si>
+  <si>
+    <t>&lt; actually spread out over 12M after</t>
+  </si>
+  <si>
+    <t>surrender FWD 317k to wipe out loan</t>
+  </si>
+  <si>
+    <t>&lt;- 3.38% for first 24 payout years</t>
+  </si>
+  <si>
+    <t>surrender FWD to wipe out loan</t>
+  </si>
+  <si>
+    <t>FWD300k is more prudent, in terms of worst-case PnL, monthly loan int</t>
+  </si>
+  <si>
+    <t>FWD41 can absorb more of my spare cash (welcome) but what if I need more liquidity later?</t>
   </si>
 </sst>
 </file>
@@ -440,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -513,6 +533,15 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,9 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1353,12 +1380,1457 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B0C8CF-8E7A-4ADA-A831-33688E2F8CF5}">
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>SUM($D$2:D3)</f>
+        <v>-24000</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <v>45505</v>
+      </c>
+      <c r="D3" s="20">
+        <f>-$G$3/5</f>
+        <v>-24000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>SUM($D$2:D4)</f>
+        <v>-23640</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>45566</v>
+      </c>
+      <c r="D4" s="20">
+        <v>360</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>SUM($D$2:D5)</f>
+        <v>-47640</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3">
+        <v>45870</v>
+      </c>
+      <c r="D5" s="20">
+        <f>-$G$3/5</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>SUM($D$2:D6)</f>
+        <v>-45240</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>45689</v>
+      </c>
+      <c r="D6" s="20">
+        <f>2.4%*100000</f>
+        <v>2400</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>SUM($D$2:D7)</f>
+        <v>-69240</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
+        <v>46235</v>
+      </c>
+      <c r="D7" s="20">
+        <f>-$G$3/5</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>SUM($D$2:D8)</f>
+        <v>-93240</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3">
+        <v>46600</v>
+      </c>
+      <c r="D8" s="20">
+        <f>-$G$3/5</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>SUM($D$2:D9)</f>
+        <v>-117240</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>46966</v>
+      </c>
+      <c r="D9" s="20">
+        <f>-$G$3/5</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>SUM($D$2:D11)</f>
+        <v>-113160</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D11" s="20">
+        <f>$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>SUM($D$2:D12)</f>
+        <v>7440</v>
+      </c>
+      <c r="B12" s="2">
+        <f>XIRR($D$3:D12,$C$3:C12)</f>
+        <v>2.0815828442573552E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>47331</v>
+      </c>
+      <c r="D12" s="20">
+        <f>$G$3+600</f>
+        <v>120600</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>SUM($D$2:D14)</f>
+        <v>11520</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
+        <v>47696</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14:D28" si="0">$G$3*0.034</f>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM($D$2:D15)</f>
+        <v>15600</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
+        <v>48061</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>SUM($D$2:D16)</f>
+        <v>19680</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3">
+        <v>48427</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>SUM($D$2:D17)</f>
+        <v>23760</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>48792</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>SUM($D$2:D18)</f>
+        <v>27840</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3">
+        <v>49157</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>SUM($D$2:D19)</f>
+        <v>31920</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>49522</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>SUM($D$2:D20)</f>
+        <v>36000</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>49888</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>SUM($D$2:D21)</f>
+        <v>40080</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>50253</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM($D$2:D22)</f>
+        <v>44160</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
+        <v>50618</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>SUM($D$2:D23)</f>
+        <v>48240</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <v>50983</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>SUM($D$2:D24)</f>
+        <v>52320</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3">
+        <v>51349</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>SUM($D$2:D25)</f>
+        <v>56400</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <v>51714</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM($D$2:D26)</f>
+        <v>60480</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3">
+        <v>52079</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f>SUM($D$2:D27)</f>
+        <v>64560</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3">
+        <v>52444</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f>SUM($D$2:D28)</f>
+        <v>68640</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="0"/>
+        <v>4080.0000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f>SUM($D$2:D29)</f>
+        <v>72240</v>
+      </c>
+      <c r="C29" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D29" s="20">
+        <f>$G$3*3%</f>
+        <v>3600</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f>SUM($D$2:D30)</f>
+        <v>192240</v>
+      </c>
+      <c r="B30" s="24">
+        <f>IF(0=D12,XIRR(D3:D30,C3:C30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>52810</v>
+      </c>
+      <c r="D30" s="20">
+        <f>$G$3</f>
+        <v>120000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B645DB8D-88AD-45FA-A854-BC1C8DC366C2}">
+  <dimension ref="A2:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="15"/>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="52">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="13">
+        <v>45597</v>
+      </c>
+      <c r="D3" s="14">
+        <f>-24%*G2</f>
+        <v>-98400</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="13">
+        <v>45689</v>
+      </c>
+      <c r="D4" s="53">
+        <f>G3*G2</f>
+        <v>8200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="55">
+        <v>3.3799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="I5">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K5" s="20">
+        <f>$G$6*I5*J5</f>
+        <v>5912.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="13">
+        <v>46174</v>
+      </c>
+      <c r="D6" s="54">
+        <f>-K8</f>
+        <v>-24078.89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="52">
+        <f>G2+D3</f>
+        <v>311600</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K6" s="20">
+        <f>$G$6*I6*J6</f>
+        <v>7260.2800000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="I7">
+        <f>14/12</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="J7" s="2">
+        <f>G5</f>
+        <v>0.03</v>
+      </c>
+      <c r="K7" s="20">
+        <f>$G$6*I7*J7</f>
+        <v>10906</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="13">
+        <v>46692</v>
+      </c>
+      <c r="D8" s="54">
+        <f>G4*$G$2</f>
+        <v>13857.999999999998</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="20">
+        <f>SUM(K5:K7)</f>
+        <v>24078.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>SUM($D$3:D9)</f>
+        <v>-100420.89</v>
+      </c>
+      <c r="B9" s="5">
+        <f>A9-D3</f>
+        <v>-2020.8899999999994</v>
+      </c>
+      <c r="C9" s="13">
+        <v>46692</v>
+      </c>
+      <c r="D9" s="54">
+        <f>-$D$3*0</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>SUM($D$3:D11)</f>
+        <v>-92794.89</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="13">
+        <v>47058</v>
+      </c>
+      <c r="D11" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>SUM($D$3:D12)</f>
+        <v>-85168.89</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="13">
+        <v>47423</v>
+      </c>
+      <c r="D12" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>SUM($D$3:D13)</f>
+        <v>-77542.89</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="13">
+        <v>47788</v>
+      </c>
+      <c r="D13" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>SUM($D$3:D14)</f>
+        <v>-69916.89</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13">
+        <v>48153</v>
+      </c>
+      <c r="D14" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM($D$3:D15)</f>
+        <v>-62290.89</v>
+      </c>
+      <c r="B15" s="30">
+        <f>-D15/D3</f>
+        <v>7.7499999999999986E-2</v>
+      </c>
+      <c r="C15" s="13">
+        <v>48519</v>
+      </c>
+      <c r="D15" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>SUM($D$3:D16)</f>
+        <v>-54664.89</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="13">
+        <v>48884</v>
+      </c>
+      <c r="D16" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>SUM($D$3:D17)</f>
+        <v>-47038.89</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="13">
+        <v>49249</v>
+      </c>
+      <c r="D17" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>SUM($D$3:D18)</f>
+        <v>-39412.89</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="13">
+        <v>49614</v>
+      </c>
+      <c r="D18" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>SUM($D$3:D19)</f>
+        <v>-31786.89</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="13">
+        <v>49980</v>
+      </c>
+      <c r="D19" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>SUM($D$3:D20)</f>
+        <v>-24160.89</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="13">
+        <v>50345</v>
+      </c>
+      <c r="D20" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>SUM($D$3:D21)</f>
+        <v>-16534.89</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="13">
+        <v>50710</v>
+      </c>
+      <c r="D21" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM($D$3:D22)</f>
+        <v>-8908.8900000000012</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="13">
+        <v>51075</v>
+      </c>
+      <c r="D22" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>SUM($D$3:D23)</f>
+        <v>-1282.8900000000031</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="13">
+        <v>51441</v>
+      </c>
+      <c r="D23" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>SUM($D$3:D24)</f>
+        <v>6343.1099999999951</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="13">
+        <v>51806</v>
+      </c>
+      <c r="D24" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>SUM($D$3:D25)</f>
+        <v>13969.109999999993</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="13">
+        <v>52171</v>
+      </c>
+      <c r="D25" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM($D$3:D26)</f>
+        <v>21595.109999999993</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="13">
+        <v>52536</v>
+      </c>
+      <c r="D26" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f>SUM($D$3:D27)</f>
+        <v>29221.109999999993</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="13">
+        <v>52902</v>
+      </c>
+      <c r="D27" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f>SUM($D$3:D28)</f>
+        <v>127621.10999999999</v>
+      </c>
+      <c r="B28" s="2">
+        <f>XIRR(D3:D28,C3:C28)</f>
+        <v>5.6375792622566229E-2</v>
+      </c>
+      <c r="C28" s="13">
+        <v>53267</v>
+      </c>
+      <c r="D28" s="54">
+        <f>-D3</f>
+        <v>98400</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f>E9</f>
+        <v>surrender FWD to wipe out loan</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE92DED-8F26-4A65-8C24-604F3A0DE6B0}">
+  <dimension ref="A2:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="15"/>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="52">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="13">
+        <v>45597</v>
+      </c>
+      <c r="D3" s="14">
+        <f>-24%*G2</f>
+        <v>-72000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="56">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="13">
+        <v>45689</v>
+      </c>
+      <c r="D4" s="53">
+        <f>G3*G2</f>
+        <v>5610</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="55">
+        <v>3.3799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="I5">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K5" s="20">
+        <f>$G$6*I5*J5</f>
+        <v>4326.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="13">
+        <v>46174</v>
+      </c>
+      <c r="D6" s="54">
+        <f>-K8</f>
+        <v>-17618.7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="52">
+        <f>G2+D3</f>
+        <v>228000</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K6" s="20">
+        <f>$G$6*I6*J6</f>
+        <v>5312.4000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="I7">
+        <f>14/12</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="J7" s="2">
+        <f>G5</f>
+        <v>0.03</v>
+      </c>
+      <c r="K7" s="20">
+        <f>$G$6*I7*J7</f>
+        <v>7980</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="13">
+        <v>46692</v>
+      </c>
+      <c r="D8" s="54">
+        <f>G4*$G$2</f>
+        <v>10139.999999999998</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="20">
+        <f>SUM(K5:K7)</f>
+        <v>17618.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>SUM($D$3:D9)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="B9" s="5">
+        <f>A9-D3</f>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="C9" s="13">
+        <v>46692</v>
+      </c>
+      <c r="D9" s="54">
+        <f>-$D$3*0</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>SUM($D$3:D11)</f>
+        <v>-68288.7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="13">
+        <v>47058</v>
+      </c>
+      <c r="D11" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>SUM($D$3:D12)</f>
+        <v>-62708.7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="13">
+        <v>47423</v>
+      </c>
+      <c r="D12" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>SUM($D$3:D13)</f>
+        <v>-57128.7</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="13">
+        <v>47788</v>
+      </c>
+      <c r="D13" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>SUM($D$3:D14)</f>
+        <v>-51548.7</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13">
+        <v>48153</v>
+      </c>
+      <c r="D14" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM($D$3:D15)</f>
+        <v>-45968.7</v>
+      </c>
+      <c r="B15" s="30">
+        <f>-D15/D3</f>
+        <v>7.7499999999999972E-2</v>
+      </c>
+      <c r="C15" s="13">
+        <v>48519</v>
+      </c>
+      <c r="D15" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>SUM($D$3:D16)</f>
+        <v>-40388.699999999997</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="13">
+        <v>48884</v>
+      </c>
+      <c r="D16" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>SUM($D$3:D17)</f>
+        <v>-34808.699999999997</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="13">
+        <v>49249</v>
+      </c>
+      <c r="D17" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>SUM($D$3:D18)</f>
+        <v>-29228.699999999997</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="13">
+        <v>49614</v>
+      </c>
+      <c r="D18" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>SUM($D$3:D19)</f>
+        <v>-23648.699999999997</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="13">
+        <v>49980</v>
+      </c>
+      <c r="D19" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>SUM($D$3:D20)</f>
+        <v>-18068.699999999997</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="13">
+        <v>50345</v>
+      </c>
+      <c r="D20" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>SUM($D$3:D21)</f>
+        <v>-12488.699999999999</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="13">
+        <v>50710</v>
+      </c>
+      <c r="D21" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM($D$3:D22)</f>
+        <v>-6908.7000000000007</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="13">
+        <v>51075</v>
+      </c>
+      <c r="D22" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>SUM($D$3:D23)</f>
+        <v>-1328.7000000000025</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="13">
+        <v>51441</v>
+      </c>
+      <c r="D23" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>SUM($D$3:D24)</f>
+        <v>4251.2999999999956</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="13">
+        <v>51806</v>
+      </c>
+      <c r="D24" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>SUM($D$3:D25)</f>
+        <v>9831.2999999999938</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="13">
+        <v>52171</v>
+      </c>
+      <c r="D25" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM($D$3:D26)</f>
+        <v>15411.299999999992</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="13">
+        <v>52536</v>
+      </c>
+      <c r="D26" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f>SUM($D$3:D27)</f>
+        <v>20991.299999999988</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="13">
+        <v>52902</v>
+      </c>
+      <c r="D27" s="54">
+        <f>$G$4*$G$2-$G$7*$G$6</f>
+        <v>5579.9999999999982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f>SUM($D$3:D28)</f>
+        <v>92991.299999999988</v>
+      </c>
+      <c r="B28" s="2">
+        <f>XIRR(D3:D28,C3:C28)</f>
+        <v>5.5980500578880307E-2</v>
+      </c>
+      <c r="C28" s="13">
+        <v>53267</v>
+      </c>
+      <c r="D28" s="54">
+        <f>-D3</f>
+        <v>72000</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f>E9</f>
+        <v>surrender FWD to wipe out loan</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7850-337E-4794-9D5F-A7B4C9250F19}">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,17 +2845,17 @@
     <col min="11" max="11" width="6" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" s="15"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="13">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="D3" s="14">
         <v>-77000</v>
@@ -1394,7 +2866,7 @@
       <c r="F3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="52">
         <v>317000</v>
       </c>
       <c r="I3">
@@ -1408,21 +2880,21 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="13">
-        <v>45597</v>
-      </c>
-      <c r="D4" s="64">
+        <v>45689</v>
+      </c>
+      <c r="D4" s="53">
         <f>G7*G3</f>
-        <v>4342.9000000000005</v>
+        <v>5927.9000000000005</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="16">
         <v>0.03</v>
@@ -1438,7 +2910,7 @@
         <v>5592</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="13"/>
@@ -1446,13 +2918,13 @@
       <c r="F5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="52">
         <f>G3+D3</f>
         <v>240000</v>
       </c>
       <c r="I5">
-        <f>3-I4-I3</f>
-        <v>1.25</v>
+        <f>14/12</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="J5" s="2">
         <f>G4</f>
@@ -1460,18 +2932,21 @@
       </c>
       <c r="K5" s="20">
         <f>$G$5*I5*J5</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8400</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="2"/>
       <c r="C6" s="13">
-        <v>46082</v>
-      </c>
-      <c r="D6" s="65">
+        <v>46174</v>
+      </c>
+      <c r="D6" s="54">
         <f>-K6</f>
-        <v>-19146</v>
+        <v>-18546</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -1485,24 +2960,24 @@
       <c r="J6" s="11"/>
       <c r="K6" s="20">
         <f>SUM(K3:K5)</f>
-        <v>19146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+        <v>18546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="13"/>
       <c r="D7" s="12"/>
       <c r="F7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="16">
-        <v>1.37E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>66</v>
       </c>
@@ -1510,9 +2985,9 @@
         <v>65</v>
       </c>
       <c r="C8" s="13">
-        <v>46722</v>
-      </c>
-      <c r="D8" s="65">
+        <v>46692</v>
+      </c>
+      <c r="D8" s="54">
         <f>3.38%*$G$3</f>
         <v>10714.599999999999</v>
       </c>
@@ -1522,59 +2997,62 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>SUM($D$3:D9)</f>
-        <v>-81088.5</v>
+        <v>-78903.5</v>
       </c>
       <c r="B9" s="5">
         <f>A9-D3</f>
-        <v>-4088.5</v>
+        <v>-1903.5</v>
       </c>
       <c r="C9" s="13">
-        <v>46722</v>
-      </c>
-      <c r="D9" s="65">
+        <v>46692</v>
+      </c>
+      <c r="D9" s="54">
         <f>-$D$3*0</f>
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="65"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>-75173.899999999994</v>
+        <v>-72988.899999999994</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="13">
-        <v>47088</v>
-      </c>
-      <c r="D11" s="65">
+        <v>47058</v>
+      </c>
+      <c r="D11" s="54">
         <f>3.38%*$G$3-$G$6*$G$5</f>
         <v>5914.5999999999985</v>
       </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-69259.299999999988</v>
+        <v>-67074.299999999988</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="13">
-        <v>47453</v>
-      </c>
-      <c r="D12" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>47423</v>
+      </c>
+      <c r="D12" s="54">
+        <f t="shared" ref="D12:D27" si="0">3.38%*$G$3-$G$6*$G$5</f>
         <v>5914.5999999999985</v>
       </c>
       <c r="F12" s="8"/>
@@ -1582,224 +3060,224 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>-63344.69999999999</v>
+        <v>-61159.69999999999</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="13">
-        <v>47818</v>
-      </c>
-      <c r="D13" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>47788</v>
+      </c>
+      <c r="D13" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>-57430.099999999991</v>
+        <v>-55245.099999999991</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="13">
-        <v>48183</v>
-      </c>
-      <c r="D14" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>48153</v>
+      </c>
+      <c r="D14" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>-51515.499999999993</v>
+        <v>-49330.499999999993</v>
       </c>
       <c r="B15" s="30">
         <f>-D15/D3</f>
         <v>7.6812987012987E-2</v>
       </c>
       <c r="C15" s="13">
-        <v>48549</v>
-      </c>
-      <c r="D15" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>48519</v>
+      </c>
+      <c r="D15" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>-45600.899999999994</v>
+        <v>-43415.899999999994</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="13">
-        <v>48914</v>
-      </c>
-      <c r="D16" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>48884</v>
+      </c>
+      <c r="D16" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>-39686.299999999996</v>
+        <v>-37501.299999999996</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="13">
-        <v>49279</v>
-      </c>
-      <c r="D17" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>49249</v>
+      </c>
+      <c r="D17" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>-33771.699999999997</v>
+        <v>-31586.699999999997</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="13">
-        <v>49644</v>
-      </c>
-      <c r="D18" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>49614</v>
+      </c>
+      <c r="D18" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>-27857.1</v>
+        <v>-25672.1</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="13">
-        <v>50010</v>
-      </c>
-      <c r="D19" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>49980</v>
+      </c>
+      <c r="D19" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>-21942.5</v>
+        <v>-19757.5</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="13">
-        <v>50375</v>
-      </c>
-      <c r="D20" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>50345</v>
+      </c>
+      <c r="D20" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>-16027.900000000001</v>
+        <v>-13842.900000000001</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="13">
-        <v>50740</v>
-      </c>
-      <c r="D21" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>50710</v>
+      </c>
+      <c r="D21" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>-10113.300000000003</v>
+        <v>-7928.3000000000029</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="13">
-        <v>51105</v>
-      </c>
-      <c r="D22" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>51075</v>
+      </c>
+      <c r="D22" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>-4198.7000000000044</v>
+        <v>-2013.7000000000044</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="13">
-        <v>51471</v>
-      </c>
-      <c r="D23" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>51441</v>
+      </c>
+      <c r="D23" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>1715.8999999999942</v>
+        <v>3900.8999999999942</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="13">
-        <v>51836</v>
-      </c>
-      <c r="D24" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>51806</v>
+      </c>
+      <c r="D24" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>7630.4999999999927</v>
+        <v>9815.4999999999927</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="13">
-        <v>52201</v>
-      </c>
-      <c r="D25" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>52171</v>
+      </c>
+      <c r="D25" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>13545.099999999991</v>
+        <v>15730.099999999991</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="13">
-        <v>52566</v>
-      </c>
-      <c r="D26" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>52536</v>
+      </c>
+      <c r="D26" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>19459.69999999999</v>
+        <v>21644.69999999999</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="13">
-        <v>52932</v>
-      </c>
-      <c r="D27" s="65">
-        <f>3.38%*$G$3-$G$6*$G$5</f>
+        <v>52902</v>
+      </c>
+      <c r="D27" s="54">
+        <f t="shared" si="0"/>
         <v>5914.5999999999985</v>
       </c>
       <c r="F27" s="6"/>
@@ -1808,22 +3286,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>96459.699999999983</v>
+        <v>98644.699999999983</v>
       </c>
       <c r="B28" s="2">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>5.2494964003562933E-2</v>
+        <v>5.5603161454200745E-2</v>
       </c>
       <c r="C28" s="13">
-        <v>53297</v>
-      </c>
-      <c r="D28" s="65">
+        <v>53267</v>
+      </c>
+      <c r="D28" s="54">
         <f>-D3</f>
         <v>77000</v>
       </c>
       <c r="E28" s="6" t="str">
         <f>E9</f>
-        <v>surrender FWD #xxx to wipe out loan</v>
+        <v>surrender FWD 317k to wipe out loan</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1843,7 +3321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
@@ -2402,11 +3880,11 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="21">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2423,9 +3901,9 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="16">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2467,7 +3945,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="65" t="s">
         <v>53</v>
       </c>
       <c r="I27" s="8"/>
@@ -2490,7 +3968,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="61"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2511,7 +3989,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="61"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2532,7 +4010,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="61"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2553,7 +4031,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="61"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2576,7 +4054,7 @@
       <c r="G32" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="61"/>
+      <c r="H32" s="66"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
         <v>46</v>
@@ -2603,7 +4081,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="61"/>
+      <c r="H33" s="66"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
         <v>48</v>
@@ -2631,7 +4109,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="61"/>
+      <c r="H34" s="66"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2652,7 +4130,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="61"/>
+      <c r="H35" s="66"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2673,7 +4151,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="61"/>
+      <c r="H36" s="66"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2694,7 +4172,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="61"/>
+      <c r="H37" s="66"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2715,7 +4193,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="62"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="8"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -2733,12 +4211,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,12 +4315,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,10 +4445,10 @@
       <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="48"/>
       <c r="D7" s="50"/>
       <c r="G7" s="40"/>
@@ -3298,250 +4776,316 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
-  <dimension ref="B1:F27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27">
-        <f>XIRR(C2:C27,B2:B27)</f>
+      <c r="E1" s="27">
+        <f>XIRR(B2:B27,A2:A27)</f>
         <v>2.9978230595588677E-2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>36526</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>36892</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="E3" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>37257</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="E4" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>37622</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>37987</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>38353</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>38718</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>39083</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>39448</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>39814</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>40179</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>40544</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>40909</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>41275</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>41640</v>
       </c>
-      <c r="C16">
+      <c r="B16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>42005</v>
       </c>
-      <c r="C17">
+      <c r="B17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>42370</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>42736</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>43101</v>
       </c>
-      <c r="C20">
+      <c r="B20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>43466</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>43831</v>
       </c>
-      <c r="C22">
+      <c r="B22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>44197</v>
       </c>
-      <c r="C23">
+      <c r="B23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>44562</v>
       </c>
-      <c r="C24">
+      <c r="B24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>44927</v>
       </c>
-      <c r="C25">
+      <c r="B25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45292</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45292</v>
       </c>
-      <c r="C27">
-        <f>-C2</f>
+      <c r="B27">
+        <f>-B2</f>
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E3:R3"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="E6:R6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C066B5-85E3-4992-A448-D22630C52578}">
   <dimension ref="A2:G30"/>
   <sheetViews>
@@ -3980,437 +5524,4 @@
     <ignoredError sqref="D4" formula="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B0C8CF-8E7A-4ADA-A831-33688E2F8CF5}">
-  <dimension ref="A2:G30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <f>SUM($D$2:D3)</f>
-        <v>-24000</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3">
-        <v>45505</v>
-      </c>
-      <c r="D3" s="20">
-        <f>-$G$3/5</f>
-        <v>-24000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f>SUM($D$2:D4)</f>
-        <v>-23640</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
-        <v>45566</v>
-      </c>
-      <c r="D4" s="20">
-        <v>360</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <f>SUM($D$2:D5)</f>
-        <v>-47640</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3">
-        <v>45870</v>
-      </c>
-      <c r="D5" s="20">
-        <f>-$G$3/5</f>
-        <v>-24000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <f>SUM($D$2:D6)</f>
-        <v>-45240</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3">
-        <v>45689</v>
-      </c>
-      <c r="D6" s="20">
-        <f>2.4%*100000</f>
-        <v>2400</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <f>SUM($D$2:D7)</f>
-        <v>-69240</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3">
-        <v>46235</v>
-      </c>
-      <c r="D7" s="20">
-        <f>-$G$3/5</f>
-        <v>-24000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f>SUM($D$2:D8)</f>
-        <v>-93240</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3">
-        <v>46600</v>
-      </c>
-      <c r="D8" s="20">
-        <f>-$G$3/5</f>
-        <v>-24000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f>SUM($D$2:D9)</f>
-        <v>-117240</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3">
-        <v>46966</v>
-      </c>
-      <c r="D9" s="20">
-        <f>-$G$3/5</f>
-        <v>-24000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>SUM($D$2:D11)</f>
-        <v>-113160</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>47331</v>
-      </c>
-      <c r="D11" s="20">
-        <f>$G$3*0.034</f>
-        <v>4080.0000000000005</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f>SUM($D$2:D12)</f>
-        <v>7440</v>
-      </c>
-      <c r="B12" s="2">
-        <f>XIRR($D$3:D12,$C$3:C12)</f>
-        <v>2.0815828442573552E-2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>47331</v>
-      </c>
-      <c r="D12" s="20">
-        <f>$G$3+600</f>
-        <v>120600</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f>SUM($D$2:D14)</f>
-        <v>11520</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3">
-        <v>47696</v>
-      </c>
-      <c r="D14" s="20">
-        <f t="shared" ref="D14:D28" si="0">$G$3*0.034</f>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f>SUM($D$2:D15)</f>
-        <v>15600</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3">
-        <v>48061</v>
-      </c>
-      <c r="D15" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f>SUM($D$2:D16)</f>
-        <v>19680</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3">
-        <v>48427</v>
-      </c>
-      <c r="D16" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f>SUM($D$2:D17)</f>
-        <v>23760</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3">
-        <v>48792</v>
-      </c>
-      <c r="D17" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f>SUM($D$2:D18)</f>
-        <v>27840</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3">
-        <v>49157</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f>SUM($D$2:D19)</f>
-        <v>31920</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3">
-        <v>49522</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f>SUM($D$2:D20)</f>
-        <v>36000</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3">
-        <v>49888</v>
-      </c>
-      <c r="D20" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f>SUM($D$2:D21)</f>
-        <v>40080</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3">
-        <v>50253</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f>SUM($D$2:D22)</f>
-        <v>44160</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3">
-        <v>50618</v>
-      </c>
-      <c r="D22" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f>SUM($D$2:D23)</f>
-        <v>48240</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3">
-        <v>50983</v>
-      </c>
-      <c r="D23" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <f>SUM($D$2:D24)</f>
-        <v>52320</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3">
-        <v>51349</v>
-      </c>
-      <c r="D24" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <f>SUM($D$2:D25)</f>
-        <v>56400</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3">
-        <v>51714</v>
-      </c>
-      <c r="D25" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <f>SUM($D$2:D26)</f>
-        <v>60480</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3">
-        <v>52079</v>
-      </c>
-      <c r="D26" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <f>SUM($D$2:D27)</f>
-        <v>64560</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3">
-        <v>52444</v>
-      </c>
-      <c r="D27" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <f>SUM($D$2:D28)</f>
-        <v>68640</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3">
-        <v>52810</v>
-      </c>
-      <c r="D28" s="20">
-        <f t="shared" si="0"/>
-        <v>4080.0000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <f>SUM($D$2:D29)</f>
-        <v>72240</v>
-      </c>
-      <c r="C29" s="3">
-        <v>52810</v>
-      </c>
-      <c r="D29" s="20">
-        <f>$G$3*3%</f>
-        <v>3600</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <f>SUM($D$2:D30)</f>
-        <v>192240</v>
-      </c>
-      <c r="B30" s="24">
-        <f>IF(0=D12,XIRR(D3:D30,C3:C30),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>52810</v>
-      </c>
-      <c r="D30" s="20">
-        <f>$G$3</f>
-        <v>120000</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
 </file>
--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,40 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D51EF8-2363-47B4-828D-2D12B606A09D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9657605-2DDC-42A3-99F3-D570775679ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fli2pf 200k" sheetId="6" state="hidden" r:id="rId1"/>
-    <sheet name="FWD41" sheetId="10" r:id="rId2"/>
-    <sheet name="FWD300" sheetId="9" r:id="rId3"/>
-    <sheet name="FWD317" sheetId="8" state="hidden" r:id="rId4"/>
-    <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="FLI2" sheetId="1" r:id="rId6"/>
-    <sheet name="FLI2PF" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="FWD300" sheetId="9" r:id="rId2"/>
+    <sheet name="FWD317" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="FLI2" sheetId="1" r:id="rId5"/>
+    <sheet name="FLI2PF" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="FWD41" sheetId="10" r:id="rId7"/>
     <sheet name="xirr test" sheetId="3" r:id="rId8"/>
     <sheet name="LTIS" sheetId="2" state="hidden" r:id="rId9"/>
     <sheet name="Taiping" sheetId="7" state="hidden" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>total prem</t>
   </si>
@@ -290,10 +299,19 @@
     <t>surrender FWD to wipe out loan</t>
   </si>
   <si>
-    <t>FWD300k is more prudent, in terms of worst-case PnL, monthly loan int</t>
-  </si>
-  <si>
-    <t>FWD41 can absorb more of my spare cash (welcome) but what if I need more liquidity later?</t>
+    <t>FWD41 can absorb more of my spare cash (welcome) but what if in X years I need more liquidity?</t>
+  </si>
+  <si>
+    <t>FWD300k is better in concentration risk, more prudent, in terms of worst-case PnL, monthly loan int</t>
+  </si>
+  <si>
+    <t>&lt; COF + 40 bps over 14M</t>
+  </si>
+  <si>
+    <t>^^if 退保</t>
+  </si>
+  <si>
+    <t>down payment</t>
   </si>
 </sst>
 </file>
@@ -460,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -542,6 +560,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1814,11 +1833,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B645DB8D-88AD-45FA-A854-BC1C8DC366C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE92DED-8F26-4A65-8C24-604F3A0DE6B0}">
   <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,8 +1848,8 @@
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1842,7 +1861,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="52">
-        <v>410000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1853,19 +1872,16 @@
       </c>
       <c r="D3" s="14">
         <f>-24%*G2</f>
-        <v>-98400</v>
+        <v>-72000</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="56">
-        <v>0.02</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
+        <v>1.8700000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1874,9 +1890,9 @@
       <c r="C4" s="13">
         <v>45689</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="14">
         <f>G3*G2</f>
-        <v>8200</v>
+        <v>5610</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -1886,28 +1902,21 @@
       </c>
       <c r="G4" s="55">
         <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
       <c r="F5" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G5" s="16">
         <v>0.03</v>
-      </c>
-      <c r="I5">
-        <v>0.75</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K5" s="20">
-        <f>$G$6*I5*J5</f>
-        <v>5912.61</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1916,9 +1925,9 @@
       <c r="C6" s="13">
         <v>46174</v>
       </c>
-      <c r="D6" s="54">
-        <f>-K8</f>
-        <v>-24078.89</v>
+      <c r="D6" s="14">
+        <f>-J10</f>
+        <v>-17618.7</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -1928,26 +1937,18 @@
       </c>
       <c r="G6" s="52">
         <f>G2+D3</f>
-        <v>311600</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K6" s="20">
-        <f>$G$6*I6*J6</f>
-        <v>7260.2800000000007</v>
+        <v>228000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="58"/>
+      <c r="A7" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>65</v>
+      </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="14"/>
       <c r="F7" s="12" t="s">
         <v>19</v>
       </c>
@@ -1955,84 +1956,99 @@
         <v>0.02</v>
       </c>
       <c r="I7">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="5">
+        <f>$G$6*I7*K7</f>
+        <v>4326.3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>SUM($D$3:D8)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="B8" s="5">
+        <f>A8-D3</f>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="C8" s="13">
+        <v>46692</v>
+      </c>
+      <c r="D8" s="14">
+        <f>G4*$G$2</f>
+        <v>10139.999999999998</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <f>$G$6*I8*K8</f>
+        <v>5312.4000000000005</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="6"/>
+      <c r="I9">
         <f>14/12</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J9" s="5">
+        <f>$G$6*I9*K9</f>
+        <v>7980</v>
+      </c>
+      <c r="K9" s="2">
         <f>G5</f>
         <v>0.03</v>
       </c>
-      <c r="K7" s="20">
-        <f>$G$6*I7*J7</f>
-        <v>10906</v>
-      </c>
-      <c r="L7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="13">
-        <v>46692</v>
-      </c>
-      <c r="D8" s="54">
-        <f>G4*$G$2</f>
-        <v>13857.999999999998</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="20">
-        <f>SUM(K5:K7)</f>
-        <v>24078.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f>SUM($D$3:D9)</f>
-        <v>-100420.89</v>
-      </c>
-      <c r="B9" s="5">
-        <f>A9-D3</f>
-        <v>-2020.8899999999994</v>
-      </c>
-      <c r="C9" s="13">
-        <v>46692</v>
-      </c>
-      <c r="D9" s="54">
-        <f>-$D$3*0</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="54"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="6"/>
+      <c r="I10"/>
+      <c r="J10" s="5">
+        <f>SUM(J7:J9)</f>
+        <v>17618.7</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>SUM($D$3:D11)</f>
-        <v>-92794.89</v>
+        <v>-68288.7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="13">
         <v>47058</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
       <c r="E11" t="s">
         <v>80</v>
@@ -2041,15 +2057,15 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>SUM($D$3:D12)</f>
-        <v>-85168.89</v>
+        <v>-62708.7</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="13">
         <v>47423</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -2059,15 +2075,15 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>SUM($D$3:D13)</f>
-        <v>-77542.89</v>
+        <v>-57128.7</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="13">
         <v>47788</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2077,7 +2093,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
-        <v>-69916.89</v>
+        <v>-51548.7</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>60</v>
@@ -2085,188 +2101,186 @@
       <c r="C14" s="13">
         <v>48153</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+        <v>5579.9999999999982</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
-        <v>-62290.89</v>
+        <v>-45968.7</v>
       </c>
       <c r="B15" s="30">
         <f>-D15/D3</f>
-        <v>7.7499999999999986E-2</v>
+        <v>7.7499999999999972E-2</v>
       </c>
       <c r="C15" s="13">
         <v>48519</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>SUM($D$3:D16)</f>
-        <v>-54664.89</v>
+        <v>-40388.699999999997</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="13">
         <v>48884</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>SUM($D$3:D17)</f>
-        <v>-47038.89</v>
+        <v>-34808.699999999997</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="13">
         <v>49249</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM($D$3:D18)</f>
-        <v>-39412.89</v>
+        <v>-29228.699999999997</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="13">
         <v>49614</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>SUM($D$3:D19)</f>
-        <v>-31786.89</v>
+        <v>-23648.699999999997</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="13">
         <v>49980</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>SUM($D$3:D20)</f>
-        <v>-24160.89</v>
+        <v>-18068.699999999997</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="13">
         <v>50345</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>SUM($D$3:D21)</f>
-        <v>-16534.89</v>
+        <v>-12488.699999999999</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="13">
         <v>50710</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM($D$3:D22)</f>
-        <v>-8908.8900000000012</v>
+        <v>-6908.7000000000007</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="13">
         <v>51075</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>SUM($D$3:D23)</f>
-        <v>-1282.8900000000031</v>
+        <v>-1328.7000000000025</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="13">
         <v>51441</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>SUM($D$3:D24)</f>
-        <v>6343.1099999999951</v>
+        <v>4251.2999999999956</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="13">
         <v>51806</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>SUM($D$3:D25)</f>
-        <v>13969.109999999993</v>
+        <v>9831.2999999999938</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="13">
         <v>52171</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM($D$3:D26)</f>
-        <v>21595.109999999993</v>
+        <v>15411.299999999992</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="13">
         <v>52536</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>SUM($D$3:D27)</f>
-        <v>29221.109999999993</v>
+        <v>20991.299999999988</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>61</v>
@@ -2274,30 +2288,29 @@
       <c r="C27" s="13">
         <v>52902</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="14">
         <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
+        <v>5579.9999999999982</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>SUM($D$3:D28)</f>
-        <v>127621.10999999999</v>
+        <v>92991.299999999988</v>
       </c>
       <c r="B28" s="2">
         <f>XIRR(D3:D28,C3:C28)</f>
-        <v>5.6375792622566229E-2</v>
+        <v>5.5980500578880307E-2</v>
       </c>
       <c r="C28" s="13">
         <v>53267</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="14">
         <f>-D3</f>
-        <v>98400</v>
-      </c>
-      <c r="E28" s="6" t="str">
-        <f>E9</f>
-        <v>surrender FWD to wipe out loan</v>
+        <v>72000</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2311,521 +2324,12 @@
       <c r="B31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:B7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE92DED-8F26-4A65-8C24-604F3A0DE6B0}">
-  <dimension ref="A2:L31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="15"/>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="52">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="13">
-        <v>45597</v>
-      </c>
-      <c r="D3" s="14">
-        <f>-24%*G2</f>
-        <v>-72000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="56">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="13">
-        <v>45689</v>
-      </c>
-      <c r="D4" s="53">
-        <f>G3*G2</f>
-        <v>5610</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="55">
-        <v>3.3799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="F5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="I5">
-        <v>0.75</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K5" s="20">
-        <f>$G$6*I5*J5</f>
-        <v>4326.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="13">
-        <v>46174</v>
-      </c>
-      <c r="D6" s="54">
-        <f>-K8</f>
-        <v>-17618.7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="52">
-        <f>G2+D3</f>
-        <v>228000</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K6" s="20">
-        <f>$G$6*I6*J6</f>
-        <v>5312.4000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="I7">
-        <f>14/12</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="J7" s="2">
-        <f>G5</f>
-        <v>0.03</v>
-      </c>
-      <c r="K7" s="20">
-        <f>$G$6*I7*J7</f>
-        <v>7980</v>
-      </c>
-      <c r="L7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="13">
-        <v>46692</v>
-      </c>
-      <c r="D8" s="54">
-        <f>G4*$G$2</f>
-        <v>10139.999999999998</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="20">
-        <f>SUM(K5:K7)</f>
-        <v>17618.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f>SUM($D$3:D9)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="B9" s="5">
-        <f>A9-D3</f>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="C9" s="13">
-        <v>46692</v>
-      </c>
-      <c r="D9" s="54">
-        <f>-$D$3*0</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>SUM($D$3:D11)</f>
-        <v>-68288.7</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="13">
-        <v>47058</v>
-      </c>
-      <c r="D11" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f>SUM($D$3:D12)</f>
-        <v>-62708.7</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="13">
-        <v>47423</v>
-      </c>
-      <c r="D12" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f>SUM($D$3:D13)</f>
-        <v>-57128.7</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="13">
-        <v>47788</v>
-      </c>
-      <c r="D13" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f>SUM($D$3:D14)</f>
-        <v>-51548.7</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="13">
-        <v>48153</v>
-      </c>
-      <c r="D14" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f>SUM($D$3:D15)</f>
-        <v>-45968.7</v>
-      </c>
-      <c r="B15" s="30">
-        <f>-D15/D3</f>
-        <v>7.7499999999999972E-2</v>
-      </c>
-      <c r="C15" s="13">
-        <v>48519</v>
-      </c>
-      <c r="D15" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f>SUM($D$3:D16)</f>
-        <v>-40388.699999999997</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="13">
-        <v>48884</v>
-      </c>
-      <c r="D16" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f>SUM($D$3:D17)</f>
-        <v>-34808.699999999997</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="13">
-        <v>49249</v>
-      </c>
-      <c r="D17" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f>SUM($D$3:D18)</f>
-        <v>-29228.699999999997</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="13">
-        <v>49614</v>
-      </c>
-      <c r="D18" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f>SUM($D$3:D19)</f>
-        <v>-23648.699999999997</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="13">
-        <v>49980</v>
-      </c>
-      <c r="D19" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f>SUM($D$3:D20)</f>
-        <v>-18068.699999999997</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="13">
-        <v>50345</v>
-      </c>
-      <c r="D20" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f>SUM($D$3:D21)</f>
-        <v>-12488.699999999999</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="13">
-        <v>50710</v>
-      </c>
-      <c r="D21" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f>SUM($D$3:D22)</f>
-        <v>-6908.7000000000007</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="13">
-        <v>51075</v>
-      </c>
-      <c r="D22" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f>SUM($D$3:D23)</f>
-        <v>-1328.7000000000025</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="13">
-        <v>51441</v>
-      </c>
-      <c r="D23" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <f>SUM($D$3:D24)</f>
-        <v>4251.2999999999956</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="13">
-        <v>51806</v>
-      </c>
-      <c r="D24" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <f>SUM($D$3:D25)</f>
-        <v>9831.2999999999938</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="13">
-        <v>52171</v>
-      </c>
-      <c r="D25" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <f>SUM($D$3:D26)</f>
-        <v>15411.299999999992</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="13">
-        <v>52536</v>
-      </c>
-      <c r="D26" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <f>SUM($D$3:D27)</f>
-        <v>20991.299999999988</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="13">
-        <v>52902</v>
-      </c>
-      <c r="D27" s="54">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
-        <v>5579.9999999999982</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <f>SUM($D$3:D28)</f>
-        <v>92991.299999999988</v>
-      </c>
-      <c r="B28" s="2">
-        <f>XIRR(D3:D28,C3:C28)</f>
-        <v>5.5980500578880307E-2</v>
-      </c>
-      <c r="C28" s="13">
-        <v>53267</v>
-      </c>
-      <c r="D28" s="54">
-        <f>-D3</f>
-        <v>72000</v>
-      </c>
-      <c r="E28" s="6" t="str">
-        <f>E9</f>
-        <v>surrender FWD to wipe out loan</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:B7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7850-337E-4794-9D5F-A7B4C9250F19}">
   <dimension ref="A2:L31"/>
   <sheetViews>
@@ -2964,10 +2468,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="13"/>
       <c r="D7" s="12"/>
       <c r="F7" s="12" t="s">
@@ -3321,7 +2825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
@@ -3880,11 +3384,11 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="21">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -3901,9 +3405,9 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="16">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -3945,7 +3449,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="H27" s="66" t="s">
         <v>53</v>
       </c>
       <c r="I27" s="8"/>
@@ -3968,7 +3472,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="66"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -3989,7 +3493,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -4010,7 +3514,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="66"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -4031,7 +3535,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="66"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -4054,7 +3558,7 @@
       <c r="G32" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="66"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
         <v>46</v>
@@ -4081,7 +3585,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="66"/>
+      <c r="H33" s="67"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
         <v>48</v>
@@ -4109,7 +3613,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="66"/>
+      <c r="H34" s="67"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -4130,7 +3634,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="66"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -4151,7 +3655,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="66"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -4172,7 +3676,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="66"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -4193,7 +3697,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="67"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="8"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -4211,7 +3715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -4315,7 +3819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
   <dimension ref="A2:L32"/>
   <sheetViews>
@@ -4445,10 +3949,10 @@
       <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="48"/>
       <c r="D7" s="50"/>
       <c r="G7" s="40"/>
@@ -4766,6 +4270,512 @@
       <c r="B32" s="31" t="s">
         <v>74</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B645DB8D-88AD-45FA-A854-BC1C8DC366C2}">
+  <dimension ref="A2:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="15"/>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="52">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="13">
+        <v>45597</v>
+      </c>
+      <c r="D3" s="14">
+        <f>-24%*G2</f>
+        <v>-98400</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="13">
+        <v>45689</v>
+      </c>
+      <c r="D4" s="53">
+        <f>G3*G2</f>
+        <v>8200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="55">
+        <v>3.3799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="I5">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K5" s="20">
+        <f>$G$6*I5*J5</f>
+        <v>5912.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="13">
+        <v>46174</v>
+      </c>
+      <c r="D6" s="54">
+        <f>-K8</f>
+        <v>-24078.89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="52">
+        <f>G2+D3</f>
+        <v>311600</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K6" s="20">
+        <f>$G$6*I6*J6</f>
+        <v>7260.2800000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="I7">
+        <f>14/12</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="J7" s="2">
+        <f>G5</f>
+        <v>0.03</v>
+      </c>
+      <c r="K7" s="20">
+        <f>$G$6*I7*J7</f>
+        <v>10906</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="13">
+        <v>46692</v>
+      </c>
+      <c r="D8" s="54">
+        <f>G4*$G$2</f>
+        <v>13857.999999999998</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="20">
+        <f>SUM(K5:K7)</f>
+        <v>24078.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>SUM($D$3:D9)</f>
+        <v>-100420.89</v>
+      </c>
+      <c r="B9" s="5">
+        <f>A9-D3</f>
+        <v>-2020.8899999999994</v>
+      </c>
+      <c r="C9" s="13">
+        <v>46692</v>
+      </c>
+      <c r="D9" s="54">
+        <f>-$D$3*0</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>SUM($D$3:D11)</f>
+        <v>-92794.89</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="13">
+        <v>47058</v>
+      </c>
+      <c r="D11" s="54">
+        <f t="shared" ref="D11:D27" si="0">$G$4*$G$2-$G$7*$G$6</f>
+        <v>7625.9999999999982</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>SUM($D$3:D12)</f>
+        <v>-85168.89</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="13">
+        <v>47423</v>
+      </c>
+      <c r="D12" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>SUM($D$3:D13)</f>
+        <v>-77542.89</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="13">
+        <v>47788</v>
+      </c>
+      <c r="D13" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>SUM($D$3:D14)</f>
+        <v>-69916.89</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13">
+        <v>48153</v>
+      </c>
+      <c r="D14" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM($D$3:D15)</f>
+        <v>-62290.89</v>
+      </c>
+      <c r="B15" s="30">
+        <f>-D15/D3</f>
+        <v>7.7499999999999986E-2</v>
+      </c>
+      <c r="C15" s="13">
+        <v>48519</v>
+      </c>
+      <c r="D15" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>SUM($D$3:D16)</f>
+        <v>-54664.89</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="13">
+        <v>48884</v>
+      </c>
+      <c r="D16" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>SUM($D$3:D17)</f>
+        <v>-47038.89</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="13">
+        <v>49249</v>
+      </c>
+      <c r="D17" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f>SUM($D$3:D18)</f>
+        <v>-39412.89</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="13">
+        <v>49614</v>
+      </c>
+      <c r="D18" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>SUM($D$3:D19)</f>
+        <v>-31786.89</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="13">
+        <v>49980</v>
+      </c>
+      <c r="D19" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>SUM($D$3:D20)</f>
+        <v>-24160.89</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="13">
+        <v>50345</v>
+      </c>
+      <c r="D20" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>SUM($D$3:D21)</f>
+        <v>-16534.89</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="13">
+        <v>50710</v>
+      </c>
+      <c r="D21" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM($D$3:D22)</f>
+        <v>-8908.8900000000012</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="13">
+        <v>51075</v>
+      </c>
+      <c r="D22" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>SUM($D$3:D23)</f>
+        <v>-1282.8900000000031</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="13">
+        <v>51441</v>
+      </c>
+      <c r="D23" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>SUM($D$3:D24)</f>
+        <v>6343.1099999999951</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="13">
+        <v>51806</v>
+      </c>
+      <c r="D24" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f>SUM($D$3:D25)</f>
+        <v>13969.109999999993</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="13">
+        <v>52171</v>
+      </c>
+      <c r="D25" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM($D$3:D26)</f>
+        <v>21595.109999999993</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="13">
+        <v>52536</v>
+      </c>
+      <c r="D26" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f>SUM($D$3:D27)</f>
+        <v>29221.109999999993</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="13">
+        <v>52902</v>
+      </c>
+      <c r="D27" s="54">
+        <f t="shared" si="0"/>
+        <v>7625.9999999999982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f>SUM($D$3:D28)</f>
+        <v>127621.10999999999</v>
+      </c>
+      <c r="B28" s="2">
+        <f>XIRR(D3:D28,C3:C28)</f>
+        <v>5.6375792622566229E-2</v>
+      </c>
+      <c r="C28" s="13">
+        <v>53267</v>
+      </c>
+      <c r="D28" s="54">
+        <f>-D3</f>
+        <v>98400</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f>E9</f>
+        <v>surrender FWD to wipe out loan</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4780,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4819,22 +4829,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
+      <c r="E3" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4843,22 +4853,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
+      <c r="E4" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -4867,20 +4877,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -4889,20 +4899,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9657605-2DDC-42A3-99F3-D570775679ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7018DE0A-523C-46BA-9F26-6224385ED1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
   <si>
     <t>total prem</t>
   </si>
@@ -299,19 +299,45 @@
     <t>surrender FWD to wipe out loan</t>
   </si>
   <si>
-    <t>FWD41 can absorb more of my spare cash (welcome) but what if in X years I need more liquidity?</t>
-  </si>
-  <si>
     <t>FWD300k is better in concentration risk, more prudent, in terms of worst-case PnL, monthly loan int</t>
   </si>
   <si>
     <t>&lt; COF + 40 bps over 14M</t>
   </si>
   <si>
-    <t>^^if 退保</t>
-  </si>
-  <si>
     <t>down payment</t>
+  </si>
+  <si>
+    <t>FWD41 can absorb more of my excess cash (welcome) but what if in X years I need more liquidity?</t>
+  </si>
+  <si>
+    <t>&lt;- 3.38% for first 288 monthly payouts</t>
+  </si>
+  <si>
+    <t>35M int cost</t>
+  </si>
+  <si>
+    <t>long term avg LIR</t>
+  </si>
+  <si>
+    <t>DYOC</t>
+  </si>
+  <si>
+    <t>net outlay 
+assum`LIR</t>
+  </si>
+  <si>
+    <t>PnL if 
+退保</t>
+  </si>
+  <si>
+    <t>&lt;-</t>
+  </si>
+  <si>
+    <t>DYOC is imprecise. The CCCost can be computed multiple ways; I took the simplest convention.</t>
+  </si>
+  <si>
+    <t>Based on this convention, only the initial down payment is included. All subsequent cash flows are treated as other things.</t>
   </si>
 </sst>
 </file>
@@ -349,7 +375,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -473,12 +499,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -561,6 +609,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,6 +644,29 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1834,496 +1906,598 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE92DED-8F26-4A65-8C24-604F3A0DE6B0}">
-  <dimension ref="A2:L31"/>
+  <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B32" sqref="B32:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1" style="58" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="58" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="15"/>
-      <c r="D2" s="12" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="15"/>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="52">
+      <c r="H2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="52">
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="13">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="13">
         <v>45597</v>
       </c>
-      <c r="D3" s="14">
-        <f>-24%*G2</f>
+      <c r="F3" s="14">
+        <f>-24%*I2</f>
         <v>-72000</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="56">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="13">
+        <v>45689</v>
+      </c>
+      <c r="F4" s="14">
+        <f>I3*I2</f>
+        <v>5610</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="55">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="J4" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="56">
-        <v>1.8700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="13">
-        <v>45689</v>
-      </c>
-      <c r="D4" s="14">
-        <f>G3*G2</f>
-        <v>5610</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="55">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="F5" s="12" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="13">
+        <v>46174</v>
+      </c>
+      <c r="F6" s="14">
+        <f>-L10</f>
+        <v>-17618.7</v>
+      </c>
+      <c r="G6" s="76"/>
+      <c r="H6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="16">
+      <c r="I6" s="16">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="13">
-        <v>46174</v>
-      </c>
-      <c r="D6" s="14">
-        <f>-J10</f>
-        <v>-17618.7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="12" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="77"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="52">
-        <f>G2+D3</f>
+      <c r="I7" s="52">
+        <f>I2+F3</f>
         <v>228000</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="K7">
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="7">
+        <f>$I$7*K7*M7</f>
+        <v>4326.3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="71">
+        <f>SUM($F$3:F8)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C8" s="72">
+        <f>B8-F3</f>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="13">
+        <v>46692</v>
+      </c>
+      <c r="F8" s="14">
+        <f>I4*$I$2</f>
+        <v>10139.999999999998</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="16">
         <v>0.02</v>
       </c>
-      <c r="I7">
-        <v>0.75</v>
-      </c>
-      <c r="J7" s="5">
-        <f>$G$6*I7*K7</f>
-        <v>4326.3</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2.53E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f>SUM($D$3:D8)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="B8" s="5">
-        <f>A8-D3</f>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="C8" s="13">
-        <v>46692</v>
-      </c>
-      <c r="D8" s="14">
-        <f>G4*$G$2</f>
-        <v>10139.999999999998</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="I8">
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
-        <f>$G$6*I8*K8</f>
+      <c r="L8" s="7">
+        <f>$I$7*K8*M8</f>
         <v>5312.4000000000005</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="6"/>
-      <c r="I9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="6"/>
+      <c r="K9">
         <f>14/12</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="J9" s="5">
-        <f>$G$6*I9*K9</f>
+      <c r="L9" s="7">
+        <f>$I$7*K9*M9</f>
         <v>7980</v>
       </c>
-      <c r="K9" s="2">
-        <f>G5</f>
+      <c r="M9" s="2">
+        <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="L9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
+      <c r="B10" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="6"/>
-      <c r="I10"/>
-      <c r="J10" s="5">
-        <f>SUM(J7:J9)</f>
+      <c r="D10" s="58"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="6"/>
+      <c r="K10"/>
+      <c r="L10" s="7">
+        <f>SUM(L7:L9)</f>
         <v>17618.7</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>SUM($D$3:D11)</f>
+      <c r="M10" s="11"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <f>SUM($F$3:F11)</f>
         <v>-68288.7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="13">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="13">
         <v>47058</v>
       </c>
-      <c r="D11" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F11" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f>SUM($D$3:D12)</f>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <f>SUM($F$3:F12)</f>
         <v>-62708.7</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="13">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="13">
         <v>47423</v>
       </c>
-      <c r="D12" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F12" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f>SUM($D$3:D13)</f>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <f>SUM($F$3:F13)</f>
         <v>-57128.7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="13">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="13">
         <v>47788</v>
       </c>
-      <c r="D13" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F13" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f>SUM($D$3:D14)</f>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <f>SUM($F$3:F14)</f>
         <v>-51548.7</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="C14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="13">
         <v>48153</v>
       </c>
-      <c r="D14" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F14" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f>SUM($D$3:D15)</f>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <f>SUM($F$3:F15)</f>
         <v>-45968.7</v>
       </c>
-      <c r="B15" s="30">
-        <f>-D15/D3</f>
+      <c r="C15" s="30">
+        <f>-F15/F3</f>
         <v>7.7499999999999972E-2</v>
       </c>
-      <c r="C15" s="13">
+      <c r="D15" s="30"/>
+      <c r="E15" s="13">
         <v>48519</v>
       </c>
-      <c r="D15" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F15" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f>SUM($D$3:D16)</f>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <f>SUM($F$3:F16)</f>
         <v>-40388.699999999997</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="13">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="13">
         <v>48884</v>
       </c>
-      <c r="D16" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F16" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f>SUM($D$3:D17)</f>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <f>SUM($F$3:F17)</f>
         <v>-34808.699999999997</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="13">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="13">
         <v>49249</v>
       </c>
-      <c r="D17" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F17" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f>SUM($D$3:D18)</f>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <f>SUM($F$3:F18)</f>
         <v>-29228.699999999997</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="13">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="13">
         <v>49614</v>
       </c>
-      <c r="D18" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F18" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f>SUM($D$3:D19)</f>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <f>SUM($F$3:F19)</f>
         <v>-23648.699999999997</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="13">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="13">
         <v>49980</v>
       </c>
-      <c r="D19" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F19" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f>SUM($D$3:D20)</f>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <f>SUM($F$3:F20)</f>
         <v>-18068.699999999997</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="13">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="13">
         <v>50345</v>
       </c>
-      <c r="D20" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F20" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f>SUM($D$3:D21)</f>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <f>SUM($F$3:F21)</f>
         <v>-12488.699999999999</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="13">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="13">
         <v>50710</v>
       </c>
-      <c r="D21" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F21" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f>SUM($D$3:D22)</f>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <f>SUM($F$3:F22)</f>
         <v>-6908.7000000000007</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="13">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="13">
         <v>51075</v>
       </c>
-      <c r="D22" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F22" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f>SUM($D$3:D23)</f>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <f>SUM($F$3:F23)</f>
         <v>-1328.7000000000025</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="13">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="13">
         <v>51441</v>
       </c>
-      <c r="D23" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F23" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <f>SUM($D$3:D24)</f>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <f>SUM($F$3:F24)</f>
         <v>4251.2999999999956</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="13">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="13">
         <v>51806</v>
       </c>
-      <c r="D24" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F24" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <f>SUM($D$3:D25)</f>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <f>SUM($F$3:F25)</f>
         <v>9831.2999999999938</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="13">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="13">
         <v>52171</v>
       </c>
-      <c r="D25" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F25" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <f>SUM($D$3:D26)</f>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <f>SUM($F$3:F26)</f>
         <v>15411.299999999992</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="13">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="13">
         <v>52536</v>
       </c>
-      <c r="D26" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F26" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <f>SUM($D$3:D27)</f>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <f>SUM($F$3:F27)</f>
         <v>20991.299999999988</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="13">
         <v>52902</v>
       </c>
-      <c r="D27" s="14">
-        <f>$G$4*$G$2-$G$7*$G$6</f>
+      <c r="F27" s="14">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>5579.9999999999982</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <f>SUM($D$3:D28)</f>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <f>SUM($F$3:F28)</f>
         <v>92991.299999999988</v>
       </c>
-      <c r="B28" s="2">
-        <f>XIRR(D3:D28,C3:C28)</f>
+      <c r="C28" s="2">
+        <f>XIRR(F3:F28,E3:E28)</f>
         <v>5.5980500578880307E-2</v>
       </c>
-      <c r="C28" s="13">
+      <c r="D28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="13">
         <v>53267</v>
       </c>
-      <c r="D28" s="14">
-        <f>-D3</f>
+      <c r="F28" s="14">
+        <f>-F3</f>
         <v>72000</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="B34:N34"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -2468,10 +2642,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="13"/>
       <c r="D7" s="12"/>
       <c r="F7" s="12" t="s">
@@ -3384,11 +3558,11 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="21">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -3405,9 +3579,9 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="16">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -3449,7 +3623,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="67" t="s">
         <v>53</v>
       </c>
       <c r="I27" s="8"/>
@@ -3472,7 +3646,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="67"/>
+      <c r="H28" s="68"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -3493,7 +3667,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -3514,7 +3688,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="67"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -3535,7 +3709,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="67"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -3558,7 +3732,7 @@
       <c r="G32" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="67"/>
+      <c r="H32" s="68"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
         <v>46</v>
@@ -3585,7 +3759,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="67"/>
+      <c r="H33" s="68"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
         <v>48</v>
@@ -3613,7 +3787,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="67"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -3634,7 +3808,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="67"/>
+      <c r="H35" s="68"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -3655,7 +3829,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="67"/>
+      <c r="H36" s="68"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -3676,7 +3850,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="67"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -3697,7 +3871,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="68"/>
+      <c r="H38" s="69"/>
       <c r="I38" s="8"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -3949,10 +4123,10 @@
       <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="48"/>
       <c r="D7" s="50"/>
       <c r="G7" s="40"/>
@@ -4409,10 +4583,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="13"/>
       <c r="D7" s="12"/>
       <c r="F7" s="12" t="s">
@@ -4829,22 +5003,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
+      <c r="E3" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4853,22 +5027,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
+      <c r="E4" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -4877,20 +5051,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -4899,20 +5073,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AEBF22-F545-478C-8443-F33D6888EF0C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E0C5E6-3630-4F7D-8343-8A0B5B94B073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -20,10 +20,19 @@
     <sheet name="FWD41" sheetId="10" state="hidden" r:id="rId5"/>
     <sheet name="xirr test" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -253,9 +262,6 @@
     <t>FWD300k is better in concentration risk, more prudent, in terms of worst-case PnL, monthly loan int</t>
   </si>
   <si>
-    <t>&lt; COF + 40 bps over 14M</t>
-  </si>
-  <si>
     <t>down payment</t>
   </si>
   <si>
@@ -289,6 +295,9 @@
   </si>
   <si>
     <t>DYOC is imprecise. The CCCost can be computed multiple ways; I used the simplest convention.</t>
+  </si>
+  <si>
+    <t>&lt; 1M COF + 45 bps over 14M</t>
   </si>
 </sst>
 </file>
@@ -582,12 +591,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -614,6 +617,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -933,7 +942,7 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +983,7 @@
         <v>-72000</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>13</v>
@@ -1004,7 +1013,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1014,17 +1023,17 @@
       <c r="E5" s="60"/>
       <c r="F5" s="12"/>
       <c r="G5" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="11">
@@ -1032,14 +1041,14 @@
       </c>
       <c r="F6" s="12">
         <f>-L10</f>
-        <v>-17618.7</v>
+        <v>-20278.7</v>
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I6" s="14">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1070,14 +1079,14 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="56">
         <f>SUM($F$3:F8)</f>
-        <v>-73868.7</v>
+        <v>-76528.7</v>
       </c>
       <c r="C8" s="57">
         <f>B8-F3</f>
-        <v>-1868.6999999999971</v>
+        <v>-4528.6999999999971</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="11">
         <v>46692</v>
@@ -1090,10 +1099,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="14">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1118,14 +1127,14 @@
       </c>
       <c r="L9" s="7">
         <f>$I$7*K9*M9</f>
-        <v>7980</v>
+        <v>10640</v>
       </c>
       <c r="M9" s="2">
         <f>I6</f>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.25">
@@ -1140,7 +1149,7 @@
       <c r="K10"/>
       <c r="L10" s="7">
         <f>SUM(L7:L9)</f>
-        <v>17618.7</v>
+        <v>20278.7</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10"/>
@@ -1148,7 +1157,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <f>SUM($F$3:F11)</f>
-        <v>-68288.7</v>
+        <v>-72088.7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1157,13 +1166,13 @@
       </c>
       <c r="F11" s="12">
         <f t="shared" ref="F11:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <f>SUM($F$3:F12)</f>
-        <v>-62708.7</v>
+        <v>-67648.7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1172,7 +1181,7 @@
       </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1182,7 +1191,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <f>SUM($F$3:F13)</f>
-        <v>-57128.7</v>
+        <v>-63208.7</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1191,7 +1200,7 @@
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1201,10 +1210,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <f>SUM($F$3:F14)</f>
-        <v>-51548.7</v>
+        <v>-58768.7</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="11">
@@ -1212,17 +1221,17 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <f>SUM($F$3:F15)</f>
-        <v>-45968.7</v>
+        <v>-54328.7</v>
       </c>
       <c r="C15" s="27">
         <f>-F15/F3</f>
-        <v>7.7499999999999972E-2</v>
+        <v>6.166666666666664E-2</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="11">
@@ -1230,13 +1239,13 @@
       </c>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f>SUM($F$3:F16)</f>
-        <v>-40388.699999999997</v>
+        <v>-49888.7</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1245,13 +1254,13 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <f>SUM($F$3:F17)</f>
-        <v>-34808.699999999997</v>
+        <v>-45448.7</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1260,13 +1269,13 @@
       </c>
       <c r="F17" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f>SUM($F$3:F18)</f>
-        <v>-29228.699999999997</v>
+        <v>-41008.699999999997</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1275,13 +1284,13 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f>SUM($F$3:F19)</f>
-        <v>-23648.699999999997</v>
+        <v>-36568.699999999997</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1290,13 +1299,13 @@
       </c>
       <c r="F19" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <f>SUM($F$3:F20)</f>
-        <v>-18068.699999999997</v>
+        <v>-32128.699999999997</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1305,13 +1314,13 @@
       </c>
       <c r="F20" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <f>SUM($F$3:F21)</f>
-        <v>-12488.699999999999</v>
+        <v>-27688.699999999997</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1320,13 +1329,13 @@
       </c>
       <c r="F21" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <f>SUM($F$3:F22)</f>
-        <v>-6908.7000000000007</v>
+        <v>-23248.699999999997</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1335,13 +1344,13 @@
       </c>
       <c r="F22" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f>SUM($F$3:F23)</f>
-        <v>-1328.7000000000025</v>
+        <v>-18808.699999999997</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1350,13 +1359,13 @@
       </c>
       <c r="F23" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f>SUM($F$3:F24)</f>
-        <v>4251.2999999999956</v>
+        <v>-14368.699999999999</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1365,13 +1374,13 @@
       </c>
       <c r="F24" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f>SUM($F$3:F25)</f>
-        <v>9831.2999999999938</v>
+        <v>-9928.7000000000007</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1380,13 +1389,13 @@
       </c>
       <c r="F25" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f>SUM($F$3:F26)</f>
-        <v>15411.299999999992</v>
+        <v>-5488.7000000000025</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1395,13 +1404,13 @@
       </c>
       <c r="F26" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f>SUM($F$3:F27)</f>
-        <v>20991.299999999988</v>
+        <v>-1048.7000000000044</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -1412,20 +1421,20 @@
       </c>
       <c r="F27" s="12">
         <f t="shared" si="0"/>
-        <v>5579.9999999999982</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f>SUM($F$3:F28)</f>
-        <v>92991.299999999988</v>
+        <v>70951.299999999988</v>
       </c>
       <c r="C28" s="2">
         <f>XIRR(F3:F28,E3:E28)</f>
-        <v>5.5980500578880307E-2</v>
+        <v>4.2764946818351746E-2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="11">
         <v>53267</v>
@@ -1447,7 +1456,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="61"/>
       <c r="D31" s="61"/>
@@ -1464,7 +1473,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
@@ -2083,11 +2092,11 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="19">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2104,9 +2113,9 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="14">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2148,7 +2157,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="76" t="s">
+      <c r="H27" s="74" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="8"/>
@@ -2171,7 +2180,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="77"/>
+      <c r="H28" s="75"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2192,7 +2201,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="77"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2213,7 +2222,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="77"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2234,7 +2243,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="77"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2257,7 +2266,7 @@
       <c r="G32" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="77"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2284,7 +2293,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="77"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2312,7 +2321,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="12"/>
-      <c r="H34" s="77"/>
+      <c r="H34" s="75"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2333,7 +2342,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="12"/>
-      <c r="H35" s="77"/>
+      <c r="H35" s="75"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2354,7 +2363,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="12"/>
-      <c r="H36" s="77"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2375,7 +2384,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="12"/>
-      <c r="H37" s="77"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2396,7 +2405,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="12"/>
-      <c r="H38" s="78"/>
+      <c r="H38" s="76"/>
       <c r="I38" s="8"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -2648,10 +2657,10 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="45"/>
       <c r="D7" s="47"/>
       <c r="G7" s="37"/>
@@ -3108,10 +3117,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10"/>
       <c r="F7" s="10" t="s">
@@ -3553,7 +3562,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="62"/>
       <c r="G4" s="62"/>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E0C5E6-3630-4F7D-8343-8A0B5B94B073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBF4027-A753-4C98-A9BE-2689A1EA4659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>total prem</t>
   </si>
@@ -298,6 +298,27 @@
   </si>
   <si>
     <t>&lt; 1M COF + 45 bps over 14M</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>09M LIR =</t>
+  </si>
+  <si>
+    <t>12M LIR =</t>
+  </si>
+  <si>
+    <t>14M LIR =</t>
+  </si>
+  <si>
+    <t>Note: surrender in Nov of Year8 before receiving the Year9 payouts in advance. Clawback 100% otherwise.</t>
   </si>
 </sst>
 </file>
@@ -486,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -496,7 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -624,6 +644,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,320 +968,329 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" style="55" customWidth="1"/>
+    <col min="1" max="1" width="1" style="54" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="55" customWidth="1"/>
+    <col min="4" max="4" width="2" style="54" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="13"/>
-      <c r="F2" s="10" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="12"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="48">
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45597</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f>-24%*I2</f>
         <v>-72000</v>
       </c>
       <c r="G3" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="52">
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>45689</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f>I3*I2</f>
         <v>5610</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="51">
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="J4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="63" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>46174</v>
       </c>
-      <c r="F6" s="12">
-        <f>-L10</f>
+      <c r="F6" s="11">
+        <f>-K16</f>
         <v>-20278.7</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="62"/>
+      <c r="H6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="65"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="10" t="s">
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="64"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="48">
         <f>I2+F3</f>
         <v>228000</v>
       </c>
-      <c r="K7">
-        <v>0.75</v>
-      </c>
-      <c r="L7" s="7">
-        <f>$I$7*K7*M7</f>
-        <v>4326.3</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2.53E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="56">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="55">
         <f>SUM($F$3:F8)</f>
         <v>-76528.7</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="56">
         <f>B8-F3</f>
         <v>-4528.6999999999971</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>46692</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f>I4*$I$2</f>
         <v>10139.999999999998</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7">
-        <f>$I$7*K8*M8</f>
-        <v>5312.4000000000005</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2.3300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="6"/>
-      <c r="K9">
-        <f>14/12</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="L9" s="7">
-        <f>$I$7*K9*M9</f>
-        <v>10640</v>
-      </c>
-      <c r="M9" s="2">
-        <f>I6</f>
-        <v>0.04</v>
-      </c>
-      <c r="N9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="28" t="s">
+    </row>
+    <row r="10" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="6"/>
-      <c r="K10"/>
-      <c r="L10" s="7">
-        <f>SUM(L7:L9)</f>
-        <v>20278.7</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <f>SUM($F$3:F11)</f>
         <v>-72088.7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>47058</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" ref="F11:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>4439.9999999999982</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <f>SUM($F$3:F12)</f>
         <v>-67648.7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>47423</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <f>SUM($F$3:F13)</f>
         <v>-63208.7</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>47788</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H13" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="13">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K13" s="48">
+        <f>$I$7*LEFT(I13,2)/12*J13</f>
+        <v>4326.3</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <f>SUM($F$3:F14)</f>
         <v>-58768.7</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="11">
+      <c r="D14" s="7"/>
+      <c r="E14" s="10">
         <v>48153</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H14" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="13">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K14" s="48">
+        <f>$I$7*LEFT(I14,2)/12*J14</f>
+        <v>5312.4000000000005</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f>SUM($F$3:F15)</f>
         <v>-54328.7</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <f>-F15/F3</f>
         <v>6.166666666666664E-2</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="11">
+      <c r="D15" s="26"/>
+      <c r="E15" s="10">
         <v>48519</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="13">
+        <f>I6</f>
+        <v>0.04</v>
+      </c>
+      <c r="K15" s="81">
+        <f>$I$7*LEFT(I15,2)/12*J15</f>
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f>SUM($F$3:F16)</f>
         <v>-49888.7</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>48884</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80">
+        <f>SUM(K13:K15)</f>
+        <v>20278.7</v>
+      </c>
+      <c r="L16"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
@@ -1264,10 +1299,10 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>49249</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1279,10 +1314,10 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>49614</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1294,10 +1329,10 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>49980</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1309,10 +1344,10 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>50345</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1324,10 +1359,10 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>50710</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1339,10 +1374,10 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>51075</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1354,10 +1389,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>51441</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1369,10 +1404,10 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>51806</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1384,10 +1419,10 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>52171</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1399,10 +1434,10 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>52536</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1416,10 +1451,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>52902</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1436,10 +1471,10 @@
       <c r="D28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>53267</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <f>-F3</f>
         <v>72000</v>
       </c>
@@ -1456,7 +1491,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="61" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C31" s="61"/>
       <c r="D31" s="61"/>
@@ -1472,57 +1507,59 @@
       <c r="N31" s="61"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B31:N31"/>
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="B33:N33"/>
+    <mergeCell ref="B31:N31"/>
     <mergeCell ref="B34:N34"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B6:B7"/>
@@ -1557,157 +1594,157 @@
   <sheetData>
     <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="13">
+      <c r="B3" s="9"/>
+      <c r="C3" s="12">
         <v>45170</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>SUM(E3:G3)</f>
         <v>-50065.676666666666</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <f>-K8/3</f>
         <v>-50065.666666666664</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
         <v>-0.01</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12">
         <v>45261</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f t="shared" ref="D4:D38" si="0">SUM(E4:G4)</f>
         <v>6129</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>6129</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12">
         <v>45352</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>-50065.666666666664</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f>E3</f>
         <v>-50065.666666666664</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>SUM($D$6:D6)</f>
         <v>-60000</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>45505</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>-60000</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
         <f>-24%*K9</f>
         <v>-60000</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <f>SUM($D$6:D7)</f>
         <v>-56575</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>45566</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>3425</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
         <f>1.37%*K9</f>
         <v>3425</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
       <c r="J7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <f>150394.75*0</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f>SUM($D$6:D8)</f>
         <v>-56575</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>45505</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
         <f>-$K$7/5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
       <c r="J8" t="s">
         <v>4</v>
       </c>
@@ -1716,27 +1753,27 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <f>SUM($D$6:D9)</f>
         <v>-56575</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>45566</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
         <f>-9%*G8</f>
         <v>0</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
       <c r="J9" t="s">
         <v>10</v>
       </c>
@@ -1745,25 +1782,25 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f>SUM($D$6:D10)</f>
         <v>-106640.66666666666</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>45717</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>-50065.666666666664</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f>E3</f>
         <v>-50065.666666666664</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7"/>
       <c r="J10" t="s">
         <v>19</v>
       </c>
@@ -1773,25 +1810,25 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f>SUM($D$6:D11)</f>
         <v>-106640.66666666666</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>45870</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
       <c r="J11" t="s">
         <v>21</v>
       </c>
@@ -1801,473 +1838,473 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <f>SUM($D$6:D12)</f>
         <v>-106640.66666666666</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>45870</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
         <f>(0.0425-0.03)*K7</f>
         <v>0</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f>SUM($D$6:D13)</f>
         <v>-118850.66666666666</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>45962</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>-12210</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
         <f>-(6510+K10*K11)</f>
         <v>-12210</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="23" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="23">
         <f>B13</f>
         <v>-118850.66666666666</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f>SUM($D$6:D14)</f>
         <v>-114377.80000666666</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>46082</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f>SUM(E14:G14)</f>
         <v>4472.8666599999997</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f>2.978%*K8</f>
         <v>4472.8666599999997</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="10" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="10" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <f>B5</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <f>SUM($D$6:D15)</f>
         <v>35819.199993333343</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>46082</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f>SUM(E15:G15)</f>
         <v>150197</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f>K8</f>
         <v>150197</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="10" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="7"/>
+      <c r="J15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <f>K13-K14</f>
         <v>-118850.66666666666</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <f>SUM($D$6:D16)</f>
         <v>35819.199993333343</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>46235</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <f>SUM($D$6:D17)</f>
         <v>43844.199993333343</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>46419</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>8024.9999999999991</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
         <f>3.21%*$K$9</f>
         <v>8024.9999999999991</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f>SUM($D$6:D18)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>46419</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11">
         <f>-F6</f>
         <v>60000</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="15" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f>SUM($D$6:D19)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>46600</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <f>SUM($D$6:D20)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>46966</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <f>SUM($D$6:D21)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>47331</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <f>SUM($D$6:D22)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>47331</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11">
         <f>3%*K7</f>
         <v>0</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <f>SUM($D$6:D23)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>47331</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20">
         <f>K7</f>
         <v>0</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="19">
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="18">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <f>SUM(F3:F23)</f>
         <v>-760</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <f>SUM(G3:G23)</f>
         <v>-0.01</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="14">
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="13">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="8"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <f>SUM($D$6:D27)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>47696</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="8"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f>SUM($D$6:D28)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>48061</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="8"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <f>SUM($D$6:D29)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>48427</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="75"/>
-      <c r="I29" s="8"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <f>SUM($D$6:D30)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>48792</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="75"/>
-      <c r="I30" s="8"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <f>SUM($D$6:D31)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>49157</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="75"/>
-      <c r="I31" s="8"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <f>SUM($D$6:D32)</f>
         <v>107119.19999333334</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>46784</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10">
+      <c r="E32" s="11"/>
+      <c r="F32" s="9">
         <f>3.21%*$K$9-$K$10*$K$32</f>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="75"/>
-      <c r="I32" s="8"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
       </c>
@@ -2276,137 +2313,137 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <f>SUM($D$6:D33)</f>
         <v>110394.19999333334</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>47150</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="10">
+      <c r="E33" s="11"/>
+      <c r="F33" s="9">
         <f t="shared" ref="F33:F38" si="1">3.21%*$K$9-$K$10*$K$32</f>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="8"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <f>-F32/F6</f>
         <v>5.4583333333333317E-2</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <f>SUM($D$6:D34)</f>
         <v>113669.19999333334</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>47515</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="10">
+      <c r="E34" s="11"/>
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="8"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <f>SUM($D$6:D35)</f>
         <v>116944.19999333334</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>47880</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="10">
+      <c r="E35" s="11"/>
+      <c r="F35" s="9">
         <f t="shared" si="1"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="8"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <f>SUM($D$6:D36)</f>
         <v>120219.19999333334</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>48245</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="10">
+      <c r="E36" s="11"/>
+      <c r="F36" s="9">
         <f t="shared" si="1"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="8"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f>SUM($D$6:D37)</f>
         <v>123494.19999333334</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>48611</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="10">
+      <c r="E37" s="11"/>
+      <c r="F37" s="9">
         <f t="shared" si="1"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="8"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <f>SUM($D$6:D38)</f>
         <v>126769.19999333334</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>48976</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="10">
+      <c r="E38" s="11"/>
+      <c r="F38" s="9">
         <f t="shared" si="1"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="8"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
@@ -2493,7 +2530,7 @@
       <c r="B9" s="4">
         <v>46082</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>2.978%*F3</f>
         <v>4472.8666599999997</v>
       </c>
@@ -2537,445 +2574,445 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="4.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="44"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="45">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="44">
         <v>45597</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <f>-24%*H6</f>
         <v>-76189.919999999998</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="28">
+      <c r="I3" s="29"/>
+      <c r="J3" s="27">
         <f>9/12</f>
         <v>0.75</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="29">
         <v>2.53E-2</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="31">
         <f>$H$9*J3*K3</f>
         <v>4578.0618180000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="45">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="44">
         <v>45658</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <f>H4*H6</f>
         <v>4349.1746000000003</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="38">
         <v>1.37E-2</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="27">
         <v>1</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="29">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="31">
         <f t="shared" ref="L4:L5" si="0">$H$9*J4*K4</f>
         <v>5621.5462640000005</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="47"/>
-      <c r="G5" s="40" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="46"/>
+      <c r="G5" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="40">
         <f>D9/H6</f>
         <v>3.2760239149745796E-2</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <f>6/12</f>
         <v>0.5</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="29">
         <f>H8</f>
         <v>0.03</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="31">
         <f t="shared" si="0"/>
         <v>3619.0212000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="45">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="44">
         <v>46023</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <f>-SUM(L3:L5)</f>
         <v>-13818.629282000002</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <v>317458</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="47"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="46"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="47"/>
-      <c r="G8" s="37" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="46"/>
+      <c r="G8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <f>B9-D3</f>
         <v>930.54531800000404</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <f>SUM($D$3:D9)</f>
         <v>-75259.374681999994</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>46447</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>10400</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="37">
         <f>H6+D3</f>
         <v>241268.08000000002</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="37" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="36">
+      <c r="A11" s="28"/>
+      <c r="B11" s="35">
         <f>-D11/$D$3</f>
         <v>7.316766312394081E-2</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>46813</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <f>10400-$H$10*$H$9</f>
         <v>5574.6383999999998</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="36">
+      <c r="A12" s="28"/>
+      <c r="B12" s="35">
         <f>-D12/$D$3</f>
         <v>7.316766312394081E-2</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>47178</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="46">
         <f t="shared" ref="D12:D27" si="1">10400-$H$10*$H$9</f>
         <v>5574.6383999999998</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="36">
+      <c r="A13" s="28"/>
+      <c r="B13" s="35">
         <f>-D13/$D$3</f>
         <v>7.316766312394081E-2</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>47543</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="36">
+      <c r="A14" s="28"/>
+      <c r="B14" s="35">
         <f t="shared" ref="B14:B15" si="2">-D14/$D$3</f>
         <v>7.316766312394081E-2</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>47908</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="36">
+      <c r="A15" s="28"/>
+      <c r="B15" s="35">
         <f t="shared" si="2"/>
         <v>7.316766312394081E-2</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="44">
         <v>48274</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="44">
         <v>48639</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="45">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="44">
         <v>49004</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="45">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="44">
         <v>49369</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="45">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="44">
         <v>49735</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="45">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="44">
         <v>50100</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="45">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="44">
         <v>50465</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="45">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="44">
         <v>50830</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="45">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="44">
         <v>51196</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="45">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="44">
         <v>51561</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="45">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="44">
         <v>51926</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="45">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="44">
         <v>52291</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="44">
         <v>52657</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="46">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29">
         <f>XIRR(D3:D28,C3:C28)</f>
         <v>6.5773609280586245E-2</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="44">
         <v>52657</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="46">
         <v>94080</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="34" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3005,38 +3042,38 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="13"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="48">
         <v>410000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>45597</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>-24%*G2</f>
         <v>-98400</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="52">
         <v>0.02</v>
       </c>
       <c r="H3" t="s">
@@ -3046,32 +3083,32 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>45689</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <f>G3*G2</f>
         <v>8200</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="51">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>0.03</v>
       </c>
       <c r="I5">
@@ -3080,7 +3117,7 @@
       <c r="J5" s="2">
         <v>2.53E-2</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <f>$G$6*I5*J5</f>
         <v>5912.61</v>
       </c>
@@ -3088,20 +3125,20 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>46174</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="50">
         <f>-K8</f>
         <v>-24078.89</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <f>G2+D3</f>
         <v>311600</v>
       </c>
@@ -3111,22 +3148,22 @@
       <c r="J6" s="2">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <f>$G$6*I6*J6</f>
         <v>7260.2800000000007</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>0.02</v>
       </c>
       <c r="I7">
@@ -3137,7 +3174,7 @@
         <f>G5</f>
         <v>0.03</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <f>$G$6*I7*J7</f>
         <v>10906</v>
       </c>
@@ -3146,26 +3183,26 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>46692</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="50">
         <f>G4*$G$2</f>
         <v>13857.999999999998</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="18">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="17">
         <f>SUM(K5:K7)</f>
         <v>24078.89</v>
       </c>
@@ -3179,10 +3216,10 @@
         <f>A9-D3</f>
         <v>-2020.8899999999994</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>46692</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="50">
         <f>-$D$3*0</f>
         <v>0</v>
       </c>
@@ -3192,8 +3229,8 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3202,10 +3239,10 @@
         <v>-92794.89</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>47058</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="50">
         <f t="shared" ref="D11:D27" si="0">$G$4*$G$2-$G$7*$G$6</f>
         <v>7625.9999999999982</v>
       </c>
@@ -3219,17 +3256,17 @@
         <v>-85168.89</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>47423</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -3237,49 +3274,49 @@
         <v>-77542.89</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>47788</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM($D$3:D14)</f>
         <v>-69916.89</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>48153</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>SUM($D$3:D15)</f>
         <v>-62290.89</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <f>-D15/D3</f>
         <v>7.7499999999999986E-2</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>48519</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3290,10 +3327,10 @@
         <v>-54664.89</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>48884</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3304,10 +3341,10 @@
         <v>-47038.89</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>49249</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3318,10 +3355,10 @@
         <v>-39412.89</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>49614</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3332,10 +3369,10 @@
         <v>-31786.89</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>49980</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3346,10 +3383,10 @@
         <v>-24160.89</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>50345</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3360,10 +3397,10 @@
         <v>-16534.89</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>50710</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3374,10 +3411,10 @@
         <v>-8908.8900000000012</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>51075</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3388,10 +3425,10 @@
         <v>-1282.8900000000031</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>51441</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3402,10 +3439,10 @@
         <v>6343.1099999999951</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>51806</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3416,10 +3453,10 @@
         <v>13969.109999999993</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>52171</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3430,10 +3467,10 @@
         <v>21595.109999999993</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>52536</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3446,10 +3483,10 @@
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>52902</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="50">
         <f t="shared" si="0"/>
         <v>7625.9999999999982</v>
       </c>
@@ -3463,10 +3500,10 @@
         <f>XIRR(D3:D28,C3:C28)</f>
         <v>5.6375792622566229E-2</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>53267</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="50">
         <f>-D3</f>
         <v>98400</v>
       </c>
@@ -3517,7 +3554,7 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="24">
         <f>XIRR(B2:B27,A2:A27)</f>
         <v>2.9978230595588677E-2</v>
       </c>
@@ -3537,22 +3574,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3561,22 +3598,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3585,20 +3622,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3607,20 +3644,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBF4027-A753-4C98-A9BE-2689A1EA4659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831BDD42-05C6-4626-AC89-202EB3131F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -17,8 +17,7 @@
     <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="FLI2" sheetId="1" r:id="rId3"/>
     <sheet name="FLI2PF 317" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="FWD41" sheetId="10" state="hidden" r:id="rId5"/>
-    <sheet name="xirr test" sheetId="3" r:id="rId6"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>total prem</t>
   </si>
@@ -175,27 +174,9 @@
     <t>watermark of cum outlay since Aug24</t>
   </si>
   <si>
-    <t>FWD down payment</t>
-  </si>
-  <si>
     <t>FWD upfront</t>
   </si>
   <si>
-    <t>first payout FWD</t>
-  </si>
-  <si>
-    <t>36M int cost</t>
-  </si>
-  <si>
-    <t>total prem - FWD</t>
-  </si>
-  <si>
-    <t>FWD DYOC</t>
-  </si>
-  <si>
-    <t>FWD xirr</t>
-  </si>
-  <si>
     <t>surrender FLI2PF #317k to wipe out loan</t>
   </si>
   <si>
@@ -245,15 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve">final 1Y+  LIR </t>
-  </si>
-  <si>
-    <t>&lt; COF+0.4% spread</t>
-  </si>
-  <si>
-    <t>&lt; actually spread out over 12M after</t>
-  </si>
-  <si>
-    <t>&lt;- 3.38% for first 24 payout years</t>
   </si>
   <si>
     <t>surrender FWD to wipe out loan</t>
@@ -287,19 +259,10 @@
     <t>Based on this convention, only the initial down payment is included. All subsequent cash flows are treated as other things.</t>
   </si>
   <si>
-    <t>&lt;- 3.38% for first 24 annual payouts</t>
-  </si>
-  <si>
     <t>net outlay 
 assum`LIR=3%</t>
   </si>
   <si>
-    <t>DYOC is imprecise. The CCCost can be computed multiple ways; I used the simplest convention.</t>
-  </si>
-  <si>
-    <t>&lt; 1M COF + 45 bps over 14M</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
@@ -318,7 +281,40 @@
     <t>14M LIR =</t>
   </si>
   <si>
-    <t>Note: surrender in Nov of Year8 before receiving the Year9 payouts in advance. Clawback 100% otherwise.</t>
+    <t>Note: surrender in Nov of Year8 before receiving the Year9 payouts in advance. Clawback 100% otherwise. (Year8 as eg)</t>
+  </si>
+  <si>
+    <t>DYOC is imprecise. CCCost can be computed multiple ways; I used the simplest convention.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;- 3.38% for first 24 annual payouts, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-guaranteed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 1M COF + 45 bps over 14M, can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hit  4 ppa</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -332,7 +328,7 @@
     <numFmt numFmtId="167" formatCode="0.0000%"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +339,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -518,7 +521,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -577,8 +579,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -594,6 +594,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -644,12 +650,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,34 +968,34 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" style="54" customWidth="1"/>
+    <col min="1" max="1" width="1" style="51" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="54" customWidth="1"/>
+    <col min="4" max="4" width="2" style="51" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.140625" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E2" s="12"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="47">
         <v>300000</v>
       </c>
     </row>
@@ -1003,20 +1003,20 @@
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>45597</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>-24%*I2</f>
         <v>-72000</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="49">
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
@@ -1024,20 +1024,20 @@
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>45689</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>I3*I2</f>
         <v>5610</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="51">
+        <v>44</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="48">
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="J4" t="s">
@@ -1048,112 +1048,112 @@
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9">
+        <v>46174</v>
+      </c>
+      <c r="F6" s="10">
+        <f>-K16</f>
+        <v>-17618.7</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="10">
-        <v>46174</v>
-      </c>
-      <c r="F6" s="11">
-        <f>-K16</f>
-        <v>-20278.7</v>
-      </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="64"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="9" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="47">
         <f>I2+F3</f>
         <v>228000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="55">
+      <c r="B8" s="52">
         <f>SUM($F$3:F8)</f>
-        <v>-76528.7</v>
-      </c>
-      <c r="C8" s="56">
+        <v>-73868.7</v>
+      </c>
+      <c r="C8" s="53">
         <f>B8-F3</f>
-        <v>-4528.6999999999971</v>
+        <v>-1868.6999999999971</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="10">
+        <v>70</v>
+      </c>
+      <c r="E8" s="9">
         <v>46692</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>I4*$I$2</f>
         <v>10139.999999999998</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
+    <row r="10" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <f>SUM($F$3:F11)</f>
-        <v>-72088.7</v>
+        <v>-69428.7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>47058</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f t="shared" ref="F11:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>4439.9999999999982</v>
       </c>
@@ -1161,14 +1161,14 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <f>SUM($F$3:F12)</f>
-        <v>-67648.7</v>
+        <v>-64988.7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>47423</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1180,27 +1180,27 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <f>SUM($F$3:F13)</f>
-        <v>-63208.7</v>
+        <v>-60548.7</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>47788</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H13" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="H13" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="12">
         <v>2.53E-2</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="47">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
         <v>4326.3</v>
       </c>
@@ -1209,29 +1209,29 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <f>SUM($F$3:F14)</f>
-        <v>-58768.7</v>
+        <v>-56108.7</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9">
+        <v>48153</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="10">
-        <v>48153</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H14" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="47">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>5312.4000000000005</v>
       </c>
@@ -1240,69 +1240,69 @@
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f>SUM($F$3:F15)</f>
-        <v>-54328.7</v>
-      </c>
-      <c r="C15" s="26">
+        <v>-51668.7</v>
+      </c>
+      <c r="C15" s="25">
         <f>-F15/F3</f>
         <v>6.166666666666664E-2</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="10">
+      <c r="D15" s="25"/>
+      <c r="E15" s="9">
         <v>48519</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H15" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="H15" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="12">
         <f>I6</f>
-        <v>0.04</v>
-      </c>
-      <c r="K15" s="81">
+        <v>0.03</v>
+      </c>
+      <c r="K15" s="60">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
-        <v>10640</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f>SUM($F$3:F16)</f>
-        <v>-49888.7</v>
+        <v>-47228.7</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>48884</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59">
         <f>SUM(K13:K15)</f>
-        <v>20278.7</v>
+        <v>17618.7</v>
       </c>
       <c r="L16"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <f>SUM($F$3:F17)</f>
-        <v>-45448.7</v>
+        <v>-42788.7</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>49249</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1310,14 +1310,14 @@
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f>SUM($F$3:F18)</f>
-        <v>-41008.699999999997</v>
+        <v>-38348.699999999997</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>49614</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1325,14 +1325,14 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f>SUM($F$3:F19)</f>
-        <v>-36568.699999999997</v>
+        <v>-33908.699999999997</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>49980</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1340,14 +1340,14 @@
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <f>SUM($F$3:F20)</f>
-        <v>-32128.699999999997</v>
+        <v>-29468.699999999997</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>50345</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1355,14 +1355,14 @@
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <f>SUM($F$3:F21)</f>
-        <v>-27688.699999999997</v>
+        <v>-25028.699999999997</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>50710</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1370,14 +1370,14 @@
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <f>SUM($F$3:F22)</f>
-        <v>-23248.699999999997</v>
+        <v>-20588.699999999997</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>51075</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1385,14 +1385,14 @@
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f>SUM($F$3:F23)</f>
-        <v>-18808.699999999997</v>
+        <v>-16148.699999999999</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>51441</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1400,14 +1400,14 @@
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f>SUM($F$3:F24)</f>
-        <v>-14368.699999999999</v>
+        <v>-11708.7</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>51806</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1415,14 +1415,14 @@
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f>SUM($F$3:F25)</f>
-        <v>-9928.7000000000007</v>
+        <v>-7268.7000000000025</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>52171</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1430,14 +1430,14 @@
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f>SUM($F$3:F26)</f>
-        <v>-5488.7000000000025</v>
+        <v>-2828.7000000000044</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>52536</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1445,16 +1445,16 @@
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f>SUM($F$3:F27)</f>
-        <v>-1048.7000000000044</v>
+        <v>1611.2999999999938</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>52902</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
@@ -1462,24 +1462,24 @@
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f>SUM($F$3:F28)</f>
-        <v>70951.299999999988</v>
+        <v>73611.299999999988</v>
       </c>
       <c r="C28" s="2">
         <f>XIRR(F3:F28,E3:E28)</f>
-        <v>4.2764946818351746E-2</v>
+        <v>4.5083108544349673E-2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="10">
+        <v>70</v>
+      </c>
+      <c r="E28" s="9">
         <v>53267</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f>-F3</f>
         <v>72000</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1490,70 +1490,70 @@
       <c r="D29" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
+      <c r="B31" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
+      <c r="B32" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
+      <c r="B33" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1594,156 +1594,156 @@
   <sheetData>
     <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="12">
+      <c r="B3" s="8"/>
+      <c r="C3" s="11">
         <v>45170</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>SUM(E3:G3)</f>
         <v>-50065.676666666666</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>-K8/3</f>
         <v>-50065.666666666664</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
         <v>-0.01</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11">
         <v>45261</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f t="shared" ref="D4:D38" si="0">SUM(E4:G4)</f>
         <v>6129</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>6129</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
         <v>45352</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>-50065.666666666664</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f>E3</f>
         <v>-50065.666666666664</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <f>SUM($D$6:D6)</f>
         <v>-60000</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>45505</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>-60000</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
         <f>-24%*K9</f>
         <v>-60000</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <f>SUM($D$6:D7)</f>
         <v>-56575</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>45566</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>3425</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
         <f>1.37%*K9</f>
         <v>3425</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>150394.75*0</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <f>SUM($D$6:D8)</f>
         <v>-56575</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>45505</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <f>-$K$7/5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="7"/>
       <c r="J8" t="s">
         <v>4</v>
@@ -1753,24 +1753,24 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <f>SUM($D$6:D9)</f>
         <v>-56575</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>45566</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <f>-9%*G8</f>
         <v>0</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="7"/>
@@ -1782,24 +1782,24 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <f>SUM($D$6:D10)</f>
         <v>-106640.66666666666</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>45717</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>-50065.666666666664</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f>E3</f>
         <v>-50065.666666666664</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="7"/>
       <c r="J10" t="s">
         <v>19</v>
@@ -1810,24 +1810,24 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <f>SUM($D$6:D11)</f>
         <v>-106640.66666666666</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>45870</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="7"/>
       <c r="J11" t="s">
         <v>21</v>
@@ -1838,472 +1838,472 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <f>SUM($D$6:D12)</f>
         <v>-106640.66666666666</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>45870</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <f>(0.0425-0.03)*K7</f>
         <v>0</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <f>SUM($D$6:D13)</f>
         <v>-118850.66666666666</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>45962</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>-12210</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
         <f>-(6510+K10*K11)</f>
         <v>-12210</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <f>B13</f>
         <v>-118850.66666666666</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <f>SUM($D$6:D14)</f>
         <v>-114377.80000666666</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>46082</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f>SUM(E14:G14)</f>
         <v>4472.8666599999997</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f>2.978%*K8</f>
         <v>4472.8666599999997</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="9" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <f>B5</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <f>SUM($D$6:D15)</f>
         <v>35819.199993333343</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>46082</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f>SUM(E15:G15)</f>
         <v>150197</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f>K8</f>
         <v>150197</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="9" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <f>K13-K14</f>
         <v>-118850.66666666666</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <f>SUM($D$6:D16)</f>
         <v>35819.199993333343</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>46235</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <f>SUM($D$6:D17)</f>
         <v>43844.199993333343</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>46419</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f t="shared" si="0"/>
         <v>8024.9999999999991</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
         <f>3.21%*$K$9</f>
         <v>8024.9999999999991</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <f>SUM($D$6:D18)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>46419</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
         <f>-F6</f>
         <v>60000</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <f>SUM($D$6:D19)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>46600</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <f>SUM($D$6:D20)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>46966</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <f>SUM($D$6:D21)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>47331</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <f>SUM($D$6:D22)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>47331</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
         <f>3%*K7</f>
         <v>0</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <f>SUM($D$6:D23)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <v>47331</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20">
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
         <f>K7</f>
         <v>0</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="18">
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="17">
         <f>SUM(F3:F23)</f>
         <v>-760</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="17">
         <f>SUM(G3:G23)</f>
         <v>-0.01</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="13">
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="9"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <f>SUM($D$6:D27)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>47696</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="74" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <f>SUM($D$6:D28)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>48061</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="75"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <f>SUM($D$6:D29)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>48427</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="74"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <f>SUM($D$6:D30)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>48792</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="74"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <f>SUM($D$6:D31)</f>
         <v>103844.19999333334</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>49157</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10">
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="74"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <f>SUM($D$6:D32)</f>
         <v>107119.19999333334</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>46784</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="9">
+      <c r="E32" s="10"/>
+      <c r="F32" s="8">
         <f>3.21%*$K$9-$K$10*$K$32</f>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="74"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2313,136 +2313,136 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <f>SUM($D$6:D33)</f>
         <v>110394.19999333334</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>47150</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="9">
+      <c r="E33" s="10"/>
+      <c r="F33" s="8">
         <f t="shared" ref="F33:F38" si="1">3.21%*$K$9-$K$10*$K$32</f>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="74"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="20">
         <f>-F32/F6</f>
         <v>5.4583333333333317E-2</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <f>SUM($D$6:D34)</f>
         <v>113669.19999333334</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>47515</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="9">
+      <c r="E34" s="10"/>
+      <c r="F34" s="8">
         <f t="shared" si="1"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="74"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="75"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <f>SUM($D$6:D35)</f>
         <v>116944.19999333334</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>47880</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="9">
+      <c r="E35" s="10"/>
+      <c r="F35" s="8">
         <f t="shared" si="1"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="74"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="75"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <f>SUM($D$6:D36)</f>
         <v>120219.19999333334</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>48245</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="9">
+      <c r="E36" s="10"/>
+      <c r="F36" s="8">
         <f t="shared" si="1"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="74"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <f>SUM($D$6:D37)</f>
         <v>123494.19999333334</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>48611</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="9">
+      <c r="E37" s="10"/>
+      <c r="F37" s="8">
         <f t="shared" si="1"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="74"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <f>SUM($D$6:D38)</f>
         <v>126769.19999333334</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>48976</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <f t="shared" si="0"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="9">
+      <c r="E38" s="10"/>
+      <c r="F38" s="8">
         <f t="shared" si="1"/>
         <v>3274.9999999999991</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="75"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="76"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -2530,7 +2530,7 @@
       <c r="B9" s="4">
         <v>46082</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f>2.978%*F3</f>
         <v>4472.8666599999997</v>
       </c>
@@ -2574,446 +2574,446 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="4.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="43"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="45" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="44">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="43">
         <v>45597</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <f>-24%*H6</f>
         <v>-76189.919999999998</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="27">
+      <c r="E3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="26">
         <f>9/12</f>
         <v>0.75</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="28">
         <v>2.53E-2</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="30">
         <f>$H$9*J3*K3</f>
         <v>4578.0618180000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="44">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="43">
         <v>45658</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <f>H4*H6</f>
         <v>4349.1746000000003</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="37">
         <v>1.37E-2</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <v>1</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="30">
         <f t="shared" ref="L4:L5" si="0">$H$9*J4*K4</f>
         <v>5621.5462640000005</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="46"/>
-      <c r="G5" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="40">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="45"/>
+      <c r="G5" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="39">
         <f>D9/H6</f>
         <v>3.2760239149745796E-2</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <f>6/12</f>
         <v>0.5</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="28">
         <f>H8</f>
         <v>0.03</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>3619.0212000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="44">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="43">
         <v>46023</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <f>-SUM(L3:L5)</f>
         <v>-13818.629282000002</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="37">
+      <c r="E6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="36">
         <v>317458</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="46"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="A7" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="45"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
-      <c r="G8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="38">
+      <c r="A8" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="45"/>
+      <c r="G8" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="37">
         <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="27">
         <f>B9-D3</f>
         <v>930.54531800000404</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <f>SUM($D$3:D9)</f>
         <v>-75259.374681999994</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="43">
         <v>46447</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>10400</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="36" t="s">
+      <c r="E9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <f>H6+D3</f>
         <v>241268.08000000002</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="36" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="34">
         <f>-D11/$D$3</f>
         <v>7.316766312394081E-2</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
         <v>46813</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <f>10400-$H$10*$H$9</f>
         <v>5574.6383999999998</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="34">
         <f>-D12/$D$3</f>
         <v>7.316766312394081E-2</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="43">
         <v>47178</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <f t="shared" ref="D12:D27" si="1">10400-$H$10*$H$9</f>
         <v>5574.6383999999998</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="34">
         <f>-D13/$D$3</f>
         <v>7.316766312394081E-2</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="43">
         <v>47543</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="34">
         <f t="shared" ref="B14:B15" si="2">-D14/$D$3</f>
         <v>7.316766312394081E-2</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="43">
         <v>47908</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="34">
         <f t="shared" si="2"/>
         <v>7.316766312394081E-2</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="43">
         <v>48274</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="44">
+      <c r="A16" s="27"/>
+      <c r="B16" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="43">
         <v>48639</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="44">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="43">
         <v>49004</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="44">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="43">
         <v>49369</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="44">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="43">
         <v>49735</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="44">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="43">
         <v>50100</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="44">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="43">
         <v>50465</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="44">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="43">
         <v>50830</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="44">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="43">
         <v>51196</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="44">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="43">
         <v>51561</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="44">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="43">
         <v>51926</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="44">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="43">
         <v>52291</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="44">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="43">
         <v>52657</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="45">
         <f t="shared" si="1"/>
         <v>5574.6383999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28">
         <f>XIRR(D3:D28,C3:C28)</f>
         <v>6.5773609280586245E-2</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="43">
         <v>52657</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="45">
         <v>94080</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="E28" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="33" t="s">
-        <v>51</v>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29" t="s">
-        <v>61</v>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
-        <v>63</v>
+      <c r="B32" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3026,512 +3026,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B645DB8D-88AD-45FA-A854-BC1C8DC366C2}">
-  <dimension ref="A2:L31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="12"/>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="48">
-        <v>410000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="10">
-        <v>45597</v>
-      </c>
-      <c r="D3" s="11">
-        <f>-24%*G2</f>
-        <v>-98400</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="52">
-        <v>0.02</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="10">
-        <v>45689</v>
-      </c>
-      <c r="D4" s="49">
-        <f>G3*G2</f>
-        <v>8200</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="51">
-        <v>3.3799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="I5">
-        <v>0.75</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K5" s="17">
-        <f>$G$6*I5*J5</f>
-        <v>5912.61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="10">
-        <v>46174</v>
-      </c>
-      <c r="D6" s="50">
-        <f>-K8</f>
-        <v>-24078.89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="48">
-        <f>G2+D3</f>
-        <v>311600</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K6" s="17">
-        <f>$G$6*I6*J6</f>
-        <v>7260.2800000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="I7">
-        <f>14/12</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="J7" s="2">
-        <f>G5</f>
-        <v>0.03</v>
-      </c>
-      <c r="K7" s="17">
-        <f>$G$6*I7*J7</f>
-        <v>10906</v>
-      </c>
-      <c r="L7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="10">
-        <v>46692</v>
-      </c>
-      <c r="D8" s="50">
-        <f>G4*$G$2</f>
-        <v>13857.999999999998</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="17">
-        <f>SUM(K5:K7)</f>
-        <v>24078.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f>SUM($D$3:D9)</f>
-        <v>-100420.89</v>
-      </c>
-      <c r="B9" s="5">
-        <f>A9-D3</f>
-        <v>-2020.8899999999994</v>
-      </c>
-      <c r="C9" s="10">
-        <v>46692</v>
-      </c>
-      <c r="D9" s="50">
-        <f>-$D$3*0</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>SUM($D$3:D11)</f>
-        <v>-92794.89</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="10">
-        <v>47058</v>
-      </c>
-      <c r="D11" s="50">
-        <f t="shared" ref="D11:D27" si="0">$G$4*$G$2-$G$7*$G$6</f>
-        <v>7625.9999999999982</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f>SUM($D$3:D12)</f>
-        <v>-85168.89</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="10">
-        <v>47423</v>
-      </c>
-      <c r="D12" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f>SUM($D$3:D13)</f>
-        <v>-77542.89</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="10">
-        <v>47788</v>
-      </c>
-      <c r="D13" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f>SUM($D$3:D14)</f>
-        <v>-69916.89</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="10">
-        <v>48153</v>
-      </c>
-      <c r="D14" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f>SUM($D$3:D15)</f>
-        <v>-62290.89</v>
-      </c>
-      <c r="B15" s="26">
-        <f>-D15/D3</f>
-        <v>7.7499999999999986E-2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>48519</v>
-      </c>
-      <c r="D15" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f>SUM($D$3:D16)</f>
-        <v>-54664.89</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="10">
-        <v>48884</v>
-      </c>
-      <c r="D16" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f>SUM($D$3:D17)</f>
-        <v>-47038.89</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="10">
-        <v>49249</v>
-      </c>
-      <c r="D17" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f>SUM($D$3:D18)</f>
-        <v>-39412.89</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="10">
-        <v>49614</v>
-      </c>
-      <c r="D18" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f>SUM($D$3:D19)</f>
-        <v>-31786.89</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="10">
-        <v>49980</v>
-      </c>
-      <c r="D19" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f>SUM($D$3:D20)</f>
-        <v>-24160.89</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="10">
-        <v>50345</v>
-      </c>
-      <c r="D20" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f>SUM($D$3:D21)</f>
-        <v>-16534.89</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="10">
-        <v>50710</v>
-      </c>
-      <c r="D21" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f>SUM($D$3:D22)</f>
-        <v>-8908.8900000000012</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="10">
-        <v>51075</v>
-      </c>
-      <c r="D22" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f>SUM($D$3:D23)</f>
-        <v>-1282.8900000000031</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="10">
-        <v>51441</v>
-      </c>
-      <c r="D23" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <f>SUM($D$3:D24)</f>
-        <v>6343.1099999999951</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="10">
-        <v>51806</v>
-      </c>
-      <c r="D24" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <f>SUM($D$3:D25)</f>
-        <v>13969.109999999993</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="10">
-        <v>52171</v>
-      </c>
-      <c r="D25" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <f>SUM($D$3:D26)</f>
-        <v>21595.109999999993</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="10">
-        <v>52536</v>
-      </c>
-      <c r="D26" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <f>SUM($D$3:D27)</f>
-        <v>29221.109999999993</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="10">
-        <v>52902</v>
-      </c>
-      <c r="D27" s="50">
-        <f t="shared" si="0"/>
-        <v>7625.9999999999982</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <f>SUM($D$3:D28)</f>
-        <v>127621.10999999999</v>
-      </c>
-      <c r="B28" s="2">
-        <f>XIRR(D3:D28,C3:C28)</f>
-        <v>5.6375792622566229E-2</v>
-      </c>
-      <c r="C28" s="10">
-        <v>53267</v>
-      </c>
-      <c r="D28" s="50">
-        <f>-D3</f>
-        <v>98400</v>
-      </c>
-      <c r="E28" s="6" t="str">
-        <f>E9</f>
-        <v>surrender FWD to wipe out loan</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:B7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -3554,7 +3048,7 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="23">
         <f>XIRR(B2:B27,A2:A27)</f>
         <v>2.9978230595588677E-2</v>
       </c>
@@ -3574,22 +3068,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
+      <c r="E3" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3598,22 +3092,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+      <c r="E4" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3622,20 +3116,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3644,20 +3138,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831BDD42-05C6-4626-AC89-202EB3131F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26163292-E3BD-4DED-ACF3-39F5FF847AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>total prem</t>
   </si>
@@ -228,9 +228,6 @@
     <t xml:space="preserve">final 1Y+  LIR </t>
   </si>
   <si>
-    <t>surrender FWD to wipe out loan</t>
-  </si>
-  <si>
     <t>FWD300k is better in concentration risk, more prudent, in terms of worst-case PnL, monthly loan int</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>&lt;-</t>
   </si>
   <si>
-    <t>Based on this convention, only the initial down payment is included. All subsequent cash flows are treated as other things.</t>
-  </si>
-  <si>
     <t>net outlay 
 assum`LIR=3%</t>
   </si>
@@ -279,9 +273,6 @@
   </si>
   <si>
     <t>14M LIR =</t>
-  </si>
-  <si>
-    <t>Note: surrender in Nov of Year8 before receiving the Year9 payouts in advance. Clawback 100% otherwise. (Year8 as eg)</t>
   </si>
   <si>
     <t>DYOC is imprecise. CCCost can be computed multiple ways; I used the simplest convention.</t>
@@ -316,6 +307,18 @@
       <t>hit  4 ppa</t>
     </r>
   </si>
+  <si>
+    <t>.. Based on this convention, only the initial down payment is included. All subsequent cash flows are treated as other things.</t>
+  </si>
+  <si>
+    <t>Surrender in Nov of Year8 before receiving the Year9 payouts in advance. Clawback 100% otherwise. (Year8 as eg)</t>
+  </si>
+  <si>
+    <t>surrender FWD to wipe out loan, but $0 annual payout</t>
+  </si>
+  <si>
+    <t>Let's not use this s/s to record any actual instalment… too messy.</t>
+  </si>
 </sst>
 </file>
 
@@ -328,7 +331,7 @@
     <numFmt numFmtId="167" formatCode="0.0000%"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +353,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +369,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -505,12 +515,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -589,8 +608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,6 +667,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,7 +988,7 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1031,7 @@
         <v>-72000</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>13</v>
@@ -1041,27 +1061,27 @@
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="56"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="63" t="s">
-        <v>66</v>
+      <c r="G5" s="61" t="s">
+        <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>69</v>
+      <c r="B6" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="9">
@@ -1071,7 +1091,7 @@
         <f>-K16</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="63"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1079,16 +1099,16 @@
         <v>0.03</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="65"/>
-      <c r="C7" s="67"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="41"/>
-      <c r="E7" s="56"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="63"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1127,7 @@
         <v>-1868.6999999999971</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="9">
         <v>46692</v>
@@ -1120,15 +1140,15 @@
         <v>3</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -1154,7 +1174,7 @@
         <v>47058</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" ref="F11:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
+        <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>4439.9999999999982</v>
       </c>
     </row>
@@ -1169,7 +1189,7 @@
         <v>47423</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F11:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>4439.9999999999982</v>
       </c>
       <c r="H12" s="7"/>
@@ -1191,11 +1211,11 @@
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>73</v>
+      <c r="H13" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J13" s="12">
         <v>2.53E-2</v>
@@ -1212,7 +1232,7 @@
         <v>-56108.7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="9">
@@ -1222,11 +1242,11 @@
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H14" s="57" t="s">
-        <v>74</v>
+      <c r="H14" s="55" t="s">
+        <v>72</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J14" s="12">
         <v>2.3300000000000001E-2</v>
@@ -1254,17 +1274,17 @@
         <f t="shared" si="0"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H15" s="57" t="s">
-        <v>75</v>
+      <c r="H15" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J15" s="12">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="58">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>7980</v>
       </c>
@@ -1285,8 +1305,8 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59">
+      <c r="J16" s="56"/>
+      <c r="K16" s="57">
         <f>SUM(K13:K15)</f>
         <v>17618.7</v>
       </c>
@@ -1469,7 +1489,7 @@
         <v>4.5083108544349673E-2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="9">
         <v>53267</v>
@@ -1479,7 +1499,7 @@
         <v>72000</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1490,70 +1510,72 @@
       <c r="D29" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
+      <c r="B31" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
+      <c r="B34" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1574,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,11 +2151,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2150,9 +2172,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2194,7 +2216,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="72" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -2217,7 +2239,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="75"/>
+      <c r="H28" s="73"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2238,7 +2260,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="75"/>
+      <c r="H29" s="73"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2259,7 +2281,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="75"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2280,7 +2302,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="75"/>
+      <c r="H31" s="73"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2303,7 +2325,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="75"/>
+      <c r="H32" s="73"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2330,7 +2352,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="75"/>
+      <c r="H33" s="73"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2358,7 +2380,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="75"/>
+      <c r="H34" s="73"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2379,7 +2401,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="75"/>
+      <c r="H35" s="73"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2400,7 +2422,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="75"/>
+      <c r="H36" s="73"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2421,7 +2443,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="75"/>
+      <c r="H37" s="73"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2442,11 +2464,11 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="76"/>
+      <c r="H38" s="74"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H40" t="s">
+    <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="H40" s="77" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2694,10 +2716,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -3068,22 +3090,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
+      <c r="E3" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3092,22 +3114,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
+      <c r="E4" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3116,20 +3138,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3138,20 +3160,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26163292-E3BD-4DED-ACF3-39F5FF847AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE654EAD-D14D-47CE-9FB1-A0AEBA0CF023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="FWD300" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>total prem</t>
   </si>
@@ -276,21 +276,6 @@
   </si>
   <si>
     <t>DYOC is imprecise. CCCost can be computed multiple ways; I used the simplest convention.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;- 3.38% for first 24 annual payouts, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>non-guaranteed</t>
-    </r>
   </si>
   <si>
     <r>
@@ -318,6 +303,30 @@
   </si>
   <si>
     <t>Let's not use this s/s to record any actual instalment… too messy.</t>
+  </si>
+  <si>
+    <t>loan disbursed</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>monthly est</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 3.38% for first 24 annual payouts, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-guaranteed</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -617,6 +626,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -667,9 +679,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,7 +997,7 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1012,7 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.140625" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1061,7 +1070,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1070,17 +1079,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="64" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="67" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -1091,7 +1100,7 @@
         <f>-K16</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="61"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1099,21 +1108,20 @@
         <v>0.03</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="61"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="8" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I7" s="47">
-        <f>I2+F3</f>
         <v>228000</v>
       </c>
     </row>
@@ -1147,8 +1155,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -1189,13 +1197,18 @@
         <v>47423</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" ref="F11:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
+        <f t="shared" ref="F12:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>4439.9999999999982</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
@@ -1224,7 +1237,9 @@
         <f>$I$7*LEFT(I13,2)/12*J13</f>
         <v>4326.3</v>
       </c>
-      <c r="L13"/>
+      <c r="L13">
+        <v>490</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
@@ -1499,7 +1514,7 @@
         <v>72000</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1510,72 +1525,72 @@
       <c r="D29" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
+      <c r="B31" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
+      <c r="B33" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
+      <c r="B34" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2151,11 +2166,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2172,9 +2187,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2216,7 +2231,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="72" t="s">
+      <c r="H27" s="75" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -2239,7 +2254,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2260,7 +2275,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="73"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2281,7 +2296,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="73"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2302,7 +2317,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="73"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2325,7 +2340,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="73"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2352,7 +2367,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="73"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2380,7 +2395,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="73"/>
+      <c r="H34" s="76"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2401,7 +2416,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="73"/>
+      <c r="H35" s="76"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2422,7 +2437,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="73"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2443,7 +2458,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="73"/>
+      <c r="H37" s="76"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2464,11 +2479,11 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="74"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="H40" s="77" t="s">
+      <c r="H40" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2716,10 +2731,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -3090,22 +3105,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3114,22 +3129,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3138,20 +3153,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3160,20 +3175,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE0C2C-20EA-4B08-974E-97B0E4D0B4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4317FD-BEC7-45E3-A0B2-E0536465F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="3" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="FWD300" sheetId="9" r:id="rId1"/>
     <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="FLI2" sheetId="1" r:id="rId3"/>
+    <sheet name="FLI250" sheetId="10" r:id="rId3"/>
     <sheet name="FLI2PF 317" sheetId="5" r:id="rId4"/>
-    <sheet name="xirr test" sheetId="3" r:id="rId5"/>
+    <sheet name="FLI2" sheetId="1" r:id="rId5"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>total prem</t>
   </si>
@@ -327,6 +328,27 @@
       </rPr>
       <t>non-guaranteed</t>
     </r>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>FLI upfront</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last window  LIR </t>
+  </si>
+  <si>
+    <t>08M LIR =</t>
+  </si>
+  <si>
+    <t>10M LIR =</t>
+  </si>
+  <si>
+    <t>30M int cost</t>
+  </si>
+  <si>
+    <t>Surrender bonus=17k+ after 20Y?</t>
   </si>
 </sst>
 </file>
@@ -370,12 +392,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -538,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -629,6 +657,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -673,6 +739,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,7 +1080,7 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,17 +1162,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="90" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="93" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -1100,7 +1183,7 @@
         <f>-K16</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1112,12 +1195,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="66"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="8" t="s">
         <v>83</v>
       </c>
@@ -1525,72 +1608,72 @@
       <c r="D29" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2166,11 +2249,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2187,9 +2270,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2231,7 +2314,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="101" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -2254,7 +2337,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="102"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2275,7 +2358,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="76"/>
+      <c r="H29" s="102"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2296,7 +2379,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="76"/>
+      <c r="H30" s="102"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2317,7 +2400,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="76"/>
+      <c r="H31" s="102"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2340,7 +2423,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="76"/>
+      <c r="H32" s="102"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2367,7 +2450,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="76"/>
+      <c r="H33" s="102"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2395,7 +2478,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="76"/>
+      <c r="H34" s="102"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2416,7 +2499,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="76"/>
+      <c r="H35" s="102"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2437,7 +2520,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="76"/>
+      <c r="H36" s="102"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2458,7 +2541,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="76"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2479,7 +2562,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="77"/>
+      <c r="H38" s="103"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -2498,6 +2581,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B97558D-340A-4915-9138-05C94A67D7D4}">
+  <dimension ref="B2:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1" style="62" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="62" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="87" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="62" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="62"/>
+    <col min="10" max="10" width="6.140625" style="62" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="63"/>
+      <c r="F2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="65">
+        <v>250774</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69">
+        <v>45597</v>
+      </c>
+      <c r="F3" s="70">
+        <f>I7-I2</f>
+        <v>-60774</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="71">
+        <v>8.6730000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69">
+        <v>45689</v>
+      </c>
+      <c r="F4" s="70">
+        <f>I3*I2</f>
+        <v>2174.9629020000002</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="71">
+        <v>3.2554E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69">
+        <v>46082</v>
+      </c>
+      <c r="F6" s="70">
+        <f>-K16</f>
+        <v>-12381.666666666666</v>
+      </c>
+      <c r="G6" s="105"/>
+      <c r="H6" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="107"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="65">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="76">
+        <f>SUM($F$3:F8)</f>
+        <v>-62817.006968666668</v>
+      </c>
+      <c r="C8" s="77">
+        <f>B8-F3</f>
+        <v>-2043.0069686666684</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="69">
+        <v>46569</v>
+      </c>
+      <c r="F8" s="70">
+        <f>I4*$I$2</f>
+        <v>8163.6967960000002</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="74">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="80"/>
+      <c r="L10" s="62"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="67">
+        <f>SUM($F$3:F11)</f>
+        <v>-59403.310172666665</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69">
+        <v>46935</v>
+      </c>
+      <c r="F11" s="70">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="67">
+        <f>SUM($F$3:F12)</f>
+        <v>-55989.613376666661</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69">
+        <v>47300</v>
+      </c>
+      <c r="F12" s="70">
+        <f t="shared" ref="F12:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="67">
+        <f>SUM($F$3:F13)</f>
+        <v>-52575.916580666657</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69">
+        <v>47665</v>
+      </c>
+      <c r="F13" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H13" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="74">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K13" s="65">
+        <f>$I$7*LEFT(I13,2)/12*J13</f>
+        <v>3204.6666666666665</v>
+      </c>
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="67">
+        <f>SUM($F$3:F14)</f>
+        <v>-49162.219784666653</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="69">
+        <v>48030</v>
+      </c>
+      <c r="F14" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H14" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="74">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K14" s="65">
+        <f>$I$7*LEFT(I14,2)/12*J14</f>
+        <v>4427</v>
+      </c>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="67">
+        <f>SUM($F$3:F15)</f>
+        <v>-45748.522988666649</v>
+      </c>
+      <c r="C15" s="83">
+        <f>-F15/F3</f>
+        <v>5.617034909665318E-2</v>
+      </c>
+      <c r="D15" s="83"/>
+      <c r="E15" s="69">
+        <v>48396</v>
+      </c>
+      <c r="F15" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H15" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="74">
+        <f>I6</f>
+        <v>0.03</v>
+      </c>
+      <c r="K15" s="84">
+        <f>$I$7*LEFT(I15,2)/12*J15</f>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="67">
+        <f>SUM($F$3:F16)</f>
+        <v>-42334.826192666646</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69">
+        <v>48761</v>
+      </c>
+      <c r="F16" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86">
+        <f>SUM(K13:K15)</f>
+        <v>12381.666666666666</v>
+      </c>
+      <c r="L16" s="62"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="67">
+        <f>SUM($F$3:F17)</f>
+        <v>-38921.129396666642</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69">
+        <v>49126</v>
+      </c>
+      <c r="F17" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="67">
+        <f>SUM($F$3:F18)</f>
+        <v>-35507.432600666638</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69">
+        <v>49491</v>
+      </c>
+      <c r="F18" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="67">
+        <f>SUM($F$3:F19)</f>
+        <v>-32093.735804666638</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69">
+        <v>49857</v>
+      </c>
+      <c r="F19" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="67">
+        <f>SUM($F$3:F20)</f>
+        <v>-28680.039008666638</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69">
+        <v>50222</v>
+      </c>
+      <c r="F20" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="67">
+        <f>SUM($F$3:F21)</f>
+        <v>-25266.342212666637</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69">
+        <v>50587</v>
+      </c>
+      <c r="F21" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="67">
+        <f>SUM($F$3:F22)</f>
+        <v>-21852.645416666637</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69">
+        <v>50952</v>
+      </c>
+      <c r="F22" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="67">
+        <f>SUM($F$3:F23)</f>
+        <v>-18438.948620666637</v>
+      </c>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69">
+        <v>51318</v>
+      </c>
+      <c r="F23" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="67">
+        <f>SUM($F$3:F24)</f>
+        <v>-15025.251824666637</v>
+      </c>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69">
+        <v>51683</v>
+      </c>
+      <c r="F24" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="67">
+        <f>SUM($F$3:F25)</f>
+        <v>-11611.555028666637</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69">
+        <v>52048</v>
+      </c>
+      <c r="F25" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="67">
+        <f>SUM($F$3:F26)</f>
+        <v>-8197.8582326666365</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69">
+        <v>52413</v>
+      </c>
+      <c r="F26" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="67">
+        <f>SUM($F$3:F27)</f>
+        <v>-4784.1614366666363</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69">
+        <v>52779</v>
+      </c>
+      <c r="F27" s="70">
+        <f t="shared" si="0"/>
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="67">
+        <f>SUM($F$3:F28)</f>
+        <v>55989.838563333367</v>
+      </c>
+      <c r="C28" s="68">
+        <f>XIRR(F3:F28,E3:E28)</f>
+        <v>4.1521361470222479E-2</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="69">
+        <v>53144</v>
+      </c>
+      <c r="F28" s="70">
+        <f>-F3</f>
+        <v>60774</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B34:N34"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B33:N33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
+  <dimension ref="A2:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="42"/>
+      <c r="D2" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="43">
+        <v>45597</v>
+      </c>
+      <c r="D3" s="45">
+        <f>-24%*H6</f>
+        <v>-76189.919999999998</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="26">
+        <f>9/12</f>
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="28">
+        <v>2.53E-2</v>
+      </c>
+      <c r="L3" s="30">
+        <f>$H$9*J3*K3</f>
+        <v>4578.0618180000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="43">
+        <v>45658</v>
+      </c>
+      <c r="D4" s="45">
+        <f>H4*H6</f>
+        <v>4349.1746000000003</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="37">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="28">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="L4" s="30">
+        <f t="shared" ref="L4:L5" si="0">$H$9*J4*K4</f>
+        <v>5621.5462640000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="45"/>
+      <c r="G5" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="39">
+        <f>D9/H6</f>
+        <v>3.2760239149745796E-2</v>
+      </c>
+      <c r="J5" s="26">
+        <f>6/12</f>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="28">
+        <f>H8</f>
+        <v>0.03</v>
+      </c>
+      <c r="L5" s="30">
+        <f t="shared" si="0"/>
+        <v>3619.0212000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="43">
+        <v>46023</v>
+      </c>
+      <c r="D6" s="45">
+        <f>-SUM(L3:L5)</f>
+        <v>-13818.629282000002</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="36">
+        <v>317458</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="112"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="45"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="45"/>
+      <c r="G8" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <f>B9-D3</f>
+        <v>930.54531800000404</v>
+      </c>
+      <c r="B9" s="27">
+        <f>SUM($D$3:D9)</f>
+        <v>-75259.374681999994</v>
+      </c>
+      <c r="C9" s="43">
+        <v>46447</v>
+      </c>
+      <c r="D9" s="45">
+        <v>10400</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="36">
+        <f>H6+D3</f>
+        <v>241268.08000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="34">
+        <f>-D11/$D$3</f>
+        <v>5.7334329790607458E-2</v>
+      </c>
+      <c r="C11" s="43">
+        <v>46813</v>
+      </c>
+      <c r="D11" s="45">
+        <f>10400-$H$10*$H$9</f>
+        <v>4368.2979999999989</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="34">
+        <f>-D12/$D$3</f>
+        <v>5.7334329790607458E-2</v>
+      </c>
+      <c r="C12" s="43">
+        <v>47178</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" ref="D12:D27" si="1">10400-$H$10*$H$9</f>
+        <v>4368.2979999999989</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="34">
+        <f>-D13/$D$3</f>
+        <v>5.7334329790607458E-2</v>
+      </c>
+      <c r="C13" s="43">
+        <v>47543</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="34">
+        <f t="shared" ref="B14:B15" si="2">-D14/$D$3</f>
+        <v>5.7334329790607458E-2</v>
+      </c>
+      <c r="C14" s="43">
+        <v>47908</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="34">
+        <f t="shared" si="2"/>
+        <v>5.7334329790607458E-2</v>
+      </c>
+      <c r="C15" s="43">
+        <v>48274</v>
+      </c>
+      <c r="D15" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="43">
+        <v>48639</v>
+      </c>
+      <c r="D16" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="43">
+        <v>49004</v>
+      </c>
+      <c r="D17" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="43">
+        <v>49369</v>
+      </c>
+      <c r="D18" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="43">
+        <v>49735</v>
+      </c>
+      <c r="D19" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="43">
+        <v>50100</v>
+      </c>
+      <c r="D20" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="43">
+        <v>50465</v>
+      </c>
+      <c r="D21" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="43">
+        <v>50830</v>
+      </c>
+      <c r="D22" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="43">
+        <v>51196</v>
+      </c>
+      <c r="D23" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="43">
+        <v>51561</v>
+      </c>
+      <c r="D24" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="43">
+        <v>51926</v>
+      </c>
+      <c r="D25" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="43">
+        <v>52291</v>
+      </c>
+      <c r="D26" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="43">
+        <v>52657</v>
+      </c>
+      <c r="D27" s="45">
+        <f t="shared" si="1"/>
+        <v>4368.2979999999989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28">
+        <f>XIRR(D3:D28,C3:C28)</f>
+        <v>5.4609712958335874E-2</v>
+      </c>
+      <c r="C28" s="43">
+        <v>52657</v>
+      </c>
+      <c r="D28" s="45">
+        <v>94080</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -2601,468 +3752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
-  <dimension ref="A2:L32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="42"/>
-      <c r="D2" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="43">
-        <v>45597</v>
-      </c>
-      <c r="D3" s="45">
-        <f>-24%*H6</f>
-        <v>-76189.919999999998</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="26">
-        <f>9/12</f>
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="28">
-        <v>2.53E-2</v>
-      </c>
-      <c r="L3" s="30">
-        <f>$H$9*J3*K3</f>
-        <v>4578.0618180000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="43">
-        <v>45658</v>
-      </c>
-      <c r="D4" s="45">
-        <f>H4*H6</f>
-        <v>4349.1746000000003</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="37">
-        <v>1.37E-2</v>
-      </c>
-      <c r="J4" s="26">
-        <v>1</v>
-      </c>
-      <c r="K4" s="28">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="L4" s="30">
-        <f t="shared" ref="L4:L5" si="0">$H$9*J4*K4</f>
-        <v>5621.5462640000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="45"/>
-      <c r="G5" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="39">
-        <f>D9/H6</f>
-        <v>3.2760239149745796E-2</v>
-      </c>
-      <c r="J5" s="26">
-        <f>6/12</f>
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="28">
-        <f>H8</f>
-        <v>0.03</v>
-      </c>
-      <c r="L5" s="30">
-        <f t="shared" si="0"/>
-        <v>3619.0212000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="43">
-        <v>46023</v>
-      </c>
-      <c r="D6" s="45">
-        <f>-SUM(L3:L5)</f>
-        <v>-13818.629282000002</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="36">
-        <v>317458</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="45"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="45"/>
-      <c r="G8" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="37">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <f>B9-D3</f>
-        <v>930.54531800000404</v>
-      </c>
-      <c r="B9" s="27">
-        <f>SUM($D$3:D9)</f>
-        <v>-75259.374681999994</v>
-      </c>
-      <c r="C9" s="43">
-        <v>46447</v>
-      </c>
-      <c r="D9" s="45">
-        <v>10400</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="36">
-        <f>H6+D3</f>
-        <v>241268.08000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="37">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="34">
-        <f>-D11/$D$3</f>
-        <v>7.316766312394081E-2</v>
-      </c>
-      <c r="C11" s="43">
-        <v>46813</v>
-      </c>
-      <c r="D11" s="45">
-        <f>10400-$H$10*$H$9</f>
-        <v>5574.6383999999998</v>
-      </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="34">
-        <f>-D12/$D$3</f>
-        <v>7.316766312394081E-2</v>
-      </c>
-      <c r="C12" s="43">
-        <v>47178</v>
-      </c>
-      <c r="D12" s="45">
-        <f t="shared" ref="D12:D27" si="1">10400-$H$10*$H$9</f>
-        <v>5574.6383999999998</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="34">
-        <f>-D13/$D$3</f>
-        <v>7.316766312394081E-2</v>
-      </c>
-      <c r="C13" s="43">
-        <v>47543</v>
-      </c>
-      <c r="D13" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="34">
-        <f t="shared" ref="B14:B15" si="2">-D14/$D$3</f>
-        <v>7.316766312394081E-2</v>
-      </c>
-      <c r="C14" s="43">
-        <v>47908</v>
-      </c>
-      <c r="D14" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="34">
-        <f t="shared" si="2"/>
-        <v>7.316766312394081E-2</v>
-      </c>
-      <c r="C15" s="43">
-        <v>48274</v>
-      </c>
-      <c r="D15" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="43">
-        <v>48639</v>
-      </c>
-      <c r="D16" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="43">
-        <v>49004</v>
-      </c>
-      <c r="D17" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="43">
-        <v>49369</v>
-      </c>
-      <c r="D18" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="43">
-        <v>49735</v>
-      </c>
-      <c r="D19" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="43">
-        <v>50100</v>
-      </c>
-      <c r="D20" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="43">
-        <v>50465</v>
-      </c>
-      <c r="D21" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="43">
-        <v>50830</v>
-      </c>
-      <c r="D22" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="43">
-        <v>51196</v>
-      </c>
-      <c r="D23" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="43">
-        <v>51561</v>
-      </c>
-      <c r="D24" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="43">
-        <v>51926</v>
-      </c>
-      <c r="D25" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="43">
-        <v>52291</v>
-      </c>
-      <c r="D26" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="43">
-        <v>52657</v>
-      </c>
-      <c r="D27" s="45">
-        <f t="shared" si="1"/>
-        <v>5574.6383999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28">
-        <f>XIRR(D3:D28,C3:C28)</f>
-        <v>6.5773609280586245E-2</v>
-      </c>
-      <c r="C28" s="43">
-        <v>52657</v>
-      </c>
-      <c r="D28" s="45">
-        <v>94080</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:B7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -3105,22 +3795,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3129,22 +3819,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3153,20 +3843,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3175,20 +3865,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4317FD-BEC7-45E3-A0B2-E0536465F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DA45B9-5A79-4DF7-B94C-45937CB7E143}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -20,19 +20,10 @@
     <sheet name="FLI2" sheetId="1" r:id="rId5"/>
     <sheet name="xirr test" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2585,7 +2576,7 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,7 +2614,7 @@
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="69">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="F3" s="70">
         <f>I7-I2</f>
@@ -3085,7 +3076,7 @@
       </c>
       <c r="C28" s="68">
         <f>XIRR(F3:F28,E3:E28)</f>
-        <v>4.1521361470222479E-2</v>
+        <v>4.1984340548515325E-2</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>69</v>
@@ -3192,7 +3183,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DA45B9-5A79-4DF7-B94C-45937CB7E143}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51944AB-2C16-4021-A2CB-37348D80ED71}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -2576,7 +2576,7 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,7 +2635,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="69">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="F4" s="70">
         <f>I3*I2</f>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="C28" s="68">
         <f>XIRR(F3:F28,E3:E28)</f>
-        <v>4.1984340548515325E-2</v>
+        <v>4.1976687312126157E-2</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>69</v>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51944AB-2C16-4021-A2CB-37348D80ED71}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC588C-8DB2-4542-A85F-83388BB95736}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
   <si>
     <t>total prem</t>
   </si>
@@ -339,7 +339,10 @@
     <t>30M int cost</t>
   </si>
   <si>
-    <t>Surrender bonus=17k+ after 20Y?</t>
+    <t>Surrender bonus=14k+ after 20Y</t>
+  </si>
+  <si>
+    <t>&lt; let's have a round number here</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,44 +651,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -730,29 +695,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,7 +1074,7 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,17 +1156,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="64" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="67" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -1174,7 +1177,7 @@
         <f>-K16</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="90"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1186,12 +1189,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="92"/>
-      <c r="C7" s="94"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="90"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="8" t="s">
         <v>83</v>
       </c>
@@ -1599,72 +1602,72 @@
       <c r="D29" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2240,11 +2243,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2261,9 +2264,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2305,7 +2308,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="101" t="s">
+      <c r="H27" s="75" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -2328,7 +2331,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="102"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2349,7 +2352,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="102"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2370,7 +2373,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="102"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2391,7 +2394,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="102"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2414,7 +2417,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="102"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2441,7 +2444,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="102"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2469,7 +2472,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="102"/>
+      <c r="H34" s="76"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2490,7 +2493,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="102"/>
+      <c r="H35" s="76"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2511,7 +2514,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="102"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2532,7 +2535,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="102"/>
+      <c r="H37" s="76"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2553,7 +2556,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="103"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -2576,592 +2579,595 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" style="62" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="62" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="62" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="62"/>
-    <col min="10" max="10" width="6.140625" style="62" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="1" style="80" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="80" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="80" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="80"/>
+    <col min="10" max="10" width="6.140625" style="80" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="84" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E2" s="63"/>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="83">
         <v>250774</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87">
         <v>45658</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="88">
         <f>I7-I2</f>
         <v>-60774</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="71">
-        <v>8.6730000000000002E-3</v>
+      <c r="I3" s="89">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69">
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87">
         <v>45717</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="88">
         <f>I3*I2</f>
-        <v>2174.9629020000002</v>
-      </c>
-      <c r="G4" s="62" t="s">
+        <v>2507.7400000000002</v>
+      </c>
+      <c r="G4" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="89">
         <v>3.2554E-2</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="105" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69">
+      <c r="D6" s="86"/>
+      <c r="E6" s="87">
         <v>46082</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="88">
         <f>-K16</f>
         <v>-12381.666666666666</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="92"/>
+      <c r="H6" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="95">
         <v>0.03</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="80" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="107"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="64" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="83">
         <v>190000</v>
       </c>
+      <c r="J7" s="80" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="76">
+      <c r="B8" s="99">
         <f>SUM($F$3:F8)</f>
-        <v>-62817.006968666668</v>
-      </c>
-      <c r="C8" s="77">
+        <v>-62484.229870666662</v>
+      </c>
+      <c r="C8" s="100">
         <f>B8-F3</f>
-        <v>-2043.0069686666684</v>
-      </c>
-      <c r="D8" s="67" t="s">
+        <v>-1710.2298706666625</v>
+      </c>
+      <c r="D8" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="87">
         <v>46569</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="88">
         <f>I4*$I$2</f>
         <v>8163.6967960000002</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="95">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="80"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="103"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="80"/>
-      <c r="L10" s="62"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="103"/>
+      <c r="L10" s="80"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="67">
+      <c r="B11" s="85">
         <f>SUM($F$3:F11)</f>
-        <v>-59403.310172666665</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69">
+        <v>-59070.533074666659</v>
+      </c>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87">
         <v>46935</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="88">
         <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="67">
+      <c r="B12" s="85">
         <f>SUM($F$3:F12)</f>
-        <v>-55989.613376666661</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69">
+        <v>-55656.836278666655</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87">
         <v>47300</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="88">
         <f t="shared" ref="F12:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81" t="s">
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="84" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="67">
+      <c r="B13" s="85">
         <f>SUM($F$3:F13)</f>
-        <v>-52575.916580666657</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69">
+        <v>-52243.139482666651</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87">
         <v>47665</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J13" s="95">
         <v>2.53E-2</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="83">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
         <v>3204.6666666666665</v>
       </c>
-      <c r="L13" s="62"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="67">
+      <c r="B14" s="85">
         <f>SUM($F$3:F14)</f>
-        <v>-49162.219784666653</v>
-      </c>
-      <c r="C14" s="81" t="s">
+        <v>-48829.442686666647</v>
+      </c>
+      <c r="C14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="69">
+      <c r="D14" s="104"/>
+      <c r="E14" s="87">
         <v>48030</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="95">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="83">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4427</v>
       </c>
-      <c r="L14" s="62"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67">
+      <c r="B15" s="85">
         <f>SUM($F$3:F15)</f>
-        <v>-45748.522988666649</v>
-      </c>
-      <c r="C15" s="83">
+        <v>-45415.745890666643</v>
+      </c>
+      <c r="C15" s="106">
         <f>-F15/F3</f>
         <v>5.617034909665318E-2</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="69">
+      <c r="D15" s="106"/>
+      <c r="E15" s="87">
         <v>48396</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="95">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="107">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="67">
+      <c r="B16" s="85">
         <f>SUM($F$3:F16)</f>
-        <v>-42334.826192666646</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69">
+        <v>-42002.04909466664</v>
+      </c>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87">
         <v>48761</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86">
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="109">
         <f>SUM(K13:K15)</f>
         <v>12381.666666666666</v>
       </c>
-      <c r="L16" s="62"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="67">
+      <c r="B17" s="85">
         <f>SUM($F$3:F17)</f>
-        <v>-38921.129396666642</v>
-      </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69">
+        <v>-38588.352298666636</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87">
         <v>49126</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="67">
+      <c r="B18" s="85">
         <f>SUM($F$3:F18)</f>
-        <v>-35507.432600666638</v>
-      </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69">
+        <v>-35174.655502666632</v>
+      </c>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87">
         <v>49491</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="67">
+      <c r="B19" s="85">
         <f>SUM($F$3:F19)</f>
-        <v>-32093.735804666638</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69">
+        <v>-31760.958706666632</v>
+      </c>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87">
         <v>49857</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="67">
+      <c r="B20" s="85">
         <f>SUM($F$3:F20)</f>
-        <v>-28680.039008666638</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69">
+        <v>-28347.261910666632</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87">
         <v>50222</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="67">
+      <c r="B21" s="85">
         <f>SUM($F$3:F21)</f>
-        <v>-25266.342212666637</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69">
+        <v>-24933.565114666631</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87">
         <v>50587</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="67">
+      <c r="B22" s="85">
         <f>SUM($F$3:F22)</f>
-        <v>-21852.645416666637</v>
-      </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69">
+        <v>-21519.868318666631</v>
+      </c>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87">
         <v>50952</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="67">
+      <c r="B23" s="85">
         <f>SUM($F$3:F23)</f>
-        <v>-18438.948620666637</v>
-      </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69">
+        <v>-18106.171522666631</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87">
         <v>51318</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="67">
+      <c r="B24" s="85">
         <f>SUM($F$3:F24)</f>
-        <v>-15025.251824666637</v>
-      </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69">
+        <v>-14692.474726666631</v>
+      </c>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87">
         <v>51683</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="67">
+      <c r="B25" s="85">
         <f>SUM($F$3:F25)</f>
-        <v>-11611.555028666637</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69">
+        <v>-11278.777930666631</v>
+      </c>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87">
         <v>52048</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="67">
+      <c r="B26" s="85">
         <f>SUM($F$3:F26)</f>
-        <v>-8197.8582326666365</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69">
+        <v>-7865.0811346666305</v>
+      </c>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87">
         <v>52413</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="67">
+      <c r="B27" s="85">
         <f>SUM($F$3:F27)</f>
-        <v>-4784.1614366666363</v>
-      </c>
-      <c r="C27" s="68" t="s">
+        <v>-4451.3843386666304</v>
+      </c>
+      <c r="C27" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69">
+      <c r="D27" s="86"/>
+      <c r="E27" s="87">
         <v>52779</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="88">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="67">
+      <c r="B28" s="85">
         <f>SUM($F$3:F28)</f>
-        <v>55989.838563333367</v>
-      </c>
-      <c r="C28" s="68">
+        <v>70548.615661333373</v>
+      </c>
+      <c r="C28" s="86">
         <f>XIRR(F3:F28,E3:E28)</f>
-        <v>4.1976687312126157E-2</v>
-      </c>
-      <c r="D28" s="68" t="s">
+        <v>4.8737117648124703E-2</v>
+      </c>
+      <c r="D28" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="87">
         <v>53144</v>
       </c>
-      <c r="F28" s="70">
-        <f>-F3</f>
-        <v>60774</v>
-      </c>
-      <c r="G28" s="26" t="s">
+      <c r="F28" s="88">
+        <f>265000-I7</f>
+        <v>75000</v>
+      </c>
+      <c r="G28" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3183,7 +3189,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,10 +3314,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -3786,22 +3792,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3810,22 +3816,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3834,20 +3840,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3856,20 +3862,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC588C-8DB2-4542-A85F-83388BB95736}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA8B4C4-C137-4776-A214-939CDB06109A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>total prem</t>
   </si>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t>Surrender bonus=14k+ after 20Y</t>
-  </si>
-  <si>
-    <t>&lt; let's have a round number here</t>
   </si>
 </sst>
 </file>
@@ -651,6 +648,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -695,67 +730,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,17 +1153,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="90" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="93" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -1177,7 +1174,7 @@
         <f>-K16</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1189,12 +1186,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="66"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="8" t="s">
         <v>83</v>
       </c>
@@ -1602,72 +1599,72 @@
       <c r="D29" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2243,11 +2240,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2264,9 +2261,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2308,7 +2305,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="101" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -2331,7 +2328,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="102"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2352,7 +2349,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="76"/>
+      <c r="H29" s="102"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2373,7 +2370,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="76"/>
+      <c r="H30" s="102"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2394,7 +2391,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="76"/>
+      <c r="H31" s="102"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2417,7 +2414,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="76"/>
+      <c r="H32" s="102"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2444,7 +2441,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="76"/>
+      <c r="H33" s="102"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2472,7 +2469,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="76"/>
+      <c r="H34" s="102"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2493,7 +2490,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="76"/>
+      <c r="H35" s="102"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2514,7 +2511,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="76"/>
+      <c r="H36" s="102"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2535,7 +2532,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="76"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2556,7 +2553,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="77"/>
+      <c r="H38" s="103"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -2579,595 +2576,592 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" style="80" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="80" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="110" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="80" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="80"/>
-    <col min="10" max="10" width="6.140625" style="80" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="84" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="1" style="62" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="62" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="87" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="62" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="62"/>
+    <col min="10" max="10" width="6.140625" style="62" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E2" s="81"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="83">
+      <c r="I2" s="65">
         <v>250774</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69">
         <v>45658</v>
       </c>
-      <c r="F3" s="88">
+      <c r="F3" s="70">
         <f>I7-I2</f>
         <v>-60774</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="89">
+      <c r="I3" s="71">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69">
         <v>45717</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="70">
         <f>I3*I2</f>
         <v>2507.7400000000002</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="71">
         <v>3.2554E-2</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="92" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87">
+      <c r="D6" s="68"/>
+      <c r="E6" s="69">
         <v>46082</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="70">
         <f>-K16</f>
         <v>-12381.666666666666</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="82" t="s">
+      <c r="G6" s="105"/>
+      <c r="H6" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="95">
+      <c r="I6" s="74">
         <v>0.03</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="62" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="82" t="s">
+      <c r="B7" s="107"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="65">
         <v>190000</v>
       </c>
-      <c r="J7" s="80" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="99">
+      <c r="B8" s="76">
         <f>SUM($F$3:F8)</f>
         <v>-62484.229870666662</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="77">
         <f>B8-F3</f>
         <v>-1710.2298706666625</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="69">
         <v>46569</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="70">
         <f>I4*$I$2</f>
         <v>8163.6967960000002</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="95">
+      <c r="I8" s="74">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="103"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="103"/>
-      <c r="L10" s="80"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="80"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="85">
+      <c r="B11" s="67">
         <f>SUM($F$3:F11)</f>
         <v>-59070.533074666659</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69">
         <v>46935</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="70">
         <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="85">
+      <c r="B12" s="67">
         <f>SUM($F$3:F12)</f>
         <v>-55656.836278666655</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69">
         <v>47300</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="70">
         <f t="shared" ref="F12:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104" t="s">
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="84" t="s">
+      <c r="L12" s="66" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="85">
+      <c r="B13" s="67">
         <f>SUM($F$3:F13)</f>
         <v>-52243.139482666651</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87">
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69">
         <v>47665</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H13" s="105" t="s">
+      <c r="H13" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="74">
         <v>2.53E-2</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="65">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
         <v>3204.6666666666665</v>
       </c>
-      <c r="L13" s="80"/>
+      <c r="L13" s="62"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="85">
+      <c r="B14" s="67">
         <f>SUM($F$3:F14)</f>
         <v>-48829.442686666647</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="87">
+      <c r="D14" s="81"/>
+      <c r="E14" s="69">
         <v>48030</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H14" s="105" t="s">
+      <c r="H14" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="95">
+      <c r="J14" s="74">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="65">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4427</v>
       </c>
-      <c r="L14" s="80"/>
+      <c r="L14" s="62"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="85">
+      <c r="B15" s="67">
         <f>SUM($F$3:F15)</f>
         <v>-45415.745890666643</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="83">
         <f>-F15/F3</f>
         <v>5.617034909665318E-2</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="87">
+      <c r="D15" s="83"/>
+      <c r="E15" s="69">
         <v>48396</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H15" s="105" t="s">
+      <c r="H15" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="95">
+      <c r="J15" s="74">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="107">
+      <c r="K15" s="84">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="85">
+      <c r="B16" s="67">
         <f>SUM($F$3:F16)</f>
         <v>-42002.04909466664</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69">
         <v>48761</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F16" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="109">
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86">
         <f>SUM(K13:K15)</f>
         <v>12381.666666666666</v>
       </c>
-      <c r="L16" s="80"/>
+      <c r="L16" s="62"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="85">
+      <c r="B17" s="67">
         <f>SUM($F$3:F17)</f>
         <v>-38588.352298666636</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87">
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69">
         <v>49126</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="85">
+      <c r="B18" s="67">
         <f>SUM($F$3:F18)</f>
         <v>-35174.655502666632</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69">
         <v>49491</v>
       </c>
-      <c r="F18" s="88">
+      <c r="F18" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="85">
+      <c r="B19" s="67">
         <f>SUM($F$3:F19)</f>
         <v>-31760.958706666632</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87">
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69">
         <v>49857</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="85">
+      <c r="B20" s="67">
         <f>SUM($F$3:F20)</f>
         <v>-28347.261910666632</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87">
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69">
         <v>50222</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F20" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="85">
+      <c r="B21" s="67">
         <f>SUM($F$3:F21)</f>
         <v>-24933.565114666631</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87">
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69">
         <v>50587</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F21" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="85">
+      <c r="B22" s="67">
         <f>SUM($F$3:F22)</f>
         <v>-21519.868318666631</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87">
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69">
         <v>50952</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="85">
+      <c r="B23" s="67">
         <f>SUM($F$3:F23)</f>
         <v>-18106.171522666631</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87">
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69">
         <v>51318</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F23" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="85">
+      <c r="B24" s="67">
         <f>SUM($F$3:F24)</f>
         <v>-14692.474726666631</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87">
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69">
         <v>51683</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="85">
+      <c r="B25" s="67">
         <f>SUM($F$3:F25)</f>
         <v>-11278.777930666631</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69">
         <v>52048</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="85">
+      <c r="B26" s="67">
         <f>SUM($F$3:F26)</f>
         <v>-7865.0811346666305</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87">
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69">
         <v>52413</v>
       </c>
-      <c r="F26" s="88">
+      <c r="F26" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="85">
+      <c r="B27" s="67">
         <f>SUM($F$3:F27)</f>
         <v>-4451.3843386666304</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87">
+      <c r="D27" s="68"/>
+      <c r="E27" s="69">
         <v>52779</v>
       </c>
-      <c r="F27" s="88">
+      <c r="F27" s="70">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="85">
+      <c r="B28" s="67">
         <f>SUM($F$3:F28)</f>
-        <v>70548.615661333373</v>
-      </c>
-      <c r="C28" s="86">
+        <v>70322.615661333373</v>
+      </c>
+      <c r="C28" s="68">
         <f>XIRR(F3:F28,E3:E28)</f>
-        <v>4.8737117648124703E-2</v>
-      </c>
-      <c r="D28" s="86" t="s">
+        <v>4.864223301410675E-2</v>
+      </c>
+      <c r="D28" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="69">
         <v>53144</v>
       </c>
-      <c r="F28" s="88">
-        <f>265000-I7</f>
-        <v>75000</v>
-      </c>
-      <c r="G28" s="80" t="s">
+      <c r="F28" s="70">
+        <f>I2+14000-I7</f>
+        <v>74774</v>
+      </c>
+      <c r="G28" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3189,7 +3183,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,10 +3308,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -3792,22 +3786,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3816,22 +3810,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3840,20 +3834,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3862,20 +3856,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA8B4C4-C137-4776-A214-939CDB06109A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22656FD9-47E9-4310-A899-7B59A964DA90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -339,7 +339,7 @@
     <t>30M int cost</t>
   </si>
   <si>
-    <t>Surrender bonus=14k+ after 20Y</t>
+    <t>Surrender bonus=14k after age70</t>
   </si>
 </sst>
 </file>
@@ -2576,7 +2576,7 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,16 +3076,16 @@
       </c>
       <c r="C28" s="68">
         <f>XIRR(F3:F28,E3:E28)</f>
-        <v>4.864223301410675E-2</v>
+        <v>5.0193390250205999E-2</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="69">
-        <v>53144</v>
+        <v>52779</v>
       </c>
       <c r="F28" s="70">
-        <f>I2+14000-I7</f>
+        <f>ABS(F3)+14000</f>
         <v>74774</v>
       </c>
       <c r="G28" s="62" t="s">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -1,36 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22656FD9-47E9-4310-A899-7B59A964DA90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC32AF-6206-42A5-883B-6AC2EAA947D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="FWD300" sheetId="9" r:id="rId1"/>
     <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="FLI250" sheetId="10" r:id="rId3"/>
-    <sheet name="FLI2PF 317" sheetId="5" r:id="rId4"/>
+    <sheet name="FLI2PF 317" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="FLI2" sheetId="1" r:id="rId5"/>
     <sheet name="xirr test" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>total prem</t>
   </si>
@@ -340,6 +349,21 @@
   </si>
   <si>
     <t>Surrender bonus=14k after age70</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 1M COF + 45 bps over 10M, can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hit  4 ppa</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -383,18 +407,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -557,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -648,44 +666,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -730,29 +710,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,17 +1139,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="64" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="67" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -1174,7 +1160,7 @@
         <f>-K16</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="90"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1186,12 +1172,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="92"/>
-      <c r="C7" s="94"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="90"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="8" t="s">
         <v>83</v>
       </c>
@@ -1599,72 +1585,72 @@
       <c r="D29" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2240,11 +2226,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2261,9 +2247,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2305,7 +2291,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="101" t="s">
+      <c r="H27" s="75" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -2328,7 +2314,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="102"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2349,7 +2335,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="102"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2370,7 +2356,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="102"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2391,7 +2377,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="102"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2414,7 +2400,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="102"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2441,7 +2427,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="102"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2469,7 +2455,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="102"/>
+      <c r="H34" s="76"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2490,7 +2476,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="102"/>
+      <c r="H35" s="76"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2511,7 +2497,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="102"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2532,7 +2518,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="102"/>
+      <c r="H37" s="76"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2553,7 +2539,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="103"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -2576,592 +2562,592 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" style="62" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="62" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="62" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="62"/>
-    <col min="10" max="10" width="6.140625" style="62" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="1" style="26" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="26" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="26"/>
+    <col min="10" max="10" width="6.140625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E2" s="63"/>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="36">
         <v>250774</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="43">
         <v>45658</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="81">
         <f>I7-I2</f>
         <v>-60774</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="71">
+      <c r="I3" s="82">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="43">
         <v>45717</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="81">
         <f>I3*I2</f>
         <v>2507.7400000000002</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="82">
         <v>3.2554E-2</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="105" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69">
+      <c r="D6" s="28"/>
+      <c r="E6" s="43">
         <v>46082</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="81">
         <f>-K16</f>
         <v>-12381.666666666666</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="37">
         <v>0.03</v>
       </c>
-      <c r="J6" s="62" t="s">
-        <v>78</v>
+      <c r="J6" s="26" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="107"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="64" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="36">
         <v>190000</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="76">
+      <c r="B8" s="85">
         <f>SUM($F$3:F8)</f>
         <v>-62484.229870666662</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="86">
         <f>B8-F3</f>
         <v>-1710.2298706666625</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="43">
         <v>46569</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="81">
         <f>I4*$I$2</f>
         <v>8163.6967960000002</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="80"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="80"/>
-      <c r="L10" s="62"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="32"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="67">
+      <c r="B11" s="27">
         <f>SUM($F$3:F11)</f>
         <v>-59070.533074666659</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="43">
         <v>46935</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="81">
         <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="67">
+      <c r="B12" s="27">
         <f>SUM($F$3:F12)</f>
         <v>-55656.836278666655</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="43">
         <v>47300</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="81">
         <f t="shared" ref="F12:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="80" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="67">
+      <c r="B13" s="27">
         <f>SUM($F$3:F13)</f>
         <v>-52243.139482666651</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="43">
         <v>47665</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J13" s="37">
         <v>2.53E-2</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="36">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
         <v>3204.6666666666665</v>
       </c>
-      <c r="L13" s="62"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="67">
+      <c r="B14" s="27">
         <f>SUM($F$3:F14)</f>
         <v>-48829.442686666647</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="69">
+      <c r="D14" s="33"/>
+      <c r="E14" s="43">
         <v>48030</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="37">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="36">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4427</v>
       </c>
-      <c r="L14" s="62"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67">
+      <c r="B15" s="27">
         <f>SUM($F$3:F15)</f>
         <v>-45415.745890666643</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="34">
         <f>-F15/F3</f>
         <v>5.617034909665318E-2</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="69">
+      <c r="D15" s="34"/>
+      <c r="E15" s="43">
         <v>48396</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="37">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="90">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="67">
+      <c r="B16" s="27">
         <f>SUM($F$3:F16)</f>
         <v>-42002.04909466664</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="43">
         <v>48761</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92">
         <f>SUM(K13:K15)</f>
         <v>12381.666666666666</v>
       </c>
-      <c r="L16" s="62"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="67">
+      <c r="B17" s="27">
         <f>SUM($F$3:F17)</f>
         <v>-38588.352298666636</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="43">
         <v>49126</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="67">
+      <c r="B18" s="27">
         <f>SUM($F$3:F18)</f>
         <v>-35174.655502666632</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="43">
         <v>49491</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="67">
+      <c r="B19" s="27">
         <f>SUM($F$3:F19)</f>
         <v>-31760.958706666632</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="43">
         <v>49857</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="67">
+      <c r="B20" s="27">
         <f>SUM($F$3:F20)</f>
         <v>-28347.261910666632</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="43">
         <v>50222</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="67">
+      <c r="B21" s="27">
         <f>SUM($F$3:F21)</f>
         <v>-24933.565114666631</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="43">
         <v>50587</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="67">
+      <c r="B22" s="27">
         <f>SUM($F$3:F22)</f>
         <v>-21519.868318666631</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="43">
         <v>50952</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="67">
+      <c r="B23" s="27">
         <f>SUM($F$3:F23)</f>
         <v>-18106.171522666631</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="43">
         <v>51318</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="67">
+      <c r="B24" s="27">
         <f>SUM($F$3:F24)</f>
         <v>-14692.474726666631</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69">
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="43">
         <v>51683</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="67">
+      <c r="B25" s="27">
         <f>SUM($F$3:F25)</f>
         <v>-11278.777930666631</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="43">
         <v>52048</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="67">
+      <c r="B26" s="27">
         <f>SUM($F$3:F26)</f>
         <v>-7865.0811346666305</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="43">
         <v>52413</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="67">
+      <c r="B27" s="27">
         <f>SUM($F$3:F27)</f>
         <v>-4451.3843386666304</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69">
+      <c r="D27" s="28"/>
+      <c r="E27" s="43">
         <v>52779</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="81">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="67">
+      <c r="B28" s="27">
         <f>SUM($F$3:F28)</f>
         <v>70322.615661333373</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="28">
         <f>XIRR(F3:F28,E3:E28)</f>
         <v>5.0193390250205999E-2</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="43">
         <v>52779</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="81">
         <f>ABS(F3)+14000</f>
         <v>74774</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3308,10 +3294,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -3786,22 +3772,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3810,22 +3796,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3834,20 +3820,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3856,20 +3842,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC32AF-6206-42A5-883B-6AC2EAA947D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7E3A74-A549-476E-8970-BD4BD8C84356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>total prem</t>
   </si>
@@ -363,6 +363,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>hit  4 ppa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 3.2554% for first 24 annual payouts, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-guaranteed</t>
     </r>
   </si>
 </sst>
@@ -575,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -666,6 +681,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -710,35 +741,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,7 +1076,7 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,17 +1158,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="76" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -1160,7 +1179,7 @@
         <f>-K16</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1172,12 +1191,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="66"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="8" t="s">
         <v>83</v>
       </c>
@@ -1585,72 +1604,72 @@
       <c r="D29" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2226,11 +2245,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2247,9 +2266,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2291,7 +2310,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="87" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -2314,7 +2333,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="88"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2335,7 +2354,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="76"/>
+      <c r="H29" s="88"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2356,7 +2375,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="76"/>
+      <c r="H30" s="88"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2377,7 +2396,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="76"/>
+      <c r="H31" s="88"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2400,7 +2419,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="76"/>
+      <c r="H32" s="88"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2427,7 +2446,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="76"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2455,7 +2474,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="76"/>
+      <c r="H34" s="88"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2476,7 +2495,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="76"/>
+      <c r="H35" s="88"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2497,7 +2516,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="76"/>
+      <c r="H36" s="88"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2518,7 +2537,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="76"/>
+      <c r="H37" s="88"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2539,7 +2558,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="77"/>
+      <c r="H38" s="89"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -2562,7 +2581,7 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,7 +2597,7 @@
     <col min="9" max="9" width="9.140625" style="26"/>
     <col min="10" max="10" width="6.140625" style="26" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="63" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="26"/>
   </cols>
@@ -2602,7 +2621,7 @@
       <c r="E3" s="43">
         <v>45658</v>
       </c>
-      <c r="F3" s="81">
+      <c r="F3" s="64">
         <f>I7-I2</f>
         <v>-60774</v>
       </c>
@@ -2612,7 +2631,7 @@
       <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="82">
+      <c r="I3" s="96">
         <v>0.01</v>
       </c>
     </row>
@@ -2623,7 +2642,7 @@
       <c r="E4" s="43">
         <v>45717</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="64">
         <f>I3*I2</f>
         <v>2507.7400000000002</v>
       </c>
@@ -2633,38 +2652,41 @@
       <c r="H4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="95">
         <v>3.2554E-2</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="84" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="91" t="s">
         <v>92</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="43">
         <v>46082</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="64">
         <f>-K16</f>
         <v>-12381.666666666666</v>
       </c>
-      <c r="G6" s="84"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="35" t="s">
         <v>89</v>
       </c>
@@ -2676,12 +2698,12 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="66"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="41"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="84"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="35" t="s">
         <v>87</v>
       </c>
@@ -2690,11 +2712,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="85">
+      <c r="B8" s="66">
         <f>SUM($F$3:F8)</f>
         <v>-62484.229870666662</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="67">
         <f>B8-F3</f>
         <v>-1710.2298706666625</v>
       </c>
@@ -2704,7 +2726,7 @@
       <c r="E8" s="43">
         <v>46569</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="64">
         <f>I4*$I$2</f>
         <v>8163.6967960000002</v>
       </c>
@@ -2719,10 +2741,10 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
       <c r="E9" s="43"/>
-      <c r="F9" s="81"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -2730,7 +2752,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="43"/>
-      <c r="F10" s="81"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="32"/>
       <c r="L10" s="26"/>
     </row>
@@ -2744,7 +2766,7 @@
       <c r="E11" s="43">
         <v>46935</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="64">
         <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
@@ -2759,7 +2781,7 @@
       <c r="E12" s="43">
         <v>47300</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="64">
         <f t="shared" ref="F12:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
@@ -2769,7 +2791,7 @@
       <c r="K12" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="63" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2783,11 +2805,11 @@
       <c r="E13" s="43">
         <v>47665</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="70" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="35" t="s">
@@ -2814,11 +2836,11 @@
       <c r="E14" s="43">
         <v>48030</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H14" s="89" t="s">
+      <c r="H14" s="70" t="s">
         <v>72</v>
       </c>
       <c r="I14" s="35" t="s">
@@ -2846,11 +2868,11 @@
       <c r="E15" s="43">
         <v>48396</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H15" s="89" t="s">
+      <c r="H15" s="70" t="s">
         <v>73</v>
       </c>
       <c r="I15" s="35" t="s">
@@ -2860,7 +2882,7 @@
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15" s="71">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
@@ -2875,14 +2897,14 @@
       <c r="E16" s="43">
         <v>48761</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92">
+      <c r="J16" s="72"/>
+      <c r="K16" s="73">
         <f>SUM(K13:K15)</f>
         <v>12381.666666666666</v>
       </c>
@@ -2898,7 +2920,7 @@
       <c r="E17" s="43">
         <v>49126</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2913,7 +2935,7 @@
       <c r="E18" s="43">
         <v>49491</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2928,7 +2950,7 @@
       <c r="E19" s="43">
         <v>49857</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2943,7 +2965,7 @@
       <c r="E20" s="43">
         <v>50222</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2958,7 +2980,7 @@
       <c r="E21" s="43">
         <v>50587</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2973,7 +2995,7 @@
       <c r="E22" s="43">
         <v>50952</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2988,7 +3010,7 @@
       <c r="E23" s="43">
         <v>51318</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3003,7 +3025,7 @@
       <c r="E24" s="43">
         <v>51683</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3018,7 +3040,7 @@
       <c r="E25" s="43">
         <v>52048</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3033,7 +3055,7 @@
       <c r="E26" s="43">
         <v>52413</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3050,7 +3072,7 @@
       <c r="E27" s="43">
         <v>52779</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="64">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3070,7 +3092,7 @@
       <c r="E28" s="43">
         <v>52779</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="64">
         <f>ABS(F3)+14000</f>
         <v>74774</v>
       </c>
@@ -3086,68 +3108,68 @@
       <c r="D29" s="28"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3294,10 +3316,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -3772,22 +3794,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3796,22 +3818,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3820,20 +3842,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3842,20 +3864,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7E3A74-A549-476E-8970-BD4BD8C84356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9662C01F-9EE1-47B0-95AC-CC5E4E54F1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
@@ -367,7 +367,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">&lt; 3.2554% for first 24 annual payouts, </t>
+      <t xml:space="preserve">&lt; 3.2554 ppa payouts, </t>
     </r>
     <r>
       <rPr>
@@ -697,6 +697,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -751,12 +757,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1076,7 +1076,7 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,17 +1158,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="78" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="81" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -1179,7 +1179,7 @@
         <f>-K16</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1191,12 +1191,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="78"/>
-      <c r="C7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="76"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="8" t="s">
         <v>83</v>
       </c>
@@ -1604,72 +1604,72 @@
       <c r="D29" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2245,11 +2245,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2266,9 +2266,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2310,7 +2310,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="87" t="s">
+      <c r="H27" s="89" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -2333,7 +2333,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="88"/>
+      <c r="H28" s="90"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="88"/>
+      <c r="H29" s="90"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="88"/>
+      <c r="H30" s="90"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="88"/>
+      <c r="H31" s="90"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2419,7 +2419,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="88"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2446,7 +2446,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="88"/>
+      <c r="H33" s="90"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2474,7 +2474,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="88"/>
+      <c r="H34" s="90"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="88"/>
+      <c r="H35" s="90"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2516,7 +2516,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="88"/>
+      <c r="H36" s="90"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2537,7 +2537,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="90"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="89"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -2581,7 +2581,7 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2631,7 +2631,7 @@
       <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="96">
+      <c r="I3" s="75">
         <v>0.01</v>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
       <c r="H4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="74">
         <v>3.2554E-2</v>
       </c>
       <c r="J4" s="62" t="s">
@@ -2665,17 +2665,17 @@
       <c r="D5" s="28"/>
       <c r="E5" s="65"/>
       <c r="F5" s="64"/>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="93" t="s">
         <v>92</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="81" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="28"/>
@@ -2686,7 +2686,7 @@
         <f>-K16</f>
         <v>-12381.666666666666</v>
       </c>
-      <c r="G6" s="91"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="35" t="s">
         <v>89</v>
       </c>
@@ -2698,12 +2698,12 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="78"/>
-      <c r="C7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="41"/>
       <c r="E7" s="65"/>
       <c r="F7" s="64"/>
-      <c r="G7" s="91"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="35" t="s">
         <v>87</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="40" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="43"/>
@@ -3108,68 +3108,68 @@
       <c r="D29" s="28"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3316,10 +3316,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -3652,7 +3652,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3794,22 +3794,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3818,22 +3818,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3842,20 +3842,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3864,20 +3864,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9662C01F-9EE1-47B0-95AC-CC5E4E54F1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521CBF68-E489-4C5F-B4E0-D9E58357F256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="FWD300" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t>total prem</t>
   </si>
@@ -279,40 +279,112 @@
     <t>DYOC is imprecise. CCCost can be computed multiple ways; I used the simplest convention.</t>
   </si>
   <si>
+    <t>.. Based on this convention, only the initial down payment is included. All subsequent cash flows are treated as other things.</t>
+  </si>
+  <si>
+    <t>Surrender in Nov of Year8 before receiving the Year9 payouts in advance. Clawback 100% otherwise. (Year8 as eg)</t>
+  </si>
+  <si>
+    <t>surrender FWD to wipe out loan, but $0 annual payout</t>
+  </si>
+  <si>
+    <t>Let's not use this s/s to record any actual instalment… too messy.</t>
+  </si>
+  <si>
+    <t>loan disbursed</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>monthly est</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>FLI upfront</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last window  LIR </t>
+  </si>
+  <si>
+    <t>08M LIR =</t>
+  </si>
+  <si>
+    <t>10M LIR =</t>
+  </si>
+  <si>
+    <t>30M int cost</t>
+  </si>
+  <si>
+    <t>Surrender bonus=14k after age70</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">&lt; 1M COF + 45 bps over 14M, can </t>
+      <t>&lt; 1M COF + 45 bps, can hit</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 ppa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 3.2554 ppa payouts, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-guaranteed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 1M COF + 45 bps, can stay above </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hit  4 ppa</t>
+      <t>3 ppa</t>
     </r>
-  </si>
-  <si>
-    <t>.. Based on this convention, only the initial down payment is included. All subsequent cash flows are treated as other things.</t>
-  </si>
-  <si>
-    <t>Surrender in Nov of Year8 before receiving the Year9 payouts in advance. Clawback 100% otherwise. (Year8 as eg)</t>
-  </si>
-  <si>
-    <t>surrender FWD to wipe out loan, but $0 annual payout</t>
-  </si>
-  <si>
-    <t>Let's not use this s/s to record any actual instalment… too messy.</t>
-  </si>
-  <si>
-    <t>loan disbursed</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>monthly est</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (#1 risk)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -321,58 +393,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>non-guaranteed</t>
-    </r>
-  </si>
-  <si>
-    <t>loan</t>
-  </si>
-  <si>
-    <t>FLI upfront</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last window  LIR </t>
-  </si>
-  <si>
-    <t>08M LIR =</t>
-  </si>
-  <si>
-    <t>10M LIR =</t>
-  </si>
-  <si>
-    <t>30M int cost</t>
-  </si>
-  <si>
-    <t>Surrender bonus=14k after age70</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt; 1M COF + 45 bps over 10M, can </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hit  4 ppa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt; 3.2554 ppa payouts, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="5" tint="0.39997558519241921"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -392,7 +413,7 @@
     <numFmt numFmtId="167" formatCode="0.0000%"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +429,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -415,8 +451,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -590,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -678,10 +721,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,6 +800,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,7 +1121,7 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1140,7 @@
     <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E2" s="11"/>
       <c r="F2" s="8" t="s">
         <v>2</v>
@@ -1107,7 +1152,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1128,7 +1173,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1148,27 +1193,31 @@
       <c r="I4" s="48">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="J4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="77" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="80" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -1179,32 +1228,41 @@
         <f>-K16</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="78"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="12">
         <v>0.03</v>
       </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="82"/>
+      <c r="J6" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="79"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="78"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="47">
         <v>228000</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="97"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="52">
         <f>SUM($F$3:F8)</f>
         <v>-73868.7</v>
@@ -1232,15 +1290,22 @@
       <c r="I8" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="60"/>
       <c r="C9" s="61"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="26" t="s">
         <v>49</v>
@@ -1250,7 +1315,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <f>SUM($F$3:F11)</f>
         <v>-69428.7</v>
@@ -1265,7 +1330,7 @@
         <v>4439.9999999999982</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <f>SUM($F$3:F12)</f>
         <v>-64988.7</v>
@@ -1283,13 +1348,13 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <f>SUM($F$3:F13)</f>
         <v>-60548.7</v>
@@ -1320,7 +1385,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <f>SUM($F$3:F14)</f>
         <v>-56108.7</v>
@@ -1351,7 +1416,7 @@
       </c>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f>SUM($F$3:F15)</f>
         <v>-51668.7</v>
@@ -1383,7 +1448,7 @@
         <v>7980</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f>SUM($F$3:F16)</f>
         <v>-47228.7</v>
@@ -1593,7 +1658,7 @@
         <v>72000</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1604,75 +1669,76 @@
       <c r="D29" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
+      <c r="B31" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
+      <c r="B33" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
+      <c r="B34" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="J4:N4"/>
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="B33:N33"/>
     <mergeCell ref="B31:N31"/>
@@ -1680,6 +1746,9 @@
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2245,11 +2314,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2266,9 +2335,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2310,7 +2379,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="89" t="s">
+      <c r="H27" s="88" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -2333,7 +2402,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="90"/>
+      <c r="H28" s="89"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2354,7 +2423,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="90"/>
+      <c r="H29" s="89"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2375,7 +2444,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="90"/>
+      <c r="H30" s="89"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2396,7 +2465,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="90"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2419,7 +2488,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="90"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2446,7 +2515,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="90"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2474,7 +2543,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="90"/>
+      <c r="H34" s="89"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2495,7 +2564,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="90"/>
+      <c r="H35" s="89"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2516,7 +2585,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="90"/>
+      <c r="H36" s="89"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2537,7 +2606,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="90"/>
+      <c r="H37" s="89"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2558,7 +2627,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="91"/>
+      <c r="H38" s="90"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -2581,7 +2650,7 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,12 +2666,12 @@
     <col min="9" max="9" width="9.140625" style="26"/>
     <col min="10" max="10" width="6.140625" style="26" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="62" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E2" s="42"/>
       <c r="F2" s="35" t="s">
         <v>2</v>
@@ -2614,14 +2683,14 @@
         <v>250774</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="43">
         <v>45658</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="63">
         <f>I7-I2</f>
         <v>-60774</v>
       </c>
@@ -2631,92 +2700,110 @@
       <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="74">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="43">
         <v>45717</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="63">
         <f>I3*I2</f>
         <v>2507.7400000000002</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="73">
         <v>3.2554E-2</v>
       </c>
-      <c r="J4" s="62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="93" t="s">
-        <v>92</v>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="92" t="s">
+        <v>90</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="79" t="s">
+      <c r="J5" s="97"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="80" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="43">
         <v>46082</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="63">
         <f>-K16</f>
         <v>-12381.666666666666</v>
       </c>
-      <c r="G6" s="93"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I6" s="37">
         <v>0.03</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="82"/>
+      <c r="J6" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="79"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="41"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="93"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="92"/>
       <c r="H7" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I7" s="36">
         <v>190000</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="66">
+      <c r="J7" s="97"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="65">
         <f>SUM($F$3:F8)</f>
         <v>-62484.229870666662</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="66">
         <f>B8-F3</f>
         <v>-1710.2298706666625</v>
       </c>
@@ -2726,7 +2813,7 @@
       <c r="E8" s="43">
         <v>46569</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="63">
         <f>I4*$I$2</f>
         <v>8163.6967960000002</v>
       </c>
@@ -2739,24 +2826,31 @@
       <c r="I8" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
+      <c r="J8" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="E9" s="43"/>
-      <c r="F9" s="64"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="43"/>
-      <c r="F10" s="64"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="32"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f>SUM($F$3:F11)</f>
         <v>-59070.533074666659</v>
@@ -2766,12 +2860,12 @@
       <c r="E11" s="43">
         <v>46935</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="63">
         <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f>SUM($F$3:F12)</f>
         <v>-55656.836278666655</v>
@@ -2781,7 +2875,7 @@
       <c r="E12" s="43">
         <v>47300</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="63">
         <f t="shared" ref="F12:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
@@ -2789,13 +2883,13 @@
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f>SUM($F$3:F13)</f>
         <v>-52243.139482666651</v>
@@ -2805,15 +2899,15 @@
       <c r="E13" s="43">
         <v>47665</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="H13" s="69" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J13" s="37">
         <v>2.53E-2</v>
@@ -2824,7 +2918,7 @@
       </c>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f>SUM($F$3:F14)</f>
         <v>-48829.442686666647</v>
@@ -2836,11 +2930,11 @@
       <c r="E14" s="43">
         <v>48030</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="69" t="s">
         <v>72</v>
       </c>
       <c r="I14" s="35" t="s">
@@ -2855,7 +2949,7 @@
       </c>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27">
         <f>SUM($F$3:F15)</f>
         <v>-45415.745890666643</v>
@@ -2868,26 +2962,26 @@
       <c r="E15" s="43">
         <v>48396</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="69" t="s">
         <v>73</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J15" s="37">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="70">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <f>SUM($F$3:F16)</f>
         <v>-42002.04909466664</v>
@@ -2897,14 +2991,14 @@
       <c r="E16" s="43">
         <v>48761</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73">
+      <c r="J16" s="71"/>
+      <c r="K16" s="72">
         <f>SUM(K13:K15)</f>
         <v>12381.666666666666</v>
       </c>
@@ -2920,7 +3014,7 @@
       <c r="E17" s="43">
         <v>49126</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2935,7 +3029,7 @@
       <c r="E18" s="43">
         <v>49491</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2950,7 +3044,7 @@
       <c r="E19" s="43">
         <v>49857</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2965,7 +3059,7 @@
       <c r="E20" s="43">
         <v>50222</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2980,7 +3074,7 @@
       <c r="E21" s="43">
         <v>50587</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -2995,7 +3089,7 @@
       <c r="E22" s="43">
         <v>50952</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3010,7 +3104,7 @@
       <c r="E23" s="43">
         <v>51318</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3025,7 +3119,7 @@
       <c r="E24" s="43">
         <v>51683</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3040,7 +3134,7 @@
       <c r="E25" s="43">
         <v>52048</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3055,7 +3149,7 @@
       <c r="E26" s="43">
         <v>52413</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3072,7 +3166,7 @@
       <c r="E27" s="43">
         <v>52779</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="63">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3092,12 +3186,12 @@
       <c r="E28" s="43">
         <v>52779</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="63">
         <f>ABS(F3)+14000</f>
         <v>74774</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
@@ -3108,71 +3202,76 @@
       <c r="D29" s="28"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
+      <c r="B33" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
     <mergeCell ref="B34:N34"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B6:B7"/>
@@ -3316,10 +3415,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -3794,22 +3893,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3818,22 +3917,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3842,20 +3941,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3864,20 +3963,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521CBF68-E489-4C5F-B4E0-D9E58357F256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805EC362-C5E7-49CC-B255-21A452975646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
-    <sheet name="FWD300" sheetId="9" r:id="rId1"/>
-    <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="FLI250" sheetId="10" r:id="rId3"/>
-    <sheet name="FLI2PF 317" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="FLI2" sheetId="1" r:id="rId5"/>
-    <sheet name="xirr test" sheetId="3" r:id="rId6"/>
+    <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="FWD300.old" sheetId="11" r:id="rId2"/>
+    <sheet name="FWD300" sheetId="9" r:id="rId3"/>
+    <sheet name="FLI250" sheetId="10" r:id="rId4"/>
+    <sheet name="FLI2PF 317" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="FLI2" sheetId="1" r:id="rId6"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
   <si>
     <t>total prem</t>
   </si>
@@ -400,6 +401,12 @@
       </rPr>
       <t>non-guaranteed</t>
     </r>
+  </si>
+  <si>
+    <t>surr val=100%</t>
+  </si>
+  <si>
+    <t>switch to annual payout</t>
   </si>
 </sst>
 </file>
@@ -473,7 +480,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -628,12 +635,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -722,8 +742,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,7 +763,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -762,6 +785,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -789,7 +814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -800,9 +824,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,645 +1143,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE92DED-8F26-4A65-8C24-604F3A0DE6B0}">
-  <dimension ref="A2:N34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1" style="51" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="51" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="11"/>
-      <c r="F2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="47">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="9">
-        <v>45597</v>
-      </c>
-      <c r="F3" s="10">
-        <f>-24%*I2</f>
-        <v>-72000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="49">
-        <v>1.8700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="9">
-        <v>45689</v>
-      </c>
-      <c r="F4" s="10">
-        <f>I3*I2</f>
-        <v>5610</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="48">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="J4" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="9">
-        <v>46174</v>
-      </c>
-      <c r="F6" s="10">
-        <f>-K16</f>
-        <v>-17618.7</v>
-      </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="J6" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="79"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="47">
-        <v>228000</v>
-      </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="52">
-        <f>SUM($F$3:F8)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C8" s="53">
-        <f>B8-F3</f>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="9">
-        <v>46692</v>
-      </c>
-      <c r="F8" s="10">
-        <f>I4*$I$2</f>
-        <v>10139.999999999998</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J8" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <f>SUM($F$3:F11)</f>
-        <v>-69428.7</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="9">
-        <v>47058</v>
-      </c>
-      <c r="F11" s="10">
-        <f>$I$4*$I$2-$I$8*$I$7</f>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <f>SUM($F$3:F12)</f>
-        <v>-64988.7</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="9">
-        <v>47423</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <f>SUM($F$3:F13)</f>
-        <v>-60548.7</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="9">
-        <v>47788</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="12">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K13" s="47">
-        <f>$I$7*LEFT(I13,2)/12*J13</f>
-        <v>4326.3</v>
-      </c>
-      <c r="L13">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <f>SUM($F$3:F14)</f>
-        <v>-56108.7</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9">
-        <v>48153</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="12">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K14" s="47">
-        <f>$I$7*LEFT(I14,2)/12*J14</f>
-        <v>5312.4000000000005</v>
-      </c>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <f>SUM($F$3:F15)</f>
-        <v>-51668.7</v>
-      </c>
-      <c r="C15" s="25">
-        <f>-F15/F3</f>
-        <v>6.166666666666664E-2</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="9">
-        <v>48519</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="12">
-        <f>I6</f>
-        <v>0.03</v>
-      </c>
-      <c r="K15" s="58">
-        <f>$I$7*LEFT(I15,2)/12*J15</f>
-        <v>7980</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <f>SUM($F$3:F16)</f>
-        <v>-47228.7</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="9">
-        <v>48884</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57">
-        <f>SUM(K13:K15)</f>
-        <v>17618.7</v>
-      </c>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <f>SUM($F$3:F17)</f>
-        <v>-42788.7</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="9">
-        <v>49249</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <f>SUM($F$3:F18)</f>
-        <v>-38348.699999999997</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="9">
-        <v>49614</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <f>SUM($F$3:F19)</f>
-        <v>-33908.699999999997</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="9">
-        <v>49980</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <f>SUM($F$3:F20)</f>
-        <v>-29468.699999999997</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="9">
-        <v>50345</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <f>SUM($F$3:F21)</f>
-        <v>-25028.699999999997</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="9">
-        <v>50710</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
-        <f>SUM($F$3:F22)</f>
-        <v>-20588.699999999997</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="9">
-        <v>51075</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
-        <f>SUM($F$3:F23)</f>
-        <v>-16148.699999999999</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="9">
-        <v>51441</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
-        <f>SUM($F$3:F24)</f>
-        <v>-11708.7</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="9">
-        <v>51806</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
-        <f>SUM($F$3:F25)</f>
-        <v>-7268.7000000000025</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="9">
-        <v>52171</v>
-      </c>
-      <c r="F25" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <f>SUM($F$3:F26)</f>
-        <v>-2828.7000000000044</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="9">
-        <v>52536</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
-        <f>SUM($F$3:F27)</f>
-        <v>1611.2999999999938</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="9">
-        <v>52902</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="0"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
-        <f>SUM($F$3:F28)</f>
-        <v>73611.299999999988</v>
-      </c>
-      <c r="C28" s="2">
-        <f>XIRR(F3:F28,E3:E28)</f>
-        <v>4.5083108544349673E-2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="9">
-        <v>53267</v>
-      </c>
-      <c r="F28" s="10">
-        <f>-F3</f>
-        <v>72000</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="B33:N33"/>
-    <mergeCell ref="B31:N31"/>
-    <mergeCell ref="B34:N34"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20D748-F112-4127-97BA-6CDBDF125DA1}">
   <dimension ref="B1:K40"/>
   <sheetViews>
@@ -2314,11 +1701,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -2335,9 +1722,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -2379,7 +1766,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="93" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -2402,7 +1789,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="89"/>
+      <c r="H28" s="94"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2423,7 +1810,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="89"/>
+      <c r="H29" s="94"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2444,7 +1831,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="89"/>
+      <c r="H30" s="94"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2465,7 +1852,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="89"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2488,7 +1875,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="89"/>
+      <c r="H32" s="94"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -2515,7 +1902,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="89"/>
+      <c r="H33" s="94"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -2543,7 +1930,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="89"/>
+      <c r="H34" s="94"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -2564,7 +1951,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="89"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -2585,7 +1972,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="89"/>
+      <c r="H36" s="94"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -2606,7 +1993,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="89"/>
+      <c r="H37" s="94"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2627,7 +2014,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="90"/>
+      <c r="H38" s="95"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -2645,12 +2032,1617 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FD1CF9-B16D-47AD-9A5E-DD6D9370A5FE}">
+  <dimension ref="B2:N46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1" style="75" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="75" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="75" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="75"/>
+    <col min="10" max="10" width="6.140625" style="75" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="11"/>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="47">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="74"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="9">
+        <v>45597</v>
+      </c>
+      <c r="F3" s="10">
+        <f>-24%*I2</f>
+        <v>-72000</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="49">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="74"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9">
+        <v>45689</v>
+      </c>
+      <c r="F4" s="10">
+        <f>I3*I2</f>
+        <v>5610</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="48">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="74"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9">
+        <v>46174</v>
+      </c>
+      <c r="F6" s="10">
+        <f>-K28</f>
+        <v>-17618.7</v>
+      </c>
+      <c r="G6" s="80"/>
+      <c r="H6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="82"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="47">
+        <v>228000</v>
+      </c>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="52">
+        <f>SUM($F$3:F8)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C8" s="53">
+        <f>B8-$F$3</f>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9">
+        <v>46692</v>
+      </c>
+      <c r="F8" s="10">
+        <f>$I$4*$I$2</f>
+        <v>10139.999999999998</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="52">
+        <f>SUM($F$3:F9)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C9" s="53">
+        <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E9" s="9">
+        <v>46722</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="52">
+        <f>SUM($F$3:F10)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C10" s="53">
+        <f t="shared" si="0"/>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E10" s="9">
+        <v>46753</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="52">
+        <f>SUM($F$3:F11)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C11" s="53">
+        <f t="shared" si="0"/>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E11" s="9">
+        <v>46784</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="52">
+        <f>SUM($F$3:F12)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C12" s="53">
+        <f t="shared" si="0"/>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E12" s="9">
+        <v>46813</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="52">
+        <f>SUM($F$3:F13)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C13" s="53">
+        <f t="shared" si="0"/>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E13" s="9">
+        <v>46844</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="52">
+        <f>SUM($F$3:F14)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C14" s="53">
+        <f t="shared" si="0"/>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E14" s="9">
+        <v>46874</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="52">
+        <f>SUM($F$3:F15)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C15" s="53">
+        <f t="shared" si="0"/>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E15" s="9">
+        <v>46905</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="52">
+        <f>SUM($F$3:F16)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C16" s="53">
+        <f t="shared" si="0"/>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E16" s="9">
+        <v>46935</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="52">
+        <f>SUM($F$3:F17)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C17" s="53">
+        <f t="shared" si="0"/>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E17" s="9">
+        <v>46966</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="52">
+        <f>SUM($F$3:F18)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C18" s="53">
+        <f t="shared" si="0"/>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E18" s="9">
+        <v>46997</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="103">
+        <f>SUM($F$3:F19)</f>
+        <v>-73868.7</v>
+      </c>
+      <c r="C19" s="104">
+        <f t="shared" si="0"/>
+        <v>-1868.6999999999971</v>
+      </c>
+      <c r="E19" s="9">
+        <v>47027</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="74">
+        <f>SUM($F$3:F22)</f>
+        <v>-69428.7</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9">
+        <v>47058</v>
+      </c>
+      <c r="F22" s="10">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="75"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="74">
+        <f>SUM($F$3:F23)</f>
+        <v>-64988.7</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9">
+        <v>47423</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" ref="F23:F38" si="1">$I$4*$I$2-$I$8*$I$7</f>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="74">
+        <f>SUM($F$3:F24)</f>
+        <v>-60548.7</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="9">
+        <v>47788</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="74">
+        <f>SUM($F$3:F25)</f>
+        <v>-56108.7</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="73"/>
+      <c r="E25" s="9">
+        <v>48153</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="12">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K25" s="47">
+        <f>$I$7*LEFT(I25,2)/12*J25</f>
+        <v>4326.3</v>
+      </c>
+      <c r="L25" s="75">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="74">
+        <f>SUM($F$3:F26)</f>
+        <v>-51668.7</v>
+      </c>
+      <c r="C26" s="25">
+        <f>-F26/F3</f>
+        <v>6.166666666666664E-2</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="9">
+        <v>48519</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="12">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K26" s="47">
+        <f>$I$7*LEFT(I26,2)/12*J26</f>
+        <v>5312.4000000000005</v>
+      </c>
+      <c r="L26" s="75"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="74">
+        <f>SUM($F$3:F27)</f>
+        <v>-47228.7</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="9">
+        <v>48884</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="12">
+        <f>I6</f>
+        <v>0.03</v>
+      </c>
+      <c r="K27" s="58">
+        <f>$I$7*LEFT(I27,2)/12*J27</f>
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="74">
+        <f>SUM($F$3:F28)</f>
+        <v>-42788.7</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="9">
+        <v>49249</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57">
+        <f>SUM(K25:K27)</f>
+        <v>17618.7</v>
+      </c>
+      <c r="L28" s="75"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="74">
+        <f>SUM($F$3:F29)</f>
+        <v>-38348.699999999997</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="9">
+        <v>49614</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="74">
+        <f>SUM($F$3:F30)</f>
+        <v>-33908.699999999997</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="9">
+        <v>49980</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="74">
+        <f>SUM($F$3:F31)</f>
+        <v>-29468.699999999997</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="9">
+        <v>50345</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="74">
+        <f>SUM($F$3:F32)</f>
+        <v>-25028.699999999997</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="9">
+        <v>50710</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="74">
+        <f>SUM($F$3:F33)</f>
+        <v>-20588.699999999997</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9">
+        <v>51075</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="74">
+        <f>SUM($F$3:F34)</f>
+        <v>-16148.699999999999</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="9">
+        <v>51441</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="74">
+        <f>SUM($F$3:F35)</f>
+        <v>-11708.7</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="9">
+        <v>51806</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="74">
+        <f>SUM($F$3:F36)</f>
+        <v>-7268.7000000000025</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="9">
+        <v>52171</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="74">
+        <f>SUM($F$3:F37)</f>
+        <v>-2828.7000000000044</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="9">
+        <v>52536</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="74">
+        <f>SUM($F$3:F38)</f>
+        <v>1611.2999999999938</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="9">
+        <v>52902</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="1"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="74">
+        <f>SUM($F$3:F39)</f>
+        <v>73611.299999999988</v>
+      </c>
+      <c r="C39" s="2">
+        <f>XIRR(F3:F39,E3:E39)</f>
+        <v>4.5083108544349673E-2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="9">
+        <v>53267</v>
+      </c>
+      <c r="F39" s="10">
+        <f>-F3</f>
+        <v>72000</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="74"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="75"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="L43" s="75"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="75"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="75"/>
+      <c r="L45" s="75"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L46" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE92DED-8F26-4A65-8C24-604F3A0DE6B0}">
+  <dimension ref="A2:N46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1" style="51" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="51" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="11"/>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="47">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="9">
+        <v>45597</v>
+      </c>
+      <c r="F3" s="10">
+        <f>-24%*I2</f>
+        <v>-72000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="49">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9">
+        <v>45689</v>
+      </c>
+      <c r="F4" s="10">
+        <f>I3*I2</f>
+        <v>5610</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="48">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9">
+        <v>46174</v>
+      </c>
+      <c r="F6" s="10">
+        <f>-K28</f>
+        <v>-17618.7</v>
+      </c>
+      <c r="G6" s="80"/>
+      <c r="H6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="82"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="47">
+        <v>228000</v>
+      </c>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="52">
+        <f>SUM($F$3:F8)</f>
+        <v>-83638.7</v>
+      </c>
+      <c r="C8" s="53">
+        <f>B8-$F$3</f>
+        <v>-11638.699999999997</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9">
+        <v>46692</v>
+      </c>
+      <c r="F8" s="10">
+        <f>($I$4*$I$2-$I$8*$I$7)/12</f>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="52">
+        <f>SUM($F$3:F9)</f>
+        <v>-83268.7</v>
+      </c>
+      <c r="C9" s="53">
+        <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
+        <v>-11268.699999999997</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="9">
+        <v>46722</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" ref="F9:F19" si="1">($I$4*$I$2-$I$8*$I$7)/12</f>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="G9" s="75"/>
+    </row>
+    <row r="10" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="52">
+        <f>SUM($F$3:F10)</f>
+        <v>-82898.7</v>
+      </c>
+      <c r="C10" s="53">
+        <f t="shared" si="0"/>
+        <v>-10898.699999999997</v>
+      </c>
+      <c r="E10" s="9">
+        <v>46753</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52">
+        <f>SUM($F$3:F11)</f>
+        <v>-82528.7</v>
+      </c>
+      <c r="C11" s="53">
+        <f t="shared" si="0"/>
+        <v>-10528.699999999997</v>
+      </c>
+      <c r="E11" s="9">
+        <v>46784</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52">
+        <f>SUM($F$3:F12)</f>
+        <v>-82158.7</v>
+      </c>
+      <c r="C12" s="53">
+        <f t="shared" si="0"/>
+        <v>-10158.699999999997</v>
+      </c>
+      <c r="E12" s="9">
+        <v>46813</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="52">
+        <f>SUM($F$3:F13)</f>
+        <v>-81788.7</v>
+      </c>
+      <c r="C13" s="53">
+        <f t="shared" si="0"/>
+        <v>-9788.6999999999971</v>
+      </c>
+      <c r="E13" s="9">
+        <v>46844</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="52">
+        <f>SUM($F$3:F14)</f>
+        <v>-81418.7</v>
+      </c>
+      <c r="C14" s="53">
+        <f t="shared" si="0"/>
+        <v>-9418.6999999999971</v>
+      </c>
+      <c r="E14" s="9">
+        <v>46874</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="52">
+        <f>SUM($F$3:F15)</f>
+        <v>-81048.7</v>
+      </c>
+      <c r="C15" s="53">
+        <f t="shared" si="0"/>
+        <v>-9048.6999999999971</v>
+      </c>
+      <c r="E15" s="9">
+        <v>46905</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="52">
+        <f>SUM($F$3:F16)</f>
+        <v>-80678.7</v>
+      </c>
+      <c r="C16" s="53">
+        <f t="shared" si="0"/>
+        <v>-8678.6999999999971</v>
+      </c>
+      <c r="E16" s="9">
+        <v>46935</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="1"/>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="52">
+        <f>SUM($F$3:F17)</f>
+        <v>-80308.7</v>
+      </c>
+      <c r="C17" s="53">
+        <f t="shared" si="0"/>
+        <v>-8308.6999999999971</v>
+      </c>
+      <c r="E17" s="9">
+        <v>46966</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="52">
+        <f>SUM($F$3:F18)</f>
+        <v>-79938.7</v>
+      </c>
+      <c r="C18" s="53">
+        <f t="shared" si="0"/>
+        <v>-7938.6999999999971</v>
+      </c>
+      <c r="E18" s="9">
+        <v>46997</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="103">
+        <f>SUM($F$3:F19)</f>
+        <v>-79568.7</v>
+      </c>
+      <c r="C19" s="104">
+        <f t="shared" si="0"/>
+        <v>-7568.6999999999971</v>
+      </c>
+      <c r="E19" s="9">
+        <v>47027</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="1"/>
+        <v>369.99999999999983</v>
+      </c>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="5">
+        <f>SUM($F$3:F22)</f>
+        <v>-75128.7</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9">
+        <v>47058</v>
+      </c>
+      <c r="F22" s="10">
+        <f>$I$4*$I$2-$I$8*$I$7</f>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <f>SUM($F$3:F23)</f>
+        <v>-70688.7</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9">
+        <v>47423</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" ref="F23:F38" si="2">$I$4*$I$2-$I$8*$I$7</f>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <f>SUM($F$3:F24)</f>
+        <v>-66248.7</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="9">
+        <v>47788</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <f>SUM($F$3:F25)</f>
+        <v>-61808.7</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9">
+        <v>48153</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="12">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K25" s="47">
+        <f>$I$7*LEFT(I25,2)/12*J25</f>
+        <v>4326.3</v>
+      </c>
+      <c r="L25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <f>SUM($F$3:F26)</f>
+        <v>-57368.7</v>
+      </c>
+      <c r="C26" s="25">
+        <f>-F26/F3</f>
+        <v>6.166666666666664E-2</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="9">
+        <v>48519</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="12">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K26" s="47">
+        <f>$I$7*LEFT(I26,2)/12*J26</f>
+        <v>5312.4000000000005</v>
+      </c>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <f>SUM($F$3:F27)</f>
+        <v>-52928.7</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="9">
+        <v>48884</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="12">
+        <f>I6</f>
+        <v>0.03</v>
+      </c>
+      <c r="K27" s="58">
+        <f>$I$7*LEFT(I27,2)/12*J27</f>
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <f>SUM($F$3:F28)</f>
+        <v>-48488.7</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="9">
+        <v>49249</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57">
+        <f>SUM(K25:K27)</f>
+        <v>17618.7</v>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <f>SUM($F$3:F29)</f>
+        <v>-44048.7</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="9">
+        <v>49614</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <f>SUM($F$3:F30)</f>
+        <v>-39608.699999999997</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="9">
+        <v>49980</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <f>SUM($F$3:F31)</f>
+        <v>-35168.699999999997</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="9">
+        <v>50345</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <f>SUM($F$3:F32)</f>
+        <v>-30728.699999999997</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="9">
+        <v>50710</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <f>SUM($F$3:F33)</f>
+        <v>-26288.699999999997</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9">
+        <v>51075</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <f>SUM($F$3:F34)</f>
+        <v>-21848.699999999997</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="9">
+        <v>51441</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <f>SUM($F$3:F35)</f>
+        <v>-17408.699999999997</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="9">
+        <v>51806</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <f>SUM($F$3:F36)</f>
+        <v>-12968.699999999999</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="9">
+        <v>52171</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <f>SUM($F$3:F37)</f>
+        <v>-8528.7000000000007</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="9">
+        <v>52536</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <f>SUM($F$3:F38)</f>
+        <v>-4088.7000000000025</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="9">
+        <v>52902</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
+        <f>SUM($F$3:F39)</f>
+        <v>67911.3</v>
+      </c>
+      <c r="C39" s="2">
+        <f>XIRR(F3:F39,E3:E39)</f>
+        <v>4.0404370427131672E-2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="9">
+        <v>53267</v>
+      </c>
+      <c r="F39" s="10">
+        <f>-F3</f>
+        <v>72000</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B97558D-340A-4915-9138-05C94A67D7D4}">
   <dimension ref="B2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2666,7 +3658,7 @@
     <col min="9" max="9" width="9.140625" style="26"/>
     <col min="10" max="10" width="6.140625" style="26" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="60" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="26"/>
   </cols>
@@ -2690,7 +3682,7 @@
       <c r="E3" s="43">
         <v>45658</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="61">
         <f>I7-I2</f>
         <v>-60774</v>
       </c>
@@ -2700,7 +3692,7 @@
       <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="72">
         <v>0.01</v>
       </c>
     </row>
@@ -2711,7 +3703,7 @@
       <c r="E4" s="43">
         <v>45717</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="61">
         <f>I3*I2</f>
         <v>2507.7400000000002</v>
       </c>
@@ -2721,89 +3713,89 @@
       <c r="H4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="71">
         <v>3.2554E-2</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="92" t="s">
+      <c r="E5" s="62"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="96" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="83" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="43">
         <v>46082</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="61">
         <f>-K16</f>
         <v>-12381.666666666666</v>
       </c>
-      <c r="G6" s="92"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="35" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="37">
         <v>0.03</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="79"/>
-      <c r="C7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="41"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="92"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="96"/>
       <c r="H7" s="35" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="36">
         <v>190000</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="65">
+      <c r="B8" s="63">
         <f>SUM($F$3:F8)</f>
         <v>-62484.229870666662</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="64">
         <f>B8-F3</f>
         <v>-1710.2298706666625</v>
       </c>
@@ -2813,7 +3805,7 @@
       <c r="E8" s="43">
         <v>46569</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="61">
         <f>I4*$I$2</f>
         <v>8163.6967960000002</v>
       </c>
@@ -2826,19 +3818,19 @@
       <c r="I8" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="E9" s="43"/>
-      <c r="F9" s="63"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -2846,7 +3838,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="43"/>
-      <c r="F10" s="63"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="32"/>
       <c r="L10" s="26"/>
     </row>
@@ -2860,7 +3852,7 @@
       <c r="E11" s="43">
         <v>46935</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="61">
         <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
@@ -2875,7 +3867,7 @@
       <c r="E12" s="43">
         <v>47300</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="61">
         <f t="shared" ref="F12:F27" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.6967960000002</v>
       </c>
@@ -2885,7 +3877,7 @@
       <c r="K12" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="60" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2899,11 +3891,11 @@
       <c r="E13" s="43">
         <v>47665</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="67" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="35" t="s">
@@ -2930,11 +3922,11 @@
       <c r="E14" s="43">
         <v>48030</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="67" t="s">
         <v>72</v>
       </c>
       <c r="I14" s="35" t="s">
@@ -2962,11 +3954,11 @@
       <c r="E15" s="43">
         <v>48396</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="67" t="s">
         <v>73</v>
       </c>
       <c r="I15" s="35" t="s">
@@ -2976,7 +3968,7 @@
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="68">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
@@ -2991,14 +3983,14 @@
       <c r="E16" s="43">
         <v>48761</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72">
+      <c r="J16" s="69"/>
+      <c r="K16" s="70">
         <f>SUM(K13:K15)</f>
         <v>12381.666666666666</v>
       </c>
@@ -3014,7 +4006,7 @@
       <c r="E17" s="43">
         <v>49126</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3029,7 +4021,7 @@
       <c r="E18" s="43">
         <v>49491</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3044,7 +4036,7 @@
       <c r="E19" s="43">
         <v>49857</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3059,7 +4051,7 @@
       <c r="E20" s="43">
         <v>50222</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3074,7 +4066,7 @@
       <c r="E21" s="43">
         <v>50587</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3089,7 +4081,7 @@
       <c r="E22" s="43">
         <v>50952</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3104,7 +4096,7 @@
       <c r="E23" s="43">
         <v>51318</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3119,7 +4111,7 @@
       <c r="E24" s="43">
         <v>51683</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3134,7 +4126,7 @@
       <c r="E25" s="43">
         <v>52048</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3149,7 +4141,7 @@
       <c r="E26" s="43">
         <v>52413</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3166,7 +4158,7 @@
       <c r="E27" s="43">
         <v>52779</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="61">
         <f t="shared" si="0"/>
         <v>3413.6967960000002</v>
       </c>
@@ -3186,7 +4178,7 @@
       <c r="E28" s="43">
         <v>52779</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="61">
         <f>ABS(F3)+14000</f>
         <v>74774</v>
       </c>
@@ -3202,68 +4194,68 @@
       <c r="D29" s="28"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3285,7 +4277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
   <dimension ref="A2:L32"/>
   <sheetViews>
@@ -3415,10 +4407,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -3746,7 +4738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -3850,7 +4842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -3893,22 +4885,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3917,22 +4909,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3941,20 +4933,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3963,20 +4955,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805EC362-C5E7-49CC-B255-21A452975646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED99938-A865-42B2-9AD0-43CCEE63E204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId1"/>
@@ -767,26 +767,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -814,6 +799,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -824,11 +829,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1701,11 +1701,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -1722,9 +1722,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -1766,7 +1766,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="93" t="s">
+      <c r="H27" s="88" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -1789,7 +1789,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="94"/>
+      <c r="H28" s="89"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="94"/>
+      <c r="H29" s="89"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="94"/>
+      <c r="H30" s="89"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="94"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="94"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -1902,7 +1902,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="94"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -1930,7 +1930,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="94"/>
+      <c r="H34" s="89"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="89"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="94"/>
+      <c r="H36" s="89"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="94"/>
+      <c r="H37" s="89"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="95"/>
+      <c r="H38" s="90"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -2036,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FD1CF9-B16D-47AD-9A5E-DD6D9370A5FE}">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2111,13 +2111,13 @@
       <c r="I4" s="48">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="74"/>
@@ -2125,17 +2125,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="95" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="98" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -2146,39 +2146,39 @@
         <f>-K28</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="12">
         <v>0.03</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="82"/>
-      <c r="C7" s="84"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="80"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I7" s="47">
         <v>228000</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="52">
@@ -2199,22 +2199,22 @@
         <f>$I$4*$I$2</f>
         <v>10139.999999999998</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="77" t="s">
         <v>66</v>
       </c>
       <c r="I8" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J8" s="85" t="s">
+      <c r="J8" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="52">
@@ -2357,11 +2357,11 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="103">
+      <c r="B19" s="80">
         <f>SUM($F$3:F19)</f>
         <v>-73868.7</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="81">
         <f t="shared" si="0"/>
         <v>-1868.6999999999971</v>
       </c>
@@ -2371,8 +2371,8 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
@@ -2800,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE92DED-8F26-4A65-8C24-604F3A0DE6B0}">
   <dimension ref="A2:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2873,13 +2873,13 @@
       <c r="I4" s="48">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -2887,17 +2887,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="95" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="98" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -2908,48 +2908,48 @@
         <f>-K28</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="12">
         <v>0.03</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="82"/>
-      <c r="C7" s="84"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="80"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I7" s="47">
         <v>228000</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="52">
         <f>SUM($F$3:F8)</f>
-        <v>-83638.7</v>
+        <v>-83733.7</v>
       </c>
       <c r="C8" s="53">
         <f>B8-$F$3</f>
-        <v>-11638.699999999997</v>
+        <v>-11733.699999999997</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>69</v>
@@ -2958,228 +2958,228 @@
         <v>46692</v>
       </c>
       <c r="F8" s="10">
-        <f>($I$4*$I$2-$I$8*$I$7)/12</f>
-        <v>369.99999999999983</v>
-      </c>
-      <c r="G8" s="102" t="s">
+        <f>($I$4*$I$2-$I$6*$I$7)/12</f>
+        <v>274.99999999999983</v>
+      </c>
+      <c r="G8" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="77" t="s">
         <v>66</v>
       </c>
       <c r="I8" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J8" s="85" t="s">
+      <c r="J8" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="52">
         <f>SUM($F$3:F9)</f>
-        <v>-83268.7</v>
+        <v>-83458.7</v>
       </c>
       <c r="C9" s="53">
         <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
-        <v>-11268.699999999997</v>
+        <v>-11458.699999999997</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="9">
         <v>46722</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" ref="F9:F19" si="1">($I$4*$I$2-$I$8*$I$7)/12</f>
-        <v>369.99999999999983</v>
+        <f t="shared" ref="F9:F19" si="1">($I$4*$I$2-$I$6*$I$7)/12</f>
+        <v>274.99999999999983</v>
       </c>
       <c r="G9" s="75"/>
     </row>
     <row r="10" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52">
         <f>SUM($F$3:F10)</f>
-        <v>-82898.7</v>
+        <v>-83183.7</v>
       </c>
       <c r="C10" s="53">
         <f t="shared" si="0"/>
-        <v>-10898.699999999997</v>
+        <v>-11183.699999999997</v>
       </c>
       <c r="E10" s="9">
         <v>46753</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>369.99999999999983</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52">
         <f>SUM($F$3:F11)</f>
-        <v>-82528.7</v>
+        <v>-82908.7</v>
       </c>
       <c r="C11" s="53">
         <f t="shared" si="0"/>
-        <v>-10528.699999999997</v>
+        <v>-10908.699999999997</v>
       </c>
       <c r="E11" s="9">
         <v>46784</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>369.99999999999983</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L11" s="16"/>
     </row>
     <row r="12" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52">
         <f>SUM($F$3:F12)</f>
-        <v>-82158.7</v>
+        <v>-82633.7</v>
       </c>
       <c r="C12" s="53">
         <f t="shared" si="0"/>
-        <v>-10158.699999999997</v>
+        <v>-10633.699999999997</v>
       </c>
       <c r="E12" s="9">
         <v>46813</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>369.99999999999983</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L12" s="16"/>
     </row>
     <row r="13" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52">
         <f>SUM($F$3:F13)</f>
-        <v>-81788.7</v>
+        <v>-82358.7</v>
       </c>
       <c r="C13" s="53">
         <f t="shared" si="0"/>
-        <v>-9788.6999999999971</v>
+        <v>-10358.699999999997</v>
       </c>
       <c r="E13" s="9">
         <v>46844</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>369.99999999999983</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L13" s="16"/>
     </row>
     <row r="14" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52">
         <f>SUM($F$3:F14)</f>
-        <v>-81418.7</v>
+        <v>-82083.7</v>
       </c>
       <c r="C14" s="53">
         <f t="shared" si="0"/>
-        <v>-9418.6999999999971</v>
+        <v>-10083.699999999997</v>
       </c>
       <c r="E14" s="9">
         <v>46874</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>369.99999999999983</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L14" s="16"/>
     </row>
     <row r="15" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52">
         <f>SUM($F$3:F15)</f>
-        <v>-81048.7</v>
+        <v>-81808.7</v>
       </c>
       <c r="C15" s="53">
         <f t="shared" si="0"/>
-        <v>-9048.6999999999971</v>
+        <v>-9808.6999999999971</v>
       </c>
       <c r="E15" s="9">
         <v>46905</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>369.99999999999983</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L15" s="16"/>
     </row>
     <row r="16" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52">
         <f>SUM($F$3:F16)</f>
-        <v>-80678.7</v>
+        <v>-81533.7</v>
       </c>
       <c r="C16" s="53">
         <f t="shared" si="0"/>
-        <v>-8678.6999999999971</v>
+        <v>-9533.6999999999971</v>
       </c>
       <c r="E16" s="9">
         <v>46935</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>369.99999999999983</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="52">
         <f>SUM($F$3:F17)</f>
-        <v>-80308.7</v>
+        <v>-81258.7</v>
       </c>
       <c r="C17" s="53">
         <f t="shared" si="0"/>
-        <v>-8308.6999999999971</v>
+        <v>-9258.6999999999971</v>
       </c>
       <c r="E17" s="9">
         <v>46966</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>369.99999999999983</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="52">
         <f>SUM($F$3:F18)</f>
-        <v>-79938.7</v>
+        <v>-80983.7</v>
       </c>
       <c r="C18" s="53">
         <f t="shared" si="0"/>
-        <v>-7938.6999999999971</v>
+        <v>-8983.6999999999971</v>
       </c>
       <c r="E18" s="9">
         <v>46997</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>369.99999999999983</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="103">
+      <c r="B19" s="80">
         <f>SUM($F$3:F19)</f>
-        <v>-79568.7</v>
-      </c>
-      <c r="C19" s="104">
-        <f t="shared" si="0"/>
-        <v>-7568.6999999999971</v>
+        <v>-80708.7</v>
+      </c>
+      <c r="C19" s="81">
+        <f t="shared" si="0"/>
+        <v>-8708.6999999999971</v>
       </c>
       <c r="E19" s="9">
         <v>47027</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="1"/>
-        <v>369.99999999999983</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="L20" s="16"/>
@@ -3199,7 +3199,7 @@
       <c r="A22" s="51"/>
       <c r="B22" s="5">
         <f>SUM($F$3:F22)</f>
-        <v>-75128.7</v>
+        <v>-76268.7</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3217,7 +3217,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f>SUM($F$3:F23)</f>
-        <v>-70688.7</v>
+        <v>-71828.7</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3232,7 +3232,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f>SUM($F$3:F24)</f>
-        <v>-66248.7</v>
+        <v>-67388.7</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3256,7 +3256,7 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f>SUM($F$3:F25)</f>
-        <v>-61808.7</v>
+        <v>-62948.7</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>67</v>
@@ -3289,7 +3289,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f>SUM($F$3:F26)</f>
-        <v>-57368.7</v>
+        <v>-58508.7</v>
       </c>
       <c r="C26" s="25">
         <f>-F26/F3</f>
@@ -3321,7 +3321,7 @@
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <f>SUM($F$3:F27)</f>
-        <v>-52928.7</v>
+        <v>-54068.7</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3350,7 +3350,7 @@
     <row r="28" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f>SUM($F$3:F28)</f>
-        <v>-48488.7</v>
+        <v>-49628.7</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3373,7 +3373,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <f>SUM($F$3:F29)</f>
-        <v>-44048.7</v>
+        <v>-45188.7</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3388,7 +3388,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <f>SUM($F$3:F30)</f>
-        <v>-39608.699999999997</v>
+        <v>-40748.699999999997</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3403,7 +3403,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <f>SUM($F$3:F31)</f>
-        <v>-35168.699999999997</v>
+        <v>-36308.699999999997</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3418,7 +3418,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <f>SUM($F$3:F32)</f>
-        <v>-30728.699999999997</v>
+        <v>-31868.699999999997</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3433,7 +3433,7 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <f>SUM($F$3:F33)</f>
-        <v>-26288.699999999997</v>
+        <v>-27428.699999999997</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3448,7 +3448,7 @@
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <f>SUM($F$3:F34)</f>
-        <v>-21848.699999999997</v>
+        <v>-22988.699999999997</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3463,7 +3463,7 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <f>SUM($F$3:F35)</f>
-        <v>-17408.699999999997</v>
+        <v>-18548.699999999997</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3478,7 +3478,7 @@
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <f>SUM($F$3:F36)</f>
-        <v>-12968.699999999999</v>
+        <v>-14108.699999999999</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3493,7 +3493,7 @@
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <f>SUM($F$3:F37)</f>
-        <v>-8528.7000000000007</v>
+        <v>-9668.7000000000007</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3508,7 +3508,7 @@
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <f>SUM($F$3:F38)</f>
-        <v>-4088.7000000000025</v>
+        <v>-5228.7000000000025</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>5</v>
@@ -3525,11 +3525,11 @@
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <f>SUM($F$3:F39)</f>
-        <v>67911.3</v>
+        <v>66771.3</v>
       </c>
       <c r="C39" s="2">
         <f>XIRR(F3:F39,E3:E39)</f>
-        <v>4.0404370427131672E-2</v>
+        <v>3.9528945088386544E-2</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>69</v>
@@ -3624,13 +3624,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J8:N8"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3716,13 +3716,13 @@
       <c r="I4" s="71">
         <v>3.2554E-2</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
@@ -3730,22 +3730,22 @@
       <c r="D5" s="28"/>
       <c r="E5" s="62"/>
       <c r="F5" s="61"/>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="101" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="98" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="28"/>
@@ -3756,39 +3756,39 @@
         <f>-K16</f>
         <v>-12381.666666666666</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="35" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="37">
         <v>0.03</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="82"/>
-      <c r="C7" s="84"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="41"/>
       <c r="E7" s="62"/>
       <c r="F7" s="61"/>
-      <c r="G7" s="96"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="35" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="36">
         <v>190000</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="63">
@@ -3818,13 +3818,13 @@
       <c r="I8" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J8" s="85" t="s">
+      <c r="J8" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="65"/>
@@ -4194,76 +4194,71 @@
       <c r="D29" s="28"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
     <mergeCell ref="B34:N34"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B6:B7"/>
@@ -4271,6 +4266,11 @@
     <mergeCell ref="B31:N31"/>
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="B33:N33"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4407,10 +4407,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -4885,22 +4885,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4909,22 +4909,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -4933,20 +4933,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -4955,20 +4955,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED99938-A865-42B2-9AD0-43CCEE63E204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C792B27-EDC6-40E0-8E0D-B48A865CE92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="FWD300.old" sheetId="11" r:id="rId2"/>
-    <sheet name="FWD300" sheetId="9" r:id="rId3"/>
-    <sheet name="FLI250" sheetId="10" r:id="rId4"/>
-    <sheet name="FLI2PF 317" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="FLI2" sheetId="1" r:id="rId6"/>
-    <sheet name="xirr test" sheetId="3" r:id="rId7"/>
+    <sheet name="FWD300" sheetId="9" r:id="rId2"/>
+    <sheet name="FLI250" sheetId="10" r:id="rId3"/>
+    <sheet name="FLI2PF 317" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="FLI2" sheetId="1" r:id="rId5"/>
+    <sheet name="xirr test" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>total prem</t>
   </si>
@@ -407,6 +406,9 @@
   </si>
   <si>
     <t>switch to annual payout</t>
+  </si>
+  <si>
+    <t>switch to long-term LIR</t>
   </si>
 </sst>
 </file>
@@ -653,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -763,10 +765,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -818,11 +818,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1701,11 +1701,11 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="17">
         <f>SUM(E3:E23)</f>
         <v>10601.86666</v>
@@ -1722,9 +1722,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="12">
         <f>XIRR(E3:E23,C3:C23)</f>
         <v>3.9722254872322102E-2</v>
@@ -1766,7 +1766,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="86" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="7"/>
@@ -1789,7 +1789,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H28" s="89"/>
+      <c r="H28" s="87"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H29" s="89"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H30" s="89"/>
+      <c r="H30" s="87"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <f>3.391%*$K$7</f>
         <v>0</v>
       </c>
-      <c r="H31" s="89"/>
+      <c r="H31" s="87"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
       <c r="G32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="89"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>37</v>
@@ -1902,7 +1902,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="89"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
         <v>39</v>
@@ -1930,7 +1930,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="89"/>
+      <c r="H34" s="87"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="89"/>
+      <c r="H35" s="87"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="89"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="89"/>
+      <c r="H37" s="87"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>3274.9999999999991</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="90"/>
+      <c r="H38" s="88"/>
       <c r="I38" s="7"/>
     </row>
     <row r="40" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -2033,775 +2033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FD1CF9-B16D-47AD-9A5E-DD6D9370A5FE}">
-  <dimension ref="B2:N46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1" style="75" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="75" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="75" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="75"/>
-    <col min="10" max="10" width="6.140625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="75"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="11"/>
-      <c r="F2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="47">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="9">
-        <v>45597</v>
-      </c>
-      <c r="F3" s="10">
-        <f>-24%*I2</f>
-        <v>-72000</v>
-      </c>
-      <c r="G3" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="49">
-        <v>1.8700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="9">
-        <v>45689</v>
-      </c>
-      <c r="F4" s="10">
-        <f>I3*I2</f>
-        <v>5610</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="48">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="J4" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="9">
-        <v>46174</v>
-      </c>
-      <c r="F6" s="10">
-        <f>-K28</f>
-        <v>-17618.7</v>
-      </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="J6" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="97"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="47">
-        <v>228000</v>
-      </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="52">
-        <f>SUM($F$3:F8)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C8" s="53">
-        <f>B8-$F$3</f>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="9">
-        <v>46692</v>
-      </c>
-      <c r="F8" s="10">
-        <f>$I$4*$I$2</f>
-        <v>10139.999999999998</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J8" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="52">
-        <f>SUM($F$3:F9)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C9" s="53">
-        <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E9" s="9">
-        <v>46722</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="52">
-        <f>SUM($F$3:F10)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C10" s="53">
-        <f t="shared" si="0"/>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E10" s="9">
-        <v>46753</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="52">
-        <f>SUM($F$3:F11)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C11" s="53">
-        <f t="shared" si="0"/>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E11" s="9">
-        <v>46784</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="52">
-        <f>SUM($F$3:F12)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C12" s="53">
-        <f t="shared" si="0"/>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E12" s="9">
-        <v>46813</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="52">
-        <f>SUM($F$3:F13)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C13" s="53">
-        <f t="shared" si="0"/>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E13" s="9">
-        <v>46844</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="52">
-        <f>SUM($F$3:F14)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C14" s="53">
-        <f t="shared" si="0"/>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E14" s="9">
-        <v>46874</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="52">
-        <f>SUM($F$3:F15)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C15" s="53">
-        <f t="shared" si="0"/>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E15" s="9">
-        <v>46905</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="52">
-        <f>SUM($F$3:F16)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C16" s="53">
-        <f t="shared" si="0"/>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E16" s="9">
-        <v>46935</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="52">
-        <f>SUM($F$3:F17)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C17" s="53">
-        <f t="shared" si="0"/>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E17" s="9">
-        <v>46966</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="52">
-        <f>SUM($F$3:F18)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C18" s="53">
-        <f t="shared" si="0"/>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E18" s="9">
-        <v>46997</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="80">
-        <f>SUM($F$3:F19)</f>
-        <v>-73868.7</v>
-      </c>
-      <c r="C19" s="81">
-        <f t="shared" si="0"/>
-        <v>-1868.6999999999971</v>
-      </c>
-      <c r="E19" s="9">
-        <v>47027</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="74">
-        <f>SUM($F$3:F22)</f>
-        <v>-69428.7</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="9">
-        <v>47058</v>
-      </c>
-      <c r="F22" s="10">
-        <f>$I$4*$I$2-$I$8*$I$7</f>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="G22" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" s="75"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="74">
-        <f>SUM($F$3:F23)</f>
-        <v>-64988.7</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="9">
-        <v>47423</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" ref="F23:F38" si="1">$I$4*$I$2-$I$8*$I$7</f>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="74">
-        <f>SUM($F$3:F24)</f>
-        <v>-60548.7</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="9">
-        <v>47788</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="74">
-        <f>SUM($F$3:F25)</f>
-        <v>-56108.7</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="9">
-        <v>48153</v>
-      </c>
-      <c r="F25" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="12">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K25" s="47">
-        <f>$I$7*LEFT(I25,2)/12*J25</f>
-        <v>4326.3</v>
-      </c>
-      <c r="L25" s="75">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="74">
-        <f>SUM($F$3:F26)</f>
-        <v>-51668.7</v>
-      </c>
-      <c r="C26" s="25">
-        <f>-F26/F3</f>
-        <v>6.166666666666664E-2</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="9">
-        <v>48519</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="12">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K26" s="47">
-        <f>$I$7*LEFT(I26,2)/12*J26</f>
-        <v>5312.4000000000005</v>
-      </c>
-      <c r="L26" s="75"/>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74">
-        <f>SUM($F$3:F27)</f>
-        <v>-47228.7</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="9">
-        <v>48884</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H27" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="12">
-        <f>I6</f>
-        <v>0.03</v>
-      </c>
-      <c r="K27" s="58">
-        <f>$I$7*LEFT(I27,2)/12*J27</f>
-        <v>7980</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="74">
-        <f>SUM($F$3:F28)</f>
-        <v>-42788.7</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="9">
-        <v>49249</v>
-      </c>
-      <c r="F28" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57">
-        <f>SUM(K25:K27)</f>
-        <v>17618.7</v>
-      </c>
-      <c r="L28" s="75"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="74">
-        <f>SUM($F$3:F29)</f>
-        <v>-38348.699999999997</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="9">
-        <v>49614</v>
-      </c>
-      <c r="F29" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="74">
-        <f>SUM($F$3:F30)</f>
-        <v>-33908.699999999997</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="9">
-        <v>49980</v>
-      </c>
-      <c r="F30" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="74">
-        <f>SUM($F$3:F31)</f>
-        <v>-29468.699999999997</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="9">
-        <v>50345</v>
-      </c>
-      <c r="F31" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="74">
-        <f>SUM($F$3:F32)</f>
-        <v>-25028.699999999997</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="9">
-        <v>50710</v>
-      </c>
-      <c r="F32" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="74">
-        <f>SUM($F$3:F33)</f>
-        <v>-20588.699999999997</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="9">
-        <v>51075</v>
-      </c>
-      <c r="F33" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="74">
-        <f>SUM($F$3:F34)</f>
-        <v>-16148.699999999999</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="9">
-        <v>51441</v>
-      </c>
-      <c r="F34" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="74">
-        <f>SUM($F$3:F35)</f>
-        <v>-11708.7</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="9">
-        <v>51806</v>
-      </c>
-      <c r="F35" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="74">
-        <f>SUM($F$3:F36)</f>
-        <v>-7268.7000000000025</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="9">
-        <v>52171</v>
-      </c>
-      <c r="F36" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="74">
-        <f>SUM($F$3:F37)</f>
-        <v>-2828.7000000000044</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="9">
-        <v>52536</v>
-      </c>
-      <c r="F37" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="74">
-        <f>SUM($F$3:F38)</f>
-        <v>1611.2999999999938</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="9">
-        <v>52902</v>
-      </c>
-      <c r="F38" s="10">
-        <f t="shared" si="1"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="74">
-        <f>SUM($F$3:F39)</f>
-        <v>73611.299999999988</v>
-      </c>
-      <c r="C39" s="2">
-        <f>XIRR(F3:F39,E3:E39)</f>
-        <v>4.5083108544349673E-2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="9">
-        <v>53267</v>
-      </c>
-      <c r="F39" s="10">
-        <f>-F3</f>
-        <v>72000</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="74"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="75"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="L43" s="75"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="75"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="75"/>
-      <c r="L45" s="75"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L46" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J7:N7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE92DED-8F26-4A65-8C24-604F3A0DE6B0}">
   <dimension ref="A2:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2873,13 +2109,13 @@
       <c r="I4" s="48">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -2887,17 +2123,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="54"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="93" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="96" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2"/>
@@ -2905,42 +2141,42 @@
         <v>46174</v>
       </c>
       <c r="F6" s="10">
-        <f>-K28</f>
+        <f>-K17</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="12">
         <v>0.03</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="97"/>
-      <c r="C7" s="99"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="41"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="95"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I7" s="47">
         <v>228000</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="52">
@@ -2961,22 +2197,22 @@
         <f>($I$4*$I$2-$I$6*$I$7)/12</f>
         <v>274.99999999999983</v>
       </c>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="75" t="s">
         <v>66</v>
       </c>
       <c r="I8" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J8" s="91" t="s">
+      <c r="J8" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="52">
@@ -2987,7 +2223,7 @@
         <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
         <v>-11458.699999999997</v>
       </c>
-      <c r="D9" s="75"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="9">
         <v>46722</v>
       </c>
@@ -2995,9 +2231,9 @@
         <f t="shared" ref="F9:F19" si="1">($I$4*$I$2-$I$6*$I$7)/12</f>
         <v>274.99999999999983</v>
       </c>
-      <c r="G9" s="75"/>
-    </row>
-    <row r="10" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="2:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52">
         <f>SUM($F$3:F10)</f>
         <v>-83183.7</v>
@@ -3015,7 +2251,7 @@
       </c>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52">
         <f>SUM($F$3:F11)</f>
         <v>-82908.7</v>
@@ -3031,9 +2267,8 @@
         <f t="shared" si="1"/>
         <v>274.99999999999983</v>
       </c>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52">
         <f>SUM($F$3:F12)</f>
         <v>-82633.7</v>
@@ -3049,9 +2284,8 @@
         <f t="shared" si="1"/>
         <v>274.99999999999983</v>
       </c>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52">
         <f>SUM($F$3:F13)</f>
         <v>-82358.7</v>
@@ -3067,15 +2301,23 @@
         <f t="shared" si="1"/>
         <v>274.99999999999983</v>
       </c>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52">
         <f>SUM($F$3:F14)</f>
         <v>-82083.7</v>
       </c>
       <c r="C14" s="53">
-        <f t="shared" si="0"/>
+        <f>B14-$F$3</f>
         <v>-10083.699999999997</v>
       </c>
       <c r="E14" s="9">
@@ -3085,9 +2327,24 @@
         <f t="shared" si="1"/>
         <v>274.99999999999983</v>
       </c>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="12">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K14" s="47">
+        <f>$I$7*LEFT(I14,2)/12*J14</f>
+        <v>4326.3</v>
+      </c>
+      <c r="L14">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52">
         <f>SUM($F$3:F15)</f>
         <v>-81808.7</v>
@@ -3103,9 +2360,22 @@
         <f t="shared" si="1"/>
         <v>274.99999999999983</v>
       </c>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="2:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="12">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K15" s="47">
+        <f>$I$7*LEFT(I15,2)/12*J15</f>
+        <v>5312.4000000000005</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="2:14" s="74" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52">
         <f>SUM($F$3:F16)</f>
         <v>-81533.7</v>
@@ -3121,9 +2391,23 @@
         <f t="shared" si="1"/>
         <v>274.99999999999983</v>
       </c>
+      <c r="H16" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="12">
+        <f>I6</f>
+        <v>0.03</v>
+      </c>
+      <c r="K16" s="58">
+        <f>$I$7*LEFT(I16,2)/12*J16</f>
+        <v>7980</v>
+      </c>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="74" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="52">
         <f>SUM($F$3:F17)</f>
         <v>-81258.7</v>
@@ -3139,9 +2423,16 @@
         <f t="shared" si="1"/>
         <v>274.99999999999983</v>
       </c>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57">
+        <f>SUM(K14:K16)</f>
+        <v>17618.7</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="52">
         <f>SUM($F$3:F18)</f>
         <v>-80983.7</v>
@@ -3159,12 +2450,12 @@
       </c>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="80">
+    <row r="19" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="78">
         <f>SUM($F$3:F19)</f>
         <v>-80708.7</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="79">
         <f t="shared" si="0"/>
         <v>-8708.6999999999971</v>
       </c>
@@ -3177,14 +2468,14 @@
       </c>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
+    <row r="20" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>49</v>
       </c>
@@ -3199,7 +2490,7 @@
       <c r="A22" s="51"/>
       <c r="B22" s="5">
         <f>SUM($F$3:F22)</f>
-        <v>-76268.7</v>
+        <v>-77408.7</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3207,8 +2498,8 @@
         <v>47058</v>
       </c>
       <c r="F22" s="10">
-        <f>$I$4*$I$2-$I$8*$I$7</f>
-        <v>4439.9999999999982</v>
+        <f>$I$4*$I$2-$I$6*$I$7</f>
+        <v>3299.9999999999982</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3217,7 +2508,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f>SUM($F$3:F23)</f>
-        <v>-71828.7</v>
+        <v>-74108.7</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3225,14 +2516,14 @@
         <v>47423</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" ref="F23:F38" si="2">$I$4*$I$2-$I$8*$I$7</f>
-        <v>4439.9999999999982</v>
+        <f>$I$4*$I$2-$I$6*$I$7</f>
+        <v>3299.9999999999982</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f>SUM($F$3:F24)</f>
-        <v>-67388.7</v>
+        <v>-69668.7</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3240,23 +2531,17 @@
         <v>47788</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F23:F38" si="2">$I$4*$I$2-$I$8*$I$7</f>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>84</v>
+      <c r="G24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f>SUM($F$3:F25)</f>
-        <v>-62948.7</v>
+        <v>-65228.7</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>67</v>
@@ -3269,27 +2554,11 @@
         <f t="shared" si="2"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H25" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="12">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K25" s="47">
-        <f>$I$7*LEFT(I25,2)/12*J25</f>
-        <v>4326.3</v>
-      </c>
-      <c r="L25">
-        <v>490</v>
-      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f>SUM($F$3:F26)</f>
-        <v>-58508.7</v>
+        <v>-60788.7</v>
       </c>
       <c r="C26" s="25">
         <f>-F26/F3</f>
@@ -3303,25 +2572,11 @@
         <f t="shared" si="2"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H26" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="12">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K26" s="47">
-        <f>$I$7*LEFT(I26,2)/12*J26</f>
-        <v>5312.4000000000005</v>
-      </c>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f>SUM($F$3:F27)</f>
-        <v>-54068.7</v>
+        <v>-56348.7</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3332,25 +2587,11 @@
         <f t="shared" si="2"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H27" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="12">
-        <f>I6</f>
-        <v>0.03</v>
-      </c>
-      <c r="K27" s="58">
-        <f>$I$7*LEFT(I27,2)/12*J27</f>
-        <v>7980</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f>SUM($F$3:F28)</f>
-        <v>-49628.7</v>
+        <v>-51908.7</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3361,19 +2602,11 @@
         <f t="shared" si="2"/>
         <v>4439.9999999999982</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57">
-        <f>SUM(K25:K27)</f>
-        <v>17618.7</v>
-      </c>
-      <c r="L28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <f>SUM($F$3:F29)</f>
-        <v>-45188.7</v>
+        <v>-47468.7</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3388,7 +2621,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <f>SUM($F$3:F30)</f>
-        <v>-40748.699999999997</v>
+        <v>-43028.7</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3403,7 +2636,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <f>SUM($F$3:F31)</f>
-        <v>-36308.699999999997</v>
+        <v>-38588.699999999997</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3418,7 +2651,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <f>SUM($F$3:F32)</f>
-        <v>-31868.699999999997</v>
+        <v>-34148.699999999997</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3433,7 +2666,7 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <f>SUM($F$3:F33)</f>
-        <v>-27428.699999999997</v>
+        <v>-29708.699999999997</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3448,7 +2681,7 @@
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <f>SUM($F$3:F34)</f>
-        <v>-22988.699999999997</v>
+        <v>-25268.699999999997</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3463,7 +2696,7 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <f>SUM($F$3:F35)</f>
-        <v>-18548.699999999997</v>
+        <v>-20828.699999999997</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3478,7 +2711,7 @@
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <f>SUM($F$3:F36)</f>
-        <v>-14108.699999999999</v>
+        <v>-16388.699999999997</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3493,7 +2726,7 @@
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <f>SUM($F$3:F37)</f>
-        <v>-9668.7000000000007</v>
+        <v>-11948.699999999999</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3508,7 +2741,7 @@
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <f>SUM($F$3:F38)</f>
-        <v>-5228.7000000000025</v>
+        <v>-7508.7000000000007</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>5</v>
@@ -3525,11 +2758,11 @@
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <f>SUM($F$3:F39)</f>
-        <v>66771.3</v>
+        <v>64491.3</v>
       </c>
       <c r="C39" s="2">
         <f>XIRR(F3:F39,E3:E39)</f>
-        <v>3.9528945088386544E-2</v>
+        <v>3.7868782877922058E-2</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>69</v>
@@ -3553,74 +2786,74 @@
       <c r="I40" s="6"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3637,7 +2870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B97558D-340A-4915-9138-05C94A67D7D4}">
   <dimension ref="B2:N34"/>
   <sheetViews>
@@ -3716,7 +2949,7 @@
       <c r="I4" s="71">
         <v>3.2554E-2</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="91" t="s">
         <v>93</v>
       </c>
       <c r="K4" s="100"/>
@@ -3730,22 +2963,22 @@
       <c r="D5" s="28"/>
       <c r="E5" s="62"/>
       <c r="F5" s="61"/>
-      <c r="G5" s="101" t="s">
+      <c r="G5" s="98" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="96" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="28"/>
@@ -3756,39 +2989,39 @@
         <f>-K16</f>
         <v>-12381.666666666666</v>
       </c>
-      <c r="G6" s="101"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="35" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="37">
         <v>0.03</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="97"/>
-      <c r="C7" s="99"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="41"/>
       <c r="E7" s="62"/>
       <c r="F7" s="61"/>
-      <c r="G7" s="101"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="35" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="36">
         <v>190000</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="63">
@@ -3818,13 +3051,13 @@
       <c r="I8" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J8" s="91" t="s">
+      <c r="J8" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="65"/>
@@ -4194,71 +3427,76 @@
       <c r="D29" s="28"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
     <mergeCell ref="B34:N34"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B6:B7"/>
@@ -4266,18 +3504,13 @@
     <mergeCell ref="B31:N31"/>
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="B33:N33"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C064C-1D35-49D7-BB91-35C1078A317A}">
   <dimension ref="A2:L32"/>
   <sheetViews>
@@ -4407,10 +3640,10 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="43"/>
       <c r="D7" s="45"/>
       <c r="G7" s="35"/>
@@ -4738,7 +3971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3E085-7913-4032-AD19-3529039FBF47}">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -4842,7 +4075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96274-01E4-460C-874E-5FDFF94A143D}">
   <dimension ref="A1:R27"/>
   <sheetViews>

--- a/msff/xls/FLI2.xlsx
+++ b/msff/xls/FLI2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C792B27-EDC6-40E0-8E0D-B48A865CE92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526313F3-FB82-4459-85EB-DA590D573FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" firstSheet="1" activeTab="2" xr2:uid="{D4D1A54F-01AE-4300-8644-B16194D9355C}"/>
   </bookViews>
   <sheets>
     <sheet name="overlap ptf" sheetId="4" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
   <si>
     <t>total prem</t>
   </si>
@@ -405,10 +405,7 @@
     <t>surr val=100%</t>
   </si>
   <si>
-    <t>switch to annual payout</t>
-  </si>
-  <si>
-    <t>switch to long-term LIR</t>
+    <t>switch to annual payout and long-term LIR</t>
   </si>
 </sst>
 </file>
@@ -818,11 +815,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2034,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE92DED-8F26-4A65-8C24-604F3A0DE6B0}">
-  <dimension ref="A2:N46"/>
+  <dimension ref="A2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,7 +2460,7 @@
         <v>47027</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="1"/>
+        <f>($I$4*$I$2-$I$6*$I$7)/12</f>
         <v>274.99999999999983</v>
       </c>
       <c r="L19" s="16"/>
@@ -2490,7 +2487,7 @@
       <c r="A22" s="51"/>
       <c r="B22" s="5">
         <f>SUM($F$3:F22)</f>
-        <v>-77408.7</v>
+        <v>-76268.7</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2498,8 +2495,8 @@
         <v>47058</v>
       </c>
       <c r="F22" s="10">
-        <f>$I$4*$I$2-$I$6*$I$7</f>
-        <v>3299.9999999999982</v>
+        <f t="shared" ref="F22:F37" si="2">$I$4*$I$2-$I$8*$I$7</f>
+        <v>4439.9999999999982</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2508,7 +2505,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f>SUM($F$3:F23)</f>
-        <v>-74108.7</v>
+        <v>-71828.7</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2516,14 +2513,14 @@
         <v>47423</v>
       </c>
       <c r="F23" s="10">
-        <f>$I$4*$I$2-$I$6*$I$7</f>
-        <v>3299.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f>SUM($F$3:F24)</f>
-        <v>-69668.7</v>
+        <v>-67388.7</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2531,17 +2528,14 @@
         <v>47788</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" ref="F23:F38" si="2">$I$4*$I$2-$I$8*$I$7</f>
+        <f t="shared" si="2"/>
         <v>4439.9999999999982</v>
-      </c>
-      <c r="G24" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f>SUM($F$3:F25)</f>
-        <v>-65228.7</v>
+        <v>-62948.7</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>67</v>
@@ -2558,7 +2552,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f>SUM($F$3:F26)</f>
-        <v>-60788.7</v>
+        <v>-58508.7</v>
       </c>
       <c r="C26" s="25">
         <f>-F26/F3</f>
@@ -2576,7 +2570,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f>SUM($F$3:F27)</f>
-        <v>-56348.7</v>
+        <v>-54068.7</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2591,7 +2585,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f>SUM($F$3:F28)</f>
-        <v>-51908.7</v>
+        <v>-49628.7</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2606,7 +2600,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <f>SUM($F$3:F29)</f>
-        <v>-47468.7</v>
+        <v>-45188.7</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2621,7 +2615,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <f>SUM($F$3:F30)</f>
-        <v>-43028.7</v>
+        <v>-40748.699999999997</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2636,7 +2630,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <f>SUM($F$3:F31)</f>
-        <v>-38588.699999999997</v>
+        <v>-36308.699999999997</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2651,7 +2645,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <f>SUM($F$3:F32)</f>
-        <v>-34148.699999999997</v>
+        <v>-31868.699999999997</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2666,7 +2660,7 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <f>SUM($F$3:F33)</f>
-        <v>-29708.699999999997</v>
+        <v>-27428.699999999997</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2681,7 +2675,7 @@
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <f>SUM($F$3:F34)</f>
-        <v>-25268.699999999997</v>
+        <v>-22988.699999999997</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2696,7 +2690,7 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <f>SUM($F$3:F35)</f>
-        <v>-20828.699999999997</v>
+        <v>-18548.699999999997</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2711,7 +2705,7 @@
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <f>SUM($F$3:F36)</f>
-        <v>-16388.699999999997</v>
+        <v>-14108.699999999999</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2726,9 +2720,11 @@
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <f>SUM($F$3:F37)</f>
-        <v>-11948.699999999999</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>-9668.7000000000007</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="9">
         <v>52536</v>
@@ -2741,103 +2737,93 @@
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <f>SUM($F$3:F38)</f>
-        <v>-7508.7000000000007</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
+        <v>62331.3</v>
+      </c>
+      <c r="C38" s="2">
+        <f>XIRR(F3:F38,E3:E38)</f>
+        <v>3.8820305466651939E-2</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="9">
         <v>52902</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="5">
-        <f>SUM($F$3:F39)</f>
-        <v>64491.3</v>
-      </c>
-      <c r="C39" s="2">
-        <f>XIRR(F3:F39,E3:E39)</f>
-        <v>3.7868782877922058E-2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="9">
-        <v>53267</v>
-      </c>
-      <c r="F39" s="10">
         <f>-F3</f>
         <v>72000</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
+      <c r="B42" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
+      <c r="B43" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="74" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C44" s="74"/>
       <c r="D44" s="74"/>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
       <c r="G44" s="74"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
       <c r="H45" s="74"/>
       <c r="I45" s="74"/>
       <c r="J45" s="74"/>
@@ -2845,15 +2831,6 @@
       <c r="L45" s="74"/>
       <c r="M45" s="74"/>
       <c r="N45" s="74"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2874,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B97558D-340A-4915-9138-05C94A67D7D4}">
   <dimension ref="B2:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,10 +2929,10 @@
       <c r="J4" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
@@ -2963,7 +2940,7 @@
       <c r="D5" s="28"/>
       <c r="E5" s="62"/>
       <c r="F5" s="61"/>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="99" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="38"/>
@@ -2989,7 +2966,7 @@
         <f>-K16</f>
         <v>-12381.666666666666</v>
       </c>
-      <c r="G6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="35" t="s">
         <v>87</v>
       </c>
@@ -3010,7 +2987,7 @@
       <c r="D7" s="41"/>
       <c r="E7" s="62"/>
       <c r="F7" s="61"/>
-      <c r="G7" s="98"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="35" t="s">
         <v>85</v>
       </c>
@@ -3442,21 +3419,21 @@
       <c r="N31" s="90"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="90" t="s">
@@ -3492,11 +3469,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
     <mergeCell ref="B34:N34"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B6:B7"/>
@@ -3504,6 +3476,11 @@
     <mergeCell ref="B31:N31"/>
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="B33:N33"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4118,22 +4095,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4142,22 +4119,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -4166,20 +4143,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -4188,20 +4165,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
